--- a/AAII_Financials/Yearly/KT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KT_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>KT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19706500</v>
+        <v>19717100</v>
       </c>
       <c r="E8" s="3">
-        <v>19645300</v>
+        <v>19002700</v>
       </c>
       <c r="F8" s="3">
-        <v>19104700</v>
+        <v>18943700</v>
       </c>
       <c r="G8" s="3">
-        <v>18716200</v>
+        <v>18422400</v>
       </c>
       <c r="H8" s="3">
-        <v>18741800</v>
+        <v>18047800</v>
       </c>
       <c r="I8" s="3">
-        <v>20208600</v>
+        <v>18072400</v>
       </c>
       <c r="J8" s="3">
+        <v>19486900</v>
+      </c>
+      <c r="K8" s="3">
         <v>20700800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19879000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7930600</v>
+        <v>8252300</v>
       </c>
       <c r="E9" s="3">
-        <v>7765100</v>
+        <v>7647400</v>
       </c>
       <c r="F9" s="3">
-        <v>7432700</v>
+        <v>7487800</v>
       </c>
       <c r="G9" s="3">
-        <v>7399600</v>
+        <v>7167200</v>
       </c>
       <c r="H9" s="3">
-        <v>7504500</v>
+        <v>7135300</v>
       </c>
       <c r="I9" s="3">
-        <v>5772700</v>
+        <v>7236400</v>
       </c>
       <c r="J9" s="3">
+        <v>5566600</v>
+      </c>
+      <c r="K9" s="3">
         <v>5936900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6602100</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11775900</v>
+        <v>11464700</v>
       </c>
       <c r="E10" s="3">
-        <v>11880200</v>
+        <v>11355300</v>
       </c>
       <c r="F10" s="3">
-        <v>11672000</v>
+        <v>11455900</v>
       </c>
       <c r="G10" s="3">
-        <v>11316700</v>
+        <v>11255200</v>
       </c>
       <c r="H10" s="3">
-        <v>11237300</v>
+        <v>10912500</v>
       </c>
       <c r="I10" s="3">
-        <v>14435900</v>
+        <v>10836000</v>
       </c>
       <c r="J10" s="3">
+        <v>13920300</v>
+      </c>
+      <c r="K10" s="3">
         <v>14763900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13277000</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>148500</v>
+        <v>133700</v>
       </c>
       <c r="E12" s="3">
-        <v>141700</v>
+        <v>143200</v>
       </c>
       <c r="F12" s="3">
-        <v>141000</v>
+        <v>136600</v>
       </c>
       <c r="G12" s="3">
-        <v>154400</v>
+        <v>136000</v>
       </c>
       <c r="H12" s="3">
-        <v>161300</v>
+        <v>148900</v>
       </c>
       <c r="I12" s="3">
-        <v>144000</v>
+        <v>155500</v>
       </c>
       <c r="J12" s="3">
+        <v>138900</v>
+      </c>
+      <c r="K12" s="3">
         <v>257300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>277000</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>21100</v>
+        <v>91300</v>
       </c>
       <c r="E14" s="3">
-        <v>-6300</v>
+        <v>20400</v>
       </c>
       <c r="F14" s="3">
-        <v>44600</v>
+        <v>-6100</v>
       </c>
       <c r="G14" s="3">
-        <v>131500</v>
+        <v>43000</v>
       </c>
       <c r="H14" s="3">
-        <v>89900</v>
+        <v>126800</v>
       </c>
       <c r="I14" s="3">
-        <v>4200</v>
+        <v>86700</v>
       </c>
       <c r="J14" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K14" s="3">
         <v>15700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>39300</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>2756700</v>
+        <v>2947500</v>
       </c>
       <c r="E15" s="3">
-        <v>2826200</v>
+        <v>2658200</v>
       </c>
       <c r="F15" s="3">
-        <v>2810000</v>
+        <v>2725200</v>
       </c>
       <c r="G15" s="3">
-        <v>2804400</v>
+        <v>2709700</v>
       </c>
       <c r="H15" s="3">
-        <v>2793600</v>
+        <v>2704300</v>
       </c>
       <c r="I15" s="3">
-        <v>2995600</v>
+        <v>2693800</v>
       </c>
       <c r="J15" s="3">
+        <v>2888600</v>
+      </c>
+      <c r="K15" s="3">
         <v>2750200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2661700</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>18668000</v>
+        <v>18876100</v>
       </c>
       <c r="E17" s="3">
-        <v>18483700</v>
+        <v>18001300</v>
       </c>
       <c r="F17" s="3">
-        <v>17939700</v>
+        <v>17823600</v>
       </c>
       <c r="G17" s="3">
-        <v>17761700</v>
+        <v>17299000</v>
       </c>
       <c r="H17" s="3">
-        <v>19173300</v>
+        <v>17127300</v>
       </c>
       <c r="I17" s="3">
-        <v>19941200</v>
+        <v>18488500</v>
       </c>
       <c r="J17" s="3">
+        <v>19229000</v>
+      </c>
+      <c r="K17" s="3">
         <v>19292300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18090700</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1038500</v>
+        <v>841000</v>
       </c>
       <c r="E18" s="3">
-        <v>1161600</v>
+        <v>1001400</v>
       </c>
       <c r="F18" s="3">
-        <v>1165000</v>
+        <v>1120100</v>
       </c>
       <c r="G18" s="3">
-        <v>954600</v>
+        <v>1123400</v>
       </c>
       <c r="H18" s="3">
-        <v>-431500</v>
+        <v>920500</v>
       </c>
       <c r="I18" s="3">
-        <v>267400</v>
+        <v>-416000</v>
       </c>
       <c r="J18" s="3">
+        <v>257800</v>
+      </c>
+      <c r="K18" s="3">
         <v>1408400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1788400</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>127100</v>
+        <v>169800</v>
       </c>
       <c r="E20" s="3">
-        <v>-204400</v>
+        <v>122500</v>
       </c>
       <c r="F20" s="3">
-        <v>64900</v>
+        <v>-197100</v>
       </c>
       <c r="G20" s="3">
-        <v>-26000</v>
+        <v>62600</v>
       </c>
       <c r="H20" s="3">
-        <v>-285500</v>
+        <v>-25100</v>
       </c>
       <c r="I20" s="3">
-        <v>78800</v>
+        <v>-275300</v>
       </c>
       <c r="J20" s="3">
+        <v>76000</v>
+      </c>
+      <c r="K20" s="3">
         <v>177300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>92500</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4025800</v>
+        <v>3992000</v>
       </c>
       <c r="E21" s="3">
-        <v>3879200</v>
+        <v>3849600</v>
       </c>
       <c r="F21" s="3">
-        <v>4138200</v>
+        <v>3707500</v>
       </c>
       <c r="G21" s="3">
-        <v>4022500</v>
+        <v>3957500</v>
       </c>
       <c r="H21" s="3">
-        <v>2559600</v>
+        <v>3843800</v>
       </c>
       <c r="I21" s="3">
-        <v>3423800</v>
+        <v>2431000</v>
       </c>
       <c r="J21" s="3">
+        <v>3266600</v>
+      </c>
+      <c r="K21" s="3">
         <v>4402500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4547700</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>249400</v>
+        <v>217300</v>
       </c>
       <c r="E22" s="3">
-        <v>254100</v>
+        <v>240500</v>
       </c>
       <c r="F22" s="3">
-        <v>283300</v>
+        <v>245000</v>
       </c>
       <c r="G22" s="3">
-        <v>324200</v>
+        <v>273100</v>
       </c>
       <c r="H22" s="3">
-        <v>399100</v>
+        <v>312600</v>
       </c>
       <c r="I22" s="3">
-        <v>378300</v>
+        <v>384800</v>
       </c>
       <c r="J22" s="3">
+        <v>364700</v>
+      </c>
+      <c r="K22" s="3">
         <v>397300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>432500</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>916200</v>
+        <v>793500</v>
       </c>
       <c r="E23" s="3">
-        <v>703100</v>
+        <v>883500</v>
       </c>
       <c r="F23" s="3">
-        <v>946700</v>
+        <v>678000</v>
       </c>
       <c r="G23" s="3">
-        <v>604300</v>
+        <v>912900</v>
       </c>
       <c r="H23" s="3">
-        <v>-1116000</v>
+        <v>582800</v>
       </c>
       <c r="I23" s="3">
-        <v>-32100</v>
+        <v>-1076100</v>
       </c>
       <c r="J23" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="K23" s="3">
         <v>1188500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1448300</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>275900</v>
+        <v>251400</v>
       </c>
       <c r="E24" s="3">
-        <v>231400</v>
+        <v>266000</v>
       </c>
       <c r="F24" s="3">
-        <v>276500</v>
+        <v>223200</v>
       </c>
       <c r="G24" s="3">
-        <v>192600</v>
+        <v>266600</v>
       </c>
       <c r="H24" s="3">
-        <v>-231800</v>
+        <v>185700</v>
       </c>
       <c r="I24" s="3">
-        <v>41600</v>
+        <v>-223500</v>
       </c>
       <c r="J24" s="3">
+        <v>40200</v>
+      </c>
+      <c r="K24" s="3">
         <v>233400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>286600</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>640300</v>
+        <v>542200</v>
       </c>
       <c r="E26" s="3">
-        <v>471700</v>
+        <v>617500</v>
       </c>
       <c r="F26" s="3">
-        <v>670200</v>
+        <v>454800</v>
       </c>
       <c r="G26" s="3">
-        <v>411800</v>
+        <v>646300</v>
       </c>
       <c r="H26" s="3">
-        <v>-884200</v>
+        <v>397100</v>
       </c>
       <c r="I26" s="3">
-        <v>-73700</v>
+        <v>-852600</v>
       </c>
       <c r="J26" s="3">
+        <v>-71100</v>
+      </c>
+      <c r="K26" s="3">
         <v>955100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1161700</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>578300</v>
+        <v>501500</v>
       </c>
       <c r="E27" s="3">
-        <v>400500</v>
+        <v>557700</v>
       </c>
       <c r="F27" s="3">
-        <v>670200</v>
+        <v>386200</v>
       </c>
       <c r="G27" s="3">
-        <v>344900</v>
+        <v>646300</v>
       </c>
       <c r="H27" s="3">
-        <v>-939900</v>
+        <v>332600</v>
       </c>
       <c r="I27" s="3">
-        <v>-159500</v>
+        <v>-906300</v>
       </c>
       <c r="J27" s="3">
+        <v>-153800</v>
+      </c>
+      <c r="K27" s="3">
         <v>905200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1152000</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1298,27 +1358,30 @@
       <c r="E29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="3">
-        <v>-72900</v>
+      <c r="F29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G29" s="3">
-        <v>119500</v>
+        <v>-70300</v>
       </c>
       <c r="H29" s="3">
-        <v>53700</v>
+        <v>115300</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>51800</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-26500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>148400</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-127100</v>
+        <v>-169800</v>
       </c>
       <c r="E32" s="3">
-        <v>204400</v>
+        <v>-122500</v>
       </c>
       <c r="F32" s="3">
-        <v>-64900</v>
+        <v>197100</v>
       </c>
       <c r="G32" s="3">
-        <v>26000</v>
+        <v>-62600</v>
       </c>
       <c r="H32" s="3">
-        <v>285500</v>
+        <v>25100</v>
       </c>
       <c r="I32" s="3">
-        <v>-78800</v>
+        <v>275300</v>
       </c>
       <c r="J32" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-177300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-92500</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>578300</v>
+        <v>501500</v>
       </c>
       <c r="E33" s="3">
-        <v>400500</v>
+        <v>557700</v>
       </c>
       <c r="F33" s="3">
-        <v>597300</v>
+        <v>386200</v>
       </c>
       <c r="G33" s="3">
-        <v>464500</v>
+        <v>576000</v>
       </c>
       <c r="H33" s="3">
-        <v>-886200</v>
+        <v>447900</v>
       </c>
       <c r="I33" s="3">
-        <v>-159500</v>
+        <v>-854600</v>
       </c>
       <c r="J33" s="3">
+        <v>-153800</v>
+      </c>
+      <c r="K33" s="3">
         <v>878700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1300400</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>578300</v>
+        <v>501500</v>
       </c>
       <c r="E35" s="3">
-        <v>400500</v>
+        <v>557700</v>
       </c>
       <c r="F35" s="3">
-        <v>597300</v>
+        <v>386200</v>
       </c>
       <c r="G35" s="3">
-        <v>464500</v>
+        <v>576000</v>
       </c>
       <c r="H35" s="3">
-        <v>-886200</v>
+        <v>447900</v>
       </c>
       <c r="I35" s="3">
-        <v>-159500</v>
+        <v>-854600</v>
       </c>
       <c r="J35" s="3">
+        <v>-153800</v>
+      </c>
+      <c r="K35" s="3">
         <v>878700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1300400</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2270900</v>
+        <v>1867800</v>
       </c>
       <c r="E41" s="3">
-        <v>1619700</v>
+        <v>2189800</v>
       </c>
       <c r="F41" s="3">
-        <v>2436300</v>
+        <v>1561800</v>
       </c>
       <c r="G41" s="3">
-        <v>2149900</v>
+        <v>2349300</v>
       </c>
       <c r="H41" s="3">
-        <v>1586500</v>
+        <v>2073200</v>
       </c>
       <c r="I41" s="3">
-        <v>1739500</v>
+        <v>1529800</v>
       </c>
       <c r="J41" s="3">
+        <v>1677400</v>
+      </c>
+      <c r="K41" s="3">
         <v>2454100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>597300</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>835600</v>
+        <v>703400</v>
       </c>
       <c r="E42" s="3">
-        <v>817000</v>
+        <v>805800</v>
       </c>
       <c r="F42" s="3">
-        <v>605300</v>
+        <v>787800</v>
       </c>
       <c r="G42" s="3">
-        <v>246100</v>
+        <v>583600</v>
       </c>
       <c r="H42" s="3">
-        <v>279500</v>
+        <v>237300</v>
       </c>
       <c r="I42" s="3">
-        <v>403300</v>
+        <v>269500</v>
       </c>
       <c r="J42" s="3">
+        <v>388900</v>
+      </c>
+      <c r="K42" s="3">
         <v>1708200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1515700</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4881600</v>
+        <v>4839400</v>
       </c>
       <c r="E43" s="3">
-        <v>5041500</v>
+        <v>4707300</v>
       </c>
       <c r="F43" s="3">
-        <v>4480000</v>
+        <v>4861400</v>
       </c>
       <c r="G43" s="3">
-        <v>4106300</v>
+        <v>4320000</v>
       </c>
       <c r="H43" s="3">
-        <v>4858500</v>
+        <v>3959700</v>
       </c>
       <c r="I43" s="3">
-        <v>5382500</v>
+        <v>4685000</v>
       </c>
       <c r="J43" s="3">
+        <v>5190300</v>
+      </c>
+      <c r="K43" s="3">
         <v>7453300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5811000</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>574600</v>
+        <v>539100</v>
       </c>
       <c r="E44" s="3">
-        <v>384500</v>
+        <v>554000</v>
       </c>
       <c r="F44" s="3">
-        <v>317500</v>
+        <v>370800</v>
       </c>
       <c r="G44" s="3">
-        <v>441300</v>
+        <v>306200</v>
       </c>
       <c r="H44" s="3">
-        <v>351900</v>
+        <v>425500</v>
       </c>
       <c r="I44" s="3">
-        <v>565800</v>
+        <v>339300</v>
       </c>
       <c r="J44" s="3">
+        <v>545600</v>
+      </c>
+      <c r="K44" s="3">
         <v>1346800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>607300</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1428500</v>
+        <v>1688000</v>
       </c>
       <c r="E45" s="3">
-        <v>262200</v>
+        <v>1377500</v>
       </c>
       <c r="F45" s="3">
-        <v>261400</v>
+        <v>252800</v>
       </c>
       <c r="G45" s="3">
-        <v>266200</v>
+        <v>252000</v>
       </c>
       <c r="H45" s="3">
-        <v>293700</v>
+        <v>256700</v>
       </c>
       <c r="I45" s="3">
-        <v>285300</v>
+        <v>283200</v>
       </c>
       <c r="J45" s="3">
+        <v>275100</v>
+      </c>
+      <c r="K45" s="3">
         <v>305200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>280300</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9991200</v>
+        <v>9637600</v>
       </c>
       <c r="E46" s="3">
-        <v>8124800</v>
+        <v>9634300</v>
       </c>
       <c r="F46" s="3">
-        <v>8100400</v>
+        <v>7834700</v>
       </c>
       <c r="G46" s="3">
-        <v>7209900</v>
+        <v>7811100</v>
       </c>
       <c r="H46" s="3">
-        <v>7370000</v>
+        <v>6952400</v>
       </c>
       <c r="I46" s="3">
-        <v>8376400</v>
+        <v>7106800</v>
       </c>
       <c r="J46" s="3">
+        <v>8077300</v>
+      </c>
+      <c r="K46" s="3">
         <v>8834600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8811600</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1460400</v>
+        <v>1839600</v>
       </c>
       <c r="E47" s="3">
-        <v>1565100</v>
+        <v>1408200</v>
       </c>
       <c r="F47" s="3">
-        <v>1392600</v>
+        <v>1509200</v>
       </c>
       <c r="G47" s="3">
-        <v>1371300</v>
+        <v>1342800</v>
       </c>
       <c r="H47" s="3">
-        <v>2354300</v>
+        <v>1322300</v>
       </c>
       <c r="I47" s="3">
-        <v>2331500</v>
+        <v>2270200</v>
       </c>
       <c r="J47" s="3">
+        <v>2248300</v>
+      </c>
+      <c r="K47" s="3">
         <v>3649000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3468200</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11893800</v>
+        <v>12928600</v>
       </c>
       <c r="E48" s="3">
-        <v>12391600</v>
+        <v>11469100</v>
       </c>
       <c r="F48" s="3">
-        <v>12986500</v>
+        <v>11949000</v>
       </c>
       <c r="G48" s="3">
-        <v>13088000</v>
+        <v>12522700</v>
       </c>
       <c r="H48" s="3">
-        <v>14723400</v>
+        <v>12620600</v>
       </c>
       <c r="I48" s="3">
-        <v>14693700</v>
-      </c>
-      <c r="J48" s="3" t="s">
+        <v>14197500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>14168900</v>
+      </c>
+      <c r="K48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13663600</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2862000</v>
+        <v>2295600</v>
       </c>
       <c r="E49" s="3">
-        <v>2211500</v>
+        <v>2759800</v>
       </c>
       <c r="F49" s="3">
-        <v>2539200</v>
+        <v>2132500</v>
       </c>
       <c r="G49" s="3">
-        <v>2183800</v>
+        <v>2448500</v>
       </c>
       <c r="H49" s="3">
-        <v>2977000</v>
+        <v>2105800</v>
       </c>
       <c r="I49" s="3">
-        <v>3215000</v>
+        <v>2870700</v>
       </c>
       <c r="J49" s="3">
+        <v>3100200</v>
+      </c>
+      <c r="K49" s="3">
         <v>5398000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2379100</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>831200</v>
+        <v>888300</v>
       </c>
       <c r="E52" s="3">
-        <v>681000</v>
+        <v>801500</v>
       </c>
       <c r="F52" s="3">
-        <v>675100</v>
+        <v>656700</v>
       </c>
       <c r="G52" s="3">
-        <v>793600</v>
+        <v>651000</v>
       </c>
       <c r="H52" s="3">
-        <v>966700</v>
+        <v>765300</v>
       </c>
       <c r="I52" s="3">
-        <v>657500</v>
+        <v>932200</v>
       </c>
       <c r="J52" s="3">
+        <v>634000</v>
+      </c>
+      <c r="K52" s="3">
         <v>593000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>554300</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27038600</v>
+        <v>27589600</v>
       </c>
       <c r="E54" s="3">
-        <v>24974000</v>
+        <v>26073000</v>
       </c>
       <c r="F54" s="3">
-        <v>25693700</v>
+        <v>24082000</v>
       </c>
       <c r="G54" s="3">
-        <v>24646600</v>
+        <v>24776100</v>
       </c>
       <c r="H54" s="3">
-        <v>28391400</v>
+        <v>23766400</v>
       </c>
       <c r="I54" s="3">
-        <v>29274100</v>
+        <v>27377400</v>
       </c>
       <c r="J54" s="3">
+        <v>28228600</v>
+      </c>
+      <c r="K54" s="3">
         <v>29028600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28876900</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1038700</v>
+        <v>1056900</v>
       </c>
       <c r="E57" s="3">
-        <v>1175400</v>
+        <v>1001600</v>
       </c>
       <c r="F57" s="3">
-        <v>1038200</v>
+        <v>1133400</v>
       </c>
       <c r="G57" s="3">
-        <v>1083900</v>
+        <v>1001100</v>
       </c>
       <c r="H57" s="3">
-        <v>1008000</v>
+        <v>1045200</v>
       </c>
       <c r="I57" s="3">
-        <v>1442000</v>
+        <v>972000</v>
       </c>
       <c r="J57" s="3">
+        <v>1390500</v>
+      </c>
+      <c r="K57" s="3">
         <v>1531200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1471800</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1149500</v>
+        <v>960400</v>
       </c>
       <c r="E58" s="3">
-        <v>1321700</v>
+        <v>1108500</v>
       </c>
       <c r="F58" s="3">
-        <v>1528800</v>
+        <v>1274500</v>
       </c>
       <c r="G58" s="3">
-        <v>1501300</v>
+        <v>1474200</v>
       </c>
       <c r="H58" s="3">
-        <v>2499700</v>
+        <v>1447700</v>
       </c>
       <c r="I58" s="3">
-        <v>2553800</v>
+        <v>2410400</v>
       </c>
       <c r="J58" s="3">
+        <v>2462600</v>
+      </c>
+      <c r="K58" s="3">
         <v>2697300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1942700</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5697500</v>
+        <v>6173000</v>
       </c>
       <c r="E59" s="3">
-        <v>5461200</v>
+        <v>5494000</v>
       </c>
       <c r="F59" s="3">
-        <v>5384600</v>
+        <v>5266100</v>
       </c>
       <c r="G59" s="3">
-        <v>4672300</v>
+        <v>5192300</v>
       </c>
       <c r="H59" s="3">
-        <v>4881500</v>
+        <v>4505400</v>
       </c>
       <c r="I59" s="3">
-        <v>5432500</v>
+        <v>4707200</v>
       </c>
       <c r="J59" s="3">
+        <v>5238500</v>
+      </c>
+      <c r="K59" s="3">
         <v>5235600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4456100</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7885700</v>
+        <v>8190300</v>
       </c>
       <c r="E60" s="3">
-        <v>7958300</v>
+        <v>7604000</v>
       </c>
       <c r="F60" s="3">
-        <v>7951600</v>
+        <v>7674100</v>
       </c>
       <c r="G60" s="3">
-        <v>7257500</v>
+        <v>7667600</v>
       </c>
       <c r="H60" s="3">
-        <v>8389200</v>
+        <v>6998300</v>
       </c>
       <c r="I60" s="3">
-        <v>9428300</v>
+        <v>8089600</v>
       </c>
       <c r="J60" s="3">
+        <v>9091500</v>
+      </c>
+      <c r="K60" s="3">
         <v>9464100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7870600</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4435000</v>
+        <v>4951600</v>
       </c>
       <c r="E61" s="3">
-        <v>4292600</v>
+        <v>4276600</v>
       </c>
       <c r="F61" s="3">
-        <v>5292700</v>
+        <v>4139300</v>
       </c>
       <c r="G61" s="3">
-        <v>5883200</v>
+        <v>5103600</v>
       </c>
       <c r="H61" s="3">
-        <v>8311500</v>
+        <v>5673100</v>
       </c>
       <c r="I61" s="3">
-        <v>7150000</v>
+        <v>8014600</v>
       </c>
       <c r="J61" s="3">
+        <v>6894600</v>
+      </c>
+      <c r="K61" s="3">
         <v>6944000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8078500</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2343600</v>
+        <v>2146300</v>
       </c>
       <c r="E62" s="3">
-        <v>1626200</v>
+        <v>2259900</v>
       </c>
       <c r="F62" s="3">
-        <v>1701900</v>
+        <v>1568100</v>
       </c>
       <c r="G62" s="3">
-        <v>1286900</v>
+        <v>1641100</v>
       </c>
       <c r="H62" s="3">
-        <v>1789200</v>
+        <v>1240900</v>
       </c>
       <c r="I62" s="3">
-        <v>1912400</v>
+        <v>1725300</v>
       </c>
       <c r="J62" s="3">
+        <v>1844100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1517400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1643700</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15948400</v>
+        <v>16519500</v>
       </c>
       <c r="E66" s="3">
-        <v>15046100</v>
+        <v>15378800</v>
       </c>
       <c r="F66" s="3">
-        <v>16082500</v>
+        <v>14508800</v>
       </c>
       <c r="G66" s="3">
-        <v>15536700</v>
+        <v>15508100</v>
       </c>
       <c r="H66" s="3">
-        <v>19707300</v>
+        <v>14981900</v>
       </c>
       <c r="I66" s="3">
-        <v>19422800</v>
+        <v>19003400</v>
       </c>
       <c r="J66" s="3">
+        <v>18729100</v>
+      </c>
+      <c r="K66" s="3">
         <v>18688900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18343100</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9516200</v>
+        <v>9426100</v>
       </c>
       <c r="E72" s="3">
-        <v>8390300</v>
+        <v>9176400</v>
       </c>
       <c r="F72" s="3">
-        <v>8111500</v>
+        <v>8090600</v>
       </c>
       <c r="G72" s="3">
-        <v>7609800</v>
+        <v>7821800</v>
       </c>
       <c r="H72" s="3">
-        <v>7197500</v>
+        <v>7338000</v>
       </c>
       <c r="I72" s="3">
-        <v>8416300</v>
+        <v>6940400</v>
       </c>
       <c r="J72" s="3">
+        <v>8115700</v>
+      </c>
+      <c r="K72" s="3">
         <v>17885900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9197700</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11090300</v>
+        <v>11070100</v>
       </c>
       <c r="E76" s="3">
-        <v>9927800</v>
+        <v>10694200</v>
       </c>
       <c r="F76" s="3">
-        <v>9611200</v>
+        <v>9573300</v>
       </c>
       <c r="G76" s="3">
-        <v>9109900</v>
+        <v>9268000</v>
       </c>
       <c r="H76" s="3">
-        <v>8684100</v>
+        <v>8784500</v>
       </c>
       <c r="I76" s="3">
-        <v>9851300</v>
+        <v>8374000</v>
       </c>
       <c r="J76" s="3">
+        <v>9499500</v>
+      </c>
+      <c r="K76" s="3">
         <v>10339700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10533800</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>578300</v>
+        <v>501500</v>
       </c>
       <c r="E81" s="3">
-        <v>400500</v>
+        <v>557700</v>
       </c>
       <c r="F81" s="3">
-        <v>597300</v>
+        <v>386200</v>
       </c>
       <c r="G81" s="3">
-        <v>464500</v>
+        <v>576000</v>
       </c>
       <c r="H81" s="3">
-        <v>-886200</v>
+        <v>447900</v>
       </c>
       <c r="I81" s="3">
-        <v>-159500</v>
+        <v>-854600</v>
       </c>
       <c r="J81" s="3">
+        <v>-153800</v>
+      </c>
+      <c r="K81" s="3">
         <v>878700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1300400</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2826500</v>
+        <v>2981200</v>
       </c>
       <c r="E83" s="3">
-        <v>2887700</v>
+        <v>2725600</v>
       </c>
       <c r="F83" s="3">
-        <v>2874100</v>
+        <v>2784500</v>
       </c>
       <c r="G83" s="3">
-        <v>3057600</v>
+        <v>2771400</v>
       </c>
       <c r="H83" s="3">
-        <v>3238000</v>
+        <v>2948400</v>
       </c>
       <c r="I83" s="3">
-        <v>3041400</v>
+        <v>3122400</v>
       </c>
       <c r="J83" s="3">
+        <v>2932800</v>
+      </c>
+      <c r="K83" s="3">
         <v>2783600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2696800</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3368800</v>
+        <v>3033600</v>
       </c>
       <c r="E89" s="3">
-        <v>3257300</v>
+        <v>3248500</v>
       </c>
       <c r="F89" s="3">
-        <v>4007400</v>
+        <v>3141000</v>
       </c>
       <c r="G89" s="3">
-        <v>3553200</v>
+        <v>3864300</v>
       </c>
       <c r="H89" s="3">
-        <v>1609800</v>
+        <v>3426300</v>
       </c>
       <c r="I89" s="3">
-        <v>3453300</v>
+        <v>1552300</v>
       </c>
       <c r="J89" s="3">
+        <v>3330000</v>
+      </c>
+      <c r="K89" s="3">
         <v>4809400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1947600</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1899100</v>
+        <v>-2648400</v>
       </c>
       <c r="E91" s="3">
-        <v>-2051500</v>
+        <v>-1831300</v>
       </c>
       <c r="F91" s="3">
-        <v>-2322100</v>
+        <v>-1978200</v>
       </c>
       <c r="G91" s="3">
-        <v>-2617200</v>
+        <v>-2239100</v>
       </c>
       <c r="H91" s="3">
-        <v>-2396400</v>
+        <v>-2523700</v>
       </c>
       <c r="I91" s="3">
-        <v>-2594100</v>
+        <v>-2310800</v>
       </c>
       <c r="J91" s="3">
+        <v>-2501400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3158600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3155000</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2271500</v>
+        <v>-3148900</v>
       </c>
       <c r="E94" s="3">
-        <v>-2925900</v>
+        <v>-2190300</v>
       </c>
       <c r="F94" s="3">
-        <v>-2927400</v>
+        <v>-2821400</v>
       </c>
       <c r="G94" s="3">
-        <v>-2017600</v>
+        <v>-2822800</v>
       </c>
       <c r="H94" s="3">
-        <v>-2663600</v>
+        <v>-1945500</v>
       </c>
       <c r="I94" s="3">
-        <v>-3177400</v>
+        <v>-2568500</v>
       </c>
       <c r="J94" s="3">
+        <v>-3063900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3235000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2399100</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-250900</v>
+        <v>-247200</v>
       </c>
       <c r="E96" s="3">
-        <v>-204200</v>
+        <v>-241900</v>
       </c>
       <c r="F96" s="3">
-        <v>-154600</v>
+        <v>-196900</v>
       </c>
       <c r="G96" s="3">
-        <v>-34900</v>
+        <v>-149100</v>
       </c>
       <c r="H96" s="3">
-        <v>-187100</v>
+        <v>-33700</v>
       </c>
       <c r="I96" s="3">
-        <v>-429500</v>
+        <v>-180400</v>
       </c>
       <c r="J96" s="3">
+        <v>-414100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-827100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1063400</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-446600</v>
+        <v>-202300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1145300</v>
+        <v>-430700</v>
       </c>
       <c r="F100" s="3">
-        <v>-792300</v>
+        <v>-1104400</v>
       </c>
       <c r="G100" s="3">
-        <v>-977800</v>
+        <v>-764000</v>
       </c>
       <c r="H100" s="3">
-        <v>900200</v>
+        <v>-942800</v>
       </c>
       <c r="I100" s="3">
-        <v>-261900</v>
+        <v>868100</v>
       </c>
       <c r="J100" s="3">
+        <v>-252600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1073400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>695200</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
-        <v>-2600</v>
-      </c>
       <c r="F101" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1400</v>
       </c>
-      <c r="G101" s="3">
-        <v>5600</v>
-      </c>
       <c r="H101" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I101" s="3">
         <v>500</v>
       </c>
-      <c r="I101" s="3">
-        <v>-2900</v>
-      </c>
       <c r="J101" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>11500</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>651200</v>
+        <v>-322000</v>
       </c>
       <c r="E102" s="3">
-        <v>-816600</v>
+        <v>627900</v>
       </c>
       <c r="F102" s="3">
-        <v>286300</v>
+        <v>-787400</v>
       </c>
       <c r="G102" s="3">
-        <v>563500</v>
+        <v>276100</v>
       </c>
       <c r="H102" s="3">
-        <v>-153100</v>
+        <v>543300</v>
       </c>
       <c r="I102" s="3">
-        <v>11100</v>
+        <v>-147600</v>
       </c>
       <c r="J102" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K102" s="3">
         <v>500200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>255200</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/KT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KT_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19717100</v>
+        <v>20447300</v>
       </c>
       <c r="E8" s="3">
-        <v>19002700</v>
+        <v>19706500</v>
       </c>
       <c r="F8" s="3">
-        <v>18943700</v>
+        <v>19645300</v>
       </c>
       <c r="G8" s="3">
-        <v>18422400</v>
+        <v>19104700</v>
       </c>
       <c r="H8" s="3">
-        <v>18047800</v>
+        <v>18716200</v>
       </c>
       <c r="I8" s="3">
-        <v>18072400</v>
+        <v>18741800</v>
       </c>
       <c r="J8" s="3">
-        <v>19486900</v>
+        <v>20208600</v>
       </c>
       <c r="K8" s="3">
         <v>20700800</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8252300</v>
+        <v>8558000</v>
       </c>
       <c r="E9" s="3">
-        <v>7647400</v>
+        <v>7930600</v>
       </c>
       <c r="F9" s="3">
-        <v>7487800</v>
+        <v>7765100</v>
       </c>
       <c r="G9" s="3">
-        <v>7167200</v>
+        <v>7432700</v>
       </c>
       <c r="H9" s="3">
-        <v>7135300</v>
+        <v>7399600</v>
       </c>
       <c r="I9" s="3">
-        <v>7236400</v>
+        <v>7504500</v>
       </c>
       <c r="J9" s="3">
-        <v>5566600</v>
+        <v>5772700</v>
       </c>
       <c r="K9" s="3">
         <v>5936900</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11464700</v>
+        <v>11889300</v>
       </c>
       <c r="E10" s="3">
-        <v>11355300</v>
+        <v>11775900</v>
       </c>
       <c r="F10" s="3">
-        <v>11455900</v>
+        <v>11880200</v>
       </c>
       <c r="G10" s="3">
-        <v>11255200</v>
+        <v>11672000</v>
       </c>
       <c r="H10" s="3">
-        <v>10912500</v>
+        <v>11316700</v>
       </c>
       <c r="I10" s="3">
-        <v>10836000</v>
+        <v>11237300</v>
       </c>
       <c r="J10" s="3">
-        <v>13920300</v>
+        <v>14435900</v>
       </c>
       <c r="K10" s="3">
         <v>14763900</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>133700</v>
+        <v>138600</v>
       </c>
       <c r="E12" s="3">
-        <v>143200</v>
+        <v>148500</v>
       </c>
       <c r="F12" s="3">
-        <v>136600</v>
+        <v>141700</v>
       </c>
       <c r="G12" s="3">
-        <v>136000</v>
+        <v>141000</v>
       </c>
       <c r="H12" s="3">
-        <v>148900</v>
+        <v>154400</v>
       </c>
       <c r="I12" s="3">
-        <v>155500</v>
+        <v>161300</v>
       </c>
       <c r="J12" s="3">
-        <v>138900</v>
+        <v>144000</v>
       </c>
       <c r="K12" s="3">
         <v>257300</v>
@@ -897,25 +897,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>91300</v>
+        <v>94700</v>
       </c>
       <c r="E14" s="3">
-        <v>20400</v>
+        <v>21100</v>
       </c>
       <c r="F14" s="3">
-        <v>-6100</v>
+        <v>-6300</v>
       </c>
       <c r="G14" s="3">
-        <v>43000</v>
+        <v>44600</v>
       </c>
       <c r="H14" s="3">
-        <v>126800</v>
+        <v>131500</v>
       </c>
       <c r="I14" s="3">
-        <v>86700</v>
+        <v>89900</v>
       </c>
       <c r="J14" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="K14" s="3">
         <v>15700</v>
@@ -930,25 +930,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>2947500</v>
+        <v>3056700</v>
       </c>
       <c r="E15" s="3">
-        <v>2658200</v>
+        <v>2756700</v>
       </c>
       <c r="F15" s="3">
-        <v>2725200</v>
+        <v>2826200</v>
       </c>
       <c r="G15" s="3">
-        <v>2709700</v>
+        <v>2810000</v>
       </c>
       <c r="H15" s="3">
-        <v>2704300</v>
+        <v>2804400</v>
       </c>
       <c r="I15" s="3">
-        <v>2693800</v>
+        <v>2793600</v>
       </c>
       <c r="J15" s="3">
-        <v>2888600</v>
+        <v>2995600</v>
       </c>
       <c r="K15" s="3">
         <v>2750200</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>18876100</v>
+        <v>19575200</v>
       </c>
       <c r="E17" s="3">
-        <v>18001300</v>
+        <v>18668000</v>
       </c>
       <c r="F17" s="3">
-        <v>17823600</v>
+        <v>18483700</v>
       </c>
       <c r="G17" s="3">
-        <v>17299000</v>
+        <v>17939700</v>
       </c>
       <c r="H17" s="3">
-        <v>17127300</v>
+        <v>17761700</v>
       </c>
       <c r="I17" s="3">
-        <v>18488500</v>
+        <v>19173300</v>
       </c>
       <c r="J17" s="3">
-        <v>19229000</v>
+        <v>19941200</v>
       </c>
       <c r="K17" s="3">
         <v>19292300</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>841000</v>
+        <v>872200</v>
       </c>
       <c r="E18" s="3">
-        <v>1001400</v>
+        <v>1038500</v>
       </c>
       <c r="F18" s="3">
-        <v>1120100</v>
+        <v>1161600</v>
       </c>
       <c r="G18" s="3">
-        <v>1123400</v>
+        <v>1165000</v>
       </c>
       <c r="H18" s="3">
-        <v>920500</v>
+        <v>954600</v>
       </c>
       <c r="I18" s="3">
-        <v>-416000</v>
+        <v>-431500</v>
       </c>
       <c r="J18" s="3">
-        <v>257800</v>
+        <v>267400</v>
       </c>
       <c r="K18" s="3">
         <v>1408400</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>169800</v>
+        <v>176100</v>
       </c>
       <c r="E20" s="3">
-        <v>122500</v>
+        <v>127100</v>
       </c>
       <c r="F20" s="3">
-        <v>-197100</v>
+        <v>-204400</v>
       </c>
       <c r="G20" s="3">
-        <v>62600</v>
+        <v>64900</v>
       </c>
       <c r="H20" s="3">
-        <v>-25100</v>
+        <v>-26000</v>
       </c>
       <c r="I20" s="3">
-        <v>-275300</v>
+        <v>-285500</v>
       </c>
       <c r="J20" s="3">
-        <v>76000</v>
+        <v>78800</v>
       </c>
       <c r="K20" s="3">
         <v>177300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3992000</v>
+        <v>4139900</v>
       </c>
       <c r="E21" s="3">
-        <v>3849600</v>
+        <v>3992100</v>
       </c>
       <c r="F21" s="3">
-        <v>3707500</v>
+        <v>3844800</v>
       </c>
       <c r="G21" s="3">
-        <v>3957500</v>
+        <v>4104000</v>
       </c>
       <c r="H21" s="3">
-        <v>3843800</v>
+        <v>3986100</v>
       </c>
       <c r="I21" s="3">
-        <v>2431000</v>
+        <v>2521100</v>
       </c>
       <c r="J21" s="3">
-        <v>3266600</v>
+        <v>3387600</v>
       </c>
       <c r="K21" s="3">
         <v>4402500</v>
@@ -1122,25 +1122,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>217300</v>
+        <v>225300</v>
       </c>
       <c r="E22" s="3">
-        <v>240500</v>
+        <v>249400</v>
       </c>
       <c r="F22" s="3">
-        <v>245000</v>
+        <v>254100</v>
       </c>
       <c r="G22" s="3">
-        <v>273100</v>
+        <v>283300</v>
       </c>
       <c r="H22" s="3">
-        <v>312600</v>
+        <v>324200</v>
       </c>
       <c r="I22" s="3">
-        <v>384800</v>
+        <v>399100</v>
       </c>
       <c r="J22" s="3">
-        <v>364700</v>
+        <v>378300</v>
       </c>
       <c r="K22" s="3">
         <v>397300</v>
@@ -1155,25 +1155,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>793500</v>
+        <v>822900</v>
       </c>
       <c r="E23" s="3">
-        <v>883500</v>
+        <v>916200</v>
       </c>
       <c r="F23" s="3">
-        <v>678000</v>
+        <v>703100</v>
       </c>
       <c r="G23" s="3">
-        <v>912900</v>
+        <v>946700</v>
       </c>
       <c r="H23" s="3">
-        <v>582800</v>
+        <v>604300</v>
       </c>
       <c r="I23" s="3">
-        <v>-1076100</v>
+        <v>-1116000</v>
       </c>
       <c r="J23" s="3">
-        <v>-30900</v>
+        <v>-32100</v>
       </c>
       <c r="K23" s="3">
         <v>1188500</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>251400</v>
+        <v>260700</v>
       </c>
       <c r="E24" s="3">
-        <v>266000</v>
+        <v>275900</v>
       </c>
       <c r="F24" s="3">
-        <v>223200</v>
+        <v>231400</v>
       </c>
       <c r="G24" s="3">
-        <v>266600</v>
+        <v>276500</v>
       </c>
       <c r="H24" s="3">
-        <v>185700</v>
+        <v>192600</v>
       </c>
       <c r="I24" s="3">
-        <v>-223500</v>
+        <v>-231800</v>
       </c>
       <c r="J24" s="3">
-        <v>40200</v>
+        <v>41600</v>
       </c>
       <c r="K24" s="3">
         <v>233400</v>
@@ -1254,25 +1254,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>542200</v>
+        <v>562300</v>
       </c>
       <c r="E26" s="3">
-        <v>617500</v>
+        <v>640300</v>
       </c>
       <c r="F26" s="3">
-        <v>454800</v>
+        <v>471700</v>
       </c>
       <c r="G26" s="3">
-        <v>646300</v>
+        <v>670200</v>
       </c>
       <c r="H26" s="3">
-        <v>397100</v>
+        <v>411800</v>
       </c>
       <c r="I26" s="3">
-        <v>-852600</v>
+        <v>-884200</v>
       </c>
       <c r="J26" s="3">
-        <v>-71100</v>
+        <v>-73700</v>
       </c>
       <c r="K26" s="3">
         <v>955100</v>
@@ -1287,25 +1287,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>501500</v>
+        <v>520100</v>
       </c>
       <c r="E27" s="3">
-        <v>557700</v>
+        <v>578300</v>
       </c>
       <c r="F27" s="3">
-        <v>386200</v>
+        <v>400500</v>
       </c>
       <c r="G27" s="3">
-        <v>646300</v>
+        <v>670200</v>
       </c>
       <c r="H27" s="3">
-        <v>332600</v>
+        <v>344900</v>
       </c>
       <c r="I27" s="3">
-        <v>-906300</v>
+        <v>-939900</v>
       </c>
       <c r="J27" s="3">
-        <v>-153800</v>
+        <v>-159500</v>
       </c>
       <c r="K27" s="3">
         <v>905200</v>
@@ -1362,13 +1362,13 @@
         <v>24</v>
       </c>
       <c r="G29" s="3">
-        <v>-70300</v>
+        <v>-72900</v>
       </c>
       <c r="H29" s="3">
-        <v>115300</v>
+        <v>119500</v>
       </c>
       <c r="I29" s="3">
-        <v>51800</v>
+        <v>53700</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-169800</v>
+        <v>-176100</v>
       </c>
       <c r="E32" s="3">
-        <v>-122500</v>
+        <v>-127100</v>
       </c>
       <c r="F32" s="3">
-        <v>197100</v>
+        <v>204400</v>
       </c>
       <c r="G32" s="3">
-        <v>-62600</v>
+        <v>-64900</v>
       </c>
       <c r="H32" s="3">
-        <v>25100</v>
+        <v>26000</v>
       </c>
       <c r="I32" s="3">
-        <v>275300</v>
+        <v>285500</v>
       </c>
       <c r="J32" s="3">
-        <v>-76000</v>
+        <v>-78800</v>
       </c>
       <c r="K32" s="3">
         <v>-177300</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>501500</v>
+        <v>520100</v>
       </c>
       <c r="E33" s="3">
-        <v>557700</v>
+        <v>578300</v>
       </c>
       <c r="F33" s="3">
-        <v>386200</v>
+        <v>400500</v>
       </c>
       <c r="G33" s="3">
-        <v>576000</v>
+        <v>597300</v>
       </c>
       <c r="H33" s="3">
-        <v>447900</v>
+        <v>464500</v>
       </c>
       <c r="I33" s="3">
-        <v>-854600</v>
+        <v>-886200</v>
       </c>
       <c r="J33" s="3">
-        <v>-153800</v>
+        <v>-159500</v>
       </c>
       <c r="K33" s="3">
         <v>878700</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>501500</v>
+        <v>520100</v>
       </c>
       <c r="E35" s="3">
-        <v>557700</v>
+        <v>578300</v>
       </c>
       <c r="F35" s="3">
-        <v>386200</v>
+        <v>400500</v>
       </c>
       <c r="G35" s="3">
-        <v>576000</v>
+        <v>597300</v>
       </c>
       <c r="H35" s="3">
-        <v>447900</v>
+        <v>464500</v>
       </c>
       <c r="I35" s="3">
-        <v>-854600</v>
+        <v>-886200</v>
       </c>
       <c r="J35" s="3">
-        <v>-153800</v>
+        <v>-159500</v>
       </c>
       <c r="K35" s="3">
         <v>878700</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1867800</v>
+        <v>1937000</v>
       </c>
       <c r="E41" s="3">
-        <v>2189800</v>
+        <v>2270900</v>
       </c>
       <c r="F41" s="3">
-        <v>1561800</v>
+        <v>1619700</v>
       </c>
       <c r="G41" s="3">
-        <v>2349300</v>
+        <v>2436300</v>
       </c>
       <c r="H41" s="3">
-        <v>2073200</v>
+        <v>2149900</v>
       </c>
       <c r="I41" s="3">
-        <v>1529800</v>
+        <v>1586500</v>
       </c>
       <c r="J41" s="3">
-        <v>1677400</v>
+        <v>1739500</v>
       </c>
       <c r="K41" s="3">
         <v>2454100</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>703400</v>
+        <v>729400</v>
       </c>
       <c r="E42" s="3">
-        <v>805800</v>
+        <v>835600</v>
       </c>
       <c r="F42" s="3">
-        <v>787800</v>
+        <v>817000</v>
       </c>
       <c r="G42" s="3">
-        <v>583600</v>
+        <v>605300</v>
       </c>
       <c r="H42" s="3">
-        <v>237300</v>
+        <v>246100</v>
       </c>
       <c r="I42" s="3">
-        <v>269500</v>
+        <v>279500</v>
       </c>
       <c r="J42" s="3">
-        <v>388900</v>
+        <v>403300</v>
       </c>
       <c r="K42" s="3">
         <v>1708200</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4839400</v>
+        <v>5018600</v>
       </c>
       <c r="E43" s="3">
-        <v>4707300</v>
+        <v>4881600</v>
       </c>
       <c r="F43" s="3">
-        <v>4861400</v>
+        <v>5041500</v>
       </c>
       <c r="G43" s="3">
-        <v>4320000</v>
+        <v>4480000</v>
       </c>
       <c r="H43" s="3">
-        <v>3959700</v>
+        <v>4106300</v>
       </c>
       <c r="I43" s="3">
-        <v>4685000</v>
+        <v>4858500</v>
       </c>
       <c r="J43" s="3">
-        <v>5190300</v>
+        <v>5382500</v>
       </c>
       <c r="K43" s="3">
         <v>7453300</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>539100</v>
+        <v>559000</v>
       </c>
       <c r="E44" s="3">
-        <v>554000</v>
+        <v>574600</v>
       </c>
       <c r="F44" s="3">
-        <v>370800</v>
+        <v>384500</v>
       </c>
       <c r="G44" s="3">
-        <v>306200</v>
+        <v>317500</v>
       </c>
       <c r="H44" s="3">
-        <v>425500</v>
+        <v>441300</v>
       </c>
       <c r="I44" s="3">
-        <v>339300</v>
+        <v>351900</v>
       </c>
       <c r="J44" s="3">
-        <v>545600</v>
+        <v>565800</v>
       </c>
       <c r="K44" s="3">
         <v>1346800</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1688000</v>
+        <v>1750500</v>
       </c>
       <c r="E45" s="3">
-        <v>1377500</v>
+        <v>1428500</v>
       </c>
       <c r="F45" s="3">
-        <v>252800</v>
+        <v>262200</v>
       </c>
       <c r="G45" s="3">
-        <v>252000</v>
+        <v>261400</v>
       </c>
       <c r="H45" s="3">
-        <v>256700</v>
+        <v>266200</v>
       </c>
       <c r="I45" s="3">
-        <v>283200</v>
+        <v>293700</v>
       </c>
       <c r="J45" s="3">
-        <v>275100</v>
+        <v>285300</v>
       </c>
       <c r="K45" s="3">
         <v>305200</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9637600</v>
+        <v>9994500</v>
       </c>
       <c r="E46" s="3">
-        <v>9634300</v>
+        <v>9991200</v>
       </c>
       <c r="F46" s="3">
-        <v>7834700</v>
+        <v>8124800</v>
       </c>
       <c r="G46" s="3">
-        <v>7811100</v>
+        <v>8100400</v>
       </c>
       <c r="H46" s="3">
-        <v>6952400</v>
+        <v>7209900</v>
       </c>
       <c r="I46" s="3">
-        <v>7106800</v>
+        <v>7370000</v>
       </c>
       <c r="J46" s="3">
-        <v>8077300</v>
+        <v>8376400</v>
       </c>
       <c r="K46" s="3">
         <v>8834600</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1839600</v>
+        <v>1907700</v>
       </c>
       <c r="E47" s="3">
-        <v>1408200</v>
+        <v>1460400</v>
       </c>
       <c r="F47" s="3">
-        <v>1509200</v>
+        <v>1565100</v>
       </c>
       <c r="G47" s="3">
-        <v>1342800</v>
+        <v>1392600</v>
       </c>
       <c r="H47" s="3">
-        <v>1322300</v>
+        <v>1371300</v>
       </c>
       <c r="I47" s="3">
-        <v>2270200</v>
+        <v>2354300</v>
       </c>
       <c r="J47" s="3">
-        <v>2248300</v>
+        <v>2331500</v>
       </c>
       <c r="K47" s="3">
         <v>3649000</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12928600</v>
+        <v>13407400</v>
       </c>
       <c r="E48" s="3">
-        <v>11469100</v>
+        <v>11893800</v>
       </c>
       <c r="F48" s="3">
-        <v>11949000</v>
+        <v>12391600</v>
       </c>
       <c r="G48" s="3">
-        <v>12522700</v>
+        <v>12986500</v>
       </c>
       <c r="H48" s="3">
-        <v>12620600</v>
+        <v>13088000</v>
       </c>
       <c r="I48" s="3">
-        <v>14197500</v>
+        <v>14723400</v>
       </c>
       <c r="J48" s="3">
-        <v>14168900</v>
+        <v>14693700</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>24</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2295600</v>
+        <v>2380600</v>
       </c>
       <c r="E49" s="3">
-        <v>2759800</v>
+        <v>2862000</v>
       </c>
       <c r="F49" s="3">
-        <v>2132500</v>
+        <v>2211500</v>
       </c>
       <c r="G49" s="3">
-        <v>2448500</v>
+        <v>2539200</v>
       </c>
       <c r="H49" s="3">
-        <v>2105800</v>
+        <v>2183800</v>
       </c>
       <c r="I49" s="3">
-        <v>2870700</v>
+        <v>2977000</v>
       </c>
       <c r="J49" s="3">
-        <v>3100200</v>
+        <v>3215000</v>
       </c>
       <c r="K49" s="3">
         <v>5398000</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>888300</v>
+        <v>921200</v>
       </c>
       <c r="E52" s="3">
-        <v>801500</v>
+        <v>831200</v>
       </c>
       <c r="F52" s="3">
-        <v>656700</v>
+        <v>681000</v>
       </c>
       <c r="G52" s="3">
-        <v>651000</v>
+        <v>675100</v>
       </c>
       <c r="H52" s="3">
-        <v>765300</v>
+        <v>793600</v>
       </c>
       <c r="I52" s="3">
-        <v>932200</v>
+        <v>966700</v>
       </c>
       <c r="J52" s="3">
-        <v>634000</v>
+        <v>657500</v>
       </c>
       <c r="K52" s="3">
         <v>593000</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27589600</v>
+        <v>28611500</v>
       </c>
       <c r="E54" s="3">
-        <v>26073000</v>
+        <v>27038600</v>
       </c>
       <c r="F54" s="3">
-        <v>24082000</v>
+        <v>24974000</v>
       </c>
       <c r="G54" s="3">
-        <v>24776100</v>
+        <v>25693700</v>
       </c>
       <c r="H54" s="3">
-        <v>23766400</v>
+        <v>24646600</v>
       </c>
       <c r="I54" s="3">
-        <v>27377400</v>
+        <v>28391400</v>
       </c>
       <c r="J54" s="3">
-        <v>28228600</v>
+        <v>29274100</v>
       </c>
       <c r="K54" s="3">
         <v>29028600</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1056900</v>
+        <v>1096000</v>
       </c>
       <c r="E57" s="3">
-        <v>1001600</v>
+        <v>1038700</v>
       </c>
       <c r="F57" s="3">
-        <v>1133400</v>
+        <v>1175400</v>
       </c>
       <c r="G57" s="3">
-        <v>1001100</v>
+        <v>1038200</v>
       </c>
       <c r="H57" s="3">
-        <v>1045200</v>
+        <v>1083900</v>
       </c>
       <c r="I57" s="3">
-        <v>972000</v>
+        <v>1008000</v>
       </c>
       <c r="J57" s="3">
-        <v>1390500</v>
+        <v>1442000</v>
       </c>
       <c r="K57" s="3">
         <v>1531200</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>960400</v>
+        <v>996000</v>
       </c>
       <c r="E58" s="3">
-        <v>1108500</v>
+        <v>1149500</v>
       </c>
       <c r="F58" s="3">
-        <v>1274500</v>
+        <v>1321700</v>
       </c>
       <c r="G58" s="3">
-        <v>1474200</v>
+        <v>1528800</v>
       </c>
       <c r="H58" s="3">
-        <v>1447700</v>
+        <v>1501300</v>
       </c>
       <c r="I58" s="3">
-        <v>2410400</v>
+        <v>2499700</v>
       </c>
       <c r="J58" s="3">
-        <v>2462600</v>
+        <v>2553800</v>
       </c>
       <c r="K58" s="3">
         <v>2697300</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6173000</v>
+        <v>6401600</v>
       </c>
       <c r="E59" s="3">
-        <v>5494000</v>
+        <v>5697500</v>
       </c>
       <c r="F59" s="3">
-        <v>5266100</v>
+        <v>5461200</v>
       </c>
       <c r="G59" s="3">
-        <v>5192300</v>
+        <v>5384600</v>
       </c>
       <c r="H59" s="3">
-        <v>4505400</v>
+        <v>4672300</v>
       </c>
       <c r="I59" s="3">
-        <v>4707200</v>
+        <v>4881500</v>
       </c>
       <c r="J59" s="3">
-        <v>5238500</v>
+        <v>5432500</v>
       </c>
       <c r="K59" s="3">
         <v>5235600</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8190300</v>
+        <v>8493600</v>
       </c>
       <c r="E60" s="3">
-        <v>7604000</v>
+        <v>7885700</v>
       </c>
       <c r="F60" s="3">
-        <v>7674100</v>
+        <v>7958300</v>
       </c>
       <c r="G60" s="3">
-        <v>7667600</v>
+        <v>7951600</v>
       </c>
       <c r="H60" s="3">
-        <v>6998300</v>
+        <v>7257500</v>
       </c>
       <c r="I60" s="3">
-        <v>8089600</v>
+        <v>8389200</v>
       </c>
       <c r="J60" s="3">
-        <v>9091500</v>
+        <v>9428300</v>
       </c>
       <c r="K60" s="3">
         <v>9464100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4951600</v>
+        <v>5135000</v>
       </c>
       <c r="E61" s="3">
-        <v>4276600</v>
+        <v>4435000</v>
       </c>
       <c r="F61" s="3">
-        <v>4139300</v>
+        <v>4292600</v>
       </c>
       <c r="G61" s="3">
-        <v>5103600</v>
+        <v>5292700</v>
       </c>
       <c r="H61" s="3">
-        <v>5673100</v>
+        <v>5883200</v>
       </c>
       <c r="I61" s="3">
-        <v>8014600</v>
+        <v>8311500</v>
       </c>
       <c r="J61" s="3">
-        <v>6894600</v>
+        <v>7150000</v>
       </c>
       <c r="K61" s="3">
         <v>6944000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2146300</v>
+        <v>2225800</v>
       </c>
       <c r="E62" s="3">
-        <v>2259900</v>
+        <v>2343600</v>
       </c>
       <c r="F62" s="3">
-        <v>1568100</v>
+        <v>1626200</v>
       </c>
       <c r="G62" s="3">
-        <v>1641100</v>
+        <v>1701900</v>
       </c>
       <c r="H62" s="3">
-        <v>1240900</v>
+        <v>1286900</v>
       </c>
       <c r="I62" s="3">
-        <v>1725300</v>
+        <v>1789200</v>
       </c>
       <c r="J62" s="3">
-        <v>1844100</v>
+        <v>1912400</v>
       </c>
       <c r="K62" s="3">
         <v>1517400</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16519500</v>
+        <v>17131400</v>
       </c>
       <c r="E66" s="3">
-        <v>15378800</v>
+        <v>15948400</v>
       </c>
       <c r="F66" s="3">
-        <v>14508800</v>
+        <v>15046100</v>
       </c>
       <c r="G66" s="3">
-        <v>15508100</v>
+        <v>16082500</v>
       </c>
       <c r="H66" s="3">
-        <v>14981900</v>
+        <v>15536700</v>
       </c>
       <c r="I66" s="3">
-        <v>19003400</v>
+        <v>19707300</v>
       </c>
       <c r="J66" s="3">
-        <v>18729100</v>
+        <v>19422800</v>
       </c>
       <c r="K66" s="3">
         <v>18688900</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9426100</v>
+        <v>9775200</v>
       </c>
       <c r="E72" s="3">
-        <v>9176400</v>
+        <v>9516200</v>
       </c>
       <c r="F72" s="3">
-        <v>8090600</v>
+        <v>8390300</v>
       </c>
       <c r="G72" s="3">
-        <v>7821800</v>
+        <v>8111500</v>
       </c>
       <c r="H72" s="3">
-        <v>7338000</v>
+        <v>7609800</v>
       </c>
       <c r="I72" s="3">
-        <v>6940400</v>
+        <v>7197500</v>
       </c>
       <c r="J72" s="3">
-        <v>8115700</v>
+        <v>8416300</v>
       </c>
       <c r="K72" s="3">
         <v>17885900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11070100</v>
+        <v>11480100</v>
       </c>
       <c r="E76" s="3">
-        <v>10694200</v>
+        <v>11090300</v>
       </c>
       <c r="F76" s="3">
-        <v>9573300</v>
+        <v>9927800</v>
       </c>
       <c r="G76" s="3">
-        <v>9268000</v>
+        <v>9611200</v>
       </c>
       <c r="H76" s="3">
-        <v>8784500</v>
+        <v>9109900</v>
       </c>
       <c r="I76" s="3">
-        <v>8374000</v>
+        <v>8684100</v>
       </c>
       <c r="J76" s="3">
-        <v>9499500</v>
+        <v>9851300</v>
       </c>
       <c r="K76" s="3">
         <v>10339700</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>501500</v>
+        <v>520100</v>
       </c>
       <c r="E81" s="3">
-        <v>557700</v>
+        <v>578300</v>
       </c>
       <c r="F81" s="3">
-        <v>386200</v>
+        <v>400500</v>
       </c>
       <c r="G81" s="3">
-        <v>576000</v>
+        <v>597300</v>
       </c>
       <c r="H81" s="3">
-        <v>447900</v>
+        <v>464500</v>
       </c>
       <c r="I81" s="3">
-        <v>-854600</v>
+        <v>-886200</v>
       </c>
       <c r="J81" s="3">
-        <v>-153800</v>
+        <v>-159500</v>
       </c>
       <c r="K81" s="3">
         <v>878700</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2981200</v>
+        <v>3091600</v>
       </c>
       <c r="E83" s="3">
-        <v>2725600</v>
+        <v>2826500</v>
       </c>
       <c r="F83" s="3">
-        <v>2784500</v>
+        <v>2887700</v>
       </c>
       <c r="G83" s="3">
-        <v>2771400</v>
+        <v>2874100</v>
       </c>
       <c r="H83" s="3">
-        <v>2948400</v>
+        <v>3057600</v>
       </c>
       <c r="I83" s="3">
-        <v>3122400</v>
+        <v>3238000</v>
       </c>
       <c r="J83" s="3">
-        <v>2932800</v>
+        <v>3041400</v>
       </c>
       <c r="K83" s="3">
         <v>2783600</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3033600</v>
+        <v>3145900</v>
       </c>
       <c r="E89" s="3">
-        <v>3248500</v>
+        <v>3368800</v>
       </c>
       <c r="F89" s="3">
-        <v>3141000</v>
+        <v>3257300</v>
       </c>
       <c r="G89" s="3">
-        <v>3864300</v>
+        <v>4007400</v>
       </c>
       <c r="H89" s="3">
-        <v>3426300</v>
+        <v>3553200</v>
       </c>
       <c r="I89" s="3">
-        <v>1552300</v>
+        <v>1609800</v>
       </c>
       <c r="J89" s="3">
-        <v>3330000</v>
+        <v>3453300</v>
       </c>
       <c r="K89" s="3">
         <v>4809400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2648400</v>
+        <v>-2746400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1831300</v>
+        <v>-1899100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1978200</v>
+        <v>-2051500</v>
       </c>
       <c r="G91" s="3">
-        <v>-2239100</v>
+        <v>-2322100</v>
       </c>
       <c r="H91" s="3">
-        <v>-2523700</v>
+        <v>-2617200</v>
       </c>
       <c r="I91" s="3">
-        <v>-2310800</v>
+        <v>-2396400</v>
       </c>
       <c r="J91" s="3">
-        <v>-2501400</v>
+        <v>-2594100</v>
       </c>
       <c r="K91" s="3">
         <v>-3158600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3148900</v>
+        <v>-3265500</v>
       </c>
       <c r="E94" s="3">
-        <v>-2190300</v>
+        <v>-2271500</v>
       </c>
       <c r="F94" s="3">
-        <v>-2821400</v>
+        <v>-2925900</v>
       </c>
       <c r="G94" s="3">
-        <v>-2822800</v>
+        <v>-2927400</v>
       </c>
       <c r="H94" s="3">
-        <v>-1945500</v>
+        <v>-2017600</v>
       </c>
       <c r="I94" s="3">
-        <v>-2568500</v>
+        <v>-2663600</v>
       </c>
       <c r="J94" s="3">
-        <v>-3063900</v>
+        <v>-3177400</v>
       </c>
       <c r="K94" s="3">
         <v>-3235000</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-247200</v>
+        <v>-256300</v>
       </c>
       <c r="E96" s="3">
-        <v>-241900</v>
+        <v>-250900</v>
       </c>
       <c r="F96" s="3">
-        <v>-196900</v>
+        <v>-204200</v>
       </c>
       <c r="G96" s="3">
-        <v>-149100</v>
+        <v>-154600</v>
       </c>
       <c r="H96" s="3">
-        <v>-33700</v>
+        <v>-34900</v>
       </c>
       <c r="I96" s="3">
-        <v>-180400</v>
+        <v>-187100</v>
       </c>
       <c r="J96" s="3">
-        <v>-414100</v>
+        <v>-429500</v>
       </c>
       <c r="K96" s="3">
         <v>-827100</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-202300</v>
+        <v>-209800</v>
       </c>
       <c r="E100" s="3">
-        <v>-430700</v>
+        <v>-446600</v>
       </c>
       <c r="F100" s="3">
-        <v>-1104400</v>
+        <v>-1145300</v>
       </c>
       <c r="G100" s="3">
-        <v>-764000</v>
+        <v>-792300</v>
       </c>
       <c r="H100" s="3">
-        <v>-942800</v>
+        <v>-977800</v>
       </c>
       <c r="I100" s="3">
-        <v>868100</v>
+        <v>900200</v>
       </c>
       <c r="J100" s="3">
-        <v>-252600</v>
+        <v>-261900</v>
       </c>
       <c r="K100" s="3">
         <v>-1073400</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4400</v>
+        <v>-4600</v>
       </c>
       <c r="E101" s="3">
         <v>500</v>
       </c>
       <c r="F101" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="G101" s="3">
         <v>-1400</v>
       </c>
       <c r="H101" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="I101" s="3">
         <v>500</v>
       </c>
       <c r="J101" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="K101" s="3">
         <v>-900</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-322000</v>
+        <v>-333900</v>
       </c>
       <c r="E102" s="3">
-        <v>627900</v>
+        <v>651200</v>
       </c>
       <c r="F102" s="3">
-        <v>-787400</v>
+        <v>-816600</v>
       </c>
       <c r="G102" s="3">
-        <v>276100</v>
+        <v>286300</v>
       </c>
       <c r="H102" s="3">
-        <v>543300</v>
+        <v>563500</v>
       </c>
       <c r="I102" s="3">
-        <v>-147600</v>
+        <v>-153100</v>
       </c>
       <c r="J102" s="3">
-        <v>10700</v>
+        <v>11100</v>
       </c>
       <c r="K102" s="3">
         <v>500200</v>

--- a/AAII_Financials/Yearly/KT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KT_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20447300</v>
+        <v>22151300</v>
       </c>
       <c r="E8" s="3">
-        <v>19706500</v>
+        <v>21348700</v>
       </c>
       <c r="F8" s="3">
-        <v>19645300</v>
+        <v>21282400</v>
       </c>
       <c r="G8" s="3">
-        <v>19104700</v>
+        <v>20696700</v>
       </c>
       <c r="H8" s="3">
-        <v>18716200</v>
+        <v>20275900</v>
       </c>
       <c r="I8" s="3">
-        <v>18741800</v>
+        <v>20303600</v>
       </c>
       <c r="J8" s="3">
-        <v>20208600</v>
+        <v>21892700</v>
       </c>
       <c r="K8" s="3">
         <v>20700800</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8558000</v>
+        <v>9271200</v>
       </c>
       <c r="E9" s="3">
-        <v>7930600</v>
+        <v>8591500</v>
       </c>
       <c r="F9" s="3">
-        <v>7765100</v>
+        <v>8412200</v>
       </c>
       <c r="G9" s="3">
-        <v>7432700</v>
+        <v>8052000</v>
       </c>
       <c r="H9" s="3">
-        <v>7399600</v>
+        <v>8016200</v>
       </c>
       <c r="I9" s="3">
-        <v>7504500</v>
+        <v>8129800</v>
       </c>
       <c r="J9" s="3">
-        <v>5772700</v>
+        <v>6253800</v>
       </c>
       <c r="K9" s="3">
         <v>5936900</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11889300</v>
+        <v>12880100</v>
       </c>
       <c r="E10" s="3">
-        <v>11775900</v>
+        <v>12757200</v>
       </c>
       <c r="F10" s="3">
-        <v>11880200</v>
+        <v>12870200</v>
       </c>
       <c r="G10" s="3">
-        <v>11672000</v>
+        <v>12644700</v>
       </c>
       <c r="H10" s="3">
-        <v>11316700</v>
+        <v>12259700</v>
       </c>
       <c r="I10" s="3">
-        <v>11237300</v>
+        <v>12173800</v>
       </c>
       <c r="J10" s="3">
-        <v>14435900</v>
+        <v>15638900</v>
       </c>
       <c r="K10" s="3">
         <v>14763900</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>138600</v>
+        <v>150200</v>
       </c>
       <c r="E12" s="3">
-        <v>148500</v>
+        <v>160800</v>
       </c>
       <c r="F12" s="3">
-        <v>141700</v>
+        <v>153500</v>
       </c>
       <c r="G12" s="3">
-        <v>141000</v>
+        <v>152800</v>
       </c>
       <c r="H12" s="3">
-        <v>154400</v>
+        <v>167300</v>
       </c>
       <c r="I12" s="3">
-        <v>161300</v>
+        <v>174800</v>
       </c>
       <c r="J12" s="3">
-        <v>144000</v>
+        <v>156000</v>
       </c>
       <c r="K12" s="3">
         <v>257300</v>
@@ -897,25 +897,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>94700</v>
+        <v>102600</v>
       </c>
       <c r="E14" s="3">
-        <v>21100</v>
+        <v>22900</v>
       </c>
       <c r="F14" s="3">
-        <v>-6300</v>
+        <v>-6900</v>
       </c>
       <c r="G14" s="3">
-        <v>44600</v>
+        <v>48300</v>
       </c>
       <c r="H14" s="3">
-        <v>131500</v>
+        <v>142500</v>
       </c>
       <c r="I14" s="3">
-        <v>89900</v>
+        <v>97400</v>
       </c>
       <c r="J14" s="3">
-        <v>4200</v>
+        <v>4600</v>
       </c>
       <c r="K14" s="3">
         <v>15700</v>
@@ -930,25 +930,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>3056700</v>
+        <v>3311400</v>
       </c>
       <c r="E15" s="3">
-        <v>2756700</v>
+        <v>2986400</v>
       </c>
       <c r="F15" s="3">
-        <v>2826200</v>
+        <v>3061700</v>
       </c>
       <c r="G15" s="3">
-        <v>2810000</v>
+        <v>3044200</v>
       </c>
       <c r="H15" s="3">
-        <v>2804400</v>
+        <v>3038100</v>
       </c>
       <c r="I15" s="3">
-        <v>2793600</v>
+        <v>3026400</v>
       </c>
       <c r="J15" s="3">
-        <v>2995600</v>
+        <v>3245200</v>
       </c>
       <c r="K15" s="3">
         <v>2750200</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>19575200</v>
+        <v>21206400</v>
       </c>
       <c r="E17" s="3">
-        <v>18668000</v>
+        <v>20223600</v>
       </c>
       <c r="F17" s="3">
-        <v>18483700</v>
+        <v>20024000</v>
       </c>
       <c r="G17" s="3">
-        <v>17939700</v>
+        <v>19434600</v>
       </c>
       <c r="H17" s="3">
-        <v>17761700</v>
+        <v>19241800</v>
       </c>
       <c r="I17" s="3">
-        <v>19173300</v>
+        <v>20771000</v>
       </c>
       <c r="J17" s="3">
-        <v>19941200</v>
+        <v>21603000</v>
       </c>
       <c r="K17" s="3">
         <v>19292300</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>872200</v>
+        <v>944800</v>
       </c>
       <c r="E18" s="3">
-        <v>1038500</v>
+        <v>1125100</v>
       </c>
       <c r="F18" s="3">
-        <v>1161600</v>
+        <v>1258400</v>
       </c>
       <c r="G18" s="3">
-        <v>1165000</v>
+        <v>1262100</v>
       </c>
       <c r="H18" s="3">
-        <v>954600</v>
+        <v>1034100</v>
       </c>
       <c r="I18" s="3">
-        <v>-431500</v>
+        <v>-467400</v>
       </c>
       <c r="J18" s="3">
-        <v>267400</v>
+        <v>289700</v>
       </c>
       <c r="K18" s="3">
         <v>1408400</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>176100</v>
+        <v>190700</v>
       </c>
       <c r="E20" s="3">
-        <v>127100</v>
+        <v>137600</v>
       </c>
       <c r="F20" s="3">
-        <v>-204400</v>
+        <v>-221400</v>
       </c>
       <c r="G20" s="3">
-        <v>64900</v>
+        <v>70400</v>
       </c>
       <c r="H20" s="3">
-        <v>-26000</v>
+        <v>-28200</v>
       </c>
       <c r="I20" s="3">
-        <v>-285500</v>
+        <v>-309300</v>
       </c>
       <c r="J20" s="3">
-        <v>78800</v>
+        <v>85400</v>
       </c>
       <c r="K20" s="3">
         <v>177300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4139900</v>
+        <v>4448100</v>
       </c>
       <c r="E21" s="3">
-        <v>3992100</v>
+        <v>4291200</v>
       </c>
       <c r="F21" s="3">
-        <v>3844800</v>
+        <v>4130900</v>
       </c>
       <c r="G21" s="3">
-        <v>4104000</v>
+        <v>4411800</v>
       </c>
       <c r="H21" s="3">
-        <v>3986100</v>
+        <v>4281900</v>
       </c>
       <c r="I21" s="3">
-        <v>2521100</v>
+        <v>2692600</v>
       </c>
       <c r="J21" s="3">
-        <v>3387600</v>
+        <v>3633700</v>
       </c>
       <c r="K21" s="3">
         <v>4402500</v>
@@ -1122,25 +1122,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>225300</v>
+        <v>244100</v>
       </c>
       <c r="E22" s="3">
-        <v>249400</v>
+        <v>270200</v>
       </c>
       <c r="F22" s="3">
-        <v>254100</v>
+        <v>275200</v>
       </c>
       <c r="G22" s="3">
-        <v>283300</v>
+        <v>306900</v>
       </c>
       <c r="H22" s="3">
-        <v>324200</v>
+        <v>351200</v>
       </c>
       <c r="I22" s="3">
-        <v>399100</v>
+        <v>432300</v>
       </c>
       <c r="J22" s="3">
-        <v>378300</v>
+        <v>409800</v>
       </c>
       <c r="K22" s="3">
         <v>397300</v>
@@ -1155,25 +1155,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>822900</v>
+        <v>891500</v>
       </c>
       <c r="E23" s="3">
-        <v>916200</v>
+        <v>992600</v>
       </c>
       <c r="F23" s="3">
-        <v>703100</v>
+        <v>761700</v>
       </c>
       <c r="G23" s="3">
-        <v>946700</v>
+        <v>1025600</v>
       </c>
       <c r="H23" s="3">
-        <v>604300</v>
+        <v>654700</v>
       </c>
       <c r="I23" s="3">
-        <v>-1116000</v>
+        <v>-1209000</v>
       </c>
       <c r="J23" s="3">
-        <v>-32100</v>
+        <v>-34700</v>
       </c>
       <c r="K23" s="3">
         <v>1188500</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>260700</v>
+        <v>282400</v>
       </c>
       <c r="E24" s="3">
-        <v>275900</v>
+        <v>298900</v>
       </c>
       <c r="F24" s="3">
-        <v>231400</v>
+        <v>250700</v>
       </c>
       <c r="G24" s="3">
-        <v>276500</v>
+        <v>299600</v>
       </c>
       <c r="H24" s="3">
-        <v>192600</v>
+        <v>208600</v>
       </c>
       <c r="I24" s="3">
-        <v>-231800</v>
+        <v>-251100</v>
       </c>
       <c r="J24" s="3">
-        <v>41600</v>
+        <v>45100</v>
       </c>
       <c r="K24" s="3">
         <v>233400</v>
@@ -1254,25 +1254,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>562300</v>
+        <v>609100</v>
       </c>
       <c r="E26" s="3">
-        <v>640300</v>
+        <v>693700</v>
       </c>
       <c r="F26" s="3">
-        <v>471700</v>
+        <v>511000</v>
       </c>
       <c r="G26" s="3">
-        <v>670200</v>
+        <v>726000</v>
       </c>
       <c r="H26" s="3">
-        <v>411800</v>
+        <v>446100</v>
       </c>
       <c r="I26" s="3">
-        <v>-884200</v>
+        <v>-957800</v>
       </c>
       <c r="J26" s="3">
-        <v>-73700</v>
+        <v>-79800</v>
       </c>
       <c r="K26" s="3">
         <v>955100</v>
@@ -1287,25 +1287,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>520100</v>
+        <v>563500</v>
       </c>
       <c r="E27" s="3">
-        <v>578300</v>
+        <v>626500</v>
       </c>
       <c r="F27" s="3">
-        <v>400500</v>
+        <v>433800</v>
       </c>
       <c r="G27" s="3">
-        <v>670200</v>
+        <v>726000</v>
       </c>
       <c r="H27" s="3">
-        <v>344900</v>
+        <v>373700</v>
       </c>
       <c r="I27" s="3">
-        <v>-939900</v>
+        <v>-1018200</v>
       </c>
       <c r="J27" s="3">
-        <v>-159500</v>
+        <v>-172800</v>
       </c>
       <c r="K27" s="3">
         <v>905200</v>
@@ -1362,13 +1362,13 @@
         <v>24</v>
       </c>
       <c r="G29" s="3">
-        <v>-72900</v>
+        <v>-78900</v>
       </c>
       <c r="H29" s="3">
-        <v>119500</v>
+        <v>129500</v>
       </c>
       <c r="I29" s="3">
-        <v>53700</v>
+        <v>58200</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-176100</v>
+        <v>-190700</v>
       </c>
       <c r="E32" s="3">
-        <v>-127100</v>
+        <v>-137600</v>
       </c>
       <c r="F32" s="3">
-        <v>204400</v>
+        <v>221400</v>
       </c>
       <c r="G32" s="3">
-        <v>-64900</v>
+        <v>-70400</v>
       </c>
       <c r="H32" s="3">
-        <v>26000</v>
+        <v>28200</v>
       </c>
       <c r="I32" s="3">
-        <v>285500</v>
+        <v>309300</v>
       </c>
       <c r="J32" s="3">
-        <v>-78800</v>
+        <v>-85400</v>
       </c>
       <c r="K32" s="3">
         <v>-177300</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>520100</v>
+        <v>563500</v>
       </c>
       <c r="E33" s="3">
-        <v>578300</v>
+        <v>626500</v>
       </c>
       <c r="F33" s="3">
-        <v>400500</v>
+        <v>433800</v>
       </c>
       <c r="G33" s="3">
-        <v>597300</v>
+        <v>647100</v>
       </c>
       <c r="H33" s="3">
-        <v>464500</v>
+        <v>503200</v>
       </c>
       <c r="I33" s="3">
-        <v>-886200</v>
+        <v>-960100</v>
       </c>
       <c r="J33" s="3">
-        <v>-159500</v>
+        <v>-172800</v>
       </c>
       <c r="K33" s="3">
         <v>878700</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>520100</v>
+        <v>563500</v>
       </c>
       <c r="E35" s="3">
-        <v>578300</v>
+        <v>626500</v>
       </c>
       <c r="F35" s="3">
-        <v>400500</v>
+        <v>433800</v>
       </c>
       <c r="G35" s="3">
-        <v>597300</v>
+        <v>647100</v>
       </c>
       <c r="H35" s="3">
-        <v>464500</v>
+        <v>503200</v>
       </c>
       <c r="I35" s="3">
-        <v>-886200</v>
+        <v>-960100</v>
       </c>
       <c r="J35" s="3">
-        <v>-159500</v>
+        <v>-172800</v>
       </c>
       <c r="K35" s="3">
         <v>878700</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1937000</v>
+        <v>2098400</v>
       </c>
       <c r="E41" s="3">
-        <v>2270900</v>
+        <v>2460100</v>
       </c>
       <c r="F41" s="3">
-        <v>1619700</v>
+        <v>1754600</v>
       </c>
       <c r="G41" s="3">
-        <v>2436300</v>
+        <v>2639300</v>
       </c>
       <c r="H41" s="3">
-        <v>2149900</v>
+        <v>2329100</v>
       </c>
       <c r="I41" s="3">
-        <v>1586500</v>
+        <v>1718700</v>
       </c>
       <c r="J41" s="3">
-        <v>1739500</v>
+        <v>1884500</v>
       </c>
       <c r="K41" s="3">
         <v>2454100</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>729400</v>
+        <v>790200</v>
       </c>
       <c r="E42" s="3">
-        <v>835600</v>
+        <v>905300</v>
       </c>
       <c r="F42" s="3">
-        <v>817000</v>
+        <v>885100</v>
       </c>
       <c r="G42" s="3">
-        <v>605300</v>
+        <v>655700</v>
       </c>
       <c r="H42" s="3">
-        <v>246100</v>
+        <v>266600</v>
       </c>
       <c r="I42" s="3">
-        <v>279500</v>
+        <v>302800</v>
       </c>
       <c r="J42" s="3">
-        <v>403300</v>
+        <v>436900</v>
       </c>
       <c r="K42" s="3">
         <v>1708200</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5018600</v>
+        <v>5436900</v>
       </c>
       <c r="E43" s="3">
-        <v>4881600</v>
+        <v>5288400</v>
       </c>
       <c r="F43" s="3">
-        <v>5041500</v>
+        <v>5461600</v>
       </c>
       <c r="G43" s="3">
-        <v>4480000</v>
+        <v>4853300</v>
       </c>
       <c r="H43" s="3">
-        <v>4106300</v>
+        <v>4448500</v>
       </c>
       <c r="I43" s="3">
-        <v>4858500</v>
+        <v>5263400</v>
       </c>
       <c r="J43" s="3">
-        <v>5382500</v>
+        <v>5831100</v>
       </c>
       <c r="K43" s="3">
         <v>7453300</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>559000</v>
+        <v>605600</v>
       </c>
       <c r="E44" s="3">
-        <v>574600</v>
+        <v>622400</v>
       </c>
       <c r="F44" s="3">
-        <v>384500</v>
+        <v>416500</v>
       </c>
       <c r="G44" s="3">
-        <v>317500</v>
+        <v>344000</v>
       </c>
       <c r="H44" s="3">
-        <v>441300</v>
+        <v>478100</v>
       </c>
       <c r="I44" s="3">
-        <v>351900</v>
+        <v>381200</v>
       </c>
       <c r="J44" s="3">
-        <v>565800</v>
+        <v>613000</v>
       </c>
       <c r="K44" s="3">
         <v>1346800</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1750500</v>
+        <v>1896400</v>
       </c>
       <c r="E45" s="3">
-        <v>1428500</v>
+        <v>1547500</v>
       </c>
       <c r="F45" s="3">
-        <v>262200</v>
+        <v>284000</v>
       </c>
       <c r="G45" s="3">
-        <v>261400</v>
+        <v>283100</v>
       </c>
       <c r="H45" s="3">
-        <v>266200</v>
+        <v>288400</v>
       </c>
       <c r="I45" s="3">
-        <v>293700</v>
+        <v>318100</v>
       </c>
       <c r="J45" s="3">
-        <v>285300</v>
+        <v>309000</v>
       </c>
       <c r="K45" s="3">
         <v>305200</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9994500</v>
+        <v>10827400</v>
       </c>
       <c r="E46" s="3">
-        <v>9991200</v>
+        <v>10823800</v>
       </c>
       <c r="F46" s="3">
-        <v>8124800</v>
+        <v>8801900</v>
       </c>
       <c r="G46" s="3">
-        <v>8100400</v>
+        <v>8775400</v>
       </c>
       <c r="H46" s="3">
-        <v>7209900</v>
+        <v>7810700</v>
       </c>
       <c r="I46" s="3">
-        <v>7370000</v>
+        <v>7984200</v>
       </c>
       <c r="J46" s="3">
-        <v>8376400</v>
+        <v>9074400</v>
       </c>
       <c r="K46" s="3">
         <v>8834600</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1907700</v>
+        <v>2066700</v>
       </c>
       <c r="E47" s="3">
-        <v>1460400</v>
+        <v>1582100</v>
       </c>
       <c r="F47" s="3">
-        <v>1565100</v>
+        <v>1695600</v>
       </c>
       <c r="G47" s="3">
-        <v>1392600</v>
+        <v>1508600</v>
       </c>
       <c r="H47" s="3">
-        <v>1371300</v>
+        <v>1485600</v>
       </c>
       <c r="I47" s="3">
-        <v>2354300</v>
+        <v>2550500</v>
       </c>
       <c r="J47" s="3">
-        <v>2331500</v>
+        <v>2525800</v>
       </c>
       <c r="K47" s="3">
         <v>3649000</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13407400</v>
+        <v>14524700</v>
       </c>
       <c r="E48" s="3">
-        <v>11893800</v>
+        <v>12885000</v>
       </c>
       <c r="F48" s="3">
-        <v>12391600</v>
+        <v>13424200</v>
       </c>
       <c r="G48" s="3">
-        <v>12986500</v>
+        <v>14068700</v>
       </c>
       <c r="H48" s="3">
-        <v>13088000</v>
+        <v>14178700</v>
       </c>
       <c r="I48" s="3">
-        <v>14723400</v>
+        <v>15950300</v>
       </c>
       <c r="J48" s="3">
-        <v>14693700</v>
+        <v>15918100</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>24</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2380600</v>
+        <v>2579000</v>
       </c>
       <c r="E49" s="3">
-        <v>2862000</v>
+        <v>3100500</v>
       </c>
       <c r="F49" s="3">
-        <v>2211500</v>
+        <v>2395800</v>
       </c>
       <c r="G49" s="3">
-        <v>2539200</v>
+        <v>2750800</v>
       </c>
       <c r="H49" s="3">
-        <v>2183800</v>
+        <v>2365800</v>
       </c>
       <c r="I49" s="3">
-        <v>2977000</v>
+        <v>3225100</v>
       </c>
       <c r="J49" s="3">
-        <v>3215000</v>
+        <v>3482900</v>
       </c>
       <c r="K49" s="3">
         <v>5398000</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>921200</v>
+        <v>998000</v>
       </c>
       <c r="E52" s="3">
-        <v>831200</v>
+        <v>900500</v>
       </c>
       <c r="F52" s="3">
-        <v>681000</v>
+        <v>737700</v>
       </c>
       <c r="G52" s="3">
-        <v>675100</v>
+        <v>731300</v>
       </c>
       <c r="H52" s="3">
-        <v>793600</v>
+        <v>859700</v>
       </c>
       <c r="I52" s="3">
-        <v>966700</v>
+        <v>1047300</v>
       </c>
       <c r="J52" s="3">
-        <v>657500</v>
+        <v>712300</v>
       </c>
       <c r="K52" s="3">
         <v>593000</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28611500</v>
+        <v>30995800</v>
       </c>
       <c r="E54" s="3">
-        <v>27038600</v>
+        <v>29291800</v>
       </c>
       <c r="F54" s="3">
-        <v>24974000</v>
+        <v>27055100</v>
       </c>
       <c r="G54" s="3">
-        <v>25693700</v>
+        <v>27834800</v>
       </c>
       <c r="H54" s="3">
-        <v>24646600</v>
+        <v>26700500</v>
       </c>
       <c r="I54" s="3">
-        <v>28391400</v>
+        <v>30757300</v>
       </c>
       <c r="J54" s="3">
-        <v>29274100</v>
+        <v>31713600</v>
       </c>
       <c r="K54" s="3">
         <v>29028600</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1096000</v>
+        <v>1187400</v>
       </c>
       <c r="E57" s="3">
-        <v>1038700</v>
+        <v>1125200</v>
       </c>
       <c r="F57" s="3">
-        <v>1175400</v>
+        <v>1273400</v>
       </c>
       <c r="G57" s="3">
-        <v>1038200</v>
+        <v>1124700</v>
       </c>
       <c r="H57" s="3">
-        <v>1083900</v>
+        <v>1174200</v>
       </c>
       <c r="I57" s="3">
-        <v>1008000</v>
+        <v>1092000</v>
       </c>
       <c r="J57" s="3">
-        <v>1442000</v>
+        <v>1562200</v>
       </c>
       <c r="K57" s="3">
         <v>1531200</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>996000</v>
+        <v>1079000</v>
       </c>
       <c r="E58" s="3">
-        <v>1149500</v>
+        <v>1245300</v>
       </c>
       <c r="F58" s="3">
-        <v>1321700</v>
+        <v>1431900</v>
       </c>
       <c r="G58" s="3">
-        <v>1528800</v>
+        <v>1656200</v>
       </c>
       <c r="H58" s="3">
-        <v>1501300</v>
+        <v>1626400</v>
       </c>
       <c r="I58" s="3">
-        <v>2499700</v>
+        <v>2708000</v>
       </c>
       <c r="J58" s="3">
-        <v>2553800</v>
+        <v>2766600</v>
       </c>
       <c r="K58" s="3">
         <v>2697300</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6401600</v>
+        <v>6935100</v>
       </c>
       <c r="E59" s="3">
-        <v>5697500</v>
+        <v>6172300</v>
       </c>
       <c r="F59" s="3">
-        <v>5461200</v>
+        <v>5916300</v>
       </c>
       <c r="G59" s="3">
-        <v>5384600</v>
+        <v>5833300</v>
       </c>
       <c r="H59" s="3">
-        <v>4672300</v>
+        <v>5061700</v>
       </c>
       <c r="I59" s="3">
-        <v>4881500</v>
+        <v>5288300</v>
       </c>
       <c r="J59" s="3">
-        <v>5432500</v>
+        <v>5885200</v>
       </c>
       <c r="K59" s="3">
         <v>5235600</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8493600</v>
+        <v>9201400</v>
       </c>
       <c r="E60" s="3">
-        <v>7885700</v>
+        <v>8542800</v>
       </c>
       <c r="F60" s="3">
-        <v>7958300</v>
+        <v>8621500</v>
       </c>
       <c r="G60" s="3">
-        <v>7951600</v>
+        <v>8614200</v>
       </c>
       <c r="H60" s="3">
-        <v>7257500</v>
+        <v>7862300</v>
       </c>
       <c r="I60" s="3">
-        <v>8389200</v>
+        <v>9088300</v>
       </c>
       <c r="J60" s="3">
-        <v>9428300</v>
+        <v>10213900</v>
       </c>
       <c r="K60" s="3">
         <v>9464100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5135000</v>
+        <v>5563000</v>
       </c>
       <c r="E61" s="3">
-        <v>4435000</v>
+        <v>4804600</v>
       </c>
       <c r="F61" s="3">
-        <v>4292600</v>
+        <v>4650300</v>
       </c>
       <c r="G61" s="3">
-        <v>5292700</v>
+        <v>5733700</v>
       </c>
       <c r="H61" s="3">
-        <v>5883200</v>
+        <v>6373500</v>
       </c>
       <c r="I61" s="3">
-        <v>8311500</v>
+        <v>9004100</v>
       </c>
       <c r="J61" s="3">
-        <v>7150000</v>
+        <v>7745800</v>
       </c>
       <c r="K61" s="3">
         <v>6944000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2225800</v>
+        <v>2411300</v>
       </c>
       <c r="E62" s="3">
-        <v>2343600</v>
+        <v>2538900</v>
       </c>
       <c r="F62" s="3">
-        <v>1626200</v>
+        <v>1761700</v>
       </c>
       <c r="G62" s="3">
-        <v>1701900</v>
+        <v>1843700</v>
       </c>
       <c r="H62" s="3">
-        <v>1286900</v>
+        <v>1394100</v>
       </c>
       <c r="I62" s="3">
-        <v>1789200</v>
+        <v>1938300</v>
       </c>
       <c r="J62" s="3">
-        <v>1912400</v>
+        <v>2071800</v>
       </c>
       <c r="K62" s="3">
         <v>1517400</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17131400</v>
+        <v>18559000</v>
       </c>
       <c r="E66" s="3">
-        <v>15948400</v>
+        <v>17277400</v>
       </c>
       <c r="F66" s="3">
-        <v>15046100</v>
+        <v>16300000</v>
       </c>
       <c r="G66" s="3">
-        <v>16082500</v>
+        <v>17422700</v>
       </c>
       <c r="H66" s="3">
-        <v>15536700</v>
+        <v>16831500</v>
       </c>
       <c r="I66" s="3">
-        <v>19707300</v>
+        <v>21349500</v>
       </c>
       <c r="J66" s="3">
-        <v>19422800</v>
+        <v>21041400</v>
       </c>
       <c r="K66" s="3">
         <v>18688900</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9775200</v>
+        <v>10589800</v>
       </c>
       <c r="E72" s="3">
-        <v>9516200</v>
+        <v>10309300</v>
       </c>
       <c r="F72" s="3">
-        <v>8390300</v>
+        <v>9089400</v>
       </c>
       <c r="G72" s="3">
-        <v>8111500</v>
+        <v>8787500</v>
       </c>
       <c r="H72" s="3">
-        <v>7609800</v>
+        <v>8244000</v>
       </c>
       <c r="I72" s="3">
-        <v>7197500</v>
+        <v>7797200</v>
       </c>
       <c r="J72" s="3">
-        <v>8416300</v>
+        <v>9117600</v>
       </c>
       <c r="K72" s="3">
         <v>17885900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11480100</v>
+        <v>12436800</v>
       </c>
       <c r="E76" s="3">
-        <v>11090300</v>
+        <v>12014400</v>
       </c>
       <c r="F76" s="3">
-        <v>9927800</v>
+        <v>10755100</v>
       </c>
       <c r="G76" s="3">
-        <v>9611200</v>
+        <v>10412200</v>
       </c>
       <c r="H76" s="3">
-        <v>9109900</v>
+        <v>9869000</v>
       </c>
       <c r="I76" s="3">
-        <v>8684100</v>
+        <v>9407800</v>
       </c>
       <c r="J76" s="3">
-        <v>9851300</v>
+        <v>10672200</v>
       </c>
       <c r="K76" s="3">
         <v>10339700</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>520100</v>
+        <v>563500</v>
       </c>
       <c r="E81" s="3">
-        <v>578300</v>
+        <v>626500</v>
       </c>
       <c r="F81" s="3">
-        <v>400500</v>
+        <v>433800</v>
       </c>
       <c r="G81" s="3">
-        <v>597300</v>
+        <v>647100</v>
       </c>
       <c r="H81" s="3">
-        <v>464500</v>
+        <v>503200</v>
       </c>
       <c r="I81" s="3">
-        <v>-886200</v>
+        <v>-960100</v>
       </c>
       <c r="J81" s="3">
-        <v>-159500</v>
+        <v>-172800</v>
       </c>
       <c r="K81" s="3">
         <v>878700</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3091600</v>
+        <v>3349300</v>
       </c>
       <c r="E83" s="3">
-        <v>2826500</v>
+        <v>3062100</v>
       </c>
       <c r="F83" s="3">
-        <v>2887700</v>
+        <v>3128300</v>
       </c>
       <c r="G83" s="3">
-        <v>2874100</v>
+        <v>3113600</v>
       </c>
       <c r="H83" s="3">
-        <v>3057600</v>
+        <v>3312400</v>
       </c>
       <c r="I83" s="3">
-        <v>3238000</v>
+        <v>3507800</v>
       </c>
       <c r="J83" s="3">
-        <v>3041400</v>
+        <v>3294900</v>
       </c>
       <c r="K83" s="3">
         <v>2783600</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3145900</v>
+        <v>3408100</v>
       </c>
       <c r="E89" s="3">
-        <v>3368800</v>
+        <v>3649500</v>
       </c>
       <c r="F89" s="3">
-        <v>3257300</v>
+        <v>3528800</v>
       </c>
       <c r="G89" s="3">
-        <v>4007400</v>
+        <v>4341400</v>
       </c>
       <c r="H89" s="3">
-        <v>3553200</v>
+        <v>3849300</v>
       </c>
       <c r="I89" s="3">
-        <v>1609800</v>
+        <v>1743900</v>
       </c>
       <c r="J89" s="3">
-        <v>3453300</v>
+        <v>3741100</v>
       </c>
       <c r="K89" s="3">
         <v>4809400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2746400</v>
+        <v>-2975300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1899100</v>
+        <v>-2057400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2051500</v>
+        <v>-2222400</v>
       </c>
       <c r="G91" s="3">
-        <v>-2322100</v>
+        <v>-2515600</v>
       </c>
       <c r="H91" s="3">
-        <v>-2617200</v>
+        <v>-2835300</v>
       </c>
       <c r="I91" s="3">
-        <v>-2396400</v>
+        <v>-2596100</v>
       </c>
       <c r="J91" s="3">
-        <v>-2594100</v>
+        <v>-2810200</v>
       </c>
       <c r="K91" s="3">
         <v>-3158600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3265500</v>
+        <v>-3537600</v>
       </c>
       <c r="E94" s="3">
-        <v>-2271500</v>
+        <v>-2460800</v>
       </c>
       <c r="F94" s="3">
-        <v>-2925900</v>
+        <v>-3169800</v>
       </c>
       <c r="G94" s="3">
-        <v>-2927400</v>
+        <v>-3171300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2017600</v>
+        <v>-2185700</v>
       </c>
       <c r="I94" s="3">
-        <v>-2663600</v>
+        <v>-2885600</v>
       </c>
       <c r="J94" s="3">
-        <v>-3177400</v>
+        <v>-3442200</v>
       </c>
       <c r="K94" s="3">
         <v>-3235000</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-256300</v>
+        <v>-277700</v>
       </c>
       <c r="E96" s="3">
-        <v>-250900</v>
+        <v>-271800</v>
       </c>
       <c r="F96" s="3">
-        <v>-204200</v>
+        <v>-221300</v>
       </c>
       <c r="G96" s="3">
-        <v>-154600</v>
+        <v>-167500</v>
       </c>
       <c r="H96" s="3">
-        <v>-34900</v>
+        <v>-37800</v>
       </c>
       <c r="I96" s="3">
-        <v>-187100</v>
+        <v>-202700</v>
       </c>
       <c r="J96" s="3">
-        <v>-429500</v>
+        <v>-465300</v>
       </c>
       <c r="K96" s="3">
         <v>-827100</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-209800</v>
+        <v>-227300</v>
       </c>
       <c r="E100" s="3">
-        <v>-446600</v>
+        <v>-483800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1145300</v>
+        <v>-1240800</v>
       </c>
       <c r="G100" s="3">
-        <v>-792300</v>
+        <v>-858400</v>
       </c>
       <c r="H100" s="3">
-        <v>-977800</v>
+        <v>-1059200</v>
       </c>
       <c r="I100" s="3">
-        <v>900200</v>
+        <v>975200</v>
       </c>
       <c r="J100" s="3">
-        <v>-261900</v>
+        <v>-283700</v>
       </c>
       <c r="K100" s="3">
         <v>-1073400</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4600</v>
+        <v>-5000</v>
       </c>
       <c r="E101" s="3">
         <v>500</v>
       </c>
       <c r="F101" s="3">
-        <v>-2600</v>
+        <v>-2900</v>
       </c>
       <c r="G101" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="H101" s="3">
-        <v>5600</v>
+        <v>6100</v>
       </c>
       <c r="I101" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J101" s="3">
-        <v>-2900</v>
+        <v>-3100</v>
       </c>
       <c r="K101" s="3">
         <v>-900</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-333900</v>
+        <v>-361800</v>
       </c>
       <c r="E102" s="3">
-        <v>651200</v>
+        <v>705500</v>
       </c>
       <c r="F102" s="3">
-        <v>-816600</v>
+        <v>-884600</v>
       </c>
       <c r="G102" s="3">
-        <v>286300</v>
+        <v>310200</v>
       </c>
       <c r="H102" s="3">
-        <v>563500</v>
+        <v>610400</v>
       </c>
       <c r="I102" s="3">
-        <v>-153100</v>
+        <v>-165800</v>
       </c>
       <c r="J102" s="3">
-        <v>11100</v>
+        <v>12100</v>
       </c>
       <c r="K102" s="3">
         <v>500200</v>

--- a/AAII_Financials/Yearly/KT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>KT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22151300</v>
+        <v>21046700</v>
       </c>
       <c r="E8" s="3">
-        <v>21348700</v>
+        <v>21421000</v>
       </c>
       <c r="F8" s="3">
-        <v>21282400</v>
+        <v>20644900</v>
       </c>
       <c r="G8" s="3">
-        <v>20696700</v>
+        <v>20580800</v>
       </c>
       <c r="H8" s="3">
-        <v>20275900</v>
+        <v>20014400</v>
       </c>
       <c r="I8" s="3">
-        <v>20303600</v>
+        <v>19607500</v>
       </c>
       <c r="J8" s="3">
+        <v>19634300</v>
+      </c>
+      <c r="K8" s="3">
         <v>21892700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20700800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>19879000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9271200</v>
+        <v>8497300</v>
       </c>
       <c r="E9" s="3">
-        <v>8591500</v>
+        <v>8965500</v>
       </c>
       <c r="F9" s="3">
-        <v>8412200</v>
+        <v>8308300</v>
       </c>
       <c r="G9" s="3">
-        <v>8052000</v>
+        <v>8134900</v>
       </c>
       <c r="H9" s="3">
-        <v>8016200</v>
+        <v>7786600</v>
       </c>
       <c r="I9" s="3">
-        <v>8129800</v>
+        <v>7751900</v>
       </c>
       <c r="J9" s="3">
+        <v>7861800</v>
+      </c>
+      <c r="K9" s="3">
         <v>6253800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5936900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6602100</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12880100</v>
+        <v>12549400</v>
       </c>
       <c r="E10" s="3">
-        <v>12757200</v>
+        <v>12455500</v>
       </c>
       <c r="F10" s="3">
-        <v>12870200</v>
+        <v>12336700</v>
       </c>
       <c r="G10" s="3">
-        <v>12644700</v>
+        <v>12445900</v>
       </c>
       <c r="H10" s="3">
-        <v>12259700</v>
+        <v>12227800</v>
       </c>
       <c r="I10" s="3">
-        <v>12173800</v>
+        <v>11855500</v>
       </c>
       <c r="J10" s="3">
+        <v>11772500</v>
+      </c>
+      <c r="K10" s="3">
         <v>15638900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14763900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13277000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,41 +837,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>150200</v>
+        <v>138100</v>
       </c>
       <c r="E12" s="3">
-        <v>160800</v>
+        <v>145200</v>
       </c>
       <c r="F12" s="3">
-        <v>153500</v>
+        <v>155500</v>
       </c>
       <c r="G12" s="3">
-        <v>152800</v>
+        <v>148400</v>
       </c>
       <c r="H12" s="3">
-        <v>167300</v>
+        <v>147700</v>
       </c>
       <c r="I12" s="3">
-        <v>174800</v>
+        <v>161800</v>
       </c>
       <c r="J12" s="3">
+        <v>169000</v>
+      </c>
+      <c r="K12" s="3">
         <v>156000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>257300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>277000</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>102600</v>
+        <v>108500</v>
       </c>
       <c r="E14" s="3">
-        <v>22900</v>
+        <v>-4500</v>
       </c>
       <c r="F14" s="3">
-        <v>-6900</v>
+        <v>-66900</v>
       </c>
       <c r="G14" s="3">
-        <v>48300</v>
+        <v>-6600</v>
       </c>
       <c r="H14" s="3">
-        <v>142500</v>
+        <v>46700</v>
       </c>
       <c r="I14" s="3">
-        <v>97400</v>
+        <v>137800</v>
       </c>
       <c r="J14" s="3">
+        <v>94200</v>
+      </c>
+      <c r="K14" s="3">
         <v>4600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>15700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>39300</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>3311400</v>
+        <v>3198200</v>
       </c>
       <c r="E15" s="3">
-        <v>2986400</v>
+        <v>3194000</v>
       </c>
       <c r="F15" s="3">
-        <v>3061700</v>
+        <v>2887900</v>
       </c>
       <c r="G15" s="3">
-        <v>3044200</v>
+        <v>2960800</v>
       </c>
       <c r="H15" s="3">
-        <v>3038100</v>
+        <v>2943800</v>
       </c>
       <c r="I15" s="3">
-        <v>3026400</v>
+        <v>2938000</v>
       </c>
       <c r="J15" s="3">
+        <v>2926600</v>
+      </c>
+      <c r="K15" s="3">
         <v>3245200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2750200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2661700</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>21206400</v>
+        <v>20113100</v>
       </c>
       <c r="E17" s="3">
-        <v>20223600</v>
+        <v>20396100</v>
       </c>
       <c r="F17" s="3">
-        <v>20024000</v>
+        <v>19467900</v>
       </c>
       <c r="G17" s="3">
-        <v>19434600</v>
+        <v>19363900</v>
       </c>
       <c r="H17" s="3">
-        <v>19241800</v>
+        <v>18793900</v>
       </c>
       <c r="I17" s="3">
-        <v>20771000</v>
+        <v>18607500</v>
       </c>
       <c r="J17" s="3">
+        <v>20086300</v>
+      </c>
+      <c r="K17" s="3">
         <v>21603000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19292300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18090700</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>944800</v>
+        <v>933500</v>
       </c>
       <c r="E18" s="3">
-        <v>1125100</v>
+        <v>1024900</v>
       </c>
       <c r="F18" s="3">
-        <v>1258400</v>
+        <v>1177000</v>
       </c>
       <c r="G18" s="3">
-        <v>1262100</v>
+        <v>1216900</v>
       </c>
       <c r="H18" s="3">
-        <v>1034100</v>
+        <v>1220500</v>
       </c>
       <c r="I18" s="3">
-        <v>-467400</v>
+        <v>1000000</v>
       </c>
       <c r="J18" s="3">
+        <v>-452000</v>
+      </c>
+      <c r="K18" s="3">
         <v>289700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1408400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1788400</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>190700</v>
+        <v>156500</v>
       </c>
       <c r="E20" s="3">
-        <v>137600</v>
+        <v>79200</v>
       </c>
       <c r="F20" s="3">
-        <v>-221400</v>
+        <v>44100</v>
       </c>
       <c r="G20" s="3">
-        <v>70400</v>
+        <v>-214100</v>
       </c>
       <c r="H20" s="3">
-        <v>-28200</v>
+        <v>68000</v>
       </c>
       <c r="I20" s="3">
-        <v>-309300</v>
+        <v>-27300</v>
       </c>
       <c r="J20" s="3">
+        <v>-299100</v>
+      </c>
+      <c r="K20" s="3">
         <v>85400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>177300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>92500</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4448100</v>
+        <v>4317500</v>
       </c>
       <c r="E21" s="3">
-        <v>4291200</v>
+        <v>4343000</v>
       </c>
       <c r="F21" s="3">
-        <v>4130900</v>
+        <v>4182200</v>
       </c>
       <c r="G21" s="3">
-        <v>4411800</v>
+        <v>4027900</v>
       </c>
       <c r="H21" s="3">
-        <v>4281900</v>
+        <v>4299500</v>
       </c>
       <c r="I21" s="3">
-        <v>2692600</v>
+        <v>4175900</v>
       </c>
       <c r="J21" s="3">
+        <v>2641100</v>
+      </c>
+      <c r="K21" s="3">
         <v>3633700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4402500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4547700</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>244100</v>
+        <v>231900</v>
       </c>
       <c r="E22" s="3">
-        <v>270200</v>
+        <v>245000</v>
       </c>
       <c r="F22" s="3">
-        <v>275200</v>
+        <v>261200</v>
       </c>
       <c r="G22" s="3">
-        <v>306900</v>
+        <v>266200</v>
       </c>
       <c r="H22" s="3">
-        <v>351200</v>
+        <v>296800</v>
       </c>
       <c r="I22" s="3">
-        <v>432300</v>
+        <v>339600</v>
       </c>
       <c r="J22" s="3">
+        <v>418100</v>
+      </c>
+      <c r="K22" s="3">
         <v>409800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>397300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>432500</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>891500</v>
+        <v>858000</v>
       </c>
       <c r="E23" s="3">
-        <v>992600</v>
+        <v>859100</v>
       </c>
       <c r="F23" s="3">
-        <v>761700</v>
+        <v>959900</v>
       </c>
       <c r="G23" s="3">
-        <v>1025600</v>
+        <v>736600</v>
       </c>
       <c r="H23" s="3">
-        <v>654700</v>
+        <v>991800</v>
       </c>
       <c r="I23" s="3">
-        <v>-1209000</v>
+        <v>633100</v>
       </c>
       <c r="J23" s="3">
+        <v>-1169100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-34700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1188500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1448300</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>282400</v>
+        <v>239100</v>
       </c>
       <c r="E24" s="3">
-        <v>298900</v>
+        <v>273100</v>
       </c>
       <c r="F24" s="3">
-        <v>250700</v>
+        <v>289000</v>
       </c>
       <c r="G24" s="3">
-        <v>299600</v>
+        <v>242400</v>
       </c>
       <c r="H24" s="3">
-        <v>208600</v>
+        <v>289700</v>
       </c>
       <c r="I24" s="3">
-        <v>-251100</v>
+        <v>201700</v>
       </c>
       <c r="J24" s="3">
+        <v>-242900</v>
+      </c>
+      <c r="K24" s="3">
         <v>45100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>233400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>286600</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>609100</v>
+        <v>619000</v>
       </c>
       <c r="E26" s="3">
-        <v>693700</v>
+        <v>586000</v>
       </c>
       <c r="F26" s="3">
-        <v>511000</v>
+        <v>670800</v>
       </c>
       <c r="G26" s="3">
-        <v>726000</v>
+        <v>494100</v>
       </c>
       <c r="H26" s="3">
-        <v>446100</v>
+        <v>702100</v>
       </c>
       <c r="I26" s="3">
-        <v>-957800</v>
+        <v>431400</v>
       </c>
       <c r="J26" s="3">
+        <v>-926300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-79800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>955100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1161700</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>563500</v>
+        <v>579100</v>
       </c>
       <c r="E27" s="3">
-        <v>626500</v>
+        <v>541900</v>
       </c>
       <c r="F27" s="3">
-        <v>433800</v>
+        <v>605800</v>
       </c>
       <c r="G27" s="3">
-        <v>726000</v>
+        <v>419500</v>
       </c>
       <c r="H27" s="3">
-        <v>373700</v>
+        <v>702100</v>
       </c>
       <c r="I27" s="3">
-        <v>-1018200</v>
+        <v>361400</v>
       </c>
       <c r="J27" s="3">
+        <v>-984700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-172800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>905200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1152000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1361,27 +1421,30 @@
       <c r="F29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="3">
-        <v>-78900</v>
+      <c r="G29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H29" s="3">
-        <v>129500</v>
+        <v>-76300</v>
       </c>
       <c r="I29" s="3">
-        <v>58200</v>
+        <v>125200</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
+        <v>56300</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-26500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>148400</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-190700</v>
+        <v>-156500</v>
       </c>
       <c r="E32" s="3">
-        <v>-137600</v>
+        <v>-79200</v>
       </c>
       <c r="F32" s="3">
-        <v>221400</v>
+        <v>-44100</v>
       </c>
       <c r="G32" s="3">
-        <v>-70400</v>
+        <v>214100</v>
       </c>
       <c r="H32" s="3">
-        <v>28200</v>
+        <v>-68000</v>
       </c>
       <c r="I32" s="3">
-        <v>309300</v>
+        <v>27300</v>
       </c>
       <c r="J32" s="3">
+        <v>299100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-85400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-177300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-92500</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>563500</v>
+        <v>579100</v>
       </c>
       <c r="E33" s="3">
-        <v>626500</v>
+        <v>541900</v>
       </c>
       <c r="F33" s="3">
-        <v>433800</v>
+        <v>605800</v>
       </c>
       <c r="G33" s="3">
-        <v>647100</v>
+        <v>419500</v>
       </c>
       <c r="H33" s="3">
-        <v>503200</v>
+        <v>625800</v>
       </c>
       <c r="I33" s="3">
-        <v>-960100</v>
+        <v>486600</v>
       </c>
       <c r="J33" s="3">
+        <v>-928400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-172800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>878700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1300400</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>563500</v>
+        <v>579100</v>
       </c>
       <c r="E35" s="3">
-        <v>626500</v>
+        <v>541900</v>
       </c>
       <c r="F35" s="3">
-        <v>433800</v>
+        <v>605800</v>
       </c>
       <c r="G35" s="3">
-        <v>647100</v>
+        <v>419500</v>
       </c>
       <c r="H35" s="3">
-        <v>503200</v>
+        <v>625800</v>
       </c>
       <c r="I35" s="3">
-        <v>-960100</v>
+        <v>486600</v>
       </c>
       <c r="J35" s="3">
+        <v>-928400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-172800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>878700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1300400</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2098400</v>
+        <v>2318500</v>
       </c>
       <c r="E41" s="3">
-        <v>2460100</v>
+        <v>2029200</v>
       </c>
       <c r="F41" s="3">
-        <v>1754600</v>
+        <v>2379000</v>
       </c>
       <c r="G41" s="3">
-        <v>2639300</v>
+        <v>1696800</v>
       </c>
       <c r="H41" s="3">
-        <v>2329100</v>
+        <v>2552300</v>
       </c>
       <c r="I41" s="3">
-        <v>1718700</v>
+        <v>2252300</v>
       </c>
       <c r="J41" s="3">
+        <v>1662000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1884500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2454100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>597300</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>790200</v>
+        <v>1058500</v>
       </c>
       <c r="E42" s="3">
-        <v>905300</v>
+        <v>764200</v>
       </c>
       <c r="F42" s="3">
-        <v>885100</v>
+        <v>875400</v>
       </c>
       <c r="G42" s="3">
-        <v>655700</v>
+        <v>855900</v>
       </c>
       <c r="H42" s="3">
-        <v>266600</v>
+        <v>634100</v>
       </c>
       <c r="I42" s="3">
-        <v>302800</v>
+        <v>257800</v>
       </c>
       <c r="J42" s="3">
+        <v>292800</v>
+      </c>
+      <c r="K42" s="3">
         <v>436900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1708200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1515700</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5436900</v>
+        <v>4316000</v>
       </c>
       <c r="E43" s="3">
-        <v>5288400</v>
+        <v>5257600</v>
       </c>
       <c r="F43" s="3">
-        <v>5461600</v>
+        <v>5114100</v>
       </c>
       <c r="G43" s="3">
-        <v>4853300</v>
+        <v>5281600</v>
       </c>
       <c r="H43" s="3">
-        <v>4448500</v>
+        <v>4693300</v>
       </c>
       <c r="I43" s="3">
-        <v>5263400</v>
+        <v>4301900</v>
       </c>
       <c r="J43" s="3">
+        <v>5089900</v>
+      </c>
+      <c r="K43" s="3">
         <v>5831100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7453300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5811000</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>605600</v>
+        <v>470500</v>
       </c>
       <c r="E44" s="3">
-        <v>622400</v>
+        <v>585600</v>
       </c>
       <c r="F44" s="3">
-        <v>416500</v>
+        <v>601900</v>
       </c>
       <c r="G44" s="3">
-        <v>344000</v>
+        <v>402800</v>
       </c>
       <c r="H44" s="3">
-        <v>478100</v>
+        <v>332600</v>
       </c>
       <c r="I44" s="3">
-        <v>381200</v>
+        <v>462300</v>
       </c>
       <c r="J44" s="3">
+        <v>368600</v>
+      </c>
+      <c r="K44" s="3">
         <v>613000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1346800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>607300</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1896400</v>
+        <v>1652200</v>
       </c>
       <c r="E45" s="3">
-        <v>1547500</v>
+        <v>1832900</v>
       </c>
       <c r="F45" s="3">
-        <v>284000</v>
+        <v>1496500</v>
       </c>
       <c r="G45" s="3">
-        <v>283100</v>
+        <v>274600</v>
       </c>
       <c r="H45" s="3">
-        <v>288400</v>
+        <v>273800</v>
       </c>
       <c r="I45" s="3">
-        <v>318100</v>
+        <v>278900</v>
       </c>
       <c r="J45" s="3">
+        <v>307700</v>
+      </c>
+      <c r="K45" s="3">
         <v>309000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>305200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>280300</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10827400</v>
+        <v>9815700</v>
       </c>
       <c r="E46" s="3">
-        <v>10823800</v>
+        <v>10469600</v>
       </c>
       <c r="F46" s="3">
-        <v>8801900</v>
+        <v>10466900</v>
       </c>
       <c r="G46" s="3">
-        <v>8775400</v>
+        <v>8511700</v>
       </c>
       <c r="H46" s="3">
-        <v>7810700</v>
+        <v>8486100</v>
       </c>
       <c r="I46" s="3">
-        <v>7984200</v>
+        <v>7553200</v>
       </c>
       <c r="J46" s="3">
+        <v>7721000</v>
+      </c>
+      <c r="K46" s="3">
         <v>9074400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8834600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8811600</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2066700</v>
+        <v>2070600</v>
       </c>
       <c r="E47" s="3">
-        <v>1582100</v>
+        <v>1998600</v>
       </c>
       <c r="F47" s="3">
-        <v>1695600</v>
+        <v>1529900</v>
       </c>
       <c r="G47" s="3">
-        <v>1508600</v>
+        <v>1639700</v>
       </c>
       <c r="H47" s="3">
-        <v>1485600</v>
+        <v>1458900</v>
       </c>
       <c r="I47" s="3">
-        <v>2550500</v>
+        <v>1436600</v>
       </c>
       <c r="J47" s="3">
+        <v>2466400</v>
+      </c>
+      <c r="K47" s="3">
         <v>2525800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3649000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3468200</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14524700</v>
+        <v>14776700</v>
       </c>
       <c r="E48" s="3">
-        <v>12885000</v>
+        <v>14468100</v>
       </c>
       <c r="F48" s="3">
-        <v>13424200</v>
+        <v>12460200</v>
       </c>
       <c r="G48" s="3">
-        <v>14068700</v>
+        <v>12981600</v>
       </c>
       <c r="H48" s="3">
-        <v>14178700</v>
+        <v>13604900</v>
       </c>
       <c r="I48" s="3">
-        <v>15950300</v>
+        <v>13711300</v>
       </c>
       <c r="J48" s="3">
+        <v>15424500</v>
+      </c>
+      <c r="K48" s="3">
         <v>15918100</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="L48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13663600</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2579000</v>
+        <v>1901900</v>
       </c>
       <c r="E49" s="3">
-        <v>3100500</v>
+        <v>2494000</v>
       </c>
       <c r="F49" s="3">
-        <v>2395800</v>
+        <v>2998300</v>
       </c>
       <c r="G49" s="3">
-        <v>2750800</v>
+        <v>2316800</v>
       </c>
       <c r="H49" s="3">
-        <v>2365800</v>
+        <v>2660100</v>
       </c>
       <c r="I49" s="3">
-        <v>3225100</v>
+        <v>2287800</v>
       </c>
       <c r="J49" s="3">
+        <v>3118700</v>
+      </c>
+      <c r="K49" s="3">
         <v>3482900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5398000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2379100</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>998000</v>
+        <v>1058100</v>
       </c>
       <c r="E52" s="3">
-        <v>900500</v>
+        <v>965100</v>
       </c>
       <c r="F52" s="3">
-        <v>737700</v>
+        <v>870800</v>
       </c>
       <c r="G52" s="3">
-        <v>731300</v>
+        <v>713400</v>
       </c>
       <c r="H52" s="3">
-        <v>859700</v>
+        <v>707200</v>
       </c>
       <c r="I52" s="3">
-        <v>1047300</v>
+        <v>831400</v>
       </c>
       <c r="J52" s="3">
+        <v>1012700</v>
+      </c>
+      <c r="K52" s="3">
         <v>712300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>593000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>554300</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30995800</v>
+        <v>29623000</v>
       </c>
       <c r="E54" s="3">
-        <v>29291800</v>
+        <v>30395300</v>
       </c>
       <c r="F54" s="3">
-        <v>27055100</v>
+        <v>28326200</v>
       </c>
       <c r="G54" s="3">
-        <v>27834800</v>
+        <v>26163200</v>
       </c>
       <c r="H54" s="3">
-        <v>26700500</v>
+        <v>26917200</v>
       </c>
       <c r="I54" s="3">
-        <v>30757300</v>
+        <v>25820200</v>
       </c>
       <c r="J54" s="3">
+        <v>29743400</v>
+      </c>
+      <c r="K54" s="3">
         <v>31713600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29028600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28876900</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1187400</v>
+        <v>1091000</v>
       </c>
       <c r="E57" s="3">
-        <v>1125200</v>
+        <v>1148200</v>
       </c>
       <c r="F57" s="3">
-        <v>1273400</v>
+        <v>1088100</v>
       </c>
       <c r="G57" s="3">
-        <v>1124700</v>
+        <v>1231400</v>
       </c>
       <c r="H57" s="3">
-        <v>1174200</v>
+        <v>1087600</v>
       </c>
       <c r="I57" s="3">
-        <v>1092000</v>
+        <v>1135500</v>
       </c>
       <c r="J57" s="3">
+        <v>1056000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1562200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1531200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1471800</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1079000</v>
+        <v>1551700</v>
       </c>
       <c r="E58" s="3">
-        <v>1245300</v>
+        <v>1388800</v>
       </c>
       <c r="F58" s="3">
-        <v>1431900</v>
+        <v>1204300</v>
       </c>
       <c r="G58" s="3">
-        <v>1656200</v>
+        <v>1384700</v>
       </c>
       <c r="H58" s="3">
-        <v>1626400</v>
+        <v>1601600</v>
       </c>
       <c r="I58" s="3">
-        <v>2708000</v>
+        <v>1572800</v>
       </c>
       <c r="J58" s="3">
+        <v>2618700</v>
+      </c>
+      <c r="K58" s="3">
         <v>2766600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2697300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1942700</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6935100</v>
+        <v>5446700</v>
       </c>
       <c r="E59" s="3">
-        <v>6172300</v>
+        <v>7301400</v>
       </c>
       <c r="F59" s="3">
-        <v>5916300</v>
+        <v>5968800</v>
       </c>
       <c r="G59" s="3">
-        <v>5833300</v>
+        <v>5721200</v>
       </c>
       <c r="H59" s="3">
-        <v>5061700</v>
+        <v>5641000</v>
       </c>
       <c r="I59" s="3">
-        <v>5288300</v>
+        <v>4894800</v>
       </c>
       <c r="J59" s="3">
+        <v>5114000</v>
+      </c>
+      <c r="K59" s="3">
         <v>5885200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5235600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4456100</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9201400</v>
+        <v>8089400</v>
       </c>
       <c r="E60" s="3">
-        <v>8542800</v>
+        <v>8930300</v>
       </c>
       <c r="F60" s="3">
-        <v>8621500</v>
+        <v>8261200</v>
       </c>
       <c r="G60" s="3">
-        <v>8614200</v>
+        <v>8337300</v>
       </c>
       <c r="H60" s="3">
-        <v>7862300</v>
+        <v>8330200</v>
       </c>
       <c r="I60" s="3">
-        <v>9088300</v>
+        <v>7603100</v>
       </c>
       <c r="J60" s="3">
+        <v>8788700</v>
+      </c>
+      <c r="K60" s="3">
         <v>10213900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9464100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7870600</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5563000</v>
+        <v>5893000</v>
       </c>
       <c r="E61" s="3">
-        <v>4804600</v>
+        <v>6100200</v>
       </c>
       <c r="F61" s="3">
-        <v>4650300</v>
+        <v>4646200</v>
       </c>
       <c r="G61" s="3">
-        <v>5733700</v>
+        <v>4497000</v>
       </c>
       <c r="H61" s="3">
-        <v>6373500</v>
+        <v>5544700</v>
       </c>
       <c r="I61" s="3">
-        <v>9004100</v>
+        <v>6163400</v>
       </c>
       <c r="J61" s="3">
+        <v>8707200</v>
+      </c>
+      <c r="K61" s="3">
         <v>7745800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6944000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8078500</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2411300</v>
+        <v>1955400</v>
       </c>
       <c r="E62" s="3">
-        <v>2538900</v>
+        <v>2398800</v>
       </c>
       <c r="F62" s="3">
-        <v>1761700</v>
+        <v>2455200</v>
       </c>
       <c r="G62" s="3">
-        <v>1843700</v>
+        <v>1703600</v>
       </c>
       <c r="H62" s="3">
-        <v>1394100</v>
+        <v>1782900</v>
       </c>
       <c r="I62" s="3">
-        <v>1938300</v>
+        <v>1348200</v>
       </c>
       <c r="J62" s="3">
+        <v>1874400</v>
+      </c>
+      <c r="K62" s="3">
         <v>2071800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1517400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1643700</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18559000</v>
+        <v>17293000</v>
       </c>
       <c r="E66" s="3">
-        <v>17277400</v>
+        <v>18371500</v>
       </c>
       <c r="F66" s="3">
-        <v>16300000</v>
+        <v>16707800</v>
       </c>
       <c r="G66" s="3">
-        <v>17422700</v>
+        <v>15762600</v>
       </c>
       <c r="H66" s="3">
-        <v>16831500</v>
+        <v>16848300</v>
       </c>
       <c r="I66" s="3">
-        <v>21349500</v>
+        <v>16276600</v>
       </c>
       <c r="J66" s="3">
+        <v>20645700</v>
+      </c>
+      <c r="K66" s="3">
         <v>21041400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18688900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18343100</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10589800</v>
+        <v>10696800</v>
       </c>
       <c r="E72" s="3">
-        <v>10309300</v>
+        <v>10237700</v>
       </c>
       <c r="F72" s="3">
-        <v>9089400</v>
+        <v>9969400</v>
       </c>
       <c r="G72" s="3">
-        <v>8787500</v>
+        <v>8789800</v>
       </c>
       <c r="H72" s="3">
-        <v>8244000</v>
+        <v>8497800</v>
       </c>
       <c r="I72" s="3">
-        <v>7797200</v>
+        <v>7972200</v>
       </c>
       <c r="J72" s="3">
+        <v>7540200</v>
+      </c>
+      <c r="K72" s="3">
         <v>9117600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17885900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9197700</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12436800</v>
+        <v>12330100</v>
       </c>
       <c r="E76" s="3">
-        <v>12014400</v>
+        <v>12023800</v>
       </c>
       <c r="F76" s="3">
-        <v>10755100</v>
+        <v>11618400</v>
       </c>
       <c r="G76" s="3">
-        <v>10412200</v>
+        <v>10400600</v>
       </c>
       <c r="H76" s="3">
-        <v>9869000</v>
+        <v>10068900</v>
       </c>
       <c r="I76" s="3">
-        <v>9407800</v>
+        <v>9543700</v>
       </c>
       <c r="J76" s="3">
+        <v>9097600</v>
+      </c>
+      <c r="K76" s="3">
         <v>10672200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10339700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10533800</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>563500</v>
+        <v>579100</v>
       </c>
       <c r="E81" s="3">
-        <v>626500</v>
+        <v>541900</v>
       </c>
       <c r="F81" s="3">
-        <v>433800</v>
+        <v>605800</v>
       </c>
       <c r="G81" s="3">
-        <v>647100</v>
+        <v>419500</v>
       </c>
       <c r="H81" s="3">
-        <v>503200</v>
+        <v>625800</v>
       </c>
       <c r="I81" s="3">
-        <v>-960100</v>
+        <v>486600</v>
       </c>
       <c r="J81" s="3">
+        <v>-928400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-172800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>878700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1300400</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3349300</v>
+        <v>3227500</v>
       </c>
       <c r="E83" s="3">
-        <v>3062100</v>
+        <v>3238900</v>
       </c>
       <c r="F83" s="3">
-        <v>3128300</v>
+        <v>2961100</v>
       </c>
       <c r="G83" s="3">
-        <v>3113600</v>
+        <v>3025200</v>
       </c>
       <c r="H83" s="3">
-        <v>3312400</v>
+        <v>3010900</v>
       </c>
       <c r="I83" s="3">
-        <v>3507800</v>
+        <v>3203200</v>
       </c>
       <c r="J83" s="3">
+        <v>3392200</v>
+      </c>
+      <c r="K83" s="3">
         <v>3294900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2783600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2696800</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3408100</v>
+        <v>4171000</v>
       </c>
       <c r="E89" s="3">
-        <v>3649500</v>
+        <v>3295800</v>
       </c>
       <c r="F89" s="3">
-        <v>3528800</v>
+        <v>3529200</v>
       </c>
       <c r="G89" s="3">
-        <v>4341400</v>
+        <v>3412400</v>
       </c>
       <c r="H89" s="3">
-        <v>3849300</v>
+        <v>4198300</v>
       </c>
       <c r="I89" s="3">
-        <v>1743900</v>
+        <v>3722400</v>
       </c>
       <c r="J89" s="3">
+        <v>1686400</v>
+      </c>
+      <c r="K89" s="3">
         <v>3741100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4809400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1947600</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2975300</v>
+        <v>-2827800</v>
       </c>
       <c r="E91" s="3">
-        <v>-2057400</v>
+        <v>-2877200</v>
       </c>
       <c r="F91" s="3">
-        <v>-2222400</v>
+        <v>-1989600</v>
       </c>
       <c r="G91" s="3">
-        <v>-2515600</v>
+        <v>-2149200</v>
       </c>
       <c r="H91" s="3">
-        <v>-2835300</v>
+        <v>-2432600</v>
       </c>
       <c r="I91" s="3">
-        <v>-2596100</v>
+        <v>-2741800</v>
       </c>
       <c r="J91" s="3">
+        <v>-2510500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2810200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3158600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3155000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3537600</v>
+        <v>-3310100</v>
       </c>
       <c r="E94" s="3">
-        <v>-2460800</v>
+        <v>-3421000</v>
       </c>
       <c r="F94" s="3">
-        <v>-3169800</v>
+        <v>-2379600</v>
       </c>
       <c r="G94" s="3">
-        <v>-3171300</v>
+        <v>-3065300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2185700</v>
+        <v>-3066800</v>
       </c>
       <c r="I94" s="3">
-        <v>-2885600</v>
+        <v>-2113600</v>
       </c>
       <c r="J94" s="3">
+        <v>-2790400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3442200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3235000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2399100</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-277700</v>
+        <v>-273300</v>
       </c>
       <c r="E96" s="3">
-        <v>-271800</v>
+        <v>-268500</v>
       </c>
       <c r="F96" s="3">
-        <v>-221300</v>
+        <v>-262800</v>
       </c>
       <c r="G96" s="3">
-        <v>-167500</v>
+        <v>-214000</v>
       </c>
       <c r="H96" s="3">
-        <v>-37800</v>
+        <v>-162000</v>
       </c>
       <c r="I96" s="3">
-        <v>-202700</v>
+        <v>-36600</v>
       </c>
       <c r="J96" s="3">
+        <v>-196000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-465300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-827100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1063400</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-227300</v>
+        <v>-569900</v>
       </c>
       <c r="E100" s="3">
-        <v>-483800</v>
+        <v>-219800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1240800</v>
+        <v>-467900</v>
       </c>
       <c r="G100" s="3">
-        <v>-858400</v>
+        <v>-1199900</v>
       </c>
       <c r="H100" s="3">
-        <v>-1059200</v>
+        <v>-830100</v>
       </c>
       <c r="I100" s="3">
-        <v>975200</v>
+        <v>-1024300</v>
       </c>
       <c r="J100" s="3">
+        <v>943100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-283700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1073400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>695200</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5000</v>
+        <v>-1800</v>
       </c>
       <c r="E101" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
-        <v>-2900</v>
-      </c>
       <c r="G101" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1500</v>
       </c>
-      <c r="H101" s="3">
-        <v>6100</v>
-      </c>
       <c r="I101" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>11500</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-361800</v>
+        <v>289300</v>
       </c>
       <c r="E102" s="3">
-        <v>705500</v>
+        <v>-349800</v>
       </c>
       <c r="F102" s="3">
-        <v>-884600</v>
+        <v>682200</v>
       </c>
       <c r="G102" s="3">
-        <v>310200</v>
+        <v>-855500</v>
       </c>
       <c r="H102" s="3">
-        <v>610400</v>
+        <v>299900</v>
       </c>
       <c r="I102" s="3">
-        <v>-165800</v>
+        <v>590300</v>
       </c>
       <c r="J102" s="3">
+        <v>-160300</v>
+      </c>
+      <c r="K102" s="3">
         <v>12100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>500200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>255200</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/KT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KT_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21046700</v>
+        <v>21285800</v>
       </c>
       <c r="E8" s="3">
-        <v>21421000</v>
+        <v>21664400</v>
       </c>
       <c r="F8" s="3">
-        <v>20644900</v>
+        <v>20879500</v>
       </c>
       <c r="G8" s="3">
-        <v>20580800</v>
+        <v>20814700</v>
       </c>
       <c r="H8" s="3">
-        <v>20014400</v>
+        <v>20241900</v>
       </c>
       <c r="I8" s="3">
-        <v>19607500</v>
+        <v>19830300</v>
       </c>
       <c r="J8" s="3">
-        <v>19634300</v>
+        <v>19857400</v>
       </c>
       <c r="K8" s="3">
         <v>21892700</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8497300</v>
+        <v>8593800</v>
       </c>
       <c r="E9" s="3">
-        <v>8965500</v>
+        <v>9067400</v>
       </c>
       <c r="F9" s="3">
-        <v>8308300</v>
+        <v>8402700</v>
       </c>
       <c r="G9" s="3">
-        <v>8134900</v>
+        <v>8227400</v>
       </c>
       <c r="H9" s="3">
-        <v>7786600</v>
+        <v>7875100</v>
       </c>
       <c r="I9" s="3">
-        <v>7751900</v>
+        <v>7840000</v>
       </c>
       <c r="J9" s="3">
-        <v>7861800</v>
+        <v>7951100</v>
       </c>
       <c r="K9" s="3">
         <v>6253800</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12549400</v>
+        <v>12692000</v>
       </c>
       <c r="E10" s="3">
-        <v>12455500</v>
+        <v>12597000</v>
       </c>
       <c r="F10" s="3">
-        <v>12336700</v>
+        <v>12476800</v>
       </c>
       <c r="G10" s="3">
-        <v>12445900</v>
+        <v>12587300</v>
       </c>
       <c r="H10" s="3">
-        <v>12227800</v>
+        <v>12366800</v>
       </c>
       <c r="I10" s="3">
-        <v>11855500</v>
+        <v>11990300</v>
       </c>
       <c r="J10" s="3">
-        <v>11772500</v>
+        <v>11906200</v>
       </c>
       <c r="K10" s="3">
         <v>15638900</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>138100</v>
+        <v>139700</v>
       </c>
       <c r="E12" s="3">
-        <v>145200</v>
+        <v>146900</v>
       </c>
       <c r="F12" s="3">
-        <v>155500</v>
+        <v>157300</v>
       </c>
       <c r="G12" s="3">
-        <v>148400</v>
+        <v>150100</v>
       </c>
       <c r="H12" s="3">
-        <v>147700</v>
+        <v>149400</v>
       </c>
       <c r="I12" s="3">
-        <v>161800</v>
+        <v>163600</v>
       </c>
       <c r="J12" s="3">
-        <v>169000</v>
+        <v>170900</v>
       </c>
       <c r="K12" s="3">
         <v>156000</v>
@@ -916,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>108500</v>
+        <v>109700</v>
       </c>
       <c r="E14" s="3">
         <v>-4500</v>
       </c>
       <c r="F14" s="3">
-        <v>-66900</v>
+        <v>-67600</v>
       </c>
       <c r="G14" s="3">
-        <v>-6600</v>
+        <v>-6700</v>
       </c>
       <c r="H14" s="3">
-        <v>46700</v>
+        <v>47200</v>
       </c>
       <c r="I14" s="3">
-        <v>137800</v>
+        <v>139300</v>
       </c>
       <c r="J14" s="3">
-        <v>94200</v>
+        <v>95300</v>
       </c>
       <c r="K14" s="3">
         <v>4600</v>
@@ -952,25 +952,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>3198200</v>
+        <v>3234500</v>
       </c>
       <c r="E15" s="3">
-        <v>3194000</v>
+        <v>3230200</v>
       </c>
       <c r="F15" s="3">
-        <v>2887900</v>
+        <v>2920700</v>
       </c>
       <c r="G15" s="3">
-        <v>2960800</v>
+        <v>2994400</v>
       </c>
       <c r="H15" s="3">
-        <v>2943800</v>
+        <v>2977300</v>
       </c>
       <c r="I15" s="3">
-        <v>2938000</v>
+        <v>2971400</v>
       </c>
       <c r="J15" s="3">
-        <v>2926600</v>
+        <v>2959900</v>
       </c>
       <c r="K15" s="3">
         <v>3245200</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>20113100</v>
+        <v>20341700</v>
       </c>
       <c r="E17" s="3">
-        <v>20396100</v>
+        <v>20627900</v>
       </c>
       <c r="F17" s="3">
-        <v>19467900</v>
+        <v>19689100</v>
       </c>
       <c r="G17" s="3">
-        <v>19363900</v>
+        <v>19583900</v>
       </c>
       <c r="H17" s="3">
-        <v>18793900</v>
+        <v>19007500</v>
       </c>
       <c r="I17" s="3">
-        <v>18607500</v>
+        <v>18818900</v>
       </c>
       <c r="J17" s="3">
-        <v>20086300</v>
+        <v>20314500</v>
       </c>
       <c r="K17" s="3">
         <v>21603000</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>933500</v>
+        <v>944200</v>
       </c>
       <c r="E18" s="3">
-        <v>1024900</v>
+        <v>1036600</v>
       </c>
       <c r="F18" s="3">
-        <v>1177000</v>
+        <v>1190400</v>
       </c>
       <c r="G18" s="3">
-        <v>1216900</v>
+        <v>1230700</v>
       </c>
       <c r="H18" s="3">
-        <v>1220500</v>
+        <v>1234400</v>
       </c>
       <c r="I18" s="3">
-        <v>1000000</v>
+        <v>1011400</v>
       </c>
       <c r="J18" s="3">
-        <v>-452000</v>
+        <v>-457100</v>
       </c>
       <c r="K18" s="3">
         <v>289700</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>156500</v>
+        <v>158200</v>
       </c>
       <c r="E20" s="3">
-        <v>79200</v>
+        <v>80100</v>
       </c>
       <c r="F20" s="3">
-        <v>44100</v>
+        <v>44600</v>
       </c>
       <c r="G20" s="3">
-        <v>-214100</v>
+        <v>-216600</v>
       </c>
       <c r="H20" s="3">
-        <v>68000</v>
+        <v>68800</v>
       </c>
       <c r="I20" s="3">
-        <v>-27300</v>
+        <v>-27600</v>
       </c>
       <c r="J20" s="3">
-        <v>-299100</v>
+        <v>-302500</v>
       </c>
       <c r="K20" s="3">
         <v>85400</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4317500</v>
+        <v>4366600</v>
       </c>
       <c r="E21" s="3">
-        <v>4343000</v>
+        <v>4392300</v>
       </c>
       <c r="F21" s="3">
-        <v>4182200</v>
+        <v>4229800</v>
       </c>
       <c r="G21" s="3">
-        <v>4027900</v>
+        <v>4073700</v>
       </c>
       <c r="H21" s="3">
-        <v>4299500</v>
+        <v>4348300</v>
       </c>
       <c r="I21" s="3">
-        <v>4175900</v>
+        <v>4223400</v>
       </c>
       <c r="J21" s="3">
-        <v>2641100</v>
+        <v>2671100</v>
       </c>
       <c r="K21" s="3">
         <v>3633700</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>231900</v>
+        <v>234600</v>
       </c>
       <c r="E22" s="3">
-        <v>245000</v>
+        <v>247800</v>
       </c>
       <c r="F22" s="3">
-        <v>261200</v>
+        <v>264200</v>
       </c>
       <c r="G22" s="3">
-        <v>266200</v>
+        <v>269200</v>
       </c>
       <c r="H22" s="3">
-        <v>296800</v>
+        <v>300100</v>
       </c>
       <c r="I22" s="3">
-        <v>339600</v>
+        <v>343500</v>
       </c>
       <c r="J22" s="3">
-        <v>418100</v>
+        <v>422800</v>
       </c>
       <c r="K22" s="3">
         <v>409800</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>858000</v>
+        <v>867800</v>
       </c>
       <c r="E23" s="3">
-        <v>859100</v>
+        <v>868900</v>
       </c>
       <c r="F23" s="3">
-        <v>959900</v>
+        <v>970800</v>
       </c>
       <c r="G23" s="3">
-        <v>736600</v>
+        <v>745000</v>
       </c>
       <c r="H23" s="3">
-        <v>991800</v>
+        <v>1003100</v>
       </c>
       <c r="I23" s="3">
-        <v>633100</v>
+        <v>640300</v>
       </c>
       <c r="J23" s="3">
-        <v>-1169100</v>
+        <v>-1182400</v>
       </c>
       <c r="K23" s="3">
         <v>-34700</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>239100</v>
+        <v>241800</v>
       </c>
       <c r="E24" s="3">
-        <v>273100</v>
+        <v>276200</v>
       </c>
       <c r="F24" s="3">
-        <v>289000</v>
+        <v>292300</v>
       </c>
       <c r="G24" s="3">
-        <v>242400</v>
+        <v>245200</v>
       </c>
       <c r="H24" s="3">
-        <v>289700</v>
+        <v>293000</v>
       </c>
       <c r="I24" s="3">
-        <v>201700</v>
+        <v>204000</v>
       </c>
       <c r="J24" s="3">
-        <v>-242900</v>
+        <v>-245600</v>
       </c>
       <c r="K24" s="3">
         <v>45100</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>619000</v>
+        <v>626000</v>
       </c>
       <c r="E26" s="3">
-        <v>586000</v>
+        <v>592700</v>
       </c>
       <c r="F26" s="3">
-        <v>670800</v>
+        <v>678500</v>
       </c>
       <c r="G26" s="3">
-        <v>494100</v>
+        <v>499800</v>
       </c>
       <c r="H26" s="3">
-        <v>702100</v>
+        <v>710100</v>
       </c>
       <c r="I26" s="3">
-        <v>431400</v>
+        <v>436300</v>
       </c>
       <c r="J26" s="3">
-        <v>-926300</v>
+        <v>-936800</v>
       </c>
       <c r="K26" s="3">
         <v>-79800</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>579100</v>
+        <v>585600</v>
       </c>
       <c r="E27" s="3">
-        <v>541900</v>
+        <v>548000</v>
       </c>
       <c r="F27" s="3">
-        <v>605800</v>
+        <v>612700</v>
       </c>
       <c r="G27" s="3">
-        <v>419500</v>
+        <v>424300</v>
       </c>
       <c r="H27" s="3">
-        <v>702100</v>
+        <v>710100</v>
       </c>
       <c r="I27" s="3">
-        <v>361400</v>
+        <v>365500</v>
       </c>
       <c r="J27" s="3">
-        <v>-984700</v>
+        <v>-995900</v>
       </c>
       <c r="K27" s="3">
         <v>-172800</v>
@@ -1425,13 +1425,13 @@
         <v>24</v>
       </c>
       <c r="H29" s="3">
-        <v>-76300</v>
+        <v>-77200</v>
       </c>
       <c r="I29" s="3">
-        <v>125200</v>
+        <v>126700</v>
       </c>
       <c r="J29" s="3">
-        <v>56300</v>
+        <v>56900</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-156500</v>
+        <v>-158200</v>
       </c>
       <c r="E32" s="3">
-        <v>-79200</v>
+        <v>-80100</v>
       </c>
       <c r="F32" s="3">
-        <v>-44100</v>
+        <v>-44600</v>
       </c>
       <c r="G32" s="3">
-        <v>214100</v>
+        <v>216600</v>
       </c>
       <c r="H32" s="3">
-        <v>-68000</v>
+        <v>-68800</v>
       </c>
       <c r="I32" s="3">
-        <v>27300</v>
+        <v>27600</v>
       </c>
       <c r="J32" s="3">
-        <v>299100</v>
+        <v>302500</v>
       </c>
       <c r="K32" s="3">
         <v>-85400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>579100</v>
+        <v>585600</v>
       </c>
       <c r="E33" s="3">
-        <v>541900</v>
+        <v>548000</v>
       </c>
       <c r="F33" s="3">
-        <v>605800</v>
+        <v>612700</v>
       </c>
       <c r="G33" s="3">
-        <v>419500</v>
+        <v>424300</v>
       </c>
       <c r="H33" s="3">
-        <v>625800</v>
+        <v>632900</v>
       </c>
       <c r="I33" s="3">
-        <v>486600</v>
+        <v>492100</v>
       </c>
       <c r="J33" s="3">
-        <v>-928400</v>
+        <v>-939000</v>
       </c>
       <c r="K33" s="3">
         <v>-172800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>579100</v>
+        <v>585600</v>
       </c>
       <c r="E35" s="3">
-        <v>541900</v>
+        <v>548000</v>
       </c>
       <c r="F35" s="3">
-        <v>605800</v>
+        <v>612700</v>
       </c>
       <c r="G35" s="3">
-        <v>419500</v>
+        <v>424300</v>
       </c>
       <c r="H35" s="3">
-        <v>625800</v>
+        <v>632900</v>
       </c>
       <c r="I35" s="3">
-        <v>486600</v>
+        <v>492100</v>
       </c>
       <c r="J35" s="3">
-        <v>-928400</v>
+        <v>-939000</v>
       </c>
       <c r="K35" s="3">
         <v>-172800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2318500</v>
+        <v>2344800</v>
       </c>
       <c r="E41" s="3">
-        <v>2029200</v>
+        <v>2052200</v>
       </c>
       <c r="F41" s="3">
-        <v>2379000</v>
+        <v>2406000</v>
       </c>
       <c r="G41" s="3">
-        <v>1696800</v>
+        <v>1716100</v>
       </c>
       <c r="H41" s="3">
-        <v>2552300</v>
+        <v>2581300</v>
       </c>
       <c r="I41" s="3">
-        <v>2252300</v>
+        <v>2277900</v>
       </c>
       <c r="J41" s="3">
-        <v>1662000</v>
+        <v>1680900</v>
       </c>
       <c r="K41" s="3">
         <v>1884500</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1058500</v>
+        <v>1070500</v>
       </c>
       <c r="E42" s="3">
-        <v>764200</v>
+        <v>772900</v>
       </c>
       <c r="F42" s="3">
-        <v>875400</v>
+        <v>885400</v>
       </c>
       <c r="G42" s="3">
-        <v>855900</v>
+        <v>865600</v>
       </c>
       <c r="H42" s="3">
-        <v>634100</v>
+        <v>641300</v>
       </c>
       <c r="I42" s="3">
-        <v>257800</v>
+        <v>260700</v>
       </c>
       <c r="J42" s="3">
-        <v>292800</v>
+        <v>296100</v>
       </c>
       <c r="K42" s="3">
         <v>436900</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4316000</v>
+        <v>4365000</v>
       </c>
       <c r="E43" s="3">
-        <v>5257600</v>
+        <v>5317400</v>
       </c>
       <c r="F43" s="3">
-        <v>5114100</v>
+        <v>5172200</v>
       </c>
       <c r="G43" s="3">
-        <v>5281600</v>
+        <v>5341600</v>
       </c>
       <c r="H43" s="3">
-        <v>4693300</v>
+        <v>4746700</v>
       </c>
       <c r="I43" s="3">
-        <v>4301900</v>
+        <v>4350800</v>
       </c>
       <c r="J43" s="3">
-        <v>5089900</v>
+        <v>5147700</v>
       </c>
       <c r="K43" s="3">
         <v>5831100</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>470500</v>
+        <v>475800</v>
       </c>
       <c r="E44" s="3">
-        <v>585600</v>
+        <v>592300</v>
       </c>
       <c r="F44" s="3">
-        <v>601900</v>
+        <v>608800</v>
       </c>
       <c r="G44" s="3">
-        <v>402800</v>
+        <v>407400</v>
       </c>
       <c r="H44" s="3">
-        <v>332600</v>
+        <v>336400</v>
       </c>
       <c r="I44" s="3">
-        <v>462300</v>
+        <v>467600</v>
       </c>
       <c r="J44" s="3">
-        <v>368600</v>
+        <v>372800</v>
       </c>
       <c r="K44" s="3">
         <v>613000</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1652200</v>
+        <v>1671000</v>
       </c>
       <c r="E45" s="3">
-        <v>1832900</v>
+        <v>1853800</v>
       </c>
       <c r="F45" s="3">
-        <v>1496500</v>
+        <v>1513500</v>
       </c>
       <c r="G45" s="3">
-        <v>274600</v>
+        <v>277800</v>
       </c>
       <c r="H45" s="3">
-        <v>273800</v>
+        <v>276900</v>
       </c>
       <c r="I45" s="3">
-        <v>278900</v>
+        <v>282000</v>
       </c>
       <c r="J45" s="3">
-        <v>307700</v>
+        <v>311200</v>
       </c>
       <c r="K45" s="3">
         <v>309000</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9815700</v>
+        <v>9927200</v>
       </c>
       <c r="E46" s="3">
-        <v>10469600</v>
+        <v>10588500</v>
       </c>
       <c r="F46" s="3">
-        <v>10466900</v>
+        <v>10585900</v>
       </c>
       <c r="G46" s="3">
-        <v>8511700</v>
+        <v>8608400</v>
       </c>
       <c r="H46" s="3">
-        <v>8486100</v>
+        <v>8582500</v>
       </c>
       <c r="I46" s="3">
-        <v>7553200</v>
+        <v>7639000</v>
       </c>
       <c r="J46" s="3">
-        <v>7721000</v>
+        <v>7808700</v>
       </c>
       <c r="K46" s="3">
         <v>9074400</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2070600</v>
+        <v>2094200</v>
       </c>
       <c r="E47" s="3">
-        <v>1998600</v>
+        <v>2021300</v>
       </c>
       <c r="F47" s="3">
-        <v>1529900</v>
+        <v>1547300</v>
       </c>
       <c r="G47" s="3">
-        <v>1639700</v>
+        <v>1658300</v>
       </c>
       <c r="H47" s="3">
-        <v>1458900</v>
+        <v>1475500</v>
       </c>
       <c r="I47" s="3">
-        <v>1436600</v>
+        <v>1452900</v>
       </c>
       <c r="J47" s="3">
-        <v>2466400</v>
+        <v>2494400</v>
       </c>
       <c r="K47" s="3">
         <v>2525800</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14776700</v>
+        <v>14944700</v>
       </c>
       <c r="E48" s="3">
-        <v>14468100</v>
+        <v>14632500</v>
       </c>
       <c r="F48" s="3">
-        <v>12460200</v>
+        <v>12601800</v>
       </c>
       <c r="G48" s="3">
-        <v>12981600</v>
+        <v>13129100</v>
       </c>
       <c r="H48" s="3">
-        <v>13604900</v>
+        <v>13759500</v>
       </c>
       <c r="I48" s="3">
-        <v>13711300</v>
+        <v>13867100</v>
       </c>
       <c r="J48" s="3">
-        <v>15424500</v>
+        <v>15599800</v>
       </c>
       <c r="K48" s="3">
         <v>15918100</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1901900</v>
+        <v>1923500</v>
       </c>
       <c r="E49" s="3">
-        <v>2494000</v>
+        <v>2522300</v>
       </c>
       <c r="F49" s="3">
-        <v>2998300</v>
+        <v>3032300</v>
       </c>
       <c r="G49" s="3">
-        <v>2316800</v>
+        <v>2343100</v>
       </c>
       <c r="H49" s="3">
-        <v>2660100</v>
+        <v>2690300</v>
       </c>
       <c r="I49" s="3">
-        <v>2287800</v>
+        <v>2313800</v>
       </c>
       <c r="J49" s="3">
-        <v>3118700</v>
+        <v>3154200</v>
       </c>
       <c r="K49" s="3">
         <v>3482900</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1058100</v>
+        <v>1070100</v>
       </c>
       <c r="E52" s="3">
-        <v>965100</v>
+        <v>976000</v>
       </c>
       <c r="F52" s="3">
-        <v>870800</v>
+        <v>880700</v>
       </c>
       <c r="G52" s="3">
-        <v>713400</v>
+        <v>721500</v>
       </c>
       <c r="H52" s="3">
-        <v>707200</v>
+        <v>715300</v>
       </c>
       <c r="I52" s="3">
-        <v>831400</v>
+        <v>840800</v>
       </c>
       <c r="J52" s="3">
-        <v>1012700</v>
+        <v>1024200</v>
       </c>
       <c r="K52" s="3">
         <v>712300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29623000</v>
+        <v>29959700</v>
       </c>
       <c r="E54" s="3">
-        <v>30395300</v>
+        <v>30740700</v>
       </c>
       <c r="F54" s="3">
-        <v>28326200</v>
+        <v>28648100</v>
       </c>
       <c r="G54" s="3">
-        <v>26163200</v>
+        <v>26460500</v>
       </c>
       <c r="H54" s="3">
-        <v>26917200</v>
+        <v>27223100</v>
       </c>
       <c r="I54" s="3">
-        <v>25820200</v>
+        <v>26113700</v>
       </c>
       <c r="J54" s="3">
-        <v>29743400</v>
+        <v>30081400</v>
       </c>
       <c r="K54" s="3">
         <v>31713600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1091000</v>
+        <v>1103300</v>
       </c>
       <c r="E57" s="3">
-        <v>1148200</v>
+        <v>1161300</v>
       </c>
       <c r="F57" s="3">
-        <v>1088100</v>
+        <v>1100500</v>
       </c>
       <c r="G57" s="3">
-        <v>1231400</v>
+        <v>1245400</v>
       </c>
       <c r="H57" s="3">
-        <v>1087600</v>
+        <v>1100000</v>
       </c>
       <c r="I57" s="3">
-        <v>1135500</v>
+        <v>1148400</v>
       </c>
       <c r="J57" s="3">
-        <v>1056000</v>
+        <v>1068000</v>
       </c>
       <c r="K57" s="3">
         <v>1562200</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1551700</v>
+        <v>1569400</v>
       </c>
       <c r="E58" s="3">
-        <v>1388800</v>
+        <v>1404600</v>
       </c>
       <c r="F58" s="3">
-        <v>1204300</v>
+        <v>1217900</v>
       </c>
       <c r="G58" s="3">
-        <v>1384700</v>
+        <v>1400400</v>
       </c>
       <c r="H58" s="3">
-        <v>1601600</v>
+        <v>1619800</v>
       </c>
       <c r="I58" s="3">
-        <v>1572800</v>
+        <v>1590700</v>
       </c>
       <c r="J58" s="3">
-        <v>2618700</v>
+        <v>2648500</v>
       </c>
       <c r="K58" s="3">
         <v>2766600</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5446700</v>
+        <v>5508600</v>
       </c>
       <c r="E59" s="3">
-        <v>7301400</v>
+        <v>7384400</v>
       </c>
       <c r="F59" s="3">
-        <v>5968800</v>
+        <v>6036600</v>
       </c>
       <c r="G59" s="3">
-        <v>5721200</v>
+        <v>5786200</v>
       </c>
       <c r="H59" s="3">
-        <v>5641000</v>
+        <v>5705100</v>
       </c>
       <c r="I59" s="3">
-        <v>4894800</v>
+        <v>4950400</v>
       </c>
       <c r="J59" s="3">
-        <v>5114000</v>
+        <v>5172100</v>
       </c>
       <c r="K59" s="3">
         <v>5885200</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8089400</v>
+        <v>8181300</v>
       </c>
       <c r="E60" s="3">
-        <v>8930300</v>
+        <v>9031800</v>
       </c>
       <c r="F60" s="3">
-        <v>8261200</v>
+        <v>8355100</v>
       </c>
       <c r="G60" s="3">
-        <v>8337300</v>
+        <v>8432000</v>
       </c>
       <c r="H60" s="3">
-        <v>8330200</v>
+        <v>8424900</v>
       </c>
       <c r="I60" s="3">
-        <v>7603100</v>
+        <v>7689500</v>
       </c>
       <c r="J60" s="3">
-        <v>8788700</v>
+        <v>8888600</v>
       </c>
       <c r="K60" s="3">
         <v>10213900</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5893000</v>
+        <v>5960000</v>
       </c>
       <c r="E61" s="3">
-        <v>6100200</v>
+        <v>6169500</v>
       </c>
       <c r="F61" s="3">
-        <v>4646200</v>
+        <v>4699000</v>
       </c>
       <c r="G61" s="3">
-        <v>4497000</v>
+        <v>4548100</v>
       </c>
       <c r="H61" s="3">
-        <v>5544700</v>
+        <v>5607700</v>
       </c>
       <c r="I61" s="3">
-        <v>6163400</v>
+        <v>6233400</v>
       </c>
       <c r="J61" s="3">
-        <v>8707200</v>
+        <v>8806200</v>
       </c>
       <c r="K61" s="3">
         <v>7745800</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1955400</v>
+        <v>1977600</v>
       </c>
       <c r="E62" s="3">
-        <v>2398800</v>
+        <v>2426100</v>
       </c>
       <c r="F62" s="3">
-        <v>2455200</v>
+        <v>2483100</v>
       </c>
       <c r="G62" s="3">
-        <v>1703600</v>
+        <v>1723000</v>
       </c>
       <c r="H62" s="3">
-        <v>1782900</v>
+        <v>1803200</v>
       </c>
       <c r="I62" s="3">
-        <v>1348200</v>
+        <v>1363500</v>
       </c>
       <c r="J62" s="3">
-        <v>1874400</v>
+        <v>1895700</v>
       </c>
       <c r="K62" s="3">
         <v>2071800</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17293000</v>
+        <v>17489500</v>
       </c>
       <c r="E66" s="3">
-        <v>18371500</v>
+        <v>18580300</v>
       </c>
       <c r="F66" s="3">
-        <v>16707800</v>
+        <v>16897700</v>
       </c>
       <c r="G66" s="3">
-        <v>15762600</v>
+        <v>15941700</v>
       </c>
       <c r="H66" s="3">
-        <v>16848300</v>
+        <v>17039800</v>
       </c>
       <c r="I66" s="3">
-        <v>16276600</v>
+        <v>16461500</v>
       </c>
       <c r="J66" s="3">
-        <v>20645700</v>
+        <v>20880300</v>
       </c>
       <c r="K66" s="3">
         <v>21041400</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10696800</v>
+        <v>10818300</v>
       </c>
       <c r="E72" s="3">
-        <v>10237700</v>
+        <v>10354100</v>
       </c>
       <c r="F72" s="3">
-        <v>9969400</v>
+        <v>10082700</v>
       </c>
       <c r="G72" s="3">
-        <v>8789800</v>
+        <v>8889700</v>
       </c>
       <c r="H72" s="3">
-        <v>8497800</v>
+        <v>8594300</v>
       </c>
       <c r="I72" s="3">
-        <v>7972200</v>
+        <v>8062800</v>
       </c>
       <c r="J72" s="3">
-        <v>7540200</v>
+        <v>7625900</v>
       </c>
       <c r="K72" s="3">
         <v>9117600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12330100</v>
+        <v>12470200</v>
       </c>
       <c r="E76" s="3">
-        <v>12023800</v>
+        <v>12160400</v>
       </c>
       <c r="F76" s="3">
-        <v>11618400</v>
+        <v>11750400</v>
       </c>
       <c r="G76" s="3">
-        <v>10400600</v>
+        <v>10518800</v>
       </c>
       <c r="H76" s="3">
-        <v>10068900</v>
+        <v>10183300</v>
       </c>
       <c r="I76" s="3">
-        <v>9543700</v>
+        <v>9652100</v>
       </c>
       <c r="J76" s="3">
-        <v>9097600</v>
+        <v>9201000</v>
       </c>
       <c r="K76" s="3">
         <v>10672200</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>579100</v>
+        <v>585600</v>
       </c>
       <c r="E81" s="3">
-        <v>541900</v>
+        <v>548000</v>
       </c>
       <c r="F81" s="3">
-        <v>605800</v>
+        <v>612700</v>
       </c>
       <c r="G81" s="3">
-        <v>419500</v>
+        <v>424300</v>
       </c>
       <c r="H81" s="3">
-        <v>625800</v>
+        <v>632900</v>
       </c>
       <c r="I81" s="3">
-        <v>486600</v>
+        <v>492100</v>
       </c>
       <c r="J81" s="3">
-        <v>-928400</v>
+        <v>-939000</v>
       </c>
       <c r="K81" s="3">
         <v>-172800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3227500</v>
+        <v>3264200</v>
       </c>
       <c r="E83" s="3">
-        <v>3238900</v>
+        <v>3275700</v>
       </c>
       <c r="F83" s="3">
-        <v>2961100</v>
+        <v>2994800</v>
       </c>
       <c r="G83" s="3">
-        <v>3025200</v>
+        <v>3059500</v>
       </c>
       <c r="H83" s="3">
-        <v>3010900</v>
+        <v>3045100</v>
       </c>
       <c r="I83" s="3">
-        <v>3203200</v>
+        <v>3239600</v>
       </c>
       <c r="J83" s="3">
-        <v>3392200</v>
+        <v>3430700</v>
       </c>
       <c r="K83" s="3">
         <v>3294900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4171000</v>
+        <v>4218400</v>
       </c>
       <c r="E89" s="3">
-        <v>3295800</v>
+        <v>3333200</v>
       </c>
       <c r="F89" s="3">
-        <v>3529200</v>
+        <v>3569300</v>
       </c>
       <c r="G89" s="3">
-        <v>3412400</v>
+        <v>3451200</v>
       </c>
       <c r="H89" s="3">
-        <v>4198300</v>
+        <v>4246000</v>
       </c>
       <c r="I89" s="3">
-        <v>3722400</v>
+        <v>3764700</v>
       </c>
       <c r="J89" s="3">
-        <v>1686400</v>
+        <v>1705600</v>
       </c>
       <c r="K89" s="3">
         <v>3741100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2827800</v>
+        <v>-2859900</v>
       </c>
       <c r="E91" s="3">
-        <v>-2877200</v>
+        <v>-2909900</v>
       </c>
       <c r="F91" s="3">
-        <v>-1989600</v>
+        <v>-2012200</v>
       </c>
       <c r="G91" s="3">
-        <v>-2149200</v>
+        <v>-2173600</v>
       </c>
       <c r="H91" s="3">
-        <v>-2432600</v>
+        <v>-2460300</v>
       </c>
       <c r="I91" s="3">
-        <v>-2741800</v>
+        <v>-2773000</v>
       </c>
       <c r="J91" s="3">
-        <v>-2510500</v>
+        <v>-2539100</v>
       </c>
       <c r="K91" s="3">
         <v>-2810200</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3310100</v>
+        <v>-3347700</v>
       </c>
       <c r="E94" s="3">
-        <v>-3421000</v>
+        <v>-3459900</v>
       </c>
       <c r="F94" s="3">
-        <v>-2379600</v>
+        <v>-2406700</v>
       </c>
       <c r="G94" s="3">
-        <v>-3065300</v>
+        <v>-3100100</v>
       </c>
       <c r="H94" s="3">
-        <v>-3066800</v>
+        <v>-3101600</v>
       </c>
       <c r="I94" s="3">
-        <v>-2113600</v>
+        <v>-2137700</v>
       </c>
       <c r="J94" s="3">
-        <v>-2790400</v>
+        <v>-2822200</v>
       </c>
       <c r="K94" s="3">
         <v>-3442200</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-273300</v>
+        <v>-276400</v>
       </c>
       <c r="E96" s="3">
-        <v>-268500</v>
+        <v>-271600</v>
       </c>
       <c r="F96" s="3">
-        <v>-262800</v>
+        <v>-265800</v>
       </c>
       <c r="G96" s="3">
-        <v>-214000</v>
+        <v>-216400</v>
       </c>
       <c r="H96" s="3">
-        <v>-162000</v>
+        <v>-163800</v>
       </c>
       <c r="I96" s="3">
-        <v>-36600</v>
+        <v>-37000</v>
       </c>
       <c r="J96" s="3">
-        <v>-196000</v>
+        <v>-198300</v>
       </c>
       <c r="K96" s="3">
         <v>-465300</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-569900</v>
+        <v>-576400</v>
       </c>
       <c r="E100" s="3">
-        <v>-219800</v>
+        <v>-222300</v>
       </c>
       <c r="F100" s="3">
-        <v>-467900</v>
+        <v>-473200</v>
       </c>
       <c r="G100" s="3">
-        <v>-1199900</v>
+        <v>-1213500</v>
       </c>
       <c r="H100" s="3">
-        <v>-830100</v>
+        <v>-839500</v>
       </c>
       <c r="I100" s="3">
-        <v>-1024300</v>
+        <v>-1036000</v>
       </c>
       <c r="J100" s="3">
-        <v>943100</v>
+        <v>953800</v>
       </c>
       <c r="K100" s="3">
         <v>-283700</v>
@@ -3714,7 +3714,7 @@
         <v>-1800</v>
       </c>
       <c r="E101" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="F101" s="3">
         <v>500</v>
@@ -3726,7 +3726,7 @@
         <v>-1500</v>
       </c>
       <c r="I101" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="J101" s="3">
         <v>600</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>289300</v>
+        <v>292600</v>
       </c>
       <c r="E102" s="3">
-        <v>-349800</v>
+        <v>-353800</v>
       </c>
       <c r="F102" s="3">
-        <v>682200</v>
+        <v>690000</v>
       </c>
       <c r="G102" s="3">
-        <v>-855500</v>
+        <v>-865200</v>
       </c>
       <c r="H102" s="3">
-        <v>299900</v>
+        <v>303400</v>
       </c>
       <c r="I102" s="3">
-        <v>590300</v>
+        <v>597000</v>
       </c>
       <c r="J102" s="3">
-        <v>-160300</v>
+        <v>-162200</v>
       </c>
       <c r="K102" s="3">
         <v>12100</v>

--- a/AAII_Financials/Yearly/KT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KT_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21285800</v>
+        <v>20329200</v>
       </c>
       <c r="E8" s="3">
-        <v>21664400</v>
+        <v>20690800</v>
       </c>
       <c r="F8" s="3">
-        <v>20879500</v>
+        <v>19941100</v>
       </c>
       <c r="G8" s="3">
-        <v>20814700</v>
+        <v>19879200</v>
       </c>
       <c r="H8" s="3">
-        <v>20241900</v>
+        <v>19332100</v>
       </c>
       <c r="I8" s="3">
-        <v>19830300</v>
+        <v>18939000</v>
       </c>
       <c r="J8" s="3">
-        <v>19857400</v>
+        <v>18964900</v>
       </c>
       <c r="K8" s="3">
         <v>21892700</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8593800</v>
+        <v>8207600</v>
       </c>
       <c r="E9" s="3">
-        <v>9067400</v>
+        <v>8659900</v>
       </c>
       <c r="F9" s="3">
-        <v>8402700</v>
+        <v>8025000</v>
       </c>
       <c r="G9" s="3">
-        <v>8227400</v>
+        <v>7857600</v>
       </c>
       <c r="H9" s="3">
-        <v>7875100</v>
+        <v>7521100</v>
       </c>
       <c r="I9" s="3">
-        <v>7840000</v>
+        <v>7487700</v>
       </c>
       <c r="J9" s="3">
-        <v>7951100</v>
+        <v>7593800</v>
       </c>
       <c r="K9" s="3">
         <v>6253800</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12692000</v>
+        <v>12121600</v>
       </c>
       <c r="E10" s="3">
-        <v>12597000</v>
+        <v>12030900</v>
       </c>
       <c r="F10" s="3">
-        <v>12476800</v>
+        <v>11916100</v>
       </c>
       <c r="G10" s="3">
-        <v>12587300</v>
+        <v>12021600</v>
       </c>
       <c r="H10" s="3">
-        <v>12366800</v>
+        <v>11811000</v>
       </c>
       <c r="I10" s="3">
-        <v>11990300</v>
+        <v>11451400</v>
       </c>
       <c r="J10" s="3">
-        <v>11906200</v>
+        <v>11371100</v>
       </c>
       <c r="K10" s="3">
         <v>15638900</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>139700</v>
+        <v>133400</v>
       </c>
       <c r="E12" s="3">
-        <v>146900</v>
+        <v>140300</v>
       </c>
       <c r="F12" s="3">
-        <v>157300</v>
+        <v>150200</v>
       </c>
       <c r="G12" s="3">
-        <v>150100</v>
+        <v>143300</v>
       </c>
       <c r="H12" s="3">
-        <v>149400</v>
+        <v>142700</v>
       </c>
       <c r="I12" s="3">
-        <v>163600</v>
+        <v>156200</v>
       </c>
       <c r="J12" s="3">
-        <v>170900</v>
+        <v>163200</v>
       </c>
       <c r="K12" s="3">
         <v>156000</v>
@@ -916,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>109700</v>
+        <v>104800</v>
       </c>
       <c r="E14" s="3">
-        <v>-4500</v>
+        <v>-4300</v>
       </c>
       <c r="F14" s="3">
-        <v>-67600</v>
+        <v>-64600</v>
       </c>
       <c r="G14" s="3">
-        <v>-6700</v>
+        <v>-6400</v>
       </c>
       <c r="H14" s="3">
-        <v>47200</v>
+        <v>45100</v>
       </c>
       <c r="I14" s="3">
-        <v>139300</v>
+        <v>133100</v>
       </c>
       <c r="J14" s="3">
-        <v>95300</v>
+        <v>91000</v>
       </c>
       <c r="K14" s="3">
         <v>4600</v>
@@ -952,25 +952,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>3234500</v>
+        <v>3089100</v>
       </c>
       <c r="E15" s="3">
-        <v>3230200</v>
+        <v>3085100</v>
       </c>
       <c r="F15" s="3">
-        <v>2920700</v>
+        <v>2789500</v>
       </c>
       <c r="G15" s="3">
-        <v>2994400</v>
+        <v>2859800</v>
       </c>
       <c r="H15" s="3">
-        <v>2977300</v>
+        <v>2843500</v>
       </c>
       <c r="I15" s="3">
-        <v>2971400</v>
+        <v>2837800</v>
       </c>
       <c r="J15" s="3">
-        <v>2959900</v>
+        <v>2826800</v>
       </c>
       <c r="K15" s="3">
         <v>3245200</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>20341700</v>
+        <v>19427400</v>
       </c>
       <c r="E17" s="3">
-        <v>20627900</v>
+        <v>19700800</v>
       </c>
       <c r="F17" s="3">
-        <v>19689100</v>
+        <v>18804200</v>
       </c>
       <c r="G17" s="3">
-        <v>19583900</v>
+        <v>18703800</v>
       </c>
       <c r="H17" s="3">
-        <v>19007500</v>
+        <v>18153200</v>
       </c>
       <c r="I17" s="3">
-        <v>18818900</v>
+        <v>17973100</v>
       </c>
       <c r="J17" s="3">
-        <v>20314500</v>
+        <v>19401500</v>
       </c>
       <c r="K17" s="3">
         <v>21603000</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>944200</v>
+        <v>901700</v>
       </c>
       <c r="E18" s="3">
-        <v>1036600</v>
+        <v>990000</v>
       </c>
       <c r="F18" s="3">
-        <v>1190400</v>
+        <v>1136900</v>
       </c>
       <c r="G18" s="3">
-        <v>1230700</v>
+        <v>1175400</v>
       </c>
       <c r="H18" s="3">
-        <v>1234400</v>
+        <v>1178900</v>
       </c>
       <c r="I18" s="3">
-        <v>1011400</v>
+        <v>965900</v>
       </c>
       <c r="J18" s="3">
-        <v>-457100</v>
+        <v>-436600</v>
       </c>
       <c r="K18" s="3">
         <v>289700</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>158200</v>
+        <v>151100</v>
       </c>
       <c r="E20" s="3">
-        <v>80100</v>
+        <v>76500</v>
       </c>
       <c r="F20" s="3">
-        <v>44600</v>
+        <v>42600</v>
       </c>
       <c r="G20" s="3">
-        <v>-216600</v>
+        <v>-206800</v>
       </c>
       <c r="H20" s="3">
-        <v>68800</v>
+        <v>65700</v>
       </c>
       <c r="I20" s="3">
-        <v>-27600</v>
+        <v>-26400</v>
       </c>
       <c r="J20" s="3">
-        <v>-302500</v>
+        <v>-288900</v>
       </c>
       <c r="K20" s="3">
         <v>85400</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4366600</v>
+        <v>4170300</v>
       </c>
       <c r="E21" s="3">
-        <v>4392300</v>
+        <v>4194900</v>
       </c>
       <c r="F21" s="3">
-        <v>4229800</v>
+        <v>4039700</v>
       </c>
       <c r="G21" s="3">
-        <v>4073700</v>
+        <v>3890600</v>
       </c>
       <c r="H21" s="3">
-        <v>4348300</v>
+        <v>4152900</v>
       </c>
       <c r="I21" s="3">
-        <v>4223400</v>
+        <v>4033600</v>
       </c>
       <c r="J21" s="3">
-        <v>2671100</v>
+        <v>2551100</v>
       </c>
       <c r="K21" s="3">
         <v>3633700</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>234600</v>
+        <v>224000</v>
       </c>
       <c r="E22" s="3">
-        <v>247800</v>
+        <v>236700</v>
       </c>
       <c r="F22" s="3">
-        <v>264200</v>
+        <v>252300</v>
       </c>
       <c r="G22" s="3">
-        <v>269200</v>
+        <v>257100</v>
       </c>
       <c r="H22" s="3">
-        <v>300100</v>
+        <v>286600</v>
       </c>
       <c r="I22" s="3">
-        <v>343500</v>
+        <v>328000</v>
       </c>
       <c r="J22" s="3">
-        <v>422800</v>
+        <v>403800</v>
       </c>
       <c r="K22" s="3">
         <v>409800</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>867800</v>
+        <v>828800</v>
       </c>
       <c r="E23" s="3">
-        <v>868900</v>
+        <v>829800</v>
       </c>
       <c r="F23" s="3">
-        <v>970800</v>
+        <v>927100</v>
       </c>
       <c r="G23" s="3">
-        <v>745000</v>
+        <v>711500</v>
       </c>
       <c r="H23" s="3">
-        <v>1003100</v>
+        <v>958000</v>
       </c>
       <c r="I23" s="3">
-        <v>640300</v>
+        <v>611500</v>
       </c>
       <c r="J23" s="3">
-        <v>-1182400</v>
+        <v>-1129300</v>
       </c>
       <c r="K23" s="3">
         <v>-34700</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>241800</v>
+        <v>230900</v>
       </c>
       <c r="E24" s="3">
-        <v>276200</v>
+        <v>263800</v>
       </c>
       <c r="F24" s="3">
-        <v>292300</v>
+        <v>279200</v>
       </c>
       <c r="G24" s="3">
-        <v>245200</v>
+        <v>234200</v>
       </c>
       <c r="H24" s="3">
-        <v>293000</v>
+        <v>279800</v>
       </c>
       <c r="I24" s="3">
-        <v>204000</v>
+        <v>194900</v>
       </c>
       <c r="J24" s="3">
-        <v>-245600</v>
+        <v>-234600</v>
       </c>
       <c r="K24" s="3">
         <v>45100</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>626000</v>
+        <v>597900</v>
       </c>
       <c r="E26" s="3">
-        <v>592700</v>
+        <v>566100</v>
       </c>
       <c r="F26" s="3">
-        <v>678500</v>
+        <v>648000</v>
       </c>
       <c r="G26" s="3">
-        <v>499800</v>
+        <v>477300</v>
       </c>
       <c r="H26" s="3">
-        <v>710100</v>
+        <v>678200</v>
       </c>
       <c r="I26" s="3">
-        <v>436300</v>
+        <v>416700</v>
       </c>
       <c r="J26" s="3">
-        <v>-936800</v>
+        <v>-894700</v>
       </c>
       <c r="K26" s="3">
         <v>-79800</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>585600</v>
+        <v>559300</v>
       </c>
       <c r="E27" s="3">
-        <v>548000</v>
+        <v>523400</v>
       </c>
       <c r="F27" s="3">
-        <v>612700</v>
+        <v>585200</v>
       </c>
       <c r="G27" s="3">
-        <v>424300</v>
+        <v>405200</v>
       </c>
       <c r="H27" s="3">
-        <v>710100</v>
+        <v>678200</v>
       </c>
       <c r="I27" s="3">
-        <v>365500</v>
+        <v>349100</v>
       </c>
       <c r="J27" s="3">
-        <v>-995900</v>
+        <v>-951100</v>
       </c>
       <c r="K27" s="3">
         <v>-172800</v>
@@ -1425,13 +1425,13 @@
         <v>24</v>
       </c>
       <c r="H29" s="3">
-        <v>-77200</v>
+        <v>-73700</v>
       </c>
       <c r="I29" s="3">
-        <v>126700</v>
+        <v>121000</v>
       </c>
       <c r="J29" s="3">
-        <v>56900</v>
+        <v>54300</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-158200</v>
+        <v>-151100</v>
       </c>
       <c r="E32" s="3">
-        <v>-80100</v>
+        <v>-76500</v>
       </c>
       <c r="F32" s="3">
-        <v>-44600</v>
+        <v>-42600</v>
       </c>
       <c r="G32" s="3">
-        <v>216600</v>
+        <v>206800</v>
       </c>
       <c r="H32" s="3">
-        <v>-68800</v>
+        <v>-65700</v>
       </c>
       <c r="I32" s="3">
-        <v>27600</v>
+        <v>26400</v>
       </c>
       <c r="J32" s="3">
-        <v>302500</v>
+        <v>288900</v>
       </c>
       <c r="K32" s="3">
         <v>-85400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>585600</v>
+        <v>559300</v>
       </c>
       <c r="E33" s="3">
-        <v>548000</v>
+        <v>523400</v>
       </c>
       <c r="F33" s="3">
-        <v>612700</v>
+        <v>585200</v>
       </c>
       <c r="G33" s="3">
-        <v>424300</v>
+        <v>405200</v>
       </c>
       <c r="H33" s="3">
-        <v>632900</v>
+        <v>604400</v>
       </c>
       <c r="I33" s="3">
-        <v>492100</v>
+        <v>470000</v>
       </c>
       <c r="J33" s="3">
-        <v>-939000</v>
+        <v>-896800</v>
       </c>
       <c r="K33" s="3">
         <v>-172800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>585600</v>
+        <v>559300</v>
       </c>
       <c r="E35" s="3">
-        <v>548000</v>
+        <v>523400</v>
       </c>
       <c r="F35" s="3">
-        <v>612700</v>
+        <v>585200</v>
       </c>
       <c r="G35" s="3">
-        <v>424300</v>
+        <v>405200</v>
       </c>
       <c r="H35" s="3">
-        <v>632900</v>
+        <v>604400</v>
       </c>
       <c r="I35" s="3">
-        <v>492100</v>
+        <v>470000</v>
       </c>
       <c r="J35" s="3">
-        <v>-939000</v>
+        <v>-896800</v>
       </c>
       <c r="K35" s="3">
         <v>-172800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2344800</v>
+        <v>2239400</v>
       </c>
       <c r="E41" s="3">
-        <v>2052200</v>
+        <v>1960000</v>
       </c>
       <c r="F41" s="3">
-        <v>2406000</v>
+        <v>2297900</v>
       </c>
       <c r="G41" s="3">
-        <v>1716100</v>
+        <v>1639000</v>
       </c>
       <c r="H41" s="3">
-        <v>2581300</v>
+        <v>2465300</v>
       </c>
       <c r="I41" s="3">
-        <v>2277900</v>
+        <v>2175500</v>
       </c>
       <c r="J41" s="3">
-        <v>1680900</v>
+        <v>1605400</v>
       </c>
       <c r="K41" s="3">
         <v>1884500</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1070500</v>
+        <v>1022400</v>
       </c>
       <c r="E42" s="3">
-        <v>772900</v>
+        <v>738100</v>
       </c>
       <c r="F42" s="3">
-        <v>885400</v>
+        <v>845600</v>
       </c>
       <c r="G42" s="3">
-        <v>865600</v>
+        <v>826700</v>
       </c>
       <c r="H42" s="3">
-        <v>641300</v>
+        <v>612500</v>
       </c>
       <c r="I42" s="3">
-        <v>260700</v>
+        <v>249000</v>
       </c>
       <c r="J42" s="3">
-        <v>296100</v>
+        <v>282800</v>
       </c>
       <c r="K42" s="3">
         <v>436900</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4365000</v>
+        <v>4168900</v>
       </c>
       <c r="E43" s="3">
-        <v>5317400</v>
+        <v>5078400</v>
       </c>
       <c r="F43" s="3">
-        <v>5172200</v>
+        <v>4939700</v>
       </c>
       <c r="G43" s="3">
-        <v>5341600</v>
+        <v>5101500</v>
       </c>
       <c r="H43" s="3">
-        <v>4746700</v>
+        <v>4533300</v>
       </c>
       <c r="I43" s="3">
-        <v>4350800</v>
+        <v>4155200</v>
       </c>
       <c r="J43" s="3">
-        <v>5147700</v>
+        <v>4916400</v>
       </c>
       <c r="K43" s="3">
         <v>5831100</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>475800</v>
+        <v>454400</v>
       </c>
       <c r="E44" s="3">
-        <v>592300</v>
+        <v>565700</v>
       </c>
       <c r="F44" s="3">
-        <v>608800</v>
+        <v>581400</v>
       </c>
       <c r="G44" s="3">
-        <v>407400</v>
+        <v>389100</v>
       </c>
       <c r="H44" s="3">
-        <v>336400</v>
+        <v>321300</v>
       </c>
       <c r="I44" s="3">
-        <v>467600</v>
+        <v>446600</v>
       </c>
       <c r="J44" s="3">
-        <v>372800</v>
+        <v>356100</v>
       </c>
       <c r="K44" s="3">
         <v>613000</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1671000</v>
+        <v>1595900</v>
       </c>
       <c r="E45" s="3">
-        <v>1853800</v>
+        <v>1770500</v>
       </c>
       <c r="F45" s="3">
-        <v>1513500</v>
+        <v>1445500</v>
       </c>
       <c r="G45" s="3">
-        <v>277800</v>
+        <v>265300</v>
       </c>
       <c r="H45" s="3">
-        <v>276900</v>
+        <v>264500</v>
       </c>
       <c r="I45" s="3">
-        <v>282000</v>
+        <v>269400</v>
       </c>
       <c r="J45" s="3">
-        <v>311200</v>
+        <v>297200</v>
       </c>
       <c r="K45" s="3">
         <v>309000</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9927200</v>
+        <v>9481100</v>
       </c>
       <c r="E46" s="3">
-        <v>10588500</v>
+        <v>10112600</v>
       </c>
       <c r="F46" s="3">
-        <v>10585900</v>
+        <v>10110100</v>
       </c>
       <c r="G46" s="3">
-        <v>8608400</v>
+        <v>8221600</v>
       </c>
       <c r="H46" s="3">
-        <v>8582500</v>
+        <v>8196800</v>
       </c>
       <c r="I46" s="3">
-        <v>7639000</v>
+        <v>7295700</v>
       </c>
       <c r="J46" s="3">
-        <v>7808700</v>
+        <v>7457800</v>
       </c>
       <c r="K46" s="3">
         <v>9074400</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2094200</v>
+        <v>2000000</v>
       </c>
       <c r="E47" s="3">
-        <v>2021300</v>
+        <v>1930400</v>
       </c>
       <c r="F47" s="3">
-        <v>1547300</v>
+        <v>1477800</v>
       </c>
       <c r="G47" s="3">
-        <v>1658300</v>
+        <v>1583800</v>
       </c>
       <c r="H47" s="3">
-        <v>1475500</v>
+        <v>1409100</v>
       </c>
       <c r="I47" s="3">
-        <v>1452900</v>
+        <v>1387600</v>
       </c>
       <c r="J47" s="3">
-        <v>2494400</v>
+        <v>2382300</v>
       </c>
       <c r="K47" s="3">
         <v>2525800</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14944700</v>
+        <v>14273000</v>
       </c>
       <c r="E48" s="3">
-        <v>14632500</v>
+        <v>13974900</v>
       </c>
       <c r="F48" s="3">
-        <v>12601800</v>
+        <v>12035400</v>
       </c>
       <c r="G48" s="3">
-        <v>13129100</v>
+        <v>12539100</v>
       </c>
       <c r="H48" s="3">
-        <v>13759500</v>
+        <v>13141100</v>
       </c>
       <c r="I48" s="3">
-        <v>13867100</v>
+        <v>13243800</v>
       </c>
       <c r="J48" s="3">
-        <v>15599800</v>
+        <v>14898700</v>
       </c>
       <c r="K48" s="3">
         <v>15918100</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1923500</v>
+        <v>1837100</v>
       </c>
       <c r="E49" s="3">
-        <v>2522300</v>
+        <v>2408900</v>
       </c>
       <c r="F49" s="3">
-        <v>3032300</v>
+        <v>2896100</v>
       </c>
       <c r="G49" s="3">
-        <v>2343100</v>
+        <v>2237800</v>
       </c>
       <c r="H49" s="3">
-        <v>2690300</v>
+        <v>2569400</v>
       </c>
       <c r="I49" s="3">
-        <v>2313800</v>
+        <v>2209800</v>
       </c>
       <c r="J49" s="3">
-        <v>3154200</v>
+        <v>3012400</v>
       </c>
       <c r="K49" s="3">
         <v>3482900</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1070100</v>
+        <v>1022000</v>
       </c>
       <c r="E52" s="3">
-        <v>976000</v>
+        <v>932200</v>
       </c>
       <c r="F52" s="3">
-        <v>880700</v>
+        <v>841100</v>
       </c>
       <c r="G52" s="3">
-        <v>721500</v>
+        <v>689100</v>
       </c>
       <c r="H52" s="3">
-        <v>715300</v>
+        <v>683100</v>
       </c>
       <c r="I52" s="3">
-        <v>840800</v>
+        <v>803100</v>
       </c>
       <c r="J52" s="3">
-        <v>1024200</v>
+        <v>978200</v>
       </c>
       <c r="K52" s="3">
         <v>712300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29959700</v>
+        <v>28613200</v>
       </c>
       <c r="E54" s="3">
-        <v>30740700</v>
+        <v>29359100</v>
       </c>
       <c r="F54" s="3">
-        <v>28648100</v>
+        <v>27360500</v>
       </c>
       <c r="G54" s="3">
-        <v>26460500</v>
+        <v>25271300</v>
       </c>
       <c r="H54" s="3">
-        <v>27223100</v>
+        <v>25999600</v>
       </c>
       <c r="I54" s="3">
-        <v>26113700</v>
+        <v>24940000</v>
       </c>
       <c r="J54" s="3">
-        <v>30081400</v>
+        <v>28729400</v>
       </c>
       <c r="K54" s="3">
         <v>31713600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1103300</v>
+        <v>1053800</v>
       </c>
       <c r="E57" s="3">
-        <v>1161300</v>
+        <v>1109100</v>
       </c>
       <c r="F57" s="3">
-        <v>1100500</v>
+        <v>1051000</v>
       </c>
       <c r="G57" s="3">
-        <v>1245400</v>
+        <v>1189400</v>
       </c>
       <c r="H57" s="3">
-        <v>1100000</v>
+        <v>1050600</v>
       </c>
       <c r="I57" s="3">
-        <v>1148400</v>
+        <v>1096800</v>
       </c>
       <c r="J57" s="3">
-        <v>1068000</v>
+        <v>1020000</v>
       </c>
       <c r="K57" s="3">
         <v>1562200</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1569400</v>
+        <v>1498800</v>
       </c>
       <c r="E58" s="3">
-        <v>1404600</v>
+        <v>1341400</v>
       </c>
       <c r="F58" s="3">
-        <v>1217900</v>
+        <v>1163200</v>
       </c>
       <c r="G58" s="3">
-        <v>1400400</v>
+        <v>1337500</v>
       </c>
       <c r="H58" s="3">
-        <v>1619800</v>
+        <v>1547000</v>
       </c>
       <c r="I58" s="3">
-        <v>1590700</v>
+        <v>1519200</v>
       </c>
       <c r="J58" s="3">
-        <v>2648500</v>
+        <v>2529400</v>
       </c>
       <c r="K58" s="3">
         <v>2766600</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5508600</v>
+        <v>5261000</v>
       </c>
       <c r="E59" s="3">
-        <v>7384400</v>
+        <v>7052500</v>
       </c>
       <c r="F59" s="3">
-        <v>6036600</v>
+        <v>5765300</v>
       </c>
       <c r="G59" s="3">
-        <v>5786200</v>
+        <v>5526200</v>
       </c>
       <c r="H59" s="3">
-        <v>5705100</v>
+        <v>5448700</v>
       </c>
       <c r="I59" s="3">
-        <v>4950400</v>
+        <v>4727900</v>
       </c>
       <c r="J59" s="3">
-        <v>5172100</v>
+        <v>4939600</v>
       </c>
       <c r="K59" s="3">
         <v>5885200</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8181300</v>
+        <v>7813600</v>
       </c>
       <c r="E60" s="3">
-        <v>9031800</v>
+        <v>8625800</v>
       </c>
       <c r="F60" s="3">
-        <v>8355100</v>
+        <v>7979500</v>
       </c>
       <c r="G60" s="3">
-        <v>8432000</v>
+        <v>8053000</v>
       </c>
       <c r="H60" s="3">
-        <v>8424900</v>
+        <v>8046200</v>
       </c>
       <c r="I60" s="3">
-        <v>7689500</v>
+        <v>7343900</v>
       </c>
       <c r="J60" s="3">
-        <v>8888600</v>
+        <v>8489100</v>
       </c>
       <c r="K60" s="3">
         <v>10213900</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5960000</v>
+        <v>5692100</v>
       </c>
       <c r="E61" s="3">
-        <v>6169500</v>
+        <v>5892300</v>
       </c>
       <c r="F61" s="3">
-        <v>4699000</v>
+        <v>4487800</v>
       </c>
       <c r="G61" s="3">
-        <v>4548100</v>
+        <v>4343700</v>
       </c>
       <c r="H61" s="3">
-        <v>5607700</v>
+        <v>5355700</v>
       </c>
       <c r="I61" s="3">
-        <v>6233400</v>
+        <v>5953200</v>
       </c>
       <c r="J61" s="3">
-        <v>8806200</v>
+        <v>8410400</v>
       </c>
       <c r="K61" s="3">
         <v>7745800</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1977600</v>
+        <v>1888700</v>
       </c>
       <c r="E62" s="3">
-        <v>2426100</v>
+        <v>2317100</v>
       </c>
       <c r="F62" s="3">
-        <v>2483100</v>
+        <v>2371500</v>
       </c>
       <c r="G62" s="3">
-        <v>1723000</v>
+        <v>1645600</v>
       </c>
       <c r="H62" s="3">
-        <v>1803200</v>
+        <v>1722100</v>
       </c>
       <c r="I62" s="3">
-        <v>1363500</v>
+        <v>1302200</v>
       </c>
       <c r="J62" s="3">
-        <v>1895700</v>
+        <v>1810500</v>
       </c>
       <c r="K62" s="3">
         <v>2071800</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17489500</v>
+        <v>16703400</v>
       </c>
       <c r="E66" s="3">
-        <v>18580300</v>
+        <v>17745200</v>
       </c>
       <c r="F66" s="3">
-        <v>16897700</v>
+        <v>16138200</v>
       </c>
       <c r="G66" s="3">
-        <v>15941700</v>
+        <v>15225300</v>
       </c>
       <c r="H66" s="3">
-        <v>17039800</v>
+        <v>16273900</v>
       </c>
       <c r="I66" s="3">
-        <v>16461500</v>
+        <v>15721700</v>
       </c>
       <c r="J66" s="3">
-        <v>20880300</v>
+        <v>19941900</v>
       </c>
       <c r="K66" s="3">
         <v>21041400</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10818300</v>
+        <v>10332100</v>
       </c>
       <c r="E72" s="3">
-        <v>10354100</v>
+        <v>9888700</v>
       </c>
       <c r="F72" s="3">
-        <v>10082700</v>
+        <v>9629500</v>
       </c>
       <c r="G72" s="3">
-        <v>8889700</v>
+        <v>8490100</v>
       </c>
       <c r="H72" s="3">
-        <v>8594300</v>
+        <v>8208100</v>
       </c>
       <c r="I72" s="3">
-        <v>8062800</v>
+        <v>7700400</v>
       </c>
       <c r="J72" s="3">
-        <v>7625900</v>
+        <v>7283100</v>
       </c>
       <c r="K72" s="3">
         <v>9117600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12470200</v>
+        <v>11909700</v>
       </c>
       <c r="E76" s="3">
-        <v>12160400</v>
+        <v>11613900</v>
       </c>
       <c r="F76" s="3">
-        <v>11750400</v>
+        <v>11222300</v>
       </c>
       <c r="G76" s="3">
-        <v>10518800</v>
+        <v>10046000</v>
       </c>
       <c r="H76" s="3">
-        <v>10183300</v>
+        <v>9725600</v>
       </c>
       <c r="I76" s="3">
-        <v>9652100</v>
+        <v>9218300</v>
       </c>
       <c r="J76" s="3">
-        <v>9201000</v>
+        <v>8787500</v>
       </c>
       <c r="K76" s="3">
         <v>10672200</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>585600</v>
+        <v>559300</v>
       </c>
       <c r="E81" s="3">
-        <v>548000</v>
+        <v>523400</v>
       </c>
       <c r="F81" s="3">
-        <v>612700</v>
+        <v>585200</v>
       </c>
       <c r="G81" s="3">
-        <v>424300</v>
+        <v>405200</v>
       </c>
       <c r="H81" s="3">
-        <v>632900</v>
+        <v>604400</v>
       </c>
       <c r="I81" s="3">
-        <v>492100</v>
+        <v>470000</v>
       </c>
       <c r="J81" s="3">
-        <v>-939000</v>
+        <v>-896800</v>
       </c>
       <c r="K81" s="3">
         <v>-172800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3264200</v>
+        <v>3117500</v>
       </c>
       <c r="E83" s="3">
-        <v>3275700</v>
+        <v>3128400</v>
       </c>
       <c r="F83" s="3">
-        <v>2994800</v>
+        <v>2860200</v>
       </c>
       <c r="G83" s="3">
-        <v>3059500</v>
+        <v>2922000</v>
       </c>
       <c r="H83" s="3">
-        <v>3045100</v>
+        <v>2908300</v>
       </c>
       <c r="I83" s="3">
-        <v>3239600</v>
+        <v>3094000</v>
       </c>
       <c r="J83" s="3">
-        <v>3430700</v>
+        <v>3276500</v>
       </c>
       <c r="K83" s="3">
         <v>3294900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4218400</v>
+        <v>4028900</v>
       </c>
       <c r="E89" s="3">
-        <v>3333200</v>
+        <v>3183400</v>
       </c>
       <c r="F89" s="3">
-        <v>3569300</v>
+        <v>3408900</v>
       </c>
       <c r="G89" s="3">
-        <v>3451200</v>
+        <v>3296100</v>
       </c>
       <c r="H89" s="3">
-        <v>4246000</v>
+        <v>4055100</v>
       </c>
       <c r="I89" s="3">
-        <v>3764700</v>
+        <v>3595500</v>
       </c>
       <c r="J89" s="3">
-        <v>1705600</v>
+        <v>1629000</v>
       </c>
       <c r="K89" s="3">
         <v>3741100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2859900</v>
+        <v>-2731400</v>
       </c>
       <c r="E91" s="3">
-        <v>-2909900</v>
+        <v>-2779100</v>
       </c>
       <c r="F91" s="3">
-        <v>-2012200</v>
+        <v>-1921700</v>
       </c>
       <c r="G91" s="3">
-        <v>-2173600</v>
+        <v>-2075900</v>
       </c>
       <c r="H91" s="3">
-        <v>-2460300</v>
+        <v>-2349700</v>
       </c>
       <c r="I91" s="3">
-        <v>-2773000</v>
+        <v>-2648400</v>
       </c>
       <c r="J91" s="3">
-        <v>-2539100</v>
+        <v>-2424900</v>
       </c>
       <c r="K91" s="3">
         <v>-2810200</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3347700</v>
+        <v>-3197200</v>
       </c>
       <c r="E94" s="3">
-        <v>-3459900</v>
+        <v>-3304400</v>
       </c>
       <c r="F94" s="3">
-        <v>-2406700</v>
+        <v>-2298500</v>
       </c>
       <c r="G94" s="3">
-        <v>-3100100</v>
+        <v>-2960800</v>
       </c>
       <c r="H94" s="3">
-        <v>-3101600</v>
+        <v>-2962200</v>
       </c>
       <c r="I94" s="3">
-        <v>-2137700</v>
+        <v>-2041600</v>
       </c>
       <c r="J94" s="3">
-        <v>-2822200</v>
+        <v>-2695300</v>
       </c>
       <c r="K94" s="3">
         <v>-3442200</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-276400</v>
+        <v>-264000</v>
       </c>
       <c r="E96" s="3">
-        <v>-271600</v>
+        <v>-259400</v>
       </c>
       <c r="F96" s="3">
-        <v>-265800</v>
+        <v>-253800</v>
       </c>
       <c r="G96" s="3">
-        <v>-216400</v>
+        <v>-206700</v>
       </c>
       <c r="H96" s="3">
-        <v>-163800</v>
+        <v>-156500</v>
       </c>
       <c r="I96" s="3">
-        <v>-37000</v>
+        <v>-35300</v>
       </c>
       <c r="J96" s="3">
-        <v>-198300</v>
+        <v>-189400</v>
       </c>
       <c r="K96" s="3">
         <v>-465300</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-576400</v>
+        <v>-550400</v>
       </c>
       <c r="E100" s="3">
-        <v>-222300</v>
+        <v>-212300</v>
       </c>
       <c r="F100" s="3">
-        <v>-473200</v>
+        <v>-451900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1213500</v>
+        <v>-1159000</v>
       </c>
       <c r="H100" s="3">
-        <v>-839500</v>
+        <v>-801800</v>
       </c>
       <c r="I100" s="3">
-        <v>-1036000</v>
+        <v>-989400</v>
       </c>
       <c r="J100" s="3">
-        <v>953800</v>
+        <v>910900</v>
       </c>
       <c r="K100" s="3">
         <v>-283700</v>
@@ -3711,22 +3711,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="E101" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="F101" s="3">
         <v>500</v>
       </c>
       <c r="G101" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="H101" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="I101" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="J101" s="3">
         <v>600</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>292600</v>
+        <v>279400</v>
       </c>
       <c r="E102" s="3">
-        <v>-353800</v>
+        <v>-337900</v>
       </c>
       <c r="F102" s="3">
-        <v>690000</v>
+        <v>659000</v>
       </c>
       <c r="G102" s="3">
-        <v>-865200</v>
+        <v>-826300</v>
       </c>
       <c r="H102" s="3">
-        <v>303400</v>
+        <v>289700</v>
       </c>
       <c r="I102" s="3">
-        <v>597000</v>
+        <v>570200</v>
       </c>
       <c r="J102" s="3">
-        <v>-162200</v>
+        <v>-154900</v>
       </c>
       <c r="K102" s="3">
         <v>12100</v>

--- a/AAII_Financials/Yearly/KT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KT_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20329200</v>
+        <v>20090000</v>
       </c>
       <c r="E8" s="3">
-        <v>20690800</v>
+        <v>20447300</v>
       </c>
       <c r="F8" s="3">
-        <v>19941100</v>
+        <v>19706500</v>
       </c>
       <c r="G8" s="3">
-        <v>19879200</v>
+        <v>19645300</v>
       </c>
       <c r="H8" s="3">
-        <v>19332100</v>
+        <v>19104700</v>
       </c>
       <c r="I8" s="3">
-        <v>18939000</v>
+        <v>18716200</v>
       </c>
       <c r="J8" s="3">
-        <v>18964900</v>
+        <v>18741800</v>
       </c>
       <c r="K8" s="3">
         <v>21892700</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8207600</v>
+        <v>8111000</v>
       </c>
       <c r="E9" s="3">
-        <v>8659900</v>
+        <v>8558000</v>
       </c>
       <c r="F9" s="3">
-        <v>8025000</v>
+        <v>7930600</v>
       </c>
       <c r="G9" s="3">
-        <v>7857600</v>
+        <v>7765100</v>
       </c>
       <c r="H9" s="3">
-        <v>7521100</v>
+        <v>7432700</v>
       </c>
       <c r="I9" s="3">
-        <v>7487700</v>
+        <v>7399600</v>
       </c>
       <c r="J9" s="3">
-        <v>7593800</v>
+        <v>7504500</v>
       </c>
       <c r="K9" s="3">
         <v>6253800</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12121600</v>
+        <v>11979000</v>
       </c>
       <c r="E10" s="3">
-        <v>12030900</v>
+        <v>11889300</v>
       </c>
       <c r="F10" s="3">
-        <v>11916100</v>
+        <v>11775900</v>
       </c>
       <c r="G10" s="3">
-        <v>12021600</v>
+        <v>11880200</v>
       </c>
       <c r="H10" s="3">
-        <v>11811000</v>
+        <v>11672000</v>
       </c>
       <c r="I10" s="3">
-        <v>11451400</v>
+        <v>11316700</v>
       </c>
       <c r="J10" s="3">
-        <v>11371100</v>
+        <v>11237300</v>
       </c>
       <c r="K10" s="3">
         <v>15638900</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>133400</v>
+        <v>131800</v>
       </c>
       <c r="E12" s="3">
-        <v>140300</v>
+        <v>138600</v>
       </c>
       <c r="F12" s="3">
-        <v>150200</v>
+        <v>148500</v>
       </c>
       <c r="G12" s="3">
-        <v>143300</v>
+        <v>141700</v>
       </c>
       <c r="H12" s="3">
-        <v>142700</v>
+        <v>141000</v>
       </c>
       <c r="I12" s="3">
-        <v>156200</v>
+        <v>154400</v>
       </c>
       <c r="J12" s="3">
-        <v>163200</v>
+        <v>161300</v>
       </c>
       <c r="K12" s="3">
         <v>156000</v>
@@ -916,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>104800</v>
+        <v>103500</v>
       </c>
       <c r="E14" s="3">
         <v>-4300</v>
       </c>
       <c r="F14" s="3">
-        <v>-64600</v>
+        <v>-63800</v>
       </c>
       <c r="G14" s="3">
-        <v>-6400</v>
+        <v>-6300</v>
       </c>
       <c r="H14" s="3">
-        <v>45100</v>
+        <v>44600</v>
       </c>
       <c r="I14" s="3">
-        <v>133100</v>
+        <v>131500</v>
       </c>
       <c r="J14" s="3">
-        <v>91000</v>
+        <v>89900</v>
       </c>
       <c r="K14" s="3">
         <v>4600</v>
@@ -952,25 +952,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>3089100</v>
+        <v>3052800</v>
       </c>
       <c r="E15" s="3">
-        <v>3085100</v>
+        <v>3048800</v>
       </c>
       <c r="F15" s="3">
-        <v>2789500</v>
+        <v>2756700</v>
       </c>
       <c r="G15" s="3">
-        <v>2859800</v>
+        <v>2826200</v>
       </c>
       <c r="H15" s="3">
-        <v>2843500</v>
+        <v>2810000</v>
       </c>
       <c r="I15" s="3">
-        <v>2837800</v>
+        <v>2804400</v>
       </c>
       <c r="J15" s="3">
-        <v>2826800</v>
+        <v>2793600</v>
       </c>
       <c r="K15" s="3">
         <v>3245200</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>19427400</v>
+        <v>19198900</v>
       </c>
       <c r="E17" s="3">
-        <v>19700800</v>
+        <v>19469000</v>
       </c>
       <c r="F17" s="3">
-        <v>18804200</v>
+        <v>18583000</v>
       </c>
       <c r="G17" s="3">
-        <v>18703800</v>
+        <v>18483700</v>
       </c>
       <c r="H17" s="3">
-        <v>18153200</v>
+        <v>17939700</v>
       </c>
       <c r="I17" s="3">
-        <v>17973100</v>
+        <v>17761700</v>
       </c>
       <c r="J17" s="3">
-        <v>19401500</v>
+        <v>19173300</v>
       </c>
       <c r="K17" s="3">
         <v>21603000</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>901700</v>
+        <v>891100</v>
       </c>
       <c r="E18" s="3">
-        <v>990000</v>
+        <v>978300</v>
       </c>
       <c r="F18" s="3">
-        <v>1136900</v>
+        <v>1123500</v>
       </c>
       <c r="G18" s="3">
-        <v>1175400</v>
+        <v>1161600</v>
       </c>
       <c r="H18" s="3">
-        <v>1178900</v>
+        <v>1165000</v>
       </c>
       <c r="I18" s="3">
-        <v>965900</v>
+        <v>954600</v>
       </c>
       <c r="J18" s="3">
-        <v>-436600</v>
+        <v>-431500</v>
       </c>
       <c r="K18" s="3">
         <v>289700</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>151100</v>
+        <v>149300</v>
       </c>
       <c r="E20" s="3">
-        <v>76500</v>
+        <v>75600</v>
       </c>
       <c r="F20" s="3">
-        <v>42600</v>
+        <v>42100</v>
       </c>
       <c r="G20" s="3">
-        <v>-206800</v>
+        <v>-204400</v>
       </c>
       <c r="H20" s="3">
-        <v>65700</v>
+        <v>64900</v>
       </c>
       <c r="I20" s="3">
-        <v>-26400</v>
+        <v>-26000</v>
       </c>
       <c r="J20" s="3">
-        <v>-288900</v>
+        <v>-285500</v>
       </c>
       <c r="K20" s="3">
         <v>85400</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4170300</v>
+        <v>4121300</v>
       </c>
       <c r="E21" s="3">
-        <v>4194900</v>
+        <v>4145600</v>
       </c>
       <c r="F21" s="3">
-        <v>4039700</v>
+        <v>3992100</v>
       </c>
       <c r="G21" s="3">
-        <v>3890600</v>
+        <v>3844800</v>
       </c>
       <c r="H21" s="3">
-        <v>4152900</v>
+        <v>4104000</v>
       </c>
       <c r="I21" s="3">
-        <v>4033600</v>
+        <v>3986100</v>
       </c>
       <c r="J21" s="3">
-        <v>2551100</v>
+        <v>2521100</v>
       </c>
       <c r="K21" s="3">
         <v>3633700</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>224000</v>
+        <v>221400</v>
       </c>
       <c r="E22" s="3">
-        <v>236700</v>
+        <v>233900</v>
       </c>
       <c r="F22" s="3">
-        <v>252300</v>
+        <v>249400</v>
       </c>
       <c r="G22" s="3">
-        <v>257100</v>
+        <v>254100</v>
       </c>
       <c r="H22" s="3">
-        <v>286600</v>
+        <v>283300</v>
       </c>
       <c r="I22" s="3">
-        <v>328000</v>
+        <v>324200</v>
       </c>
       <c r="J22" s="3">
-        <v>403800</v>
+        <v>399100</v>
       </c>
       <c r="K22" s="3">
         <v>409800</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>828800</v>
+        <v>819000</v>
       </c>
       <c r="E23" s="3">
-        <v>829800</v>
+        <v>820100</v>
       </c>
       <c r="F23" s="3">
-        <v>927100</v>
+        <v>916200</v>
       </c>
       <c r="G23" s="3">
-        <v>711500</v>
+        <v>703100</v>
       </c>
       <c r="H23" s="3">
-        <v>958000</v>
+        <v>946700</v>
       </c>
       <c r="I23" s="3">
-        <v>611500</v>
+        <v>604300</v>
       </c>
       <c r="J23" s="3">
-        <v>-1129300</v>
+        <v>-1116000</v>
       </c>
       <c r="K23" s="3">
         <v>-34700</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>230900</v>
+        <v>228200</v>
       </c>
       <c r="E24" s="3">
-        <v>263800</v>
+        <v>260700</v>
       </c>
       <c r="F24" s="3">
-        <v>279200</v>
+        <v>275900</v>
       </c>
       <c r="G24" s="3">
-        <v>234200</v>
+        <v>231400</v>
       </c>
       <c r="H24" s="3">
-        <v>279800</v>
+        <v>276500</v>
       </c>
       <c r="I24" s="3">
-        <v>194900</v>
+        <v>192600</v>
       </c>
       <c r="J24" s="3">
-        <v>-234600</v>
+        <v>-231800</v>
       </c>
       <c r="K24" s="3">
         <v>45100</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>597900</v>
+        <v>590800</v>
       </c>
       <c r="E26" s="3">
-        <v>566100</v>
+        <v>559400</v>
       </c>
       <c r="F26" s="3">
-        <v>648000</v>
+        <v>640300</v>
       </c>
       <c r="G26" s="3">
-        <v>477300</v>
+        <v>471700</v>
       </c>
       <c r="H26" s="3">
-        <v>678200</v>
+        <v>670200</v>
       </c>
       <c r="I26" s="3">
-        <v>416700</v>
+        <v>411800</v>
       </c>
       <c r="J26" s="3">
-        <v>-894700</v>
+        <v>-884200</v>
       </c>
       <c r="K26" s="3">
         <v>-79800</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>559300</v>
+        <v>552700</v>
       </c>
       <c r="E27" s="3">
-        <v>523400</v>
+        <v>517300</v>
       </c>
       <c r="F27" s="3">
-        <v>585200</v>
+        <v>578300</v>
       </c>
       <c r="G27" s="3">
-        <v>405200</v>
+        <v>400500</v>
       </c>
       <c r="H27" s="3">
-        <v>678200</v>
+        <v>670200</v>
       </c>
       <c r="I27" s="3">
-        <v>349100</v>
+        <v>344900</v>
       </c>
       <c r="J27" s="3">
-        <v>-951100</v>
+        <v>-939900</v>
       </c>
       <c r="K27" s="3">
         <v>-172800</v>
@@ -1425,13 +1425,13 @@
         <v>24</v>
       </c>
       <c r="H29" s="3">
-        <v>-73700</v>
+        <v>-72900</v>
       </c>
       <c r="I29" s="3">
-        <v>121000</v>
+        <v>119500</v>
       </c>
       <c r="J29" s="3">
-        <v>54300</v>
+        <v>53700</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-151100</v>
+        <v>-149300</v>
       </c>
       <c r="E32" s="3">
-        <v>-76500</v>
+        <v>-75600</v>
       </c>
       <c r="F32" s="3">
-        <v>-42600</v>
+        <v>-42100</v>
       </c>
       <c r="G32" s="3">
-        <v>206800</v>
+        <v>204400</v>
       </c>
       <c r="H32" s="3">
-        <v>-65700</v>
+        <v>-64900</v>
       </c>
       <c r="I32" s="3">
-        <v>26400</v>
+        <v>26000</v>
       </c>
       <c r="J32" s="3">
-        <v>288900</v>
+        <v>285500</v>
       </c>
       <c r="K32" s="3">
         <v>-85400</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>559300</v>
+        <v>552700</v>
       </c>
       <c r="E33" s="3">
-        <v>523400</v>
+        <v>517300</v>
       </c>
       <c r="F33" s="3">
-        <v>585200</v>
+        <v>578300</v>
       </c>
       <c r="G33" s="3">
-        <v>405200</v>
+        <v>400500</v>
       </c>
       <c r="H33" s="3">
-        <v>604400</v>
+        <v>597300</v>
       </c>
       <c r="I33" s="3">
-        <v>470000</v>
+        <v>464500</v>
       </c>
       <c r="J33" s="3">
-        <v>-896800</v>
+        <v>-886200</v>
       </c>
       <c r="K33" s="3">
         <v>-172800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>559300</v>
+        <v>552700</v>
       </c>
       <c r="E35" s="3">
-        <v>523400</v>
+        <v>517300</v>
       </c>
       <c r="F35" s="3">
-        <v>585200</v>
+        <v>578300</v>
       </c>
       <c r="G35" s="3">
-        <v>405200</v>
+        <v>400500</v>
       </c>
       <c r="H35" s="3">
-        <v>604400</v>
+        <v>597300</v>
       </c>
       <c r="I35" s="3">
-        <v>470000</v>
+        <v>464500</v>
       </c>
       <c r="J35" s="3">
-        <v>-896800</v>
+        <v>-886200</v>
       </c>
       <c r="K35" s="3">
         <v>-172800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2239400</v>
+        <v>2213100</v>
       </c>
       <c r="E41" s="3">
-        <v>1960000</v>
+        <v>1937000</v>
       </c>
       <c r="F41" s="3">
-        <v>2297900</v>
+        <v>2270900</v>
       </c>
       <c r="G41" s="3">
-        <v>1639000</v>
+        <v>1619700</v>
       </c>
       <c r="H41" s="3">
-        <v>2465300</v>
+        <v>2436300</v>
       </c>
       <c r="I41" s="3">
-        <v>2175500</v>
+        <v>2149900</v>
       </c>
       <c r="J41" s="3">
-        <v>1605400</v>
+        <v>1586500</v>
       </c>
       <c r="K41" s="3">
         <v>1884500</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1022400</v>
+        <v>1010400</v>
       </c>
       <c r="E42" s="3">
-        <v>738100</v>
+        <v>729400</v>
       </c>
       <c r="F42" s="3">
-        <v>845600</v>
+        <v>835600</v>
       </c>
       <c r="G42" s="3">
-        <v>826700</v>
+        <v>817000</v>
       </c>
       <c r="H42" s="3">
-        <v>612500</v>
+        <v>605300</v>
       </c>
       <c r="I42" s="3">
-        <v>249000</v>
+        <v>246100</v>
       </c>
       <c r="J42" s="3">
-        <v>282800</v>
+        <v>279500</v>
       </c>
       <c r="K42" s="3">
         <v>436900</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4168900</v>
+        <v>4119800</v>
       </c>
       <c r="E43" s="3">
-        <v>5078400</v>
+        <v>5018600</v>
       </c>
       <c r="F43" s="3">
-        <v>4939700</v>
+        <v>4881600</v>
       </c>
       <c r="G43" s="3">
-        <v>5101500</v>
+        <v>5041500</v>
       </c>
       <c r="H43" s="3">
-        <v>4533300</v>
+        <v>4480000</v>
       </c>
       <c r="I43" s="3">
-        <v>4155200</v>
+        <v>4106300</v>
       </c>
       <c r="J43" s="3">
-        <v>4916400</v>
+        <v>4858500</v>
       </c>
       <c r="K43" s="3">
         <v>5831100</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>454400</v>
+        <v>449100</v>
       </c>
       <c r="E44" s="3">
-        <v>565700</v>
+        <v>559000</v>
       </c>
       <c r="F44" s="3">
-        <v>581400</v>
+        <v>574600</v>
       </c>
       <c r="G44" s="3">
-        <v>389100</v>
+        <v>384500</v>
       </c>
       <c r="H44" s="3">
-        <v>321300</v>
+        <v>317500</v>
       </c>
       <c r="I44" s="3">
-        <v>446600</v>
+        <v>441300</v>
       </c>
       <c r="J44" s="3">
-        <v>356100</v>
+        <v>351900</v>
       </c>
       <c r="K44" s="3">
         <v>613000</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1595900</v>
+        <v>1577100</v>
       </c>
       <c r="E45" s="3">
-        <v>1770500</v>
+        <v>1749600</v>
       </c>
       <c r="F45" s="3">
-        <v>1445500</v>
+        <v>1428500</v>
       </c>
       <c r="G45" s="3">
-        <v>265300</v>
+        <v>262200</v>
       </c>
       <c r="H45" s="3">
-        <v>264500</v>
+        <v>261400</v>
       </c>
       <c r="I45" s="3">
-        <v>269400</v>
+        <v>266200</v>
       </c>
       <c r="J45" s="3">
-        <v>297200</v>
+        <v>293700</v>
       </c>
       <c r="K45" s="3">
         <v>309000</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9481100</v>
+        <v>9369500</v>
       </c>
       <c r="E46" s="3">
-        <v>10112600</v>
+        <v>9993700</v>
       </c>
       <c r="F46" s="3">
-        <v>10110100</v>
+        <v>9991200</v>
       </c>
       <c r="G46" s="3">
-        <v>8221600</v>
+        <v>8124800</v>
       </c>
       <c r="H46" s="3">
-        <v>8196800</v>
+        <v>8100400</v>
       </c>
       <c r="I46" s="3">
-        <v>7295700</v>
+        <v>7209900</v>
       </c>
       <c r="J46" s="3">
-        <v>7457800</v>
+        <v>7370000</v>
       </c>
       <c r="K46" s="3">
         <v>9074400</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2000000</v>
+        <v>1976500</v>
       </c>
       <c r="E47" s="3">
-        <v>1930400</v>
+        <v>1907700</v>
       </c>
       <c r="F47" s="3">
-        <v>1477800</v>
+        <v>1460400</v>
       </c>
       <c r="G47" s="3">
-        <v>1583800</v>
+        <v>1565100</v>
       </c>
       <c r="H47" s="3">
-        <v>1409100</v>
+        <v>1392600</v>
       </c>
       <c r="I47" s="3">
-        <v>1387600</v>
+        <v>1371300</v>
       </c>
       <c r="J47" s="3">
-        <v>2382300</v>
+        <v>2354300</v>
       </c>
       <c r="K47" s="3">
         <v>2525800</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14273000</v>
+        <v>14105100</v>
       </c>
       <c r="E48" s="3">
-        <v>13974900</v>
+        <v>13810500</v>
       </c>
       <c r="F48" s="3">
-        <v>12035400</v>
+        <v>11893800</v>
       </c>
       <c r="G48" s="3">
-        <v>12539100</v>
+        <v>12391600</v>
       </c>
       <c r="H48" s="3">
-        <v>13141100</v>
+        <v>12986500</v>
       </c>
       <c r="I48" s="3">
-        <v>13243800</v>
+        <v>13088000</v>
       </c>
       <c r="J48" s="3">
-        <v>14898700</v>
+        <v>14723400</v>
       </c>
       <c r="K48" s="3">
         <v>15918100</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1837100</v>
+        <v>1815500</v>
       </c>
       <c r="E49" s="3">
-        <v>2408900</v>
+        <v>2380600</v>
       </c>
       <c r="F49" s="3">
-        <v>2896100</v>
+        <v>2862000</v>
       </c>
       <c r="G49" s="3">
-        <v>2237800</v>
+        <v>2211500</v>
       </c>
       <c r="H49" s="3">
-        <v>2569400</v>
+        <v>2539200</v>
       </c>
       <c r="I49" s="3">
-        <v>2209800</v>
+        <v>2183800</v>
       </c>
       <c r="J49" s="3">
-        <v>3012400</v>
+        <v>2977000</v>
       </c>
       <c r="K49" s="3">
         <v>3482900</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1022000</v>
+        <v>1010000</v>
       </c>
       <c r="E52" s="3">
-        <v>932200</v>
+        <v>921200</v>
       </c>
       <c r="F52" s="3">
-        <v>841100</v>
+        <v>831200</v>
       </c>
       <c r="G52" s="3">
-        <v>689100</v>
+        <v>681000</v>
       </c>
       <c r="H52" s="3">
-        <v>683100</v>
+        <v>675100</v>
       </c>
       <c r="I52" s="3">
-        <v>803100</v>
+        <v>793600</v>
       </c>
       <c r="J52" s="3">
-        <v>978200</v>
+        <v>966700</v>
       </c>
       <c r="K52" s="3">
         <v>712300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28613200</v>
+        <v>28276500</v>
       </c>
       <c r="E54" s="3">
-        <v>29359100</v>
+        <v>29013700</v>
       </c>
       <c r="F54" s="3">
-        <v>27360500</v>
+        <v>27038600</v>
       </c>
       <c r="G54" s="3">
-        <v>25271300</v>
+        <v>24974000</v>
       </c>
       <c r="H54" s="3">
-        <v>25999600</v>
+        <v>25693700</v>
       </c>
       <c r="I54" s="3">
-        <v>24940000</v>
+        <v>24646600</v>
       </c>
       <c r="J54" s="3">
-        <v>28729400</v>
+        <v>28391400</v>
       </c>
       <c r="K54" s="3">
         <v>31713600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1053800</v>
+        <v>1041400</v>
       </c>
       <c r="E57" s="3">
-        <v>1109100</v>
+        <v>1096000</v>
       </c>
       <c r="F57" s="3">
-        <v>1051000</v>
+        <v>1038700</v>
       </c>
       <c r="G57" s="3">
-        <v>1189400</v>
+        <v>1175400</v>
       </c>
       <c r="H57" s="3">
-        <v>1050600</v>
+        <v>1038200</v>
       </c>
       <c r="I57" s="3">
-        <v>1096800</v>
+        <v>1083900</v>
       </c>
       <c r="J57" s="3">
-        <v>1020000</v>
+        <v>1008000</v>
       </c>
       <c r="K57" s="3">
         <v>1562200</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1498800</v>
+        <v>1481200</v>
       </c>
       <c r="E58" s="3">
-        <v>1341400</v>
+        <v>1325700</v>
       </c>
       <c r="F58" s="3">
-        <v>1163200</v>
+        <v>1149500</v>
       </c>
       <c r="G58" s="3">
-        <v>1337500</v>
+        <v>1321700</v>
       </c>
       <c r="H58" s="3">
-        <v>1547000</v>
+        <v>1528800</v>
       </c>
       <c r="I58" s="3">
-        <v>1519200</v>
+        <v>1501300</v>
       </c>
       <c r="J58" s="3">
-        <v>2529400</v>
+        <v>2499700</v>
       </c>
       <c r="K58" s="3">
         <v>2766600</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5261000</v>
+        <v>5199100</v>
       </c>
       <c r="E59" s="3">
-        <v>7052500</v>
+        <v>6969500</v>
       </c>
       <c r="F59" s="3">
-        <v>5765300</v>
+        <v>5697500</v>
       </c>
       <c r="G59" s="3">
-        <v>5526200</v>
+        <v>5461200</v>
       </c>
       <c r="H59" s="3">
-        <v>5448700</v>
+        <v>5384600</v>
       </c>
       <c r="I59" s="3">
-        <v>4727900</v>
+        <v>4672300</v>
       </c>
       <c r="J59" s="3">
-        <v>4939600</v>
+        <v>4881500</v>
       </c>
       <c r="K59" s="3">
         <v>5885200</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7813600</v>
+        <v>7721700</v>
       </c>
       <c r="E60" s="3">
-        <v>8625800</v>
+        <v>8524400</v>
       </c>
       <c r="F60" s="3">
-        <v>7979500</v>
+        <v>7885700</v>
       </c>
       <c r="G60" s="3">
-        <v>8053000</v>
+        <v>7958300</v>
       </c>
       <c r="H60" s="3">
-        <v>8046200</v>
+        <v>7951600</v>
       </c>
       <c r="I60" s="3">
-        <v>7343900</v>
+        <v>7257500</v>
       </c>
       <c r="J60" s="3">
-        <v>8489100</v>
+        <v>8389200</v>
       </c>
       <c r="K60" s="3">
         <v>10213900</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5692100</v>
+        <v>5625100</v>
       </c>
       <c r="E61" s="3">
-        <v>5892300</v>
+        <v>5822900</v>
       </c>
       <c r="F61" s="3">
-        <v>4487800</v>
+        <v>4435000</v>
       </c>
       <c r="G61" s="3">
-        <v>4343700</v>
+        <v>4292600</v>
       </c>
       <c r="H61" s="3">
-        <v>5355700</v>
+        <v>5292700</v>
       </c>
       <c r="I61" s="3">
-        <v>5953200</v>
+        <v>5883200</v>
       </c>
       <c r="J61" s="3">
-        <v>8410400</v>
+        <v>8311500</v>
       </c>
       <c r="K61" s="3">
         <v>7745800</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1888700</v>
+        <v>1866500</v>
       </c>
       <c r="E62" s="3">
-        <v>2317100</v>
+        <v>2289800</v>
       </c>
       <c r="F62" s="3">
-        <v>2371500</v>
+        <v>2343600</v>
       </c>
       <c r="G62" s="3">
-        <v>1645600</v>
+        <v>1626200</v>
       </c>
       <c r="H62" s="3">
-        <v>1722100</v>
+        <v>1701900</v>
       </c>
       <c r="I62" s="3">
-        <v>1302200</v>
+        <v>1286900</v>
       </c>
       <c r="J62" s="3">
-        <v>1810500</v>
+        <v>1789200</v>
       </c>
       <c r="K62" s="3">
         <v>2071800</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16703400</v>
+        <v>16506900</v>
       </c>
       <c r="E66" s="3">
-        <v>17745200</v>
+        <v>17536400</v>
       </c>
       <c r="F66" s="3">
-        <v>16138200</v>
+        <v>15948400</v>
       </c>
       <c r="G66" s="3">
-        <v>15225300</v>
+        <v>15046100</v>
       </c>
       <c r="H66" s="3">
-        <v>16273900</v>
+        <v>16082500</v>
       </c>
       <c r="I66" s="3">
-        <v>15721700</v>
+        <v>15536700</v>
       </c>
       <c r="J66" s="3">
-        <v>19941900</v>
+        <v>19707300</v>
       </c>
       <c r="K66" s="3">
         <v>21041400</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10332100</v>
+        <v>10210600</v>
       </c>
       <c r="E72" s="3">
-        <v>9888700</v>
+        <v>9772400</v>
       </c>
       <c r="F72" s="3">
-        <v>9629500</v>
+        <v>9516200</v>
       </c>
       <c r="G72" s="3">
-        <v>8490100</v>
+        <v>8390300</v>
       </c>
       <c r="H72" s="3">
-        <v>8208100</v>
+        <v>8111500</v>
       </c>
       <c r="I72" s="3">
-        <v>7700400</v>
+        <v>7609800</v>
       </c>
       <c r="J72" s="3">
-        <v>7283100</v>
+        <v>7197500</v>
       </c>
       <c r="K72" s="3">
         <v>9117600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11909700</v>
+        <v>11769600</v>
       </c>
       <c r="E76" s="3">
-        <v>11613900</v>
+        <v>11477200</v>
       </c>
       <c r="F76" s="3">
-        <v>11222300</v>
+        <v>11090300</v>
       </c>
       <c r="G76" s="3">
-        <v>10046000</v>
+        <v>9927800</v>
       </c>
       <c r="H76" s="3">
-        <v>9725600</v>
+        <v>9611200</v>
       </c>
       <c r="I76" s="3">
-        <v>9218300</v>
+        <v>9109900</v>
       </c>
       <c r="J76" s="3">
-        <v>8787500</v>
+        <v>8684100</v>
       </c>
       <c r="K76" s="3">
         <v>10672200</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>559300</v>
+        <v>552700</v>
       </c>
       <c r="E81" s="3">
-        <v>523400</v>
+        <v>517300</v>
       </c>
       <c r="F81" s="3">
-        <v>585200</v>
+        <v>578300</v>
       </c>
       <c r="G81" s="3">
-        <v>405200</v>
+        <v>400500</v>
       </c>
       <c r="H81" s="3">
-        <v>604400</v>
+        <v>597300</v>
       </c>
       <c r="I81" s="3">
-        <v>470000</v>
+        <v>464500</v>
       </c>
       <c r="J81" s="3">
-        <v>-896800</v>
+        <v>-886200</v>
       </c>
       <c r="K81" s="3">
         <v>-172800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3117500</v>
+        <v>3080800</v>
       </c>
       <c r="E83" s="3">
-        <v>3128400</v>
+        <v>3091600</v>
       </c>
       <c r="F83" s="3">
-        <v>2860200</v>
+        <v>2826500</v>
       </c>
       <c r="G83" s="3">
-        <v>2922000</v>
+        <v>2887700</v>
       </c>
       <c r="H83" s="3">
-        <v>2908300</v>
+        <v>2874100</v>
       </c>
       <c r="I83" s="3">
-        <v>3094000</v>
+        <v>3057600</v>
       </c>
       <c r="J83" s="3">
-        <v>3276500</v>
+        <v>3238000</v>
       </c>
       <c r="K83" s="3">
         <v>3294900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4028900</v>
+        <v>3981500</v>
       </c>
       <c r="E89" s="3">
-        <v>3183400</v>
+        <v>3145900</v>
       </c>
       <c r="F89" s="3">
-        <v>3408900</v>
+        <v>3368800</v>
       </c>
       <c r="G89" s="3">
-        <v>3296100</v>
+        <v>3257300</v>
       </c>
       <c r="H89" s="3">
-        <v>4055100</v>
+        <v>4007400</v>
       </c>
       <c r="I89" s="3">
-        <v>3595500</v>
+        <v>3553200</v>
       </c>
       <c r="J89" s="3">
-        <v>1629000</v>
+        <v>1609800</v>
       </c>
       <c r="K89" s="3">
         <v>3741100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2731400</v>
+        <v>-2699200</v>
       </c>
       <c r="E91" s="3">
-        <v>-2779100</v>
+        <v>-2746400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1921700</v>
+        <v>-1899100</v>
       </c>
       <c r="G91" s="3">
-        <v>-2075900</v>
+        <v>-2051500</v>
       </c>
       <c r="H91" s="3">
-        <v>-2349700</v>
+        <v>-2322100</v>
       </c>
       <c r="I91" s="3">
-        <v>-2648400</v>
+        <v>-2617200</v>
       </c>
       <c r="J91" s="3">
-        <v>-2424900</v>
+        <v>-2396400</v>
       </c>
       <c r="K91" s="3">
         <v>-2810200</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3197200</v>
+        <v>-3159600</v>
       </c>
       <c r="E94" s="3">
-        <v>-3304400</v>
+        <v>-3265500</v>
       </c>
       <c r="F94" s="3">
-        <v>-2298500</v>
+        <v>-2271500</v>
       </c>
       <c r="G94" s="3">
-        <v>-2960800</v>
+        <v>-2925900</v>
       </c>
       <c r="H94" s="3">
-        <v>-2962200</v>
+        <v>-2927400</v>
       </c>
       <c r="I94" s="3">
-        <v>-2041600</v>
+        <v>-2017600</v>
       </c>
       <c r="J94" s="3">
-        <v>-2695300</v>
+        <v>-2663600</v>
       </c>
       <c r="K94" s="3">
         <v>-3442200</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-264000</v>
+        <v>-260900</v>
       </c>
       <c r="E96" s="3">
-        <v>-259400</v>
+        <v>-256300</v>
       </c>
       <c r="F96" s="3">
-        <v>-253800</v>
+        <v>-250900</v>
       </c>
       <c r="G96" s="3">
-        <v>-206700</v>
+        <v>-204200</v>
       </c>
       <c r="H96" s="3">
-        <v>-156500</v>
+        <v>-154600</v>
       </c>
       <c r="I96" s="3">
-        <v>-35300</v>
+        <v>-34900</v>
       </c>
       <c r="J96" s="3">
-        <v>-189400</v>
+        <v>-187100</v>
       </c>
       <c r="K96" s="3">
         <v>-465300</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-550400</v>
+        <v>-544000</v>
       </c>
       <c r="E100" s="3">
-        <v>-212300</v>
+        <v>-209800</v>
       </c>
       <c r="F100" s="3">
-        <v>-451900</v>
+        <v>-446600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1159000</v>
+        <v>-1145300</v>
       </c>
       <c r="H100" s="3">
-        <v>-801800</v>
+        <v>-792300</v>
       </c>
       <c r="I100" s="3">
-        <v>-989400</v>
+        <v>-977800</v>
       </c>
       <c r="J100" s="3">
-        <v>910900</v>
+        <v>900200</v>
       </c>
       <c r="K100" s="3">
         <v>-283700</v>
@@ -3714,22 +3714,22 @@
         <v>-1700</v>
       </c>
       <c r="E101" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="F101" s="3">
         <v>500</v>
       </c>
       <c r="G101" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="H101" s="3">
         <v>-1400</v>
       </c>
       <c r="I101" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="J101" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K101" s="3">
         <v>-3100</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>279400</v>
+        <v>276100</v>
       </c>
       <c r="E102" s="3">
-        <v>-337900</v>
+        <v>-333900</v>
       </c>
       <c r="F102" s="3">
-        <v>659000</v>
+        <v>651200</v>
       </c>
       <c r="G102" s="3">
-        <v>-826300</v>
+        <v>-816600</v>
       </c>
       <c r="H102" s="3">
-        <v>289700</v>
+        <v>286300</v>
       </c>
       <c r="I102" s="3">
-        <v>570200</v>
+        <v>563500</v>
       </c>
       <c r="J102" s="3">
-        <v>-154900</v>
+        <v>-153100</v>
       </c>
       <c r="K102" s="3">
         <v>12100</v>

--- a/AAII_Financials/Yearly/KT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>KT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20090000</v>
+        <v>20167400</v>
       </c>
       <c r="E8" s="3">
-        <v>20447300</v>
+        <v>19372500</v>
       </c>
       <c r="F8" s="3">
-        <v>19706500</v>
+        <v>19717100</v>
       </c>
       <c r="G8" s="3">
-        <v>19645300</v>
+        <v>19002700</v>
       </c>
       <c r="H8" s="3">
-        <v>19104700</v>
+        <v>18943700</v>
       </c>
       <c r="I8" s="3">
-        <v>18716200</v>
+        <v>18422400</v>
       </c>
       <c r="J8" s="3">
+        <v>18047800</v>
+      </c>
+      <c r="K8" s="3">
         <v>18741800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21892700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20700800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>19879000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8111000</v>
+        <v>8006200</v>
       </c>
       <c r="E9" s="3">
-        <v>8558000</v>
+        <v>7821400</v>
       </c>
       <c r="F9" s="3">
-        <v>7930600</v>
+        <v>8252300</v>
       </c>
       <c r="G9" s="3">
-        <v>7765100</v>
+        <v>7647400</v>
       </c>
       <c r="H9" s="3">
-        <v>7432700</v>
+        <v>7487800</v>
       </c>
       <c r="I9" s="3">
-        <v>7399600</v>
+        <v>7167200</v>
       </c>
       <c r="J9" s="3">
+        <v>7135300</v>
+      </c>
+      <c r="K9" s="3">
         <v>7504500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6253800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5936900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6602100</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11979000</v>
+        <v>12161200</v>
       </c>
       <c r="E10" s="3">
-        <v>11889300</v>
+        <v>11551100</v>
       </c>
       <c r="F10" s="3">
-        <v>11775900</v>
+        <v>11464700</v>
       </c>
       <c r="G10" s="3">
-        <v>11880200</v>
+        <v>11355300</v>
       </c>
       <c r="H10" s="3">
-        <v>11672000</v>
+        <v>11455900</v>
       </c>
       <c r="I10" s="3">
-        <v>11316700</v>
+        <v>11255200</v>
       </c>
       <c r="J10" s="3">
+        <v>10912500</v>
+      </c>
+      <c r="K10" s="3">
         <v>11237300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>15638900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14763900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>13277000</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>131800</v>
+        <v>136900</v>
       </c>
       <c r="E12" s="3">
-        <v>138600</v>
+        <v>127100</v>
       </c>
       <c r="F12" s="3">
-        <v>148500</v>
+        <v>133700</v>
       </c>
       <c r="G12" s="3">
-        <v>141700</v>
+        <v>143200</v>
       </c>
       <c r="H12" s="3">
-        <v>141000</v>
+        <v>136600</v>
       </c>
       <c r="I12" s="3">
-        <v>154400</v>
+        <v>136000</v>
       </c>
       <c r="J12" s="3">
+        <v>148900</v>
+      </c>
+      <c r="K12" s="3">
         <v>161300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>156000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>257300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>277000</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>103500</v>
+        <v>-105000</v>
       </c>
       <c r="E14" s="3">
-        <v>-4300</v>
+        <v>99800</v>
       </c>
       <c r="F14" s="3">
-        <v>-63800</v>
+        <v>-4100</v>
       </c>
       <c r="G14" s="3">
-        <v>-6300</v>
+        <v>-61600</v>
       </c>
       <c r="H14" s="3">
-        <v>44600</v>
+        <v>-6100</v>
       </c>
       <c r="I14" s="3">
-        <v>131500</v>
+        <v>43000</v>
       </c>
       <c r="J14" s="3">
+        <v>126800</v>
+      </c>
+      <c r="K14" s="3">
         <v>89900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>15700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>39300</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>3052800</v>
+        <v>2922200</v>
       </c>
       <c r="E15" s="3">
-        <v>3048800</v>
+        <v>2943800</v>
       </c>
       <c r="F15" s="3">
-        <v>2756700</v>
+        <v>2939900</v>
       </c>
       <c r="G15" s="3">
-        <v>2826200</v>
+        <v>2658200</v>
       </c>
       <c r="H15" s="3">
-        <v>2810000</v>
+        <v>2725200</v>
       </c>
       <c r="I15" s="3">
-        <v>2804400</v>
+        <v>2709700</v>
       </c>
       <c r="J15" s="3">
+        <v>2704300</v>
+      </c>
+      <c r="K15" s="3">
         <v>2793600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3245200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2750200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2661700</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>19198900</v>
+        <v>18708200</v>
       </c>
       <c r="E17" s="3">
-        <v>19469000</v>
+        <v>18513200</v>
       </c>
       <c r="F17" s="3">
-        <v>18583000</v>
+        <v>18773700</v>
       </c>
       <c r="G17" s="3">
-        <v>18483700</v>
+        <v>17919300</v>
       </c>
       <c r="H17" s="3">
-        <v>17939700</v>
+        <v>17823600</v>
       </c>
       <c r="I17" s="3">
-        <v>17761700</v>
+        <v>17299000</v>
       </c>
       <c r="J17" s="3">
+        <v>17127300</v>
+      </c>
+      <c r="K17" s="3">
         <v>19173300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21603000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19292300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18090700</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>891100</v>
+        <v>1459100</v>
       </c>
       <c r="E18" s="3">
-        <v>978300</v>
+        <v>859300</v>
       </c>
       <c r="F18" s="3">
-        <v>1123500</v>
+        <v>943400</v>
       </c>
       <c r="G18" s="3">
-        <v>1161600</v>
+        <v>1083400</v>
       </c>
       <c r="H18" s="3">
-        <v>1165000</v>
+        <v>1120100</v>
       </c>
       <c r="I18" s="3">
-        <v>954600</v>
+        <v>1123400</v>
       </c>
       <c r="J18" s="3">
+        <v>920500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-431500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>289700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1408400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1788400</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>149300</v>
+        <v>356700</v>
       </c>
       <c r="E20" s="3">
-        <v>75600</v>
+        <v>144000</v>
       </c>
       <c r="F20" s="3">
-        <v>42100</v>
+        <v>72900</v>
       </c>
       <c r="G20" s="3">
-        <v>-204400</v>
+        <v>40600</v>
       </c>
       <c r="H20" s="3">
-        <v>64900</v>
+        <v>-197100</v>
       </c>
       <c r="I20" s="3">
-        <v>-26000</v>
+        <v>62600</v>
       </c>
       <c r="J20" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-285500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>85400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>177300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>92500</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4121300</v>
+        <v>4823300</v>
       </c>
       <c r="E21" s="3">
-        <v>4145600</v>
+        <v>4021300</v>
       </c>
       <c r="F21" s="3">
-        <v>3992100</v>
+        <v>3775600</v>
       </c>
       <c r="G21" s="3">
-        <v>3844800</v>
+        <v>3942900</v>
       </c>
       <c r="H21" s="3">
-        <v>4104000</v>
+        <v>3728600</v>
       </c>
       <c r="I21" s="3">
-        <v>3986100</v>
-      </c>
-      <c r="J21" s="3">
+        <v>4170800</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="3">
         <v>2521100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3633700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4402500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4547700</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>221400</v>
+        <v>213300</v>
       </c>
       <c r="E22" s="3">
-        <v>233900</v>
+        <v>213500</v>
       </c>
       <c r="F22" s="3">
-        <v>249400</v>
+        <v>225500</v>
       </c>
       <c r="G22" s="3">
-        <v>254100</v>
+        <v>240500</v>
       </c>
       <c r="H22" s="3">
-        <v>283300</v>
+        <v>245000</v>
       </c>
       <c r="I22" s="3">
-        <v>324200</v>
+        <v>273100</v>
       </c>
       <c r="J22" s="3">
+        <v>312600</v>
+      </c>
+      <c r="K22" s="3">
         <v>399100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>409800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>397300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>432500</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>819000</v>
+        <v>1602500</v>
       </c>
       <c r="E23" s="3">
-        <v>820100</v>
+        <v>789800</v>
       </c>
       <c r="F23" s="3">
-        <v>916200</v>
+        <v>790800</v>
       </c>
       <c r="G23" s="3">
-        <v>703100</v>
+        <v>883500</v>
       </c>
       <c r="H23" s="3">
-        <v>946700</v>
+        <v>678000</v>
       </c>
       <c r="I23" s="3">
-        <v>604300</v>
+        <v>912900</v>
       </c>
       <c r="J23" s="3">
+        <v>582800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1116000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-34700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1188500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1448300</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>228200</v>
+        <v>420400</v>
       </c>
       <c r="E24" s="3">
-        <v>260700</v>
+        <v>220000</v>
       </c>
       <c r="F24" s="3">
-        <v>275900</v>
+        <v>251400</v>
       </c>
       <c r="G24" s="3">
-        <v>231400</v>
+        <v>266000</v>
       </c>
       <c r="H24" s="3">
-        <v>276500</v>
+        <v>223200</v>
       </c>
       <c r="I24" s="3">
-        <v>192600</v>
+        <v>266600</v>
       </c>
       <c r="J24" s="3">
+        <v>185700</v>
+      </c>
+      <c r="K24" s="3">
         <v>-231800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>45100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>233400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>286600</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>590800</v>
+        <v>1182100</v>
       </c>
       <c r="E26" s="3">
-        <v>559400</v>
+        <v>569700</v>
       </c>
       <c r="F26" s="3">
-        <v>640300</v>
+        <v>539400</v>
       </c>
       <c r="G26" s="3">
-        <v>471700</v>
+        <v>617500</v>
       </c>
       <c r="H26" s="3">
-        <v>670200</v>
+        <v>454800</v>
       </c>
       <c r="I26" s="3">
-        <v>411800</v>
+        <v>646300</v>
       </c>
       <c r="J26" s="3">
+        <v>397100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-884200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-79800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>955100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1161700</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>552700</v>
+        <v>1099100</v>
       </c>
       <c r="E27" s="3">
-        <v>517300</v>
+        <v>533000</v>
       </c>
       <c r="F27" s="3">
-        <v>578300</v>
+        <v>498800</v>
       </c>
       <c r="G27" s="3">
-        <v>400500</v>
+        <v>557700</v>
       </c>
       <c r="H27" s="3">
-        <v>670200</v>
+        <v>386200</v>
       </c>
       <c r="I27" s="3">
-        <v>344900</v>
+        <v>646300</v>
       </c>
       <c r="J27" s="3">
+        <v>332600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-939900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-172800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>905200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1152000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1424,27 +1484,30 @@
       <c r="G29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="3">
-        <v>-72900</v>
+      <c r="H29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I29" s="3">
-        <v>119500</v>
+        <v>-70300</v>
       </c>
       <c r="J29" s="3">
+        <v>115300</v>
+      </c>
+      <c r="K29" s="3">
         <v>53700</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-26500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>148400</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-149300</v>
+        <v>-356700</v>
       </c>
       <c r="E32" s="3">
-        <v>-75600</v>
+        <v>-144000</v>
       </c>
       <c r="F32" s="3">
-        <v>-42100</v>
+        <v>-72900</v>
       </c>
       <c r="G32" s="3">
-        <v>204400</v>
+        <v>-40600</v>
       </c>
       <c r="H32" s="3">
-        <v>-64900</v>
+        <v>197100</v>
       </c>
       <c r="I32" s="3">
-        <v>26000</v>
+        <v>-62600</v>
       </c>
       <c r="J32" s="3">
+        <v>25100</v>
+      </c>
+      <c r="K32" s="3">
         <v>285500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-85400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-177300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-92500</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>552700</v>
+        <v>1099100</v>
       </c>
       <c r="E33" s="3">
-        <v>517300</v>
+        <v>533000</v>
       </c>
       <c r="F33" s="3">
-        <v>578300</v>
+        <v>498800</v>
       </c>
       <c r="G33" s="3">
-        <v>400500</v>
+        <v>557700</v>
       </c>
       <c r="H33" s="3">
-        <v>597300</v>
+        <v>386200</v>
       </c>
       <c r="I33" s="3">
-        <v>464500</v>
+        <v>576000</v>
       </c>
       <c r="J33" s="3">
+        <v>447900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-886200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-172800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>878700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1300400</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>552700</v>
+        <v>1099100</v>
       </c>
       <c r="E35" s="3">
-        <v>517300</v>
+        <v>533000</v>
       </c>
       <c r="F35" s="3">
-        <v>578300</v>
+        <v>498800</v>
       </c>
       <c r="G35" s="3">
-        <v>400500</v>
+        <v>557700</v>
       </c>
       <c r="H35" s="3">
-        <v>597300</v>
+        <v>386200</v>
       </c>
       <c r="I35" s="3">
-        <v>464500</v>
+        <v>576000</v>
       </c>
       <c r="J35" s="3">
+        <v>447900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-886200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-172800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>878700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1300400</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2213100</v>
+        <v>2445900</v>
       </c>
       <c r="E41" s="3">
-        <v>1937000</v>
+        <v>2134000</v>
       </c>
       <c r="F41" s="3">
-        <v>2270900</v>
+        <v>1867800</v>
       </c>
       <c r="G41" s="3">
-        <v>1619700</v>
+        <v>2189800</v>
       </c>
       <c r="H41" s="3">
-        <v>2436300</v>
+        <v>1561800</v>
       </c>
       <c r="I41" s="3">
-        <v>2149900</v>
+        <v>2349300</v>
       </c>
       <c r="J41" s="3">
+        <v>2073200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1586500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1884500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2454100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>597300</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1010400</v>
+        <v>960400</v>
       </c>
       <c r="E42" s="3">
-        <v>729400</v>
+        <v>974300</v>
       </c>
       <c r="F42" s="3">
-        <v>835600</v>
+        <v>703400</v>
       </c>
       <c r="G42" s="3">
-        <v>817000</v>
+        <v>805800</v>
       </c>
       <c r="H42" s="3">
-        <v>605300</v>
+        <v>787800</v>
       </c>
       <c r="I42" s="3">
-        <v>246100</v>
+        <v>583600</v>
       </c>
       <c r="J42" s="3">
+        <v>237300</v>
+      </c>
+      <c r="K42" s="3">
         <v>279500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>436900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1708200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1515700</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4119800</v>
+        <v>4125700</v>
       </c>
       <c r="E43" s="3">
-        <v>5018600</v>
+        <v>3972700</v>
       </c>
       <c r="F43" s="3">
-        <v>4881600</v>
+        <v>4839400</v>
       </c>
       <c r="G43" s="3">
-        <v>5041500</v>
+        <v>4707300</v>
       </c>
       <c r="H43" s="3">
-        <v>4480000</v>
+        <v>4861400</v>
       </c>
       <c r="I43" s="3">
-        <v>4106300</v>
+        <v>4320000</v>
       </c>
       <c r="J43" s="3">
+        <v>3959700</v>
+      </c>
+      <c r="K43" s="3">
         <v>4858500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5831100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7453300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5811000</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>449100</v>
+        <v>416500</v>
       </c>
       <c r="E44" s="3">
-        <v>559000</v>
+        <v>433100</v>
       </c>
       <c r="F44" s="3">
-        <v>574600</v>
+        <v>539100</v>
       </c>
       <c r="G44" s="3">
-        <v>384500</v>
+        <v>554000</v>
       </c>
       <c r="H44" s="3">
-        <v>317500</v>
+        <v>370800</v>
       </c>
       <c r="I44" s="3">
-        <v>441300</v>
+        <v>306200</v>
       </c>
       <c r="J44" s="3">
+        <v>425500</v>
+      </c>
+      <c r="K44" s="3">
         <v>351900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>613000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1346800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>607300</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1577100</v>
+        <v>1656900</v>
       </c>
       <c r="E45" s="3">
-        <v>1749600</v>
+        <v>1520800</v>
       </c>
       <c r="F45" s="3">
-        <v>1428500</v>
+        <v>1687100</v>
       </c>
       <c r="G45" s="3">
-        <v>262200</v>
+        <v>1377500</v>
       </c>
       <c r="H45" s="3">
-        <v>261400</v>
+        <v>252800</v>
       </c>
       <c r="I45" s="3">
-        <v>266200</v>
+        <v>252000</v>
       </c>
       <c r="J45" s="3">
+        <v>256700</v>
+      </c>
+      <c r="K45" s="3">
         <v>293700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>309000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>305200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>280300</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9369500</v>
+        <v>9605300</v>
       </c>
       <c r="E46" s="3">
-        <v>9993700</v>
+        <v>9034900</v>
       </c>
       <c r="F46" s="3">
-        <v>9991200</v>
+        <v>9636800</v>
       </c>
       <c r="G46" s="3">
-        <v>8124800</v>
+        <v>9634300</v>
       </c>
       <c r="H46" s="3">
-        <v>8100400</v>
+        <v>7834700</v>
       </c>
       <c r="I46" s="3">
-        <v>7209900</v>
+        <v>7811100</v>
       </c>
       <c r="J46" s="3">
+        <v>6952400</v>
+      </c>
+      <c r="K46" s="3">
         <v>7370000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9074400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8834600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8811600</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1976500</v>
+        <v>2593700</v>
       </c>
       <c r="E47" s="3">
-        <v>1907700</v>
+        <v>1905900</v>
       </c>
       <c r="F47" s="3">
-        <v>1460400</v>
+        <v>1839600</v>
       </c>
       <c r="G47" s="3">
-        <v>1565100</v>
+        <v>1408200</v>
       </c>
       <c r="H47" s="3">
-        <v>1392600</v>
+        <v>1509200</v>
       </c>
       <c r="I47" s="3">
-        <v>1371300</v>
+        <v>1342800</v>
       </c>
       <c r="J47" s="3">
+        <v>1322300</v>
+      </c>
+      <c r="K47" s="3">
         <v>2354300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2525800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3649000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3468200</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14105100</v>
+        <v>14121400</v>
       </c>
       <c r="E48" s="3">
-        <v>13810500</v>
+        <v>13601300</v>
       </c>
       <c r="F48" s="3">
-        <v>11893800</v>
+        <v>13317300</v>
       </c>
       <c r="G48" s="3">
-        <v>12391600</v>
+        <v>11469100</v>
       </c>
       <c r="H48" s="3">
-        <v>12986500</v>
+        <v>11949000</v>
       </c>
       <c r="I48" s="3">
-        <v>13088000</v>
+        <v>12522700</v>
       </c>
       <c r="J48" s="3">
+        <v>12620600</v>
+      </c>
+      <c r="K48" s="3">
         <v>14723400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15918100</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="M48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13663600</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1815500</v>
+        <v>2792300</v>
       </c>
       <c r="E49" s="3">
-        <v>2380600</v>
+        <v>1750600</v>
       </c>
       <c r="F49" s="3">
-        <v>2862000</v>
+        <v>2295600</v>
       </c>
       <c r="G49" s="3">
-        <v>2211500</v>
+        <v>2759800</v>
       </c>
       <c r="H49" s="3">
-        <v>2539200</v>
+        <v>2132500</v>
       </c>
       <c r="I49" s="3">
-        <v>2183800</v>
+        <v>2448500</v>
       </c>
       <c r="J49" s="3">
+        <v>2105800</v>
+      </c>
+      <c r="K49" s="3">
         <v>2977000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3482900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5398000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2379100</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1010000</v>
+        <v>986300</v>
       </c>
       <c r="E52" s="3">
-        <v>921200</v>
+        <v>973900</v>
       </c>
       <c r="F52" s="3">
-        <v>831200</v>
+        <v>888300</v>
       </c>
       <c r="G52" s="3">
-        <v>681000</v>
+        <v>801500</v>
       </c>
       <c r="H52" s="3">
-        <v>675100</v>
+        <v>656700</v>
       </c>
       <c r="I52" s="3">
-        <v>793600</v>
+        <v>651000</v>
       </c>
       <c r="J52" s="3">
+        <v>765300</v>
+      </c>
+      <c r="K52" s="3">
         <v>966700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>712300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>593000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>554300</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28276500</v>
+        <v>30099100</v>
       </c>
       <c r="E54" s="3">
-        <v>29013700</v>
+        <v>27266700</v>
       </c>
       <c r="F54" s="3">
-        <v>27038600</v>
+        <v>27977500</v>
       </c>
       <c r="G54" s="3">
-        <v>24974000</v>
+        <v>26073000</v>
       </c>
       <c r="H54" s="3">
-        <v>25693700</v>
+        <v>24082000</v>
       </c>
       <c r="I54" s="3">
-        <v>24646600</v>
+        <v>24776100</v>
       </c>
       <c r="J54" s="3">
+        <v>23766400</v>
+      </c>
+      <c r="K54" s="3">
         <v>28391400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31713600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>29028600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28876900</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1041400</v>
+        <v>1245100</v>
       </c>
       <c r="E57" s="3">
-        <v>1096000</v>
+        <v>1004200</v>
       </c>
       <c r="F57" s="3">
-        <v>1038700</v>
+        <v>1056900</v>
       </c>
       <c r="G57" s="3">
-        <v>1175400</v>
+        <v>1001600</v>
       </c>
       <c r="H57" s="3">
-        <v>1038200</v>
+        <v>1133400</v>
       </c>
       <c r="I57" s="3">
-        <v>1083900</v>
+        <v>1001100</v>
       </c>
       <c r="J57" s="3">
+        <v>1045200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1008000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1562200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1531200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1471800</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1481200</v>
+        <v>1671900</v>
       </c>
       <c r="E58" s="3">
-        <v>1325700</v>
+        <v>1428300</v>
       </c>
       <c r="F58" s="3">
-        <v>1149500</v>
+        <v>1278300</v>
       </c>
       <c r="G58" s="3">
-        <v>1321700</v>
+        <v>1108500</v>
       </c>
       <c r="H58" s="3">
-        <v>1528800</v>
+        <v>1274500</v>
       </c>
       <c r="I58" s="3">
-        <v>1501300</v>
+        <v>1474200</v>
       </c>
       <c r="J58" s="3">
+        <v>1447700</v>
+      </c>
+      <c r="K58" s="3">
         <v>2499700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2766600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2697300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1942700</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5199100</v>
+        <v>5241600</v>
       </c>
       <c r="E59" s="3">
-        <v>6969500</v>
+        <v>5013400</v>
       </c>
       <c r="F59" s="3">
-        <v>5697500</v>
+        <v>6720600</v>
       </c>
       <c r="G59" s="3">
-        <v>5461200</v>
+        <v>5494000</v>
       </c>
       <c r="H59" s="3">
-        <v>5384600</v>
+        <v>5266100</v>
       </c>
       <c r="I59" s="3">
-        <v>4672300</v>
+        <v>5192300</v>
       </c>
       <c r="J59" s="3">
+        <v>4505400</v>
+      </c>
+      <c r="K59" s="3">
         <v>4881500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5885200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5235600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4456100</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7721700</v>
+        <v>8158700</v>
       </c>
       <c r="E60" s="3">
-        <v>8524400</v>
+        <v>7445900</v>
       </c>
       <c r="F60" s="3">
-        <v>7885700</v>
+        <v>8219900</v>
       </c>
       <c r="G60" s="3">
-        <v>7958300</v>
+        <v>7604000</v>
       </c>
       <c r="H60" s="3">
-        <v>7951600</v>
+        <v>7674100</v>
       </c>
       <c r="I60" s="3">
-        <v>7257500</v>
+        <v>7667600</v>
       </c>
       <c r="J60" s="3">
+        <v>6998300</v>
+      </c>
+      <c r="K60" s="3">
         <v>8389200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10213900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9464100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7870600</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5625100</v>
+        <v>6101700</v>
       </c>
       <c r="E61" s="3">
-        <v>5822900</v>
+        <v>5424200</v>
       </c>
       <c r="F61" s="3">
-        <v>4435000</v>
+        <v>5615000</v>
       </c>
       <c r="G61" s="3">
-        <v>4292600</v>
+        <v>4276600</v>
       </c>
       <c r="H61" s="3">
-        <v>5292700</v>
+        <v>4139300</v>
       </c>
       <c r="I61" s="3">
-        <v>5883200</v>
+        <v>5103600</v>
       </c>
       <c r="J61" s="3">
+        <v>5673100</v>
+      </c>
+      <c r="K61" s="3">
         <v>8311500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7745800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6944000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8078500</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1866500</v>
+        <v>2419300</v>
       </c>
       <c r="E62" s="3">
-        <v>2289800</v>
+        <v>1799900</v>
       </c>
       <c r="F62" s="3">
-        <v>2343600</v>
+        <v>2208000</v>
       </c>
       <c r="G62" s="3">
-        <v>1626200</v>
+        <v>2259900</v>
       </c>
       <c r="H62" s="3">
-        <v>1701900</v>
+        <v>1568100</v>
       </c>
       <c r="I62" s="3">
-        <v>1286900</v>
+        <v>1641100</v>
       </c>
       <c r="J62" s="3">
+        <v>1240900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1789200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2071800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1517400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1643700</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16506900</v>
+        <v>17968100</v>
       </c>
       <c r="E66" s="3">
-        <v>17536400</v>
+        <v>15917400</v>
       </c>
       <c r="F66" s="3">
-        <v>15948400</v>
+        <v>16910100</v>
       </c>
       <c r="G66" s="3">
-        <v>15046100</v>
+        <v>15378800</v>
       </c>
       <c r="H66" s="3">
-        <v>16082500</v>
+        <v>14508800</v>
       </c>
       <c r="I66" s="3">
-        <v>15536700</v>
+        <v>15508100</v>
       </c>
       <c r="J66" s="3">
+        <v>14981900</v>
+      </c>
+      <c r="K66" s="3">
         <v>19707300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21041400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18688900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18343100</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10210600</v>
+        <v>10762800</v>
       </c>
       <c r="E72" s="3">
-        <v>9772400</v>
+        <v>9845900</v>
       </c>
       <c r="F72" s="3">
-        <v>9516200</v>
+        <v>9423400</v>
       </c>
       <c r="G72" s="3">
-        <v>8390300</v>
+        <v>9176400</v>
       </c>
       <c r="H72" s="3">
-        <v>8111500</v>
+        <v>8090600</v>
       </c>
       <c r="I72" s="3">
-        <v>7609800</v>
+        <v>7821800</v>
       </c>
       <c r="J72" s="3">
+        <v>7338000</v>
+      </c>
+      <c r="K72" s="3">
         <v>7197500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9117600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17885900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9197700</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11769600</v>
+        <v>12131000</v>
       </c>
       <c r="E76" s="3">
-        <v>11477200</v>
+        <v>11349300</v>
       </c>
       <c r="F76" s="3">
-        <v>11090300</v>
+        <v>11067300</v>
       </c>
       <c r="G76" s="3">
-        <v>9927800</v>
+        <v>10694200</v>
       </c>
       <c r="H76" s="3">
-        <v>9611200</v>
+        <v>9573300</v>
       </c>
       <c r="I76" s="3">
-        <v>9109900</v>
+        <v>9268000</v>
       </c>
       <c r="J76" s="3">
+        <v>8784500</v>
+      </c>
+      <c r="K76" s="3">
         <v>8684100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10672200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10339700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10533800</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>552700</v>
+        <v>1099100</v>
       </c>
       <c r="E81" s="3">
-        <v>517300</v>
+        <v>533000</v>
       </c>
       <c r="F81" s="3">
-        <v>578300</v>
+        <v>498800</v>
       </c>
       <c r="G81" s="3">
-        <v>400500</v>
+        <v>557700</v>
       </c>
       <c r="H81" s="3">
-        <v>597300</v>
+        <v>386200</v>
       </c>
       <c r="I81" s="3">
-        <v>464500</v>
+        <v>576000</v>
       </c>
       <c r="J81" s="3">
+        <v>447900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-886200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-172800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>878700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1300400</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3080800</v>
+        <v>2954400</v>
       </c>
       <c r="E83" s="3">
-        <v>3091600</v>
+        <v>2970800</v>
       </c>
       <c r="F83" s="3">
-        <v>2826500</v>
+        <v>2981200</v>
       </c>
       <c r="G83" s="3">
-        <v>2887700</v>
+        <v>2725600</v>
       </c>
       <c r="H83" s="3">
-        <v>2874100</v>
+        <v>2784500</v>
       </c>
       <c r="I83" s="3">
-        <v>3057600</v>
+        <v>2771400</v>
       </c>
       <c r="J83" s="3">
+        <v>2948400</v>
+      </c>
+      <c r="K83" s="3">
         <v>3238000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3294900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2783600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2696800</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3981500</v>
+        <v>4505100</v>
       </c>
       <c r="E89" s="3">
-        <v>3145900</v>
+        <v>3839300</v>
       </c>
       <c r="F89" s="3">
-        <v>3368800</v>
+        <v>3033600</v>
       </c>
       <c r="G89" s="3">
-        <v>3257300</v>
+        <v>3248500</v>
       </c>
       <c r="H89" s="3">
-        <v>4007400</v>
+        <v>3141000</v>
       </c>
       <c r="I89" s="3">
-        <v>3553200</v>
+        <v>3864300</v>
       </c>
       <c r="J89" s="3">
+        <v>3426300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1609800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3741100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4809400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1947600</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2699200</v>
+        <v>-2834400</v>
       </c>
       <c r="E91" s="3">
-        <v>-2746400</v>
+        <v>-2602800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1899100</v>
+        <v>-2648400</v>
       </c>
       <c r="G91" s="3">
-        <v>-2051500</v>
+        <v>-1831300</v>
       </c>
       <c r="H91" s="3">
-        <v>-2322100</v>
+        <v>-1978200</v>
       </c>
       <c r="I91" s="3">
-        <v>-2617200</v>
+        <v>-2239100</v>
       </c>
       <c r="J91" s="3">
+        <v>-2523700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2396400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2810200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3158600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3155000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3159600</v>
+        <v>-4161400</v>
       </c>
       <c r="E94" s="3">
-        <v>-3265500</v>
+        <v>-3046800</v>
       </c>
       <c r="F94" s="3">
-        <v>-2271500</v>
+        <v>-3148900</v>
       </c>
       <c r="G94" s="3">
-        <v>-2925900</v>
+        <v>-2190300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2927400</v>
+        <v>-2821400</v>
       </c>
       <c r="I94" s="3">
-        <v>-2017600</v>
+        <v>-2822800</v>
       </c>
       <c r="J94" s="3">
+        <v>-1945500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2663600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3442200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3235000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2399100</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-260900</v>
+        <v>-283800</v>
       </c>
       <c r="E96" s="3">
-        <v>-256300</v>
+        <v>-251600</v>
       </c>
       <c r="F96" s="3">
-        <v>-250900</v>
+        <v>-247200</v>
       </c>
       <c r="G96" s="3">
-        <v>-204200</v>
+        <v>-241900</v>
       </c>
       <c r="H96" s="3">
-        <v>-154600</v>
+        <v>-196900</v>
       </c>
       <c r="I96" s="3">
-        <v>-34900</v>
+        <v>-149100</v>
       </c>
       <c r="J96" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-187100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-465300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-827100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1063400</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-544000</v>
+        <v>-33400</v>
       </c>
       <c r="E100" s="3">
-        <v>-209800</v>
+        <v>-524500</v>
       </c>
       <c r="F100" s="3">
-        <v>-446600</v>
+        <v>-202300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1145300</v>
+        <v>-430700</v>
       </c>
       <c r="H100" s="3">
-        <v>-792300</v>
+        <v>-1104400</v>
       </c>
       <c r="I100" s="3">
-        <v>-977800</v>
+        <v>-764000</v>
       </c>
       <c r="J100" s="3">
+        <v>-942800</v>
+      </c>
+      <c r="K100" s="3">
         <v>900200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-283700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1073400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>695200</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1700</v>
       </c>
-      <c r="E101" s="3">
-        <v>-4600</v>
-      </c>
       <c r="F101" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
-        <v>-2600</v>
-      </c>
       <c r="H101" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1400</v>
       </c>
-      <c r="I101" s="3">
-        <v>5600</v>
-      </c>
       <c r="J101" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>11500</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>311800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>266300</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-322000</v>
+      </c>
+      <c r="G102" s="3">
+        <v>627900</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-787400</v>
+      </c>
+      <c r="I102" s="3">
         <v>276100</v>
       </c>
-      <c r="E102" s="3">
-        <v>-333900</v>
-      </c>
-      <c r="F102" s="3">
-        <v>651200</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-816600</v>
-      </c>
-      <c r="H102" s="3">
-        <v>286300</v>
-      </c>
-      <c r="I102" s="3">
-        <v>563500</v>
-      </c>
       <c r="J102" s="3">
+        <v>543300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-153100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>500200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>255200</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/KT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>KT</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20167400</v>
+        <v>19171500</v>
       </c>
       <c r="E8" s="3">
-        <v>19372500</v>
+        <v>18415800</v>
       </c>
       <c r="F8" s="3">
-        <v>19717100</v>
+        <v>18743400</v>
       </c>
       <c r="G8" s="3">
-        <v>19002700</v>
+        <v>18064300</v>
       </c>
       <c r="H8" s="3">
-        <v>18943700</v>
+        <v>18008200</v>
       </c>
       <c r="I8" s="3">
-        <v>18422400</v>
+        <v>17512600</v>
       </c>
       <c r="J8" s="3">
-        <v>18047800</v>
+        <v>17156500</v>
       </c>
       <c r="K8" s="3">
         <v>18741800</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8006200</v>
+        <v>7610900</v>
       </c>
       <c r="E9" s="3">
-        <v>7821400</v>
+        <v>7435100</v>
       </c>
       <c r="F9" s="3">
-        <v>8252300</v>
+        <v>7844800</v>
       </c>
       <c r="G9" s="3">
-        <v>7647400</v>
+        <v>7269700</v>
       </c>
       <c r="H9" s="3">
-        <v>7487800</v>
+        <v>7118100</v>
       </c>
       <c r="I9" s="3">
-        <v>7167200</v>
+        <v>6813300</v>
       </c>
       <c r="J9" s="3">
-        <v>7135300</v>
+        <v>6782900</v>
       </c>
       <c r="K9" s="3">
         <v>7504500</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12161200</v>
+        <v>11560600</v>
       </c>
       <c r="E10" s="3">
-        <v>11551100</v>
+        <v>10980700</v>
       </c>
       <c r="F10" s="3">
-        <v>11464700</v>
+        <v>10898600</v>
       </c>
       <c r="G10" s="3">
-        <v>11355300</v>
+        <v>10794600</v>
       </c>
       <c r="H10" s="3">
-        <v>11455900</v>
+        <v>10890100</v>
       </c>
       <c r="I10" s="3">
-        <v>11255200</v>
+        <v>10699400</v>
       </c>
       <c r="J10" s="3">
-        <v>10912500</v>
+        <v>10373600</v>
       </c>
       <c r="K10" s="3">
         <v>11237300</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>136900</v>
+        <v>130100</v>
       </c>
       <c r="E12" s="3">
+        <v>120800</v>
+      </c>
+      <c r="F12" s="3">
         <v>127100</v>
       </c>
-      <c r="F12" s="3">
-        <v>133700</v>
-      </c>
       <c r="G12" s="3">
-        <v>143200</v>
+        <v>136100</v>
       </c>
       <c r="H12" s="3">
-        <v>136600</v>
+        <v>129800</v>
       </c>
       <c r="I12" s="3">
-        <v>136000</v>
+        <v>129300</v>
       </c>
       <c r="J12" s="3">
-        <v>148900</v>
+        <v>141500</v>
       </c>
       <c r="K12" s="3">
         <v>161300</v>
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-105000</v>
+        <v>-99800</v>
       </c>
       <c r="E14" s="3">
-        <v>99800</v>
+        <v>94900</v>
       </c>
       <c r="F14" s="3">
-        <v>-4100</v>
+        <v>-3900</v>
       </c>
       <c r="G14" s="3">
-        <v>-61600</v>
+        <v>-58500</v>
       </c>
       <c r="H14" s="3">
-        <v>-6100</v>
+        <v>-5800</v>
       </c>
       <c r="I14" s="3">
-        <v>43000</v>
+        <v>40800</v>
       </c>
       <c r="J14" s="3">
-        <v>126800</v>
+        <v>120600</v>
       </c>
       <c r="K14" s="3">
         <v>89900</v>
@@ -974,25 +974,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>2922200</v>
+        <v>2777900</v>
       </c>
       <c r="E15" s="3">
-        <v>2943800</v>
+        <v>2798400</v>
       </c>
       <c r="F15" s="3">
-        <v>2939900</v>
+        <v>2794700</v>
       </c>
       <c r="G15" s="3">
-        <v>2658200</v>
+        <v>2526900</v>
       </c>
       <c r="H15" s="3">
-        <v>2725200</v>
+        <v>2590700</v>
       </c>
       <c r="I15" s="3">
-        <v>2709700</v>
+        <v>2575900</v>
       </c>
       <c r="J15" s="3">
-        <v>2704300</v>
+        <v>2570700</v>
       </c>
       <c r="K15" s="3">
         <v>2793600</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>18708200</v>
+        <v>17784400</v>
       </c>
       <c r="E17" s="3">
-        <v>18513200</v>
+        <v>17599000</v>
       </c>
       <c r="F17" s="3">
-        <v>18773700</v>
+        <v>17846600</v>
       </c>
       <c r="G17" s="3">
-        <v>17919300</v>
+        <v>17034400</v>
       </c>
       <c r="H17" s="3">
-        <v>17823600</v>
+        <v>16943400</v>
       </c>
       <c r="I17" s="3">
-        <v>17299000</v>
+        <v>16444700</v>
       </c>
       <c r="J17" s="3">
-        <v>17127300</v>
+        <v>16281500</v>
       </c>
       <c r="K17" s="3">
         <v>19173300</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1459100</v>
+        <v>1387100</v>
       </c>
       <c r="E18" s="3">
-        <v>859300</v>
+        <v>816900</v>
       </c>
       <c r="F18" s="3">
-        <v>943400</v>
+        <v>896800</v>
       </c>
       <c r="G18" s="3">
-        <v>1083400</v>
+        <v>1029900</v>
       </c>
       <c r="H18" s="3">
-        <v>1120100</v>
+        <v>1064800</v>
       </c>
       <c r="I18" s="3">
-        <v>1123400</v>
+        <v>1067900</v>
       </c>
       <c r="J18" s="3">
-        <v>920500</v>
+        <v>875000</v>
       </c>
       <c r="K18" s="3">
         <v>-431500</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>356700</v>
+        <v>339100</v>
       </c>
       <c r="E20" s="3">
-        <v>144000</v>
+        <v>136900</v>
       </c>
       <c r="F20" s="3">
-        <v>72900</v>
+        <v>69300</v>
       </c>
       <c r="G20" s="3">
-        <v>40600</v>
+        <v>38600</v>
       </c>
       <c r="H20" s="3">
-        <v>-197100</v>
+        <v>-187400</v>
       </c>
       <c r="I20" s="3">
-        <v>62600</v>
+        <v>59500</v>
       </c>
       <c r="J20" s="3">
-        <v>-25100</v>
+        <v>-23900</v>
       </c>
       <c r="K20" s="3">
         <v>-285500</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4823300</v>
+        <v>4571100</v>
       </c>
       <c r="E21" s="3">
-        <v>4021300</v>
+        <v>3814500</v>
       </c>
       <c r="F21" s="3">
-        <v>3775600</v>
+        <v>3836900</v>
       </c>
       <c r="G21" s="3">
-        <v>3942900</v>
+        <v>3693100</v>
       </c>
       <c r="H21" s="3">
-        <v>3728600</v>
+        <v>3558800</v>
       </c>
       <c r="I21" s="3">
-        <v>4170800</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>24</v>
+        <v>3796200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3690300</v>
       </c>
       <c r="K21" s="3">
         <v>2521100</v>
@@ -1200,25 +1200,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>213300</v>
+        <v>202800</v>
       </c>
       <c r="E22" s="3">
-        <v>213500</v>
+        <v>203000</v>
       </c>
       <c r="F22" s="3">
-        <v>225500</v>
+        <v>214400</v>
       </c>
       <c r="G22" s="3">
-        <v>240500</v>
+        <v>228600</v>
       </c>
       <c r="H22" s="3">
-        <v>245000</v>
+        <v>232900</v>
       </c>
       <c r="I22" s="3">
-        <v>273100</v>
+        <v>259700</v>
       </c>
       <c r="J22" s="3">
-        <v>312600</v>
+        <v>297200</v>
       </c>
       <c r="K22" s="3">
         <v>399100</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1602500</v>
+        <v>1523400</v>
       </c>
       <c r="E23" s="3">
-        <v>789800</v>
+        <v>750800</v>
       </c>
       <c r="F23" s="3">
-        <v>790800</v>
+        <v>751700</v>
       </c>
       <c r="G23" s="3">
-        <v>883500</v>
+        <v>839900</v>
       </c>
       <c r="H23" s="3">
-        <v>678000</v>
+        <v>644500</v>
       </c>
       <c r="I23" s="3">
-        <v>912900</v>
+        <v>867800</v>
       </c>
       <c r="J23" s="3">
-        <v>582800</v>
+        <v>554000</v>
       </c>
       <c r="K23" s="3">
         <v>-1116000</v>
@@ -1278,25 +1278,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>420400</v>
+        <v>399600</v>
       </c>
       <c r="E24" s="3">
-        <v>220000</v>
+        <v>209200</v>
       </c>
       <c r="F24" s="3">
-        <v>251400</v>
+        <v>239000</v>
       </c>
       <c r="G24" s="3">
-        <v>266000</v>
+        <v>252900</v>
       </c>
       <c r="H24" s="3">
-        <v>223200</v>
+        <v>212100</v>
       </c>
       <c r="I24" s="3">
-        <v>266600</v>
+        <v>253500</v>
       </c>
       <c r="J24" s="3">
-        <v>185700</v>
+        <v>176500</v>
       </c>
       <c r="K24" s="3">
         <v>-231800</v>
@@ -1356,25 +1356,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1182100</v>
+        <v>1123700</v>
       </c>
       <c r="E26" s="3">
-        <v>569700</v>
+        <v>541600</v>
       </c>
       <c r="F26" s="3">
-        <v>539400</v>
+        <v>512800</v>
       </c>
       <c r="G26" s="3">
-        <v>617500</v>
+        <v>587000</v>
       </c>
       <c r="H26" s="3">
-        <v>454800</v>
+        <v>432400</v>
       </c>
       <c r="I26" s="3">
-        <v>646300</v>
+        <v>614300</v>
       </c>
       <c r="J26" s="3">
-        <v>397100</v>
+        <v>377500</v>
       </c>
       <c r="K26" s="3">
         <v>-884200</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1099100</v>
+        <v>1044800</v>
       </c>
       <c r="E27" s="3">
-        <v>533000</v>
+        <v>506700</v>
       </c>
       <c r="F27" s="3">
-        <v>498800</v>
+        <v>474100</v>
       </c>
       <c r="G27" s="3">
-        <v>557700</v>
+        <v>530100</v>
       </c>
       <c r="H27" s="3">
-        <v>386200</v>
+        <v>367100</v>
       </c>
       <c r="I27" s="3">
-        <v>646300</v>
+        <v>614300</v>
       </c>
       <c r="J27" s="3">
-        <v>332600</v>
+        <v>316200</v>
       </c>
       <c r="K27" s="3">
         <v>-939900</v>
@@ -1488,10 +1488,10 @@
         <v>24</v>
       </c>
       <c r="I29" s="3">
-        <v>-70300</v>
+        <v>-66800</v>
       </c>
       <c r="J29" s="3">
-        <v>115300</v>
+        <v>109600</v>
       </c>
       <c r="K29" s="3">
         <v>53700</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-356700</v>
+        <v>-339100</v>
       </c>
       <c r="E32" s="3">
-        <v>-144000</v>
+        <v>-136900</v>
       </c>
       <c r="F32" s="3">
-        <v>-72900</v>
+        <v>-69300</v>
       </c>
       <c r="G32" s="3">
-        <v>-40600</v>
+        <v>-38600</v>
       </c>
       <c r="H32" s="3">
-        <v>197100</v>
+        <v>187400</v>
       </c>
       <c r="I32" s="3">
-        <v>-62600</v>
+        <v>-59500</v>
       </c>
       <c r="J32" s="3">
-        <v>25100</v>
+        <v>23900</v>
       </c>
       <c r="K32" s="3">
         <v>285500</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1099100</v>
+        <v>1044800</v>
       </c>
       <c r="E33" s="3">
-        <v>533000</v>
+        <v>506700</v>
       </c>
       <c r="F33" s="3">
-        <v>498800</v>
+        <v>474100</v>
       </c>
       <c r="G33" s="3">
-        <v>557700</v>
+        <v>530100</v>
       </c>
       <c r="H33" s="3">
-        <v>386200</v>
+        <v>367100</v>
       </c>
       <c r="I33" s="3">
-        <v>576000</v>
+        <v>547500</v>
       </c>
       <c r="J33" s="3">
-        <v>447900</v>
+        <v>425800</v>
       </c>
       <c r="K33" s="3">
         <v>-886200</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1099100</v>
+        <v>1044800</v>
       </c>
       <c r="E35" s="3">
-        <v>533000</v>
+        <v>506700</v>
       </c>
       <c r="F35" s="3">
-        <v>498800</v>
+        <v>474100</v>
       </c>
       <c r="G35" s="3">
-        <v>557700</v>
+        <v>530100</v>
       </c>
       <c r="H35" s="3">
-        <v>386200</v>
+        <v>367100</v>
       </c>
       <c r="I35" s="3">
-        <v>576000</v>
+        <v>547500</v>
       </c>
       <c r="J35" s="3">
-        <v>447900</v>
+        <v>425800</v>
       </c>
       <c r="K35" s="3">
         <v>-886200</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2445900</v>
+        <v>2325100</v>
       </c>
       <c r="E41" s="3">
-        <v>2134000</v>
+        <v>2028700</v>
       </c>
       <c r="F41" s="3">
-        <v>1867800</v>
+        <v>1775500</v>
       </c>
       <c r="G41" s="3">
-        <v>2189800</v>
+        <v>2081600</v>
       </c>
       <c r="H41" s="3">
-        <v>1561800</v>
+        <v>1484700</v>
       </c>
       <c r="I41" s="3">
-        <v>2349300</v>
+        <v>2233200</v>
       </c>
       <c r="J41" s="3">
-        <v>2073200</v>
+        <v>1970800</v>
       </c>
       <c r="K41" s="3">
         <v>1586500</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>960400</v>
+        <v>913000</v>
       </c>
       <c r="E42" s="3">
-        <v>974300</v>
+        <v>926200</v>
       </c>
       <c r="F42" s="3">
-        <v>703400</v>
+        <v>668700</v>
       </c>
       <c r="G42" s="3">
-        <v>805800</v>
+        <v>766000</v>
       </c>
       <c r="H42" s="3">
-        <v>787800</v>
+        <v>748900</v>
       </c>
       <c r="I42" s="3">
-        <v>583600</v>
+        <v>554800</v>
       </c>
       <c r="J42" s="3">
-        <v>237300</v>
+        <v>225600</v>
       </c>
       <c r="K42" s="3">
         <v>279500</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4125700</v>
+        <v>3922000</v>
       </c>
       <c r="E43" s="3">
-        <v>3972700</v>
+        <v>3776500</v>
       </c>
       <c r="F43" s="3">
-        <v>4839400</v>
+        <v>4600400</v>
       </c>
       <c r="G43" s="3">
-        <v>4707300</v>
+        <v>4474800</v>
       </c>
       <c r="H43" s="3">
-        <v>4861400</v>
+        <v>4621400</v>
       </c>
       <c r="I43" s="3">
-        <v>4320000</v>
+        <v>4106700</v>
       </c>
       <c r="J43" s="3">
-        <v>3959700</v>
+        <v>3764100</v>
       </c>
       <c r="K43" s="3">
         <v>4858500</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>416500</v>
+        <v>395900</v>
       </c>
       <c r="E44" s="3">
-        <v>433100</v>
+        <v>411700</v>
       </c>
       <c r="F44" s="3">
-        <v>539100</v>
+        <v>512400</v>
       </c>
       <c r="G44" s="3">
-        <v>554000</v>
+        <v>526700</v>
       </c>
       <c r="H44" s="3">
-        <v>370800</v>
+        <v>352400</v>
       </c>
       <c r="I44" s="3">
-        <v>306200</v>
+        <v>291000</v>
       </c>
       <c r="J44" s="3">
-        <v>425500</v>
+        <v>404500</v>
       </c>
       <c r="K44" s="3">
         <v>351900</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1656900</v>
+        <v>1575000</v>
       </c>
       <c r="E45" s="3">
-        <v>1520800</v>
+        <v>1445700</v>
       </c>
       <c r="F45" s="3">
-        <v>1687100</v>
+        <v>1603800</v>
       </c>
       <c r="G45" s="3">
-        <v>1377500</v>
+        <v>1309400</v>
       </c>
       <c r="H45" s="3">
-        <v>252800</v>
+        <v>240300</v>
       </c>
       <c r="I45" s="3">
-        <v>252000</v>
+        <v>239600</v>
       </c>
       <c r="J45" s="3">
-        <v>256700</v>
+        <v>244000</v>
       </c>
       <c r="K45" s="3">
         <v>293700</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9605300</v>
+        <v>9130900</v>
       </c>
       <c r="E46" s="3">
-        <v>9034900</v>
+        <v>8588700</v>
       </c>
       <c r="F46" s="3">
-        <v>9636800</v>
+        <v>9160900</v>
       </c>
       <c r="G46" s="3">
-        <v>9634300</v>
+        <v>9158600</v>
       </c>
       <c r="H46" s="3">
-        <v>7834700</v>
+        <v>7447800</v>
       </c>
       <c r="I46" s="3">
-        <v>7811100</v>
+        <v>7425300</v>
       </c>
       <c r="J46" s="3">
-        <v>6952400</v>
+        <v>6609000</v>
       </c>
       <c r="K46" s="3">
         <v>7370000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2593700</v>
+        <v>2465600</v>
       </c>
       <c r="E47" s="3">
-        <v>1905900</v>
+        <v>1811800</v>
       </c>
       <c r="F47" s="3">
-        <v>1839600</v>
+        <v>1748800</v>
       </c>
       <c r="G47" s="3">
-        <v>1408200</v>
+        <v>1338700</v>
       </c>
       <c r="H47" s="3">
-        <v>1509200</v>
+        <v>1434700</v>
       </c>
       <c r="I47" s="3">
-        <v>1342800</v>
+        <v>1276500</v>
       </c>
       <c r="J47" s="3">
-        <v>1322300</v>
+        <v>1257000</v>
       </c>
       <c r="K47" s="3">
         <v>2354300</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14121400</v>
+        <v>13424100</v>
       </c>
       <c r="E48" s="3">
-        <v>13601300</v>
+        <v>12929600</v>
       </c>
       <c r="F48" s="3">
-        <v>13317300</v>
+        <v>12659600</v>
       </c>
       <c r="G48" s="3">
-        <v>11469100</v>
+        <v>10902700</v>
       </c>
       <c r="H48" s="3">
-        <v>11949000</v>
+        <v>11358900</v>
       </c>
       <c r="I48" s="3">
-        <v>12522700</v>
+        <v>11904300</v>
       </c>
       <c r="J48" s="3">
-        <v>12620600</v>
+        <v>11997400</v>
       </c>
       <c r="K48" s="3">
         <v>14723400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2792300</v>
+        <v>2654400</v>
       </c>
       <c r="E49" s="3">
-        <v>1750600</v>
+        <v>1664200</v>
       </c>
       <c r="F49" s="3">
-        <v>2295600</v>
+        <v>2182200</v>
       </c>
       <c r="G49" s="3">
-        <v>2759800</v>
+        <v>2623500</v>
       </c>
       <c r="H49" s="3">
-        <v>2132500</v>
+        <v>2027200</v>
       </c>
       <c r="I49" s="3">
-        <v>2448500</v>
+        <v>2327600</v>
       </c>
       <c r="J49" s="3">
-        <v>2105800</v>
+        <v>2001800</v>
       </c>
       <c r="K49" s="3">
         <v>2977000</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>986300</v>
+        <v>937600</v>
       </c>
       <c r="E52" s="3">
-        <v>973900</v>
+        <v>925800</v>
       </c>
       <c r="F52" s="3">
-        <v>888300</v>
+        <v>844400</v>
       </c>
       <c r="G52" s="3">
-        <v>801500</v>
+        <v>761900</v>
       </c>
       <c r="H52" s="3">
-        <v>656700</v>
+        <v>624200</v>
       </c>
       <c r="I52" s="3">
-        <v>651000</v>
+        <v>618800</v>
       </c>
       <c r="J52" s="3">
-        <v>765300</v>
+        <v>727500</v>
       </c>
       <c r="K52" s="3">
         <v>966700</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30099100</v>
+        <v>28612700</v>
       </c>
       <c r="E54" s="3">
-        <v>27266700</v>
+        <v>25920200</v>
       </c>
       <c r="F54" s="3">
-        <v>27977500</v>
+        <v>26595900</v>
       </c>
       <c r="G54" s="3">
-        <v>26073000</v>
+        <v>24785400</v>
       </c>
       <c r="H54" s="3">
-        <v>24082000</v>
+        <v>22892800</v>
       </c>
       <c r="I54" s="3">
-        <v>24776100</v>
+        <v>23552600</v>
       </c>
       <c r="J54" s="3">
-        <v>23766400</v>
+        <v>22592700</v>
       </c>
       <c r="K54" s="3">
         <v>28391400</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1245100</v>
+        <v>1183600</v>
       </c>
       <c r="E57" s="3">
-        <v>1004200</v>
+        <v>954600</v>
       </c>
       <c r="F57" s="3">
-        <v>1056900</v>
+        <v>1004700</v>
       </c>
       <c r="G57" s="3">
-        <v>1001600</v>
+        <v>952100</v>
       </c>
       <c r="H57" s="3">
-        <v>1133400</v>
+        <v>1077500</v>
       </c>
       <c r="I57" s="3">
-        <v>1001100</v>
+        <v>951700</v>
       </c>
       <c r="J57" s="3">
-        <v>1045200</v>
+        <v>993600</v>
       </c>
       <c r="K57" s="3">
         <v>1008000</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1671900</v>
+        <v>1589400</v>
       </c>
       <c r="E58" s="3">
-        <v>1428300</v>
+        <v>1357800</v>
       </c>
       <c r="F58" s="3">
-        <v>1278300</v>
+        <v>1215200</v>
       </c>
       <c r="G58" s="3">
-        <v>1108500</v>
+        <v>1053700</v>
       </c>
       <c r="H58" s="3">
-        <v>1274500</v>
+        <v>1211600</v>
       </c>
       <c r="I58" s="3">
-        <v>1474200</v>
+        <v>1401400</v>
       </c>
       <c r="J58" s="3">
-        <v>1447700</v>
+        <v>1376200</v>
       </c>
       <c r="K58" s="3">
         <v>2499700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5241600</v>
+        <v>4982800</v>
       </c>
       <c r="E59" s="3">
-        <v>5013400</v>
+        <v>4765900</v>
       </c>
       <c r="F59" s="3">
-        <v>6720600</v>
+        <v>6388700</v>
       </c>
       <c r="G59" s="3">
-        <v>5494000</v>
+        <v>5222700</v>
       </c>
       <c r="H59" s="3">
-        <v>5266100</v>
+        <v>5006100</v>
       </c>
       <c r="I59" s="3">
-        <v>5192300</v>
+        <v>4935800</v>
       </c>
       <c r="J59" s="3">
-        <v>4505400</v>
+        <v>4282900</v>
       </c>
       <c r="K59" s="3">
         <v>4881500</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8158700</v>
+        <v>7755800</v>
       </c>
       <c r="E60" s="3">
-        <v>7445900</v>
+        <v>7078200</v>
       </c>
       <c r="F60" s="3">
-        <v>8219900</v>
+        <v>7814000</v>
       </c>
       <c r="G60" s="3">
-        <v>7604000</v>
+        <v>7228500</v>
       </c>
       <c r="H60" s="3">
-        <v>7674100</v>
+        <v>7295100</v>
       </c>
       <c r="I60" s="3">
-        <v>7667600</v>
+        <v>7288900</v>
       </c>
       <c r="J60" s="3">
-        <v>6998300</v>
+        <v>6652700</v>
       </c>
       <c r="K60" s="3">
         <v>8389200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6101700</v>
+        <v>5800400</v>
       </c>
       <c r="E61" s="3">
-        <v>5424200</v>
+        <v>5156400</v>
       </c>
       <c r="F61" s="3">
-        <v>5615000</v>
+        <v>5337700</v>
       </c>
       <c r="G61" s="3">
-        <v>4276600</v>
+        <v>4065500</v>
       </c>
       <c r="H61" s="3">
-        <v>4139300</v>
+        <v>3934800</v>
       </c>
       <c r="I61" s="3">
-        <v>5103600</v>
+        <v>4851600</v>
       </c>
       <c r="J61" s="3">
-        <v>5673100</v>
+        <v>5392900</v>
       </c>
       <c r="K61" s="3">
         <v>8311500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2419300</v>
+        <v>2299800</v>
       </c>
       <c r="E62" s="3">
-        <v>1799900</v>
+        <v>1711000</v>
       </c>
       <c r="F62" s="3">
-        <v>2208000</v>
+        <v>2099000</v>
       </c>
       <c r="G62" s="3">
-        <v>2259900</v>
+        <v>2148300</v>
       </c>
       <c r="H62" s="3">
-        <v>1568100</v>
+        <v>1490700</v>
       </c>
       <c r="I62" s="3">
-        <v>1641100</v>
+        <v>1560000</v>
       </c>
       <c r="J62" s="3">
-        <v>1240900</v>
+        <v>1179600</v>
       </c>
       <c r="K62" s="3">
         <v>1789200</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17968100</v>
+        <v>17080800</v>
       </c>
       <c r="E66" s="3">
-        <v>15917400</v>
+        <v>15131300</v>
       </c>
       <c r="F66" s="3">
-        <v>16910100</v>
+        <v>16075100</v>
       </c>
       <c r="G66" s="3">
-        <v>15378800</v>
+        <v>14619300</v>
       </c>
       <c r="H66" s="3">
-        <v>14508800</v>
+        <v>13792300</v>
       </c>
       <c r="I66" s="3">
-        <v>15508100</v>
+        <v>14742300</v>
       </c>
       <c r="J66" s="3">
-        <v>14981900</v>
+        <v>14242000</v>
       </c>
       <c r="K66" s="3">
         <v>19707300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10762800</v>
+        <v>10231300</v>
       </c>
       <c r="E72" s="3">
-        <v>9845900</v>
+        <v>9359700</v>
       </c>
       <c r="F72" s="3">
-        <v>9423400</v>
+        <v>8958000</v>
       </c>
       <c r="G72" s="3">
-        <v>9176400</v>
+        <v>8723200</v>
       </c>
       <c r="H72" s="3">
-        <v>8090600</v>
+        <v>7691100</v>
       </c>
       <c r="I72" s="3">
-        <v>7821800</v>
+        <v>7435500</v>
       </c>
       <c r="J72" s="3">
-        <v>7338000</v>
+        <v>6975700</v>
       </c>
       <c r="K72" s="3">
         <v>7197500</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12131000</v>
+        <v>11531900</v>
       </c>
       <c r="E76" s="3">
-        <v>11349300</v>
+        <v>10788800</v>
       </c>
       <c r="F76" s="3">
-        <v>11067300</v>
+        <v>10520800</v>
       </c>
       <c r="G76" s="3">
-        <v>10694200</v>
+        <v>10166100</v>
       </c>
       <c r="H76" s="3">
-        <v>9573300</v>
+        <v>9100500</v>
       </c>
       <c r="I76" s="3">
-        <v>9268000</v>
+        <v>8810300</v>
       </c>
       <c r="J76" s="3">
-        <v>8784500</v>
+        <v>8350700</v>
       </c>
       <c r="K76" s="3">
         <v>8684100</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1099100</v>
+        <v>1044800</v>
       </c>
       <c r="E81" s="3">
-        <v>533000</v>
+        <v>506700</v>
       </c>
       <c r="F81" s="3">
-        <v>498800</v>
+        <v>474100</v>
       </c>
       <c r="G81" s="3">
-        <v>557700</v>
+        <v>530100</v>
       </c>
       <c r="H81" s="3">
-        <v>386200</v>
+        <v>367100</v>
       </c>
       <c r="I81" s="3">
-        <v>576000</v>
+        <v>547500</v>
       </c>
       <c r="J81" s="3">
-        <v>447900</v>
+        <v>425800</v>
       </c>
       <c r="K81" s="3">
         <v>-886200</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2954400</v>
+        <v>2808500</v>
       </c>
       <c r="E83" s="3">
-        <v>2970800</v>
+        <v>2824100</v>
       </c>
       <c r="F83" s="3">
-        <v>2981200</v>
+        <v>2834000</v>
       </c>
       <c r="G83" s="3">
-        <v>2725600</v>
+        <v>2591000</v>
       </c>
       <c r="H83" s="3">
-        <v>2784500</v>
+        <v>2647000</v>
       </c>
       <c r="I83" s="3">
-        <v>2771400</v>
+        <v>2634600</v>
       </c>
       <c r="J83" s="3">
-        <v>2948400</v>
+        <v>2802800</v>
       </c>
       <c r="K83" s="3">
         <v>3238000</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4505100</v>
+        <v>4282600</v>
       </c>
       <c r="E89" s="3">
-        <v>3839300</v>
+        <v>3649700</v>
       </c>
       <c r="F89" s="3">
-        <v>3033600</v>
+        <v>2883800</v>
       </c>
       <c r="G89" s="3">
-        <v>3248500</v>
+        <v>3088100</v>
       </c>
       <c r="H89" s="3">
-        <v>3141000</v>
+        <v>2985900</v>
       </c>
       <c r="I89" s="3">
-        <v>3864300</v>
+        <v>3673500</v>
       </c>
       <c r="J89" s="3">
-        <v>3426300</v>
+        <v>3257100</v>
       </c>
       <c r="K89" s="3">
         <v>1609800</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2834400</v>
+        <v>-2694400</v>
       </c>
       <c r="E91" s="3">
-        <v>-2602800</v>
+        <v>-2474300</v>
       </c>
       <c r="F91" s="3">
-        <v>-2648400</v>
+        <v>-2517600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1831300</v>
+        <v>-1740900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1978200</v>
+        <v>-1880500</v>
       </c>
       <c r="I91" s="3">
-        <v>-2239100</v>
+        <v>-2128500</v>
       </c>
       <c r="J91" s="3">
-        <v>-2523700</v>
+        <v>-2399100</v>
       </c>
       <c r="K91" s="3">
         <v>-2396400</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4161400</v>
+        <v>-3955900</v>
       </c>
       <c r="E94" s="3">
-        <v>-3046800</v>
+        <v>-2896300</v>
       </c>
       <c r="F94" s="3">
-        <v>-3148900</v>
+        <v>-2993400</v>
       </c>
       <c r="G94" s="3">
-        <v>-2190300</v>
+        <v>-2082200</v>
       </c>
       <c r="H94" s="3">
-        <v>-2821400</v>
+        <v>-2682100</v>
       </c>
       <c r="I94" s="3">
-        <v>-2822800</v>
+        <v>-2683400</v>
       </c>
       <c r="J94" s="3">
-        <v>-1945500</v>
+        <v>-1849400</v>
       </c>
       <c r="K94" s="3">
         <v>-2663600</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-283800</v>
+        <v>-269800</v>
       </c>
       <c r="E96" s="3">
-        <v>-251600</v>
+        <v>-239100</v>
       </c>
       <c r="F96" s="3">
-        <v>-247200</v>
+        <v>-235000</v>
       </c>
       <c r="G96" s="3">
-        <v>-241900</v>
+        <v>-229900</v>
       </c>
       <c r="H96" s="3">
-        <v>-196900</v>
+        <v>-187200</v>
       </c>
       <c r="I96" s="3">
-        <v>-149100</v>
+        <v>-141800</v>
       </c>
       <c r="J96" s="3">
-        <v>-33700</v>
+        <v>-32000</v>
       </c>
       <c r="K96" s="3">
         <v>-187100</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-33400</v>
+        <v>-31800</v>
       </c>
       <c r="E100" s="3">
-        <v>-524500</v>
+        <v>-498600</v>
       </c>
       <c r="F100" s="3">
-        <v>-202300</v>
+        <v>-192300</v>
       </c>
       <c r="G100" s="3">
-        <v>-430700</v>
+        <v>-409400</v>
       </c>
       <c r="H100" s="3">
-        <v>-1104400</v>
+        <v>-1049900</v>
       </c>
       <c r="I100" s="3">
-        <v>-764000</v>
+        <v>-726300</v>
       </c>
       <c r="J100" s="3">
-        <v>-942800</v>
+        <v>-896300</v>
       </c>
       <c r="K100" s="3">
         <v>900200</v>
@@ -3962,22 +3962,22 @@
         <v>1500</v>
       </c>
       <c r="E101" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="F101" s="3">
-        <v>-4400</v>
+        <v>-4200</v>
       </c>
       <c r="G101" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H101" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="I101" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="J101" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="K101" s="3">
         <v>500</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>311800</v>
+        <v>296400</v>
       </c>
       <c r="E102" s="3">
-        <v>266300</v>
+        <v>253100</v>
       </c>
       <c r="F102" s="3">
-        <v>-322000</v>
+        <v>-306100</v>
       </c>
       <c r="G102" s="3">
-        <v>627900</v>
+        <v>596900</v>
       </c>
       <c r="H102" s="3">
-        <v>-787400</v>
+        <v>-748500</v>
       </c>
       <c r="I102" s="3">
-        <v>276100</v>
+        <v>262500</v>
       </c>
       <c r="J102" s="3">
-        <v>543300</v>
+        <v>516500</v>
       </c>
       <c r="K102" s="3">
         <v>-153100</v>

--- a/AAII_Financials/Yearly/KT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KT_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19171500</v>
+        <v>18673500</v>
       </c>
       <c r="E8" s="3">
-        <v>18415800</v>
+        <v>17937500</v>
       </c>
       <c r="F8" s="3">
-        <v>18743400</v>
+        <v>18256500</v>
       </c>
       <c r="G8" s="3">
-        <v>18064300</v>
+        <v>17595100</v>
       </c>
       <c r="H8" s="3">
-        <v>18008200</v>
+        <v>17540500</v>
       </c>
       <c r="I8" s="3">
-        <v>17512600</v>
+        <v>17057700</v>
       </c>
       <c r="J8" s="3">
-        <v>17156500</v>
+        <v>16710900</v>
       </c>
       <c r="K8" s="3">
         <v>18741800</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7610900</v>
+        <v>7413200</v>
       </c>
       <c r="E9" s="3">
-        <v>7435100</v>
+        <v>7242000</v>
       </c>
       <c r="F9" s="3">
-        <v>7844800</v>
+        <v>7641100</v>
       </c>
       <c r="G9" s="3">
-        <v>7269700</v>
+        <v>7080900</v>
       </c>
       <c r="H9" s="3">
-        <v>7118100</v>
+        <v>6933200</v>
       </c>
       <c r="I9" s="3">
-        <v>6813300</v>
+        <v>6636300</v>
       </c>
       <c r="J9" s="3">
-        <v>6782900</v>
+        <v>6606800</v>
       </c>
       <c r="K9" s="3">
         <v>7504500</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11560600</v>
+        <v>11260300</v>
       </c>
       <c r="E10" s="3">
-        <v>10980700</v>
+        <v>10695500</v>
       </c>
       <c r="F10" s="3">
-        <v>10898600</v>
+        <v>10615500</v>
       </c>
       <c r="G10" s="3">
-        <v>10794600</v>
+        <v>10514200</v>
       </c>
       <c r="H10" s="3">
-        <v>10890100</v>
+        <v>10607300</v>
       </c>
       <c r="I10" s="3">
-        <v>10699400</v>
+        <v>10421400</v>
       </c>
       <c r="J10" s="3">
-        <v>10373600</v>
+        <v>10104200</v>
       </c>
       <c r="K10" s="3">
         <v>11237300</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>130100</v>
+        <v>126700</v>
       </c>
       <c r="E12" s="3">
-        <v>120800</v>
+        <v>117700</v>
       </c>
       <c r="F12" s="3">
-        <v>127100</v>
+        <v>123800</v>
       </c>
       <c r="G12" s="3">
-        <v>136100</v>
+        <v>132600</v>
       </c>
       <c r="H12" s="3">
-        <v>129800</v>
+        <v>126500</v>
       </c>
       <c r="I12" s="3">
-        <v>129300</v>
+        <v>125900</v>
       </c>
       <c r="J12" s="3">
-        <v>141500</v>
+        <v>137900</v>
       </c>
       <c r="K12" s="3">
         <v>161300</v>
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-99800</v>
+        <v>-97200</v>
       </c>
       <c r="E14" s="3">
-        <v>94900</v>
+        <v>92400</v>
       </c>
       <c r="F14" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="G14" s="3">
-        <v>-58500</v>
+        <v>-57000</v>
       </c>
       <c r="H14" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="I14" s="3">
-        <v>40800</v>
+        <v>39800</v>
       </c>
       <c r="J14" s="3">
-        <v>120600</v>
+        <v>117400</v>
       </c>
       <c r="K14" s="3">
         <v>89900</v>
@@ -974,25 +974,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>2777900</v>
+        <v>2705700</v>
       </c>
       <c r="E15" s="3">
-        <v>2798400</v>
+        <v>2725700</v>
       </c>
       <c r="F15" s="3">
-        <v>2794700</v>
+        <v>2722100</v>
       </c>
       <c r="G15" s="3">
-        <v>2526900</v>
+        <v>2461300</v>
       </c>
       <c r="H15" s="3">
-        <v>2590700</v>
+        <v>2523400</v>
       </c>
       <c r="I15" s="3">
-        <v>2575900</v>
+        <v>2508900</v>
       </c>
       <c r="J15" s="3">
-        <v>2570700</v>
+        <v>2503900</v>
       </c>
       <c r="K15" s="3">
         <v>2793600</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>17784400</v>
+        <v>17322400</v>
       </c>
       <c r="E17" s="3">
-        <v>17599000</v>
+        <v>17141900</v>
       </c>
       <c r="F17" s="3">
-        <v>17846600</v>
+        <v>17383100</v>
       </c>
       <c r="G17" s="3">
-        <v>17034400</v>
+        <v>16592000</v>
       </c>
       <c r="H17" s="3">
-        <v>16943400</v>
+        <v>16503300</v>
       </c>
       <c r="I17" s="3">
-        <v>16444700</v>
+        <v>16017500</v>
       </c>
       <c r="J17" s="3">
-        <v>16281500</v>
+        <v>15858600</v>
       </c>
       <c r="K17" s="3">
         <v>19173300</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1387100</v>
+        <v>1351100</v>
       </c>
       <c r="E18" s="3">
-        <v>816900</v>
+        <v>795600</v>
       </c>
       <c r="F18" s="3">
-        <v>896800</v>
+        <v>873500</v>
       </c>
       <c r="G18" s="3">
-        <v>1029900</v>
+        <v>1003100</v>
       </c>
       <c r="H18" s="3">
-        <v>1064800</v>
+        <v>1037100</v>
       </c>
       <c r="I18" s="3">
-        <v>1067900</v>
+        <v>1040200</v>
       </c>
       <c r="J18" s="3">
-        <v>875000</v>
+        <v>852300</v>
       </c>
       <c r="K18" s="3">
         <v>-431500</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>339100</v>
+        <v>330300</v>
       </c>
       <c r="E20" s="3">
-        <v>136900</v>
+        <v>133300</v>
       </c>
       <c r="F20" s="3">
-        <v>69300</v>
+        <v>67500</v>
       </c>
       <c r="G20" s="3">
-        <v>38600</v>
+        <v>37600</v>
       </c>
       <c r="H20" s="3">
-        <v>-187400</v>
+        <v>-182500</v>
       </c>
       <c r="I20" s="3">
-        <v>59500</v>
+        <v>58000</v>
       </c>
       <c r="J20" s="3">
-        <v>-23900</v>
+        <v>-23300</v>
       </c>
       <c r="K20" s="3">
         <v>-285500</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4571100</v>
+        <v>4416900</v>
       </c>
       <c r="E21" s="3">
-        <v>3814500</v>
+        <v>3679700</v>
       </c>
       <c r="F21" s="3">
-        <v>3836900</v>
+        <v>3701400</v>
       </c>
       <c r="G21" s="3">
-        <v>3693100</v>
+        <v>3564400</v>
       </c>
       <c r="H21" s="3">
-        <v>3558800</v>
+        <v>3432900</v>
       </c>
       <c r="I21" s="3">
-        <v>3796200</v>
+        <v>3664300</v>
       </c>
       <c r="J21" s="3">
-        <v>3690300</v>
+        <v>3559000</v>
       </c>
       <c r="K21" s="3">
         <v>2521100</v>
@@ -1200,25 +1200,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>202800</v>
+        <v>197500</v>
       </c>
       <c r="E22" s="3">
-        <v>203000</v>
+        <v>197700</v>
       </c>
       <c r="F22" s="3">
-        <v>214400</v>
+        <v>208800</v>
       </c>
       <c r="G22" s="3">
-        <v>228600</v>
+        <v>222700</v>
       </c>
       <c r="H22" s="3">
-        <v>232900</v>
+        <v>226800</v>
       </c>
       <c r="I22" s="3">
-        <v>259700</v>
+        <v>252900</v>
       </c>
       <c r="J22" s="3">
-        <v>297200</v>
+        <v>289400</v>
       </c>
       <c r="K22" s="3">
         <v>399100</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1523400</v>
+        <v>1483800</v>
       </c>
       <c r="E23" s="3">
-        <v>750800</v>
+        <v>731300</v>
       </c>
       <c r="F23" s="3">
-        <v>751700</v>
+        <v>732200</v>
       </c>
       <c r="G23" s="3">
-        <v>839900</v>
+        <v>818100</v>
       </c>
       <c r="H23" s="3">
-        <v>644500</v>
+        <v>627800</v>
       </c>
       <c r="I23" s="3">
-        <v>867800</v>
+        <v>845300</v>
       </c>
       <c r="J23" s="3">
-        <v>554000</v>
+        <v>539600</v>
       </c>
       <c r="K23" s="3">
         <v>-1116000</v>
@@ -1278,25 +1278,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>399600</v>
+        <v>389300</v>
       </c>
       <c r="E24" s="3">
-        <v>209200</v>
+        <v>203700</v>
       </c>
       <c r="F24" s="3">
-        <v>239000</v>
+        <v>232700</v>
       </c>
       <c r="G24" s="3">
-        <v>252900</v>
+        <v>246300</v>
       </c>
       <c r="H24" s="3">
-        <v>212100</v>
+        <v>206600</v>
       </c>
       <c r="I24" s="3">
-        <v>253500</v>
+        <v>246900</v>
       </c>
       <c r="J24" s="3">
-        <v>176500</v>
+        <v>171900</v>
       </c>
       <c r="K24" s="3">
         <v>-231800</v>
@@ -1356,25 +1356,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1123700</v>
+        <v>1094500</v>
       </c>
       <c r="E26" s="3">
-        <v>541600</v>
+        <v>527500</v>
       </c>
       <c r="F26" s="3">
-        <v>512800</v>
+        <v>499500</v>
       </c>
       <c r="G26" s="3">
-        <v>587000</v>
+        <v>571700</v>
       </c>
       <c r="H26" s="3">
-        <v>432400</v>
+        <v>421100</v>
       </c>
       <c r="I26" s="3">
-        <v>614300</v>
+        <v>598400</v>
       </c>
       <c r="J26" s="3">
-        <v>377500</v>
+        <v>367700</v>
       </c>
       <c r="K26" s="3">
         <v>-884200</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1044800</v>
+        <v>1015900</v>
       </c>
       <c r="E27" s="3">
-        <v>506700</v>
+        <v>493500</v>
       </c>
       <c r="F27" s="3">
-        <v>474100</v>
+        <v>461800</v>
       </c>
       <c r="G27" s="3">
-        <v>530100</v>
+        <v>516300</v>
       </c>
       <c r="H27" s="3">
-        <v>367100</v>
+        <v>357600</v>
       </c>
       <c r="I27" s="3">
-        <v>614300</v>
+        <v>598400</v>
       </c>
       <c r="J27" s="3">
-        <v>316200</v>
+        <v>308000</v>
       </c>
       <c r="K27" s="3">
         <v>-939900</v>
@@ -1488,10 +1488,10 @@
         <v>24</v>
       </c>
       <c r="I29" s="3">
-        <v>-66800</v>
+        <v>-65100</v>
       </c>
       <c r="J29" s="3">
-        <v>109600</v>
+        <v>106700</v>
       </c>
       <c r="K29" s="3">
         <v>53700</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-339100</v>
+        <v>-330300</v>
       </c>
       <c r="E32" s="3">
-        <v>-136900</v>
+        <v>-133300</v>
       </c>
       <c r="F32" s="3">
-        <v>-69300</v>
+        <v>-67500</v>
       </c>
       <c r="G32" s="3">
-        <v>-38600</v>
+        <v>-37600</v>
       </c>
       <c r="H32" s="3">
-        <v>187400</v>
+        <v>182500</v>
       </c>
       <c r="I32" s="3">
-        <v>-59500</v>
+        <v>-58000</v>
       </c>
       <c r="J32" s="3">
-        <v>23900</v>
+        <v>23300</v>
       </c>
       <c r="K32" s="3">
         <v>285500</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1044800</v>
+        <v>1015900</v>
       </c>
       <c r="E33" s="3">
-        <v>506700</v>
+        <v>493500</v>
       </c>
       <c r="F33" s="3">
-        <v>474100</v>
+        <v>461800</v>
       </c>
       <c r="G33" s="3">
-        <v>530100</v>
+        <v>516300</v>
       </c>
       <c r="H33" s="3">
-        <v>367100</v>
+        <v>357600</v>
       </c>
       <c r="I33" s="3">
-        <v>547500</v>
+        <v>533300</v>
       </c>
       <c r="J33" s="3">
-        <v>425800</v>
+        <v>414700</v>
       </c>
       <c r="K33" s="3">
         <v>-886200</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1044800</v>
+        <v>1015900</v>
       </c>
       <c r="E35" s="3">
-        <v>506700</v>
+        <v>493500</v>
       </c>
       <c r="F35" s="3">
-        <v>474100</v>
+        <v>461800</v>
       </c>
       <c r="G35" s="3">
-        <v>530100</v>
+        <v>516300</v>
       </c>
       <c r="H35" s="3">
-        <v>367100</v>
+        <v>357600</v>
       </c>
       <c r="I35" s="3">
-        <v>547500</v>
+        <v>533300</v>
       </c>
       <c r="J35" s="3">
-        <v>425800</v>
+        <v>414700</v>
       </c>
       <c r="K35" s="3">
         <v>-886200</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2325100</v>
+        <v>2264700</v>
       </c>
       <c r="E41" s="3">
-        <v>2028700</v>
+        <v>1976000</v>
       </c>
       <c r="F41" s="3">
-        <v>1775500</v>
+        <v>1729400</v>
       </c>
       <c r="G41" s="3">
-        <v>2081600</v>
+        <v>2027600</v>
       </c>
       <c r="H41" s="3">
-        <v>1484700</v>
+        <v>1446100</v>
       </c>
       <c r="I41" s="3">
-        <v>2233200</v>
+        <v>2175200</v>
       </c>
       <c r="J41" s="3">
-        <v>1970800</v>
+        <v>1919600</v>
       </c>
       <c r="K41" s="3">
         <v>1586500</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>913000</v>
+        <v>889200</v>
       </c>
       <c r="E42" s="3">
-        <v>926200</v>
+        <v>902100</v>
       </c>
       <c r="F42" s="3">
-        <v>668700</v>
+        <v>651300</v>
       </c>
       <c r="G42" s="3">
-        <v>766000</v>
+        <v>746100</v>
       </c>
       <c r="H42" s="3">
-        <v>748900</v>
+        <v>729500</v>
       </c>
       <c r="I42" s="3">
-        <v>554800</v>
+        <v>540400</v>
       </c>
       <c r="J42" s="3">
-        <v>225600</v>
+        <v>219700</v>
       </c>
       <c r="K42" s="3">
         <v>279500</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3922000</v>
+        <v>3820100</v>
       </c>
       <c r="E43" s="3">
-        <v>3776500</v>
+        <v>3678400</v>
       </c>
       <c r="F43" s="3">
-        <v>4600400</v>
+        <v>4480900</v>
       </c>
       <c r="G43" s="3">
-        <v>4474800</v>
+        <v>4358600</v>
       </c>
       <c r="H43" s="3">
-        <v>4621400</v>
+        <v>4501300</v>
       </c>
       <c r="I43" s="3">
-        <v>4106700</v>
+        <v>4000000</v>
       </c>
       <c r="J43" s="3">
-        <v>3764100</v>
+        <v>3666400</v>
       </c>
       <c r="K43" s="3">
         <v>4858500</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>395900</v>
+        <v>385600</v>
       </c>
       <c r="E44" s="3">
-        <v>411700</v>
+        <v>401000</v>
       </c>
       <c r="F44" s="3">
-        <v>512400</v>
+        <v>499100</v>
       </c>
       <c r="G44" s="3">
-        <v>526700</v>
+        <v>513000</v>
       </c>
       <c r="H44" s="3">
-        <v>352400</v>
+        <v>343300</v>
       </c>
       <c r="I44" s="3">
-        <v>291000</v>
+        <v>283500</v>
       </c>
       <c r="J44" s="3">
-        <v>404500</v>
+        <v>394000</v>
       </c>
       <c r="K44" s="3">
         <v>351900</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1575000</v>
+        <v>1534100</v>
       </c>
       <c r="E45" s="3">
-        <v>1445700</v>
+        <v>1408200</v>
       </c>
       <c r="F45" s="3">
-        <v>1603800</v>
+        <v>1562200</v>
       </c>
       <c r="G45" s="3">
-        <v>1309400</v>
+        <v>1275400</v>
       </c>
       <c r="H45" s="3">
-        <v>240300</v>
+        <v>234100</v>
       </c>
       <c r="I45" s="3">
-        <v>239600</v>
+        <v>233400</v>
       </c>
       <c r="J45" s="3">
-        <v>244000</v>
+        <v>237700</v>
       </c>
       <c r="K45" s="3">
         <v>293700</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9130900</v>
+        <v>8893800</v>
       </c>
       <c r="E46" s="3">
-        <v>8588700</v>
+        <v>8365600</v>
       </c>
       <c r="F46" s="3">
-        <v>9160900</v>
+        <v>8922900</v>
       </c>
       <c r="G46" s="3">
-        <v>9158600</v>
+        <v>8920700</v>
       </c>
       <c r="H46" s="3">
-        <v>7447800</v>
+        <v>7254300</v>
       </c>
       <c r="I46" s="3">
-        <v>7425300</v>
+        <v>7232500</v>
       </c>
       <c r="J46" s="3">
-        <v>6609000</v>
+        <v>6437400</v>
       </c>
       <c r="K46" s="3">
         <v>7370000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2465600</v>
+        <v>2401600</v>
       </c>
       <c r="E47" s="3">
-        <v>1811800</v>
+        <v>1764700</v>
       </c>
       <c r="F47" s="3">
-        <v>1748800</v>
+        <v>1703300</v>
       </c>
       <c r="G47" s="3">
-        <v>1338700</v>
+        <v>1303900</v>
       </c>
       <c r="H47" s="3">
-        <v>1434700</v>
+        <v>1397400</v>
       </c>
       <c r="I47" s="3">
-        <v>1276500</v>
+        <v>1243400</v>
       </c>
       <c r="J47" s="3">
-        <v>1257000</v>
+        <v>1224400</v>
       </c>
       <c r="K47" s="3">
         <v>2354300</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13424100</v>
+        <v>13075400</v>
       </c>
       <c r="E48" s="3">
-        <v>12929600</v>
+        <v>12593800</v>
       </c>
       <c r="F48" s="3">
-        <v>12659600</v>
+        <v>12330800</v>
       </c>
       <c r="G48" s="3">
-        <v>10902700</v>
+        <v>10619500</v>
       </c>
       <c r="H48" s="3">
-        <v>11358900</v>
+        <v>11063900</v>
       </c>
       <c r="I48" s="3">
-        <v>11904300</v>
+        <v>11595100</v>
       </c>
       <c r="J48" s="3">
-        <v>11997400</v>
+        <v>11685700</v>
       </c>
       <c r="K48" s="3">
         <v>14723400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2654400</v>
+        <v>2585500</v>
       </c>
       <c r="E49" s="3">
-        <v>1664200</v>
+        <v>1620900</v>
       </c>
       <c r="F49" s="3">
-        <v>2182200</v>
+        <v>2125500</v>
       </c>
       <c r="G49" s="3">
-        <v>2623500</v>
+        <v>2555300</v>
       </c>
       <c r="H49" s="3">
-        <v>2027200</v>
+        <v>1974500</v>
       </c>
       <c r="I49" s="3">
-        <v>2327600</v>
+        <v>2267100</v>
       </c>
       <c r="J49" s="3">
-        <v>2001800</v>
+        <v>1949800</v>
       </c>
       <c r="K49" s="3">
         <v>2977000</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>937600</v>
+        <v>913300</v>
       </c>
       <c r="E52" s="3">
-        <v>925800</v>
+        <v>901800</v>
       </c>
       <c r="F52" s="3">
-        <v>844400</v>
+        <v>822500</v>
       </c>
       <c r="G52" s="3">
-        <v>761900</v>
+        <v>742200</v>
       </c>
       <c r="H52" s="3">
-        <v>624200</v>
+        <v>608000</v>
       </c>
       <c r="I52" s="3">
-        <v>618800</v>
+        <v>602700</v>
       </c>
       <c r="J52" s="3">
-        <v>727500</v>
+        <v>708600</v>
       </c>
       <c r="K52" s="3">
         <v>966700</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28612700</v>
+        <v>27869500</v>
       </c>
       <c r="E54" s="3">
-        <v>25920200</v>
+        <v>25246900</v>
       </c>
       <c r="F54" s="3">
-        <v>26595900</v>
+        <v>25905100</v>
       </c>
       <c r="G54" s="3">
-        <v>24785400</v>
+        <v>24141600</v>
       </c>
       <c r="H54" s="3">
-        <v>22892800</v>
+        <v>22298200</v>
       </c>
       <c r="I54" s="3">
-        <v>23552600</v>
+        <v>22940800</v>
       </c>
       <c r="J54" s="3">
-        <v>22592700</v>
+        <v>22005900</v>
       </c>
       <c r="K54" s="3">
         <v>28391400</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1183600</v>
+        <v>1152900</v>
       </c>
       <c r="E57" s="3">
-        <v>954600</v>
+        <v>929800</v>
       </c>
       <c r="F57" s="3">
-        <v>1004700</v>
+        <v>978600</v>
       </c>
       <c r="G57" s="3">
-        <v>952100</v>
+        <v>927400</v>
       </c>
       <c r="H57" s="3">
-        <v>1077500</v>
+        <v>1049500</v>
       </c>
       <c r="I57" s="3">
-        <v>951700</v>
+        <v>927000</v>
       </c>
       <c r="J57" s="3">
-        <v>993600</v>
+        <v>967800</v>
       </c>
       <c r="K57" s="3">
         <v>1008000</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1589400</v>
+        <v>1548100</v>
       </c>
       <c r="E58" s="3">
-        <v>1357800</v>
+        <v>1322500</v>
       </c>
       <c r="F58" s="3">
-        <v>1215200</v>
+        <v>1183600</v>
       </c>
       <c r="G58" s="3">
-        <v>1053700</v>
+        <v>1026400</v>
       </c>
       <c r="H58" s="3">
-        <v>1211600</v>
+        <v>1180100</v>
       </c>
       <c r="I58" s="3">
-        <v>1401400</v>
+        <v>1365000</v>
       </c>
       <c r="J58" s="3">
-        <v>1376200</v>
+        <v>1340500</v>
       </c>
       <c r="K58" s="3">
         <v>2499700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4982800</v>
+        <v>4853400</v>
       </c>
       <c r="E59" s="3">
-        <v>4765900</v>
+        <v>4642100</v>
       </c>
       <c r="F59" s="3">
-        <v>6388700</v>
+        <v>6222800</v>
       </c>
       <c r="G59" s="3">
-        <v>5222700</v>
+        <v>5087100</v>
       </c>
       <c r="H59" s="3">
-        <v>5006100</v>
+        <v>4876100</v>
       </c>
       <c r="I59" s="3">
-        <v>4935800</v>
+        <v>4807600</v>
       </c>
       <c r="J59" s="3">
-        <v>4282900</v>
+        <v>4171700</v>
       </c>
       <c r="K59" s="3">
         <v>4881500</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7755800</v>
+        <v>7554300</v>
       </c>
       <c r="E60" s="3">
-        <v>7078200</v>
+        <v>6894400</v>
       </c>
       <c r="F60" s="3">
-        <v>7814000</v>
+        <v>7611000</v>
       </c>
       <c r="G60" s="3">
-        <v>7228500</v>
+        <v>7040800</v>
       </c>
       <c r="H60" s="3">
-        <v>7295100</v>
+        <v>7105600</v>
       </c>
       <c r="I60" s="3">
-        <v>7288900</v>
+        <v>7099600</v>
       </c>
       <c r="J60" s="3">
-        <v>6652700</v>
+        <v>6479900</v>
       </c>
       <c r="K60" s="3">
         <v>8389200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5800400</v>
+        <v>5649700</v>
       </c>
       <c r="E61" s="3">
-        <v>5156400</v>
+        <v>5022400</v>
       </c>
       <c r="F61" s="3">
-        <v>5337700</v>
+        <v>5199000</v>
       </c>
       <c r="G61" s="3">
-        <v>4065500</v>
+        <v>3959900</v>
       </c>
       <c r="H61" s="3">
-        <v>3934800</v>
+        <v>3832600</v>
       </c>
       <c r="I61" s="3">
-        <v>4851600</v>
+        <v>4725600</v>
       </c>
       <c r="J61" s="3">
-        <v>5392900</v>
+        <v>5252900</v>
       </c>
       <c r="K61" s="3">
         <v>8311500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2299800</v>
+        <v>2240100</v>
       </c>
       <c r="E62" s="3">
-        <v>1711000</v>
+        <v>1666500</v>
       </c>
       <c r="F62" s="3">
-        <v>2099000</v>
+        <v>2044500</v>
       </c>
       <c r="G62" s="3">
-        <v>2148300</v>
+        <v>2092500</v>
       </c>
       <c r="H62" s="3">
-        <v>1490700</v>
+        <v>1452000</v>
       </c>
       <c r="I62" s="3">
-        <v>1560000</v>
+        <v>1519500</v>
       </c>
       <c r="J62" s="3">
-        <v>1179600</v>
+        <v>1149000</v>
       </c>
       <c r="K62" s="3">
         <v>1789200</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17080800</v>
+        <v>16637100</v>
       </c>
       <c r="E66" s="3">
-        <v>15131300</v>
+        <v>14738300</v>
       </c>
       <c r="F66" s="3">
-        <v>16075100</v>
+        <v>15657500</v>
       </c>
       <c r="G66" s="3">
-        <v>14619300</v>
+        <v>14239600</v>
       </c>
       <c r="H66" s="3">
-        <v>13792300</v>
+        <v>13434100</v>
       </c>
       <c r="I66" s="3">
-        <v>14742300</v>
+        <v>14359300</v>
       </c>
       <c r="J66" s="3">
-        <v>14242000</v>
+        <v>13872100</v>
       </c>
       <c r="K66" s="3">
         <v>19707300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10231300</v>
+        <v>9965500</v>
       </c>
       <c r="E72" s="3">
-        <v>9359700</v>
+        <v>9116600</v>
       </c>
       <c r="F72" s="3">
-        <v>8958000</v>
+        <v>8725300</v>
       </c>
       <c r="G72" s="3">
-        <v>8723200</v>
+        <v>8496600</v>
       </c>
       <c r="H72" s="3">
-        <v>7691100</v>
+        <v>7491300</v>
       </c>
       <c r="I72" s="3">
-        <v>7435500</v>
+        <v>7242400</v>
       </c>
       <c r="J72" s="3">
-        <v>6975700</v>
+        <v>6794500</v>
       </c>
       <c r="K72" s="3">
         <v>7197500</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11531900</v>
+        <v>11232400</v>
       </c>
       <c r="E76" s="3">
-        <v>10788800</v>
+        <v>10508600</v>
       </c>
       <c r="F76" s="3">
-        <v>10520800</v>
+        <v>10247500</v>
       </c>
       <c r="G76" s="3">
-        <v>10166100</v>
+        <v>9902000</v>
       </c>
       <c r="H76" s="3">
-        <v>9100500</v>
+        <v>8864100</v>
       </c>
       <c r="I76" s="3">
-        <v>8810300</v>
+        <v>8581500</v>
       </c>
       <c r="J76" s="3">
-        <v>8350700</v>
+        <v>8133800</v>
       </c>
       <c r="K76" s="3">
         <v>8684100</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1044800</v>
+        <v>1015900</v>
       </c>
       <c r="E81" s="3">
-        <v>506700</v>
+        <v>493500</v>
       </c>
       <c r="F81" s="3">
-        <v>474100</v>
+        <v>461800</v>
       </c>
       <c r="G81" s="3">
-        <v>530100</v>
+        <v>516300</v>
       </c>
       <c r="H81" s="3">
-        <v>367100</v>
+        <v>357600</v>
       </c>
       <c r="I81" s="3">
-        <v>547500</v>
+        <v>533300</v>
       </c>
       <c r="J81" s="3">
-        <v>425800</v>
+        <v>414700</v>
       </c>
       <c r="K81" s="3">
         <v>-886200</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2808500</v>
+        <v>2735500</v>
       </c>
       <c r="E83" s="3">
-        <v>2824100</v>
+        <v>2750700</v>
       </c>
       <c r="F83" s="3">
-        <v>2834000</v>
+        <v>2760400</v>
       </c>
       <c r="G83" s="3">
-        <v>2591000</v>
+        <v>2523700</v>
       </c>
       <c r="H83" s="3">
-        <v>2647000</v>
+        <v>2578300</v>
       </c>
       <c r="I83" s="3">
-        <v>2634600</v>
+        <v>2566100</v>
       </c>
       <c r="J83" s="3">
-        <v>2802800</v>
+        <v>2730000</v>
       </c>
       <c r="K83" s="3">
         <v>3238000</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4282600</v>
+        <v>4171400</v>
       </c>
       <c r="E89" s="3">
-        <v>3649700</v>
+        <v>3554900</v>
       </c>
       <c r="F89" s="3">
-        <v>2883800</v>
+        <v>2808900</v>
       </c>
       <c r="G89" s="3">
-        <v>3088100</v>
+        <v>3007800</v>
       </c>
       <c r="H89" s="3">
-        <v>2985900</v>
+        <v>2908300</v>
       </c>
       <c r="I89" s="3">
-        <v>3673500</v>
+        <v>3578100</v>
       </c>
       <c r="J89" s="3">
-        <v>3257100</v>
+        <v>3172500</v>
       </c>
       <c r="K89" s="3">
         <v>1609800</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2694400</v>
+        <v>-2624500</v>
       </c>
       <c r="E91" s="3">
-        <v>-2474300</v>
+        <v>-2410000</v>
       </c>
       <c r="F91" s="3">
-        <v>-2517600</v>
+        <v>-2452200</v>
       </c>
       <c r="G91" s="3">
-        <v>-1740900</v>
+        <v>-1695700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1880500</v>
+        <v>-1831700</v>
       </c>
       <c r="I91" s="3">
-        <v>-2128500</v>
+        <v>-2073300</v>
       </c>
       <c r="J91" s="3">
-        <v>-2399100</v>
+        <v>-2336800</v>
       </c>
       <c r="K91" s="3">
         <v>-2396400</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3955900</v>
+        <v>-3853100</v>
       </c>
       <c r="E94" s="3">
-        <v>-2896300</v>
+        <v>-2821100</v>
       </c>
       <c r="F94" s="3">
-        <v>-2993400</v>
+        <v>-2915600</v>
       </c>
       <c r="G94" s="3">
-        <v>-2082200</v>
+        <v>-2028100</v>
       </c>
       <c r="H94" s="3">
-        <v>-2682100</v>
+        <v>-2612400</v>
       </c>
       <c r="I94" s="3">
-        <v>-2683400</v>
+        <v>-2613700</v>
       </c>
       <c r="J94" s="3">
-        <v>-1849400</v>
+        <v>-1801400</v>
       </c>
       <c r="K94" s="3">
         <v>-2663600</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-269800</v>
+        <v>-262800</v>
       </c>
       <c r="E96" s="3">
-        <v>-239100</v>
+        <v>-232900</v>
       </c>
       <c r="F96" s="3">
-        <v>-235000</v>
+        <v>-228900</v>
       </c>
       <c r="G96" s="3">
-        <v>-229900</v>
+        <v>-224000</v>
       </c>
       <c r="H96" s="3">
-        <v>-187200</v>
+        <v>-182400</v>
       </c>
       <c r="I96" s="3">
-        <v>-141800</v>
+        <v>-138100</v>
       </c>
       <c r="J96" s="3">
-        <v>-32000</v>
+        <v>-31200</v>
       </c>
       <c r="K96" s="3">
         <v>-187100</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-31800</v>
+        <v>-31000</v>
       </c>
       <c r="E100" s="3">
-        <v>-498600</v>
+        <v>-485700</v>
       </c>
       <c r="F100" s="3">
-        <v>-192300</v>
+        <v>-187300</v>
       </c>
       <c r="G100" s="3">
-        <v>-409400</v>
+        <v>-398800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1049900</v>
+        <v>-1022600</v>
       </c>
       <c r="I100" s="3">
-        <v>-726300</v>
+        <v>-707500</v>
       </c>
       <c r="J100" s="3">
-        <v>-896300</v>
+        <v>-873000</v>
       </c>
       <c r="K100" s="3">
         <v>900200</v>
@@ -3959,13 +3959,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E101" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="F101" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="G101" s="3">
         <v>400</v>
@@ -3977,7 +3977,7 @@
         <v>-1300</v>
       </c>
       <c r="J101" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="K101" s="3">
         <v>500</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>296400</v>
+        <v>288700</v>
       </c>
       <c r="E102" s="3">
-        <v>253100</v>
+        <v>246500</v>
       </c>
       <c r="F102" s="3">
-        <v>-306100</v>
+        <v>-298100</v>
       </c>
       <c r="G102" s="3">
-        <v>596900</v>
+        <v>581400</v>
       </c>
       <c r="H102" s="3">
-        <v>-748500</v>
+        <v>-729100</v>
       </c>
       <c r="I102" s="3">
-        <v>262500</v>
+        <v>255600</v>
       </c>
       <c r="J102" s="3">
-        <v>516500</v>
+        <v>503100</v>
       </c>
       <c r="K102" s="3">
         <v>-153100</v>

--- a/AAII_Financials/Yearly/KT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KT_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18673500</v>
+        <v>18424500</v>
       </c>
       <c r="E8" s="3">
-        <v>17937500</v>
+        <v>17698300</v>
       </c>
       <c r="F8" s="3">
-        <v>18256500</v>
+        <v>18013100</v>
       </c>
       <c r="G8" s="3">
-        <v>17595100</v>
+        <v>17360500</v>
       </c>
       <c r="H8" s="3">
-        <v>17540500</v>
+        <v>17306600</v>
       </c>
       <c r="I8" s="3">
-        <v>17057700</v>
+        <v>16830300</v>
       </c>
       <c r="J8" s="3">
-        <v>16710900</v>
+        <v>16488100</v>
       </c>
       <c r="K8" s="3">
         <v>18741800</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7413200</v>
+        <v>7314300</v>
       </c>
       <c r="E9" s="3">
-        <v>7242000</v>
+        <v>7145400</v>
       </c>
       <c r="F9" s="3">
-        <v>7641100</v>
+        <v>7539200</v>
       </c>
       <c r="G9" s="3">
-        <v>7080900</v>
+        <v>6986500</v>
       </c>
       <c r="H9" s="3">
-        <v>6933200</v>
+        <v>6840700</v>
       </c>
       <c r="I9" s="3">
-        <v>6636300</v>
+        <v>6547800</v>
       </c>
       <c r="J9" s="3">
-        <v>6606800</v>
+        <v>6518700</v>
       </c>
       <c r="K9" s="3">
         <v>7504500</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11260300</v>
+        <v>11110200</v>
       </c>
       <c r="E10" s="3">
-        <v>10695500</v>
+        <v>10552900</v>
       </c>
       <c r="F10" s="3">
-        <v>10615500</v>
+        <v>10473900</v>
       </c>
       <c r="G10" s="3">
-        <v>10514200</v>
+        <v>10374000</v>
       </c>
       <c r="H10" s="3">
-        <v>10607300</v>
+        <v>10465900</v>
       </c>
       <c r="I10" s="3">
-        <v>10421400</v>
+        <v>10282500</v>
       </c>
       <c r="J10" s="3">
-        <v>10104200</v>
+        <v>9969400</v>
       </c>
       <c r="K10" s="3">
         <v>11237300</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>126700</v>
+        <v>125000</v>
       </c>
       <c r="E12" s="3">
-        <v>117700</v>
+        <v>116100</v>
       </c>
       <c r="F12" s="3">
-        <v>123800</v>
+        <v>122100</v>
       </c>
       <c r="G12" s="3">
-        <v>132600</v>
+        <v>130800</v>
       </c>
       <c r="H12" s="3">
-        <v>126500</v>
+        <v>124800</v>
       </c>
       <c r="I12" s="3">
-        <v>125900</v>
+        <v>124200</v>
       </c>
       <c r="J12" s="3">
-        <v>137900</v>
+        <v>136000</v>
       </c>
       <c r="K12" s="3">
         <v>161300</v>
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-97200</v>
+        <v>-95900</v>
       </c>
       <c r="E14" s="3">
-        <v>92400</v>
+        <v>91200</v>
       </c>
       <c r="F14" s="3">
         <v>-3800</v>
       </c>
       <c r="G14" s="3">
-        <v>-57000</v>
+        <v>-56200</v>
       </c>
       <c r="H14" s="3">
-        <v>-5700</v>
+        <v>-5600</v>
       </c>
       <c r="I14" s="3">
-        <v>39800</v>
+        <v>39300</v>
       </c>
       <c r="J14" s="3">
-        <v>117400</v>
+        <v>115900</v>
       </c>
       <c r="K14" s="3">
         <v>89900</v>
@@ -974,25 +974,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>2705700</v>
+        <v>2669700</v>
       </c>
       <c r="E15" s="3">
-        <v>2725700</v>
+        <v>2689400</v>
       </c>
       <c r="F15" s="3">
-        <v>2722100</v>
+        <v>2685800</v>
       </c>
       <c r="G15" s="3">
-        <v>2461300</v>
+        <v>2428500</v>
       </c>
       <c r="H15" s="3">
-        <v>2523400</v>
+        <v>2489700</v>
       </c>
       <c r="I15" s="3">
-        <v>2508900</v>
+        <v>2475500</v>
       </c>
       <c r="J15" s="3">
-        <v>2503900</v>
+        <v>2470600</v>
       </c>
       <c r="K15" s="3">
         <v>2793600</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>17322400</v>
+        <v>17091500</v>
       </c>
       <c r="E17" s="3">
-        <v>17141900</v>
+        <v>16913300</v>
       </c>
       <c r="F17" s="3">
-        <v>17383100</v>
+        <v>17151300</v>
       </c>
       <c r="G17" s="3">
-        <v>16592000</v>
+        <v>16370700</v>
       </c>
       <c r="H17" s="3">
-        <v>16503300</v>
+        <v>16283300</v>
       </c>
       <c r="I17" s="3">
-        <v>16017500</v>
+        <v>15804000</v>
       </c>
       <c r="J17" s="3">
-        <v>15858600</v>
+        <v>15647200</v>
       </c>
       <c r="K17" s="3">
         <v>19173300</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1351100</v>
+        <v>1333000</v>
       </c>
       <c r="E18" s="3">
-        <v>795600</v>
+        <v>785000</v>
       </c>
       <c r="F18" s="3">
-        <v>873500</v>
+        <v>861900</v>
       </c>
       <c r="G18" s="3">
-        <v>1003100</v>
+        <v>989800</v>
       </c>
       <c r="H18" s="3">
-        <v>1037100</v>
+        <v>1023300</v>
       </c>
       <c r="I18" s="3">
-        <v>1040200</v>
+        <v>1026300</v>
       </c>
       <c r="J18" s="3">
-        <v>852300</v>
+        <v>840900</v>
       </c>
       <c r="K18" s="3">
         <v>-431500</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>330300</v>
+        <v>325900</v>
       </c>
       <c r="E20" s="3">
-        <v>133300</v>
+        <v>131600</v>
       </c>
       <c r="F20" s="3">
-        <v>67500</v>
+        <v>66600</v>
       </c>
       <c r="G20" s="3">
-        <v>37600</v>
+        <v>37100</v>
       </c>
       <c r="H20" s="3">
-        <v>-182500</v>
+        <v>-180100</v>
       </c>
       <c r="I20" s="3">
-        <v>58000</v>
+        <v>57200</v>
       </c>
       <c r="J20" s="3">
-        <v>-23300</v>
+        <v>-22900</v>
       </c>
       <c r="K20" s="3">
         <v>-285500</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4416900</v>
+        <v>4321500</v>
       </c>
       <c r="E21" s="3">
-        <v>3679700</v>
+        <v>3594000</v>
       </c>
       <c r="F21" s="3">
-        <v>3701400</v>
+        <v>3615300</v>
       </c>
       <c r="G21" s="3">
-        <v>3564400</v>
+        <v>3483200</v>
       </c>
       <c r="H21" s="3">
-        <v>3432900</v>
+        <v>3352700</v>
       </c>
       <c r="I21" s="3">
-        <v>3664300</v>
+        <v>3581200</v>
       </c>
       <c r="J21" s="3">
-        <v>3559000</v>
+        <v>3475200</v>
       </c>
       <c r="K21" s="3">
         <v>2521100</v>
@@ -1200,25 +1200,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>197500</v>
+        <v>194900</v>
       </c>
       <c r="E22" s="3">
-        <v>197700</v>
+        <v>195000</v>
       </c>
       <c r="F22" s="3">
-        <v>208800</v>
+        <v>206000</v>
       </c>
       <c r="G22" s="3">
-        <v>222700</v>
+        <v>219700</v>
       </c>
       <c r="H22" s="3">
-        <v>226800</v>
+        <v>223800</v>
       </c>
       <c r="I22" s="3">
-        <v>252900</v>
+        <v>249500</v>
       </c>
       <c r="J22" s="3">
-        <v>289400</v>
+        <v>285600</v>
       </c>
       <c r="K22" s="3">
         <v>399100</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1483800</v>
+        <v>1464000</v>
       </c>
       <c r="E23" s="3">
-        <v>731300</v>
+        <v>721500</v>
       </c>
       <c r="F23" s="3">
-        <v>732200</v>
+        <v>722400</v>
       </c>
       <c r="G23" s="3">
-        <v>818100</v>
+        <v>807100</v>
       </c>
       <c r="H23" s="3">
-        <v>627800</v>
+        <v>619400</v>
       </c>
       <c r="I23" s="3">
-        <v>845300</v>
+        <v>834000</v>
       </c>
       <c r="J23" s="3">
-        <v>539600</v>
+        <v>532400</v>
       </c>
       <c r="K23" s="3">
         <v>-1116000</v>
@@ -1278,25 +1278,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>389300</v>
+        <v>384100</v>
       </c>
       <c r="E24" s="3">
-        <v>203700</v>
+        <v>201000</v>
       </c>
       <c r="F24" s="3">
-        <v>232700</v>
+        <v>229600</v>
       </c>
       <c r="G24" s="3">
-        <v>246300</v>
+        <v>243000</v>
       </c>
       <c r="H24" s="3">
-        <v>206600</v>
+        <v>203900</v>
       </c>
       <c r="I24" s="3">
-        <v>246900</v>
+        <v>243600</v>
       </c>
       <c r="J24" s="3">
-        <v>171900</v>
+        <v>169600</v>
       </c>
       <c r="K24" s="3">
         <v>-231800</v>
@@ -1356,25 +1356,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1094500</v>
+        <v>1080000</v>
       </c>
       <c r="E26" s="3">
-        <v>527500</v>
+        <v>520500</v>
       </c>
       <c r="F26" s="3">
-        <v>499500</v>
+        <v>492800</v>
       </c>
       <c r="G26" s="3">
-        <v>571700</v>
+        <v>564100</v>
       </c>
       <c r="H26" s="3">
-        <v>421100</v>
+        <v>415500</v>
       </c>
       <c r="I26" s="3">
-        <v>598400</v>
+        <v>590400</v>
       </c>
       <c r="J26" s="3">
-        <v>367700</v>
+        <v>362800</v>
       </c>
       <c r="K26" s="3">
         <v>-884200</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1015900</v>
+        <v>1002400</v>
       </c>
       <c r="E27" s="3">
-        <v>493500</v>
+        <v>486900</v>
       </c>
       <c r="F27" s="3">
-        <v>461800</v>
+        <v>455700</v>
       </c>
       <c r="G27" s="3">
-        <v>516300</v>
+        <v>509500</v>
       </c>
       <c r="H27" s="3">
-        <v>357600</v>
+        <v>352800</v>
       </c>
       <c r="I27" s="3">
-        <v>598400</v>
+        <v>590400</v>
       </c>
       <c r="J27" s="3">
-        <v>308000</v>
+        <v>303900</v>
       </c>
       <c r="K27" s="3">
         <v>-939900</v>
@@ -1488,10 +1488,10 @@
         <v>24</v>
       </c>
       <c r="I29" s="3">
-        <v>-65100</v>
+        <v>-64200</v>
       </c>
       <c r="J29" s="3">
-        <v>106700</v>
+        <v>105300</v>
       </c>
       <c r="K29" s="3">
         <v>53700</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-330300</v>
+        <v>-325900</v>
       </c>
       <c r="E32" s="3">
-        <v>-133300</v>
+        <v>-131600</v>
       </c>
       <c r="F32" s="3">
-        <v>-67500</v>
+        <v>-66600</v>
       </c>
       <c r="G32" s="3">
-        <v>-37600</v>
+        <v>-37100</v>
       </c>
       <c r="H32" s="3">
-        <v>182500</v>
+        <v>180100</v>
       </c>
       <c r="I32" s="3">
-        <v>-58000</v>
+        <v>-57200</v>
       </c>
       <c r="J32" s="3">
-        <v>23300</v>
+        <v>22900</v>
       </c>
       <c r="K32" s="3">
         <v>285500</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1015900</v>
+        <v>1002400</v>
       </c>
       <c r="E33" s="3">
-        <v>493500</v>
+        <v>486900</v>
       </c>
       <c r="F33" s="3">
-        <v>461800</v>
+        <v>455700</v>
       </c>
       <c r="G33" s="3">
-        <v>516300</v>
+        <v>509500</v>
       </c>
       <c r="H33" s="3">
-        <v>357600</v>
+        <v>352800</v>
       </c>
       <c r="I33" s="3">
-        <v>533300</v>
+        <v>526200</v>
       </c>
       <c r="J33" s="3">
-        <v>414700</v>
+        <v>409200</v>
       </c>
       <c r="K33" s="3">
         <v>-886200</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1015900</v>
+        <v>1002400</v>
       </c>
       <c r="E35" s="3">
-        <v>493500</v>
+        <v>486900</v>
       </c>
       <c r="F35" s="3">
-        <v>461800</v>
+        <v>455700</v>
       </c>
       <c r="G35" s="3">
-        <v>516300</v>
+        <v>509500</v>
       </c>
       <c r="H35" s="3">
-        <v>357600</v>
+        <v>352800</v>
       </c>
       <c r="I35" s="3">
-        <v>533300</v>
+        <v>526200</v>
       </c>
       <c r="J35" s="3">
-        <v>414700</v>
+        <v>409200</v>
       </c>
       <c r="K35" s="3">
         <v>-886200</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2264700</v>
+        <v>2234500</v>
       </c>
       <c r="E41" s="3">
-        <v>1976000</v>
+        <v>1949600</v>
       </c>
       <c r="F41" s="3">
-        <v>1729400</v>
+        <v>1706400</v>
       </c>
       <c r="G41" s="3">
-        <v>2027600</v>
+        <v>2000500</v>
       </c>
       <c r="H41" s="3">
-        <v>1446100</v>
+        <v>1426900</v>
       </c>
       <c r="I41" s="3">
-        <v>2175200</v>
+        <v>2146200</v>
       </c>
       <c r="J41" s="3">
-        <v>1919600</v>
+        <v>1894000</v>
       </c>
       <c r="K41" s="3">
         <v>1586500</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>889200</v>
+        <v>877400</v>
       </c>
       <c r="E42" s="3">
-        <v>902100</v>
+        <v>890100</v>
       </c>
       <c r="F42" s="3">
-        <v>651300</v>
+        <v>642600</v>
       </c>
       <c r="G42" s="3">
-        <v>746100</v>
+        <v>736100</v>
       </c>
       <c r="H42" s="3">
-        <v>729500</v>
+        <v>719700</v>
       </c>
       <c r="I42" s="3">
-        <v>540400</v>
+        <v>533200</v>
       </c>
       <c r="J42" s="3">
-        <v>219700</v>
+        <v>216800</v>
       </c>
       <c r="K42" s="3">
         <v>279500</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3820100</v>
+        <v>3769100</v>
       </c>
       <c r="E43" s="3">
-        <v>3678400</v>
+        <v>3629400</v>
       </c>
       <c r="F43" s="3">
-        <v>4480900</v>
+        <v>4421200</v>
       </c>
       <c r="G43" s="3">
-        <v>4358600</v>
+        <v>4300500</v>
       </c>
       <c r="H43" s="3">
-        <v>4501300</v>
+        <v>4441300</v>
       </c>
       <c r="I43" s="3">
-        <v>4000000</v>
+        <v>3946700</v>
       </c>
       <c r="J43" s="3">
-        <v>3666400</v>
+        <v>3617500</v>
       </c>
       <c r="K43" s="3">
         <v>4858500</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>385600</v>
+        <v>380500</v>
       </c>
       <c r="E44" s="3">
-        <v>401000</v>
+        <v>395600</v>
       </c>
       <c r="F44" s="3">
-        <v>499100</v>
+        <v>492500</v>
       </c>
       <c r="G44" s="3">
-        <v>513000</v>
+        <v>506200</v>
       </c>
       <c r="H44" s="3">
-        <v>343300</v>
+        <v>338700</v>
       </c>
       <c r="I44" s="3">
-        <v>283500</v>
+        <v>279700</v>
       </c>
       <c r="J44" s="3">
-        <v>394000</v>
+        <v>388800</v>
       </c>
       <c r="K44" s="3">
         <v>351900</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1534100</v>
+        <v>1513700</v>
       </c>
       <c r="E45" s="3">
-        <v>1408200</v>
+        <v>1389400</v>
       </c>
       <c r="F45" s="3">
-        <v>1562200</v>
+        <v>1541300</v>
       </c>
       <c r="G45" s="3">
-        <v>1275400</v>
+        <v>1258400</v>
       </c>
       <c r="H45" s="3">
-        <v>234100</v>
+        <v>230900</v>
       </c>
       <c r="I45" s="3">
-        <v>233400</v>
+        <v>230200</v>
       </c>
       <c r="J45" s="3">
-        <v>237700</v>
+        <v>234500</v>
       </c>
       <c r="K45" s="3">
         <v>293700</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8893800</v>
+        <v>8775200</v>
       </c>
       <c r="E46" s="3">
-        <v>8365600</v>
+        <v>8254100</v>
       </c>
       <c r="F46" s="3">
-        <v>8922900</v>
+        <v>8803900</v>
       </c>
       <c r="G46" s="3">
-        <v>8920700</v>
+        <v>8801700</v>
       </c>
       <c r="H46" s="3">
-        <v>7254300</v>
+        <v>7157600</v>
       </c>
       <c r="I46" s="3">
-        <v>7232500</v>
+        <v>7136000</v>
       </c>
       <c r="J46" s="3">
-        <v>6437400</v>
+        <v>6351600</v>
       </c>
       <c r="K46" s="3">
         <v>7370000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2401600</v>
+        <v>2369600</v>
       </c>
       <c r="E47" s="3">
-        <v>1764700</v>
+        <v>1741200</v>
       </c>
       <c r="F47" s="3">
-        <v>1703300</v>
+        <v>1680600</v>
       </c>
       <c r="G47" s="3">
-        <v>1303900</v>
+        <v>1286500</v>
       </c>
       <c r="H47" s="3">
-        <v>1397400</v>
+        <v>1378800</v>
       </c>
       <c r="I47" s="3">
-        <v>1243400</v>
+        <v>1226800</v>
       </c>
       <c r="J47" s="3">
-        <v>1224400</v>
+        <v>1208000</v>
       </c>
       <c r="K47" s="3">
         <v>2354300</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13075400</v>
+        <v>12901000</v>
       </c>
       <c r="E48" s="3">
-        <v>12593800</v>
+        <v>12425900</v>
       </c>
       <c r="F48" s="3">
-        <v>12330800</v>
+        <v>12166400</v>
       </c>
       <c r="G48" s="3">
-        <v>10619500</v>
+        <v>10477900</v>
       </c>
       <c r="H48" s="3">
-        <v>11063900</v>
+        <v>10916400</v>
       </c>
       <c r="I48" s="3">
-        <v>11595100</v>
+        <v>11440500</v>
       </c>
       <c r="J48" s="3">
-        <v>11685700</v>
+        <v>11529900</v>
       </c>
       <c r="K48" s="3">
         <v>14723400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2585500</v>
+        <v>2551000</v>
       </c>
       <c r="E49" s="3">
-        <v>1620900</v>
+        <v>1599300</v>
       </c>
       <c r="F49" s="3">
-        <v>2125500</v>
+        <v>2097200</v>
       </c>
       <c r="G49" s="3">
-        <v>2555300</v>
+        <v>2521300</v>
       </c>
       <c r="H49" s="3">
-        <v>1974500</v>
+        <v>1948200</v>
       </c>
       <c r="I49" s="3">
-        <v>2267100</v>
+        <v>2236900</v>
       </c>
       <c r="J49" s="3">
-        <v>1949800</v>
+        <v>1923800</v>
       </c>
       <c r="K49" s="3">
         <v>2977000</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>913300</v>
+        <v>901100</v>
       </c>
       <c r="E52" s="3">
-        <v>901800</v>
+        <v>889700</v>
       </c>
       <c r="F52" s="3">
-        <v>822500</v>
+        <v>811500</v>
       </c>
       <c r="G52" s="3">
-        <v>742200</v>
+        <v>732300</v>
       </c>
       <c r="H52" s="3">
-        <v>608000</v>
+        <v>599900</v>
       </c>
       <c r="I52" s="3">
-        <v>602700</v>
+        <v>594700</v>
       </c>
       <c r="J52" s="3">
-        <v>708600</v>
+        <v>699100</v>
       </c>
       <c r="K52" s="3">
         <v>966700</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27869500</v>
+        <v>27497900</v>
       </c>
       <c r="E54" s="3">
-        <v>25246900</v>
+        <v>24910300</v>
       </c>
       <c r="F54" s="3">
-        <v>25905100</v>
+        <v>25559700</v>
       </c>
       <c r="G54" s="3">
-        <v>24141600</v>
+        <v>23819700</v>
       </c>
       <c r="H54" s="3">
-        <v>22298200</v>
+        <v>22000900</v>
       </c>
       <c r="I54" s="3">
-        <v>22940800</v>
+        <v>22634900</v>
       </c>
       <c r="J54" s="3">
-        <v>22005900</v>
+        <v>21712500</v>
       </c>
       <c r="K54" s="3">
         <v>28391400</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1152900</v>
+        <v>1137500</v>
       </c>
       <c r="E57" s="3">
-        <v>929800</v>
+        <v>917400</v>
       </c>
       <c r="F57" s="3">
-        <v>978600</v>
+        <v>965500</v>
       </c>
       <c r="G57" s="3">
-        <v>927400</v>
+        <v>915000</v>
       </c>
       <c r="H57" s="3">
-        <v>1049500</v>
+        <v>1035500</v>
       </c>
       <c r="I57" s="3">
-        <v>927000</v>
+        <v>914600</v>
       </c>
       <c r="J57" s="3">
-        <v>967800</v>
+        <v>954900</v>
       </c>
       <c r="K57" s="3">
         <v>1008000</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1548100</v>
+        <v>1527500</v>
       </c>
       <c r="E58" s="3">
-        <v>1322500</v>
+        <v>1304900</v>
       </c>
       <c r="F58" s="3">
-        <v>1183600</v>
+        <v>1167800</v>
       </c>
       <c r="G58" s="3">
-        <v>1026400</v>
+        <v>1012700</v>
       </c>
       <c r="H58" s="3">
-        <v>1180100</v>
+        <v>1164400</v>
       </c>
       <c r="I58" s="3">
-        <v>1365000</v>
+        <v>1346800</v>
       </c>
       <c r="J58" s="3">
-        <v>1340500</v>
+        <v>1322600</v>
       </c>
       <c r="K58" s="3">
         <v>2499700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4853400</v>
+        <v>4788700</v>
       </c>
       <c r="E59" s="3">
-        <v>4642100</v>
+        <v>4580200</v>
       </c>
       <c r="F59" s="3">
-        <v>6222800</v>
+        <v>6139800</v>
       </c>
       <c r="G59" s="3">
-        <v>5087100</v>
+        <v>5019200</v>
       </c>
       <c r="H59" s="3">
-        <v>4876100</v>
+        <v>4811000</v>
       </c>
       <c r="I59" s="3">
-        <v>4807600</v>
+        <v>4743500</v>
       </c>
       <c r="J59" s="3">
-        <v>4171700</v>
+        <v>4116100</v>
       </c>
       <c r="K59" s="3">
         <v>4881500</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7554300</v>
+        <v>7453600</v>
       </c>
       <c r="E60" s="3">
-        <v>6894400</v>
+        <v>6802400</v>
       </c>
       <c r="F60" s="3">
-        <v>7611000</v>
+        <v>7509600</v>
       </c>
       <c r="G60" s="3">
-        <v>7040800</v>
+        <v>6946900</v>
       </c>
       <c r="H60" s="3">
-        <v>7105600</v>
+        <v>7010900</v>
       </c>
       <c r="I60" s="3">
-        <v>7099600</v>
+        <v>7004900</v>
       </c>
       <c r="J60" s="3">
-        <v>6479900</v>
+        <v>6393500</v>
       </c>
       <c r="K60" s="3">
         <v>8389200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5649700</v>
+        <v>5574400</v>
       </c>
       <c r="E61" s="3">
-        <v>5022400</v>
+        <v>4955500</v>
       </c>
       <c r="F61" s="3">
-        <v>5199000</v>
+        <v>5129700</v>
       </c>
       <c r="G61" s="3">
-        <v>3959900</v>
+        <v>3907100</v>
       </c>
       <c r="H61" s="3">
-        <v>3832600</v>
+        <v>3781500</v>
       </c>
       <c r="I61" s="3">
-        <v>4725600</v>
+        <v>4662600</v>
       </c>
       <c r="J61" s="3">
-        <v>5252900</v>
+        <v>5182800</v>
       </c>
       <c r="K61" s="3">
         <v>8311500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2240100</v>
+        <v>2210200</v>
       </c>
       <c r="E62" s="3">
-        <v>1666500</v>
+        <v>1644300</v>
       </c>
       <c r="F62" s="3">
-        <v>2044500</v>
+        <v>2017200</v>
       </c>
       <c r="G62" s="3">
-        <v>2092500</v>
+        <v>2064600</v>
       </c>
       <c r="H62" s="3">
-        <v>1452000</v>
+        <v>1432600</v>
       </c>
       <c r="I62" s="3">
-        <v>1519500</v>
+        <v>1499300</v>
       </c>
       <c r="J62" s="3">
-        <v>1149000</v>
+        <v>1133700</v>
       </c>
       <c r="K62" s="3">
         <v>1789200</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16637100</v>
+        <v>16415300</v>
       </c>
       <c r="E66" s="3">
-        <v>14738300</v>
+        <v>14541800</v>
       </c>
       <c r="F66" s="3">
-        <v>15657500</v>
+        <v>15448800</v>
       </c>
       <c r="G66" s="3">
-        <v>14239600</v>
+        <v>14049700</v>
       </c>
       <c r="H66" s="3">
-        <v>13434100</v>
+        <v>13254900</v>
       </c>
       <c r="I66" s="3">
-        <v>14359300</v>
+        <v>14167900</v>
       </c>
       <c r="J66" s="3">
-        <v>13872100</v>
+        <v>13687100</v>
       </c>
       <c r="K66" s="3">
         <v>19707300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9965500</v>
+        <v>9832700</v>
       </c>
       <c r="E72" s="3">
-        <v>9116600</v>
+        <v>8995000</v>
       </c>
       <c r="F72" s="3">
-        <v>8725300</v>
+        <v>8609000</v>
       </c>
       <c r="G72" s="3">
-        <v>8496600</v>
+        <v>8383400</v>
       </c>
       <c r="H72" s="3">
-        <v>7491300</v>
+        <v>7391400</v>
       </c>
       <c r="I72" s="3">
-        <v>7242400</v>
+        <v>7145800</v>
       </c>
       <c r="J72" s="3">
-        <v>6794500</v>
+        <v>6703900</v>
       </c>
       <c r="K72" s="3">
         <v>7197500</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11232400</v>
+        <v>11082600</v>
       </c>
       <c r="E76" s="3">
-        <v>10508600</v>
+        <v>10368500</v>
       </c>
       <c r="F76" s="3">
-        <v>10247500</v>
+        <v>10110900</v>
       </c>
       <c r="G76" s="3">
-        <v>9902000</v>
+        <v>9770000</v>
       </c>
       <c r="H76" s="3">
-        <v>8864100</v>
+        <v>8745900</v>
       </c>
       <c r="I76" s="3">
-        <v>8581500</v>
+        <v>8467000</v>
       </c>
       <c r="J76" s="3">
-        <v>8133800</v>
+        <v>8025400</v>
       </c>
       <c r="K76" s="3">
         <v>8684100</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1015900</v>
+        <v>1002400</v>
       </c>
       <c r="E81" s="3">
-        <v>493500</v>
+        <v>486900</v>
       </c>
       <c r="F81" s="3">
-        <v>461800</v>
+        <v>455700</v>
       </c>
       <c r="G81" s="3">
-        <v>516300</v>
+        <v>509500</v>
       </c>
       <c r="H81" s="3">
-        <v>357600</v>
+        <v>352800</v>
       </c>
       <c r="I81" s="3">
-        <v>533300</v>
+        <v>526200</v>
       </c>
       <c r="J81" s="3">
-        <v>414700</v>
+        <v>409200</v>
       </c>
       <c r="K81" s="3">
         <v>-886200</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2735500</v>
+        <v>2699000</v>
       </c>
       <c r="E83" s="3">
-        <v>2750700</v>
+        <v>2714000</v>
       </c>
       <c r="F83" s="3">
-        <v>2760400</v>
+        <v>2723600</v>
       </c>
       <c r="G83" s="3">
-        <v>2523700</v>
+        <v>2490100</v>
       </c>
       <c r="H83" s="3">
-        <v>2578300</v>
+        <v>2543900</v>
       </c>
       <c r="I83" s="3">
-        <v>2566100</v>
+        <v>2531900</v>
       </c>
       <c r="J83" s="3">
-        <v>2730000</v>
+        <v>2693600</v>
       </c>
       <c r="K83" s="3">
         <v>3238000</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4171400</v>
+        <v>4115800</v>
       </c>
       <c r="E89" s="3">
-        <v>3554900</v>
+        <v>3507500</v>
       </c>
       <c r="F89" s="3">
-        <v>2808900</v>
+        <v>2771400</v>
       </c>
       <c r="G89" s="3">
-        <v>3007800</v>
+        <v>2967700</v>
       </c>
       <c r="H89" s="3">
-        <v>2908300</v>
+        <v>2869500</v>
       </c>
       <c r="I89" s="3">
-        <v>3578100</v>
+        <v>3530400</v>
       </c>
       <c r="J89" s="3">
-        <v>3172500</v>
+        <v>3130200</v>
       </c>
       <c r="K89" s="3">
         <v>1609800</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2624500</v>
+        <v>-2589500</v>
       </c>
       <c r="E91" s="3">
-        <v>-2410000</v>
+        <v>-2377900</v>
       </c>
       <c r="F91" s="3">
-        <v>-2452200</v>
+        <v>-2419500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1695700</v>
+        <v>-1673100</v>
       </c>
       <c r="H91" s="3">
-        <v>-1831700</v>
+        <v>-1807200</v>
       </c>
       <c r="I91" s="3">
-        <v>-2073300</v>
+        <v>-2045600</v>
       </c>
       <c r="J91" s="3">
-        <v>-2336800</v>
+        <v>-2305600</v>
       </c>
       <c r="K91" s="3">
         <v>-2396400</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3853100</v>
+        <v>-3801700</v>
       </c>
       <c r="E94" s="3">
-        <v>-2821100</v>
+        <v>-2783500</v>
       </c>
       <c r="F94" s="3">
-        <v>-2915600</v>
+        <v>-2876700</v>
       </c>
       <c r="G94" s="3">
-        <v>-2028100</v>
+        <v>-2001100</v>
       </c>
       <c r="H94" s="3">
-        <v>-2612400</v>
+        <v>-2577600</v>
       </c>
       <c r="I94" s="3">
-        <v>-2613700</v>
+        <v>-2578900</v>
       </c>
       <c r="J94" s="3">
-        <v>-1801400</v>
+        <v>-1777400</v>
       </c>
       <c r="K94" s="3">
         <v>-2663600</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-262800</v>
+        <v>-259200</v>
       </c>
       <c r="E96" s="3">
-        <v>-232900</v>
+        <v>-229800</v>
       </c>
       <c r="F96" s="3">
-        <v>-228900</v>
+        <v>-225800</v>
       </c>
       <c r="G96" s="3">
-        <v>-224000</v>
+        <v>-221000</v>
       </c>
       <c r="H96" s="3">
-        <v>-182400</v>
+        <v>-179900</v>
       </c>
       <c r="I96" s="3">
-        <v>-138100</v>
+        <v>-136200</v>
       </c>
       <c r="J96" s="3">
-        <v>-31200</v>
+        <v>-30800</v>
       </c>
       <c r="K96" s="3">
         <v>-187100</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-31000</v>
+        <v>-30500</v>
       </c>
       <c r="E100" s="3">
-        <v>-485700</v>
+        <v>-479200</v>
       </c>
       <c r="F100" s="3">
-        <v>-187300</v>
+        <v>-184800</v>
       </c>
       <c r="G100" s="3">
-        <v>-398800</v>
+        <v>-393400</v>
       </c>
       <c r="H100" s="3">
-        <v>-1022600</v>
+        <v>-1009000</v>
       </c>
       <c r="I100" s="3">
-        <v>-707500</v>
+        <v>-698000</v>
       </c>
       <c r="J100" s="3">
-        <v>-873000</v>
+        <v>-861400</v>
       </c>
       <c r="K100" s="3">
         <v>900200</v>
@@ -3971,10 +3971,10 @@
         <v>400</v>
       </c>
       <c r="H101" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="I101" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="J101" s="3">
         <v>5000</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>288700</v>
+        <v>284900</v>
       </c>
       <c r="E102" s="3">
-        <v>246500</v>
+        <v>243300</v>
       </c>
       <c r="F102" s="3">
-        <v>-298100</v>
+        <v>-294200</v>
       </c>
       <c r="G102" s="3">
-        <v>581400</v>
+        <v>573700</v>
       </c>
       <c r="H102" s="3">
-        <v>-729100</v>
+        <v>-719400</v>
       </c>
       <c r="I102" s="3">
-        <v>255600</v>
+        <v>252200</v>
       </c>
       <c r="J102" s="3">
-        <v>503100</v>
+        <v>496400</v>
       </c>
       <c r="K102" s="3">
         <v>-153100</v>

--- a/AAII_Financials/Yearly/KT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>KT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18424500</v>
+        <v>19237500</v>
       </c>
       <c r="E8" s="3">
-        <v>17698300</v>
+        <v>18673500</v>
       </c>
       <c r="F8" s="3">
-        <v>18013100</v>
+        <v>17937500</v>
       </c>
       <c r="G8" s="3">
-        <v>17360500</v>
+        <v>18256500</v>
       </c>
       <c r="H8" s="3">
-        <v>17306600</v>
+        <v>17595100</v>
       </c>
       <c r="I8" s="3">
-        <v>16830300</v>
+        <v>17540500</v>
       </c>
       <c r="J8" s="3">
+        <v>17057700</v>
+      </c>
+      <c r="K8" s="3">
         <v>16488100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18741800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21892700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20700800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>19879000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7314300</v>
+        <v>7191600</v>
       </c>
       <c r="E9" s="3">
-        <v>7145400</v>
+        <v>7413200</v>
       </c>
       <c r="F9" s="3">
-        <v>7539200</v>
+        <v>7242000</v>
       </c>
       <c r="G9" s="3">
-        <v>6986500</v>
+        <v>7641100</v>
       </c>
       <c r="H9" s="3">
-        <v>6840700</v>
+        <v>7080900</v>
       </c>
       <c r="I9" s="3">
-        <v>6547800</v>
+        <v>6933200</v>
       </c>
       <c r="J9" s="3">
+        <v>6636300</v>
+      </c>
+      <c r="K9" s="3">
         <v>6518700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7504500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6253800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5936900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6602100</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11110200</v>
+        <v>12045900</v>
       </c>
       <c r="E10" s="3">
-        <v>10552900</v>
+        <v>11260300</v>
       </c>
       <c r="F10" s="3">
-        <v>10473900</v>
+        <v>10695500</v>
       </c>
       <c r="G10" s="3">
-        <v>10374000</v>
+        <v>10615500</v>
       </c>
       <c r="H10" s="3">
-        <v>10465900</v>
+        <v>10514200</v>
       </c>
       <c r="I10" s="3">
-        <v>10282500</v>
+        <v>10607300</v>
       </c>
       <c r="J10" s="3">
+        <v>10421400</v>
+      </c>
+      <c r="K10" s="3">
         <v>9969400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11237300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>15638900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>14763900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>13277000</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,47 +863,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>125000</v>
+        <v>131200</v>
       </c>
       <c r="E12" s="3">
-        <v>116100</v>
+        <v>126700</v>
       </c>
       <c r="F12" s="3">
-        <v>122100</v>
+        <v>117700</v>
       </c>
       <c r="G12" s="3">
-        <v>130800</v>
+        <v>123800</v>
       </c>
       <c r="H12" s="3">
-        <v>124800</v>
+        <v>132600</v>
       </c>
       <c r="I12" s="3">
-        <v>124200</v>
+        <v>126500</v>
       </c>
       <c r="J12" s="3">
+        <v>125900</v>
+      </c>
+      <c r="K12" s="3">
         <v>136000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>161300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>156000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>257300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>277000</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -928,87 +944,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-95900</v>
+        <v>-275600</v>
       </c>
       <c r="E14" s="3">
-        <v>91200</v>
+        <v>-97200</v>
       </c>
       <c r="F14" s="3">
+        <v>92400</v>
+      </c>
+      <c r="G14" s="3">
         <v>-3800</v>
       </c>
-      <c r="G14" s="3">
-        <v>-56200</v>
-      </c>
       <c r="H14" s="3">
-        <v>-5600</v>
+        <v>-57000</v>
       </c>
       <c r="I14" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="J14" s="3">
+        <v>39800</v>
+      </c>
+      <c r="K14" s="3">
+        <v>115900</v>
+      </c>
+      <c r="L14" s="3">
+        <v>89900</v>
+      </c>
+      <c r="M14" s="3">
+        <v>4600</v>
+      </c>
+      <c r="N14" s="3">
+        <v>15700</v>
+      </c>
+      <c r="O14" s="3">
         <v>39300</v>
       </c>
-      <c r="J14" s="3">
-        <v>115900</v>
-      </c>
-      <c r="K14" s="3">
-        <v>89900</v>
-      </c>
-      <c r="L14" s="3">
-        <v>4600</v>
-      </c>
-      <c r="M14" s="3">
-        <v>15700</v>
-      </c>
-      <c r="N14" s="3">
-        <v>39300</v>
-      </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>2669700</v>
+        <v>2741900</v>
       </c>
       <c r="E15" s="3">
-        <v>2689400</v>
+        <v>2705700</v>
       </c>
       <c r="F15" s="3">
-        <v>2685800</v>
+        <v>2725700</v>
       </c>
       <c r="G15" s="3">
-        <v>2428500</v>
+        <v>2722100</v>
       </c>
       <c r="H15" s="3">
-        <v>2489700</v>
+        <v>2461300</v>
       </c>
       <c r="I15" s="3">
-        <v>2475500</v>
+        <v>2523400</v>
       </c>
       <c r="J15" s="3">
+        <v>2508900</v>
+      </c>
+      <c r="K15" s="3">
         <v>2470600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2793600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3245200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2750200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2661700</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>17091500</v>
+        <v>17694400</v>
       </c>
       <c r="E17" s="3">
-        <v>16913300</v>
+        <v>17322400</v>
       </c>
       <c r="F17" s="3">
-        <v>17151300</v>
+        <v>17141900</v>
       </c>
       <c r="G17" s="3">
-        <v>16370700</v>
+        <v>17383100</v>
       </c>
       <c r="H17" s="3">
-        <v>16283300</v>
+        <v>16592000</v>
       </c>
       <c r="I17" s="3">
-        <v>15804000</v>
+        <v>16503300</v>
       </c>
       <c r="J17" s="3">
+        <v>16017500</v>
+      </c>
+      <c r="K17" s="3">
         <v>15647200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19173300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21603000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19292300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18090700</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1333000</v>
+        <v>1543100</v>
       </c>
       <c r="E18" s="3">
-        <v>785000</v>
+        <v>1351100</v>
       </c>
       <c r="F18" s="3">
-        <v>861900</v>
+        <v>795600</v>
       </c>
       <c r="G18" s="3">
-        <v>989800</v>
+        <v>873500</v>
       </c>
       <c r="H18" s="3">
-        <v>1023300</v>
+        <v>1003100</v>
       </c>
       <c r="I18" s="3">
-        <v>1026300</v>
+        <v>1037100</v>
       </c>
       <c r="J18" s="3">
+        <v>1040200</v>
+      </c>
+      <c r="K18" s="3">
         <v>840900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-431500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>289700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1408400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1788400</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>325900</v>
+        <v>97800</v>
       </c>
       <c r="E20" s="3">
-        <v>131600</v>
+        <v>330300</v>
       </c>
       <c r="F20" s="3">
-        <v>66600</v>
+        <v>133300</v>
       </c>
       <c r="G20" s="3">
-        <v>37100</v>
+        <v>67500</v>
       </c>
       <c r="H20" s="3">
-        <v>-180100</v>
+        <v>37600</v>
       </c>
       <c r="I20" s="3">
-        <v>57200</v>
+        <v>-182500</v>
       </c>
       <c r="J20" s="3">
+        <v>58000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-22900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-285500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>85400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>177300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>92500</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
-        <v>4321500</v>
+      <c r="D21" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E21" s="3">
-        <v>3594000</v>
+        <v>4453300</v>
       </c>
       <c r="F21" s="3">
-        <v>3615300</v>
+        <v>3716400</v>
       </c>
       <c r="G21" s="3">
-        <v>3483200</v>
+        <v>3738200</v>
       </c>
       <c r="H21" s="3">
-        <v>3352700</v>
+        <v>3598100</v>
       </c>
       <c r="I21" s="3">
-        <v>3581200</v>
+        <v>3467300</v>
       </c>
       <c r="J21" s="3">
+        <v>3698500</v>
+      </c>
+      <c r="K21" s="3">
         <v>3475200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2521100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3633700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4402500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4547700</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>194900</v>
+        <v>220400</v>
       </c>
       <c r="E22" s="3">
-        <v>195000</v>
+        <v>197500</v>
       </c>
       <c r="F22" s="3">
-        <v>206000</v>
+        <v>197700</v>
       </c>
       <c r="G22" s="3">
-        <v>219700</v>
+        <v>208800</v>
       </c>
       <c r="H22" s="3">
-        <v>223800</v>
+        <v>222700</v>
       </c>
       <c r="I22" s="3">
-        <v>249500</v>
+        <v>226800</v>
       </c>
       <c r="J22" s="3">
+        <v>252900</v>
+      </c>
+      <c r="K22" s="3">
         <v>285600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>399100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>409800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>397300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>432500</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1464000</v>
+        <v>1420600</v>
       </c>
       <c r="E23" s="3">
-        <v>721500</v>
+        <v>1483800</v>
       </c>
       <c r="F23" s="3">
-        <v>722400</v>
+        <v>731300</v>
       </c>
       <c r="G23" s="3">
-        <v>807100</v>
+        <v>732200</v>
       </c>
       <c r="H23" s="3">
-        <v>619400</v>
+        <v>818100</v>
       </c>
       <c r="I23" s="3">
-        <v>834000</v>
+        <v>627800</v>
       </c>
       <c r="J23" s="3">
+        <v>845300</v>
+      </c>
+      <c r="K23" s="3">
         <v>532400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1116000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-34700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1188500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1448300</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>384100</v>
+        <v>379800</v>
       </c>
       <c r="E24" s="3">
-        <v>201000</v>
+        <v>389300</v>
       </c>
       <c r="F24" s="3">
-        <v>229600</v>
+        <v>203700</v>
       </c>
       <c r="G24" s="3">
-        <v>243000</v>
+        <v>232700</v>
       </c>
       <c r="H24" s="3">
-        <v>203900</v>
+        <v>246300</v>
       </c>
       <c r="I24" s="3">
-        <v>243600</v>
+        <v>206600</v>
       </c>
       <c r="J24" s="3">
+        <v>246900</v>
+      </c>
+      <c r="K24" s="3">
         <v>169600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-231800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>45100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>233400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>286600</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1080000</v>
+        <v>1040700</v>
       </c>
       <c r="E26" s="3">
-        <v>520500</v>
+        <v>1094500</v>
       </c>
       <c r="F26" s="3">
-        <v>492800</v>
+        <v>527500</v>
       </c>
       <c r="G26" s="3">
-        <v>564100</v>
+        <v>499500</v>
       </c>
       <c r="H26" s="3">
-        <v>415500</v>
+        <v>571700</v>
       </c>
       <c r="I26" s="3">
-        <v>590400</v>
+        <v>421100</v>
       </c>
       <c r="J26" s="3">
+        <v>598400</v>
+      </c>
+      <c r="K26" s="3">
         <v>362800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-884200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-79800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>955100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1161700</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1002400</v>
+        <v>946900</v>
       </c>
       <c r="E27" s="3">
-        <v>486900</v>
+        <v>1015900</v>
       </c>
       <c r="F27" s="3">
-        <v>455700</v>
+        <v>493500</v>
       </c>
       <c r="G27" s="3">
-        <v>509500</v>
+        <v>461800</v>
       </c>
       <c r="H27" s="3">
-        <v>352800</v>
+        <v>516300</v>
       </c>
       <c r="I27" s="3">
-        <v>590400</v>
+        <v>357600</v>
       </c>
       <c r="J27" s="3">
+        <v>598400</v>
+      </c>
+      <c r="K27" s="3">
         <v>303900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-939900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-172800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>905200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1152000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1487,27 +1547,30 @@
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3">
-        <v>-64200</v>
+      <c r="I29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="J29" s="3">
+        <v>-65100</v>
+      </c>
+      <c r="K29" s="3">
         <v>105300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>53700</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-26500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>148400</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-325900</v>
+        <v>-97800</v>
       </c>
       <c r="E32" s="3">
-        <v>-131600</v>
+        <v>-330300</v>
       </c>
       <c r="F32" s="3">
-        <v>-66600</v>
+        <v>-133300</v>
       </c>
       <c r="G32" s="3">
-        <v>-37100</v>
+        <v>-67500</v>
       </c>
       <c r="H32" s="3">
-        <v>180100</v>
+        <v>-37600</v>
       </c>
       <c r="I32" s="3">
-        <v>-57200</v>
+        <v>182500</v>
       </c>
       <c r="J32" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="K32" s="3">
         <v>22900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>285500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-85400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-177300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-92500</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1002400</v>
+        <v>946900</v>
       </c>
       <c r="E33" s="3">
-        <v>486900</v>
+        <v>1015900</v>
       </c>
       <c r="F33" s="3">
-        <v>455700</v>
+        <v>493500</v>
       </c>
       <c r="G33" s="3">
-        <v>509500</v>
+        <v>461800</v>
       </c>
       <c r="H33" s="3">
-        <v>352800</v>
+        <v>516300</v>
       </c>
       <c r="I33" s="3">
-        <v>526200</v>
+        <v>357600</v>
       </c>
       <c r="J33" s="3">
+        <v>533300</v>
+      </c>
+      <c r="K33" s="3">
         <v>409200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-886200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-172800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>878700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1300400</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1002400</v>
+        <v>946900</v>
       </c>
       <c r="E35" s="3">
-        <v>486900</v>
+        <v>1015900</v>
       </c>
       <c r="F35" s="3">
-        <v>455700</v>
+        <v>493500</v>
       </c>
       <c r="G35" s="3">
-        <v>509500</v>
+        <v>461800</v>
       </c>
       <c r="H35" s="3">
-        <v>352800</v>
+        <v>516300</v>
       </c>
       <c r="I35" s="3">
-        <v>526200</v>
+        <v>357600</v>
       </c>
       <c r="J35" s="3">
+        <v>533300</v>
+      </c>
+      <c r="K35" s="3">
         <v>409200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-886200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-172800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>878700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1300400</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2234500</v>
+        <v>1836800</v>
       </c>
       <c r="E41" s="3">
-        <v>1949600</v>
+        <v>2264700</v>
       </c>
       <c r="F41" s="3">
-        <v>1706400</v>
+        <v>1976000</v>
       </c>
       <c r="G41" s="3">
-        <v>2000500</v>
+        <v>1729400</v>
       </c>
       <c r="H41" s="3">
-        <v>1426900</v>
+        <v>2027600</v>
       </c>
       <c r="I41" s="3">
-        <v>2146200</v>
+        <v>1446100</v>
       </c>
       <c r="J41" s="3">
+        <v>2175200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1894000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1586500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1884500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2454100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>597300</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>877400</v>
+        <v>991800</v>
       </c>
       <c r="E42" s="3">
-        <v>890100</v>
+        <v>889200</v>
       </c>
       <c r="F42" s="3">
-        <v>642600</v>
+        <v>902100</v>
       </c>
       <c r="G42" s="3">
-        <v>736100</v>
+        <v>651300</v>
       </c>
       <c r="H42" s="3">
-        <v>719700</v>
+        <v>746100</v>
       </c>
       <c r="I42" s="3">
-        <v>533200</v>
+        <v>729500</v>
       </c>
       <c r="J42" s="3">
+        <v>540400</v>
+      </c>
+      <c r="K42" s="3">
         <v>216800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>279500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>436900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1708200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1515700</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3769100</v>
+        <v>4574700</v>
       </c>
       <c r="E43" s="3">
-        <v>3629400</v>
+        <v>3820100</v>
       </c>
       <c r="F43" s="3">
-        <v>4421200</v>
+        <v>3678400</v>
       </c>
       <c r="G43" s="3">
-        <v>4300500</v>
+        <v>4480900</v>
       </c>
       <c r="H43" s="3">
-        <v>4441300</v>
+        <v>4358600</v>
       </c>
       <c r="I43" s="3">
-        <v>3946700</v>
+        <v>4501300</v>
       </c>
       <c r="J43" s="3">
+        <v>4000000</v>
+      </c>
+      <c r="K43" s="3">
         <v>3617500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4858500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5831100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7453300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5811000</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>380500</v>
+        <v>531900</v>
       </c>
       <c r="E44" s="3">
-        <v>395600</v>
+        <v>385600</v>
       </c>
       <c r="F44" s="3">
-        <v>492500</v>
+        <v>401000</v>
       </c>
       <c r="G44" s="3">
-        <v>506200</v>
+        <v>499100</v>
       </c>
       <c r="H44" s="3">
-        <v>338700</v>
+        <v>513000</v>
       </c>
       <c r="I44" s="3">
-        <v>279700</v>
+        <v>343300</v>
       </c>
       <c r="J44" s="3">
+        <v>283500</v>
+      </c>
+      <c r="K44" s="3">
         <v>388800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>351900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>613000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1346800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>607300</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1513700</v>
+        <v>1575900</v>
       </c>
       <c r="E45" s="3">
-        <v>1389400</v>
+        <v>1534100</v>
       </c>
       <c r="F45" s="3">
-        <v>1541300</v>
+        <v>1408200</v>
       </c>
       <c r="G45" s="3">
-        <v>1258400</v>
+        <v>1562200</v>
       </c>
       <c r="H45" s="3">
-        <v>230900</v>
+        <v>1275400</v>
       </c>
       <c r="I45" s="3">
-        <v>230200</v>
+        <v>234100</v>
       </c>
       <c r="J45" s="3">
+        <v>233400</v>
+      </c>
+      <c r="K45" s="3">
         <v>234500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>293700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>309000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>305200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>280300</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8775200</v>
+        <v>9511100</v>
       </c>
       <c r="E46" s="3">
-        <v>8254100</v>
+        <v>8893800</v>
       </c>
       <c r="F46" s="3">
-        <v>8803900</v>
+        <v>8365600</v>
       </c>
       <c r="G46" s="3">
-        <v>8801700</v>
+        <v>8922900</v>
       </c>
       <c r="H46" s="3">
-        <v>7157600</v>
+        <v>8920700</v>
       </c>
       <c r="I46" s="3">
-        <v>7136000</v>
+        <v>7254300</v>
       </c>
       <c r="J46" s="3">
+        <v>7232500</v>
+      </c>
+      <c r="K46" s="3">
         <v>6351600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7370000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9074400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8834600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8811600</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2369600</v>
+        <v>4104900</v>
       </c>
       <c r="E47" s="3">
-        <v>1741200</v>
+        <v>2401600</v>
       </c>
       <c r="F47" s="3">
-        <v>1680600</v>
+        <v>1764700</v>
       </c>
       <c r="G47" s="3">
-        <v>1286500</v>
+        <v>1703300</v>
       </c>
       <c r="H47" s="3">
-        <v>1378800</v>
+        <v>1303900</v>
       </c>
       <c r="I47" s="3">
-        <v>1226800</v>
+        <v>1397400</v>
       </c>
       <c r="J47" s="3">
+        <v>1243400</v>
+      </c>
+      <c r="K47" s="3">
         <v>1208000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2354300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2525800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3649000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3468200</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12901000</v>
+        <v>13489400</v>
       </c>
       <c r="E48" s="3">
-        <v>12425900</v>
+        <v>13075400</v>
       </c>
       <c r="F48" s="3">
-        <v>12166400</v>
+        <v>12593800</v>
       </c>
       <c r="G48" s="3">
-        <v>10477900</v>
+        <v>12330800</v>
       </c>
       <c r="H48" s="3">
-        <v>10916400</v>
+        <v>10619500</v>
       </c>
       <c r="I48" s="3">
-        <v>11440500</v>
+        <v>11063900</v>
       </c>
       <c r="J48" s="3">
+        <v>11595100</v>
+      </c>
+      <c r="K48" s="3">
         <v>11529900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14723400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15918100</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="N48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13663600</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2551000</v>
+        <v>2347400</v>
       </c>
       <c r="E49" s="3">
-        <v>1599300</v>
+        <v>2585500</v>
       </c>
       <c r="F49" s="3">
-        <v>2097200</v>
+        <v>1620900</v>
       </c>
       <c r="G49" s="3">
-        <v>2521300</v>
+        <v>2125500</v>
       </c>
       <c r="H49" s="3">
-        <v>1948200</v>
+        <v>2555300</v>
       </c>
       <c r="I49" s="3">
-        <v>2236900</v>
+        <v>1974500</v>
       </c>
       <c r="J49" s="3">
+        <v>2267100</v>
+      </c>
+      <c r="K49" s="3">
         <v>1923800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2977000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3482900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5398000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2379100</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>901100</v>
+        <v>1282600</v>
       </c>
       <c r="E52" s="3">
-        <v>889700</v>
+        <v>913300</v>
       </c>
       <c r="F52" s="3">
-        <v>811500</v>
+        <v>901800</v>
       </c>
       <c r="G52" s="3">
-        <v>732300</v>
+        <v>822500</v>
       </c>
       <c r="H52" s="3">
-        <v>599900</v>
+        <v>742200</v>
       </c>
       <c r="I52" s="3">
-        <v>594700</v>
+        <v>608000</v>
       </c>
       <c r="J52" s="3">
+        <v>602700</v>
+      </c>
+      <c r="K52" s="3">
         <v>699100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>966700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>712300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>593000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>554300</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27497900</v>
+        <v>30735500</v>
       </c>
       <c r="E54" s="3">
-        <v>24910300</v>
+        <v>27869500</v>
       </c>
       <c r="F54" s="3">
-        <v>25559700</v>
+        <v>25246900</v>
       </c>
       <c r="G54" s="3">
-        <v>23819700</v>
+        <v>25905100</v>
       </c>
       <c r="H54" s="3">
-        <v>22000900</v>
+        <v>24141600</v>
       </c>
       <c r="I54" s="3">
-        <v>22634900</v>
+        <v>22298200</v>
       </c>
       <c r="J54" s="3">
+        <v>22940800</v>
+      </c>
+      <c r="K54" s="3">
         <v>21712500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28391400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31713600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>29028600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28876900</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1137500</v>
+        <v>862900</v>
       </c>
       <c r="E57" s="3">
-        <v>917400</v>
+        <v>1152900</v>
       </c>
       <c r="F57" s="3">
-        <v>965500</v>
+        <v>929800</v>
       </c>
       <c r="G57" s="3">
-        <v>915000</v>
+        <v>978600</v>
       </c>
       <c r="H57" s="3">
-        <v>1035500</v>
+        <v>927400</v>
       </c>
       <c r="I57" s="3">
-        <v>914600</v>
+        <v>1049500</v>
       </c>
       <c r="J57" s="3">
+        <v>927000</v>
+      </c>
+      <c r="K57" s="3">
         <v>954900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1008000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1562200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1531200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1471800</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1527500</v>
+        <v>1607200</v>
       </c>
       <c r="E58" s="3">
-        <v>1304900</v>
+        <v>1548100</v>
       </c>
       <c r="F58" s="3">
-        <v>1167800</v>
+        <v>1322500</v>
       </c>
       <c r="G58" s="3">
-        <v>1012700</v>
+        <v>1183600</v>
       </c>
       <c r="H58" s="3">
-        <v>1164400</v>
+        <v>1026400</v>
       </c>
       <c r="I58" s="3">
-        <v>1346800</v>
+        <v>1180100</v>
       </c>
       <c r="J58" s="3">
+        <v>1365000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1322600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2499700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2766600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2697300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1942700</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4788700</v>
+        <v>5554400</v>
       </c>
       <c r="E59" s="3">
-        <v>4580200</v>
+        <v>4853400</v>
       </c>
       <c r="F59" s="3">
-        <v>6139800</v>
+        <v>4642100</v>
       </c>
       <c r="G59" s="3">
-        <v>5019200</v>
+        <v>6222800</v>
       </c>
       <c r="H59" s="3">
-        <v>4811000</v>
+        <v>5087100</v>
       </c>
       <c r="I59" s="3">
-        <v>4743500</v>
+        <v>4876100</v>
       </c>
       <c r="J59" s="3">
+        <v>4807600</v>
+      </c>
+      <c r="K59" s="3">
         <v>4116100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4881500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5885200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5235600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4456100</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7453600</v>
+        <v>8024500</v>
       </c>
       <c r="E60" s="3">
-        <v>6802400</v>
+        <v>7554300</v>
       </c>
       <c r="F60" s="3">
-        <v>7509600</v>
+        <v>6894400</v>
       </c>
       <c r="G60" s="3">
-        <v>6946900</v>
+        <v>7611000</v>
       </c>
       <c r="H60" s="3">
-        <v>7010900</v>
+        <v>7040800</v>
       </c>
       <c r="I60" s="3">
-        <v>7004900</v>
+        <v>7105600</v>
       </c>
       <c r="J60" s="3">
+        <v>7099600</v>
+      </c>
+      <c r="K60" s="3">
         <v>6393500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8389200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10213900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9464100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7870600</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5574400</v>
+        <v>6776800</v>
       </c>
       <c r="E61" s="3">
-        <v>4955500</v>
+        <v>5649700</v>
       </c>
       <c r="F61" s="3">
-        <v>5129700</v>
+        <v>5022400</v>
       </c>
       <c r="G61" s="3">
-        <v>3907100</v>
+        <v>5199000</v>
       </c>
       <c r="H61" s="3">
-        <v>3781500</v>
+        <v>3959900</v>
       </c>
       <c r="I61" s="3">
-        <v>4662600</v>
+        <v>3832600</v>
       </c>
       <c r="J61" s="3">
+        <v>4725600</v>
+      </c>
+      <c r="K61" s="3">
         <v>5182800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8311500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7745800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6944000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8078500</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2210200</v>
+        <v>2123200</v>
       </c>
       <c r="E62" s="3">
-        <v>1644300</v>
+        <v>2240100</v>
       </c>
       <c r="F62" s="3">
-        <v>2017200</v>
+        <v>1666500</v>
       </c>
       <c r="G62" s="3">
-        <v>2064600</v>
+        <v>2044500</v>
       </c>
       <c r="H62" s="3">
-        <v>1432600</v>
+        <v>2092500</v>
       </c>
       <c r="I62" s="3">
-        <v>1499300</v>
+        <v>1452000</v>
       </c>
       <c r="J62" s="3">
+        <v>1519500</v>
+      </c>
+      <c r="K62" s="3">
         <v>1133700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1789200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2071800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1517400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1643700</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16415300</v>
+        <v>18276400</v>
       </c>
       <c r="E66" s="3">
-        <v>14541800</v>
+        <v>16637100</v>
       </c>
       <c r="F66" s="3">
-        <v>15448800</v>
+        <v>14738300</v>
       </c>
       <c r="G66" s="3">
-        <v>14049700</v>
+        <v>15657500</v>
       </c>
       <c r="H66" s="3">
-        <v>13254900</v>
+        <v>14239600</v>
       </c>
       <c r="I66" s="3">
-        <v>14167900</v>
+        <v>13434100</v>
       </c>
       <c r="J66" s="3">
+        <v>14359300</v>
+      </c>
+      <c r="K66" s="3">
         <v>13687100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19707300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21041400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18688900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18343100</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9832700</v>
+        <v>10693000</v>
       </c>
       <c r="E72" s="3">
-        <v>8995000</v>
+        <v>9965500</v>
       </c>
       <c r="F72" s="3">
-        <v>8609000</v>
+        <v>9116600</v>
       </c>
       <c r="G72" s="3">
-        <v>8383400</v>
+        <v>8725300</v>
       </c>
       <c r="H72" s="3">
-        <v>7391400</v>
+        <v>8496600</v>
       </c>
       <c r="I72" s="3">
-        <v>7145800</v>
+        <v>7491300</v>
       </c>
       <c r="J72" s="3">
+        <v>7242400</v>
+      </c>
+      <c r="K72" s="3">
         <v>6703900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7197500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9117600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17885900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9197700</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11082600</v>
+        <v>12459100</v>
       </c>
       <c r="E76" s="3">
-        <v>10368500</v>
+        <v>11232400</v>
       </c>
       <c r="F76" s="3">
-        <v>10110900</v>
+        <v>10508600</v>
       </c>
       <c r="G76" s="3">
-        <v>9770000</v>
+        <v>10247500</v>
       </c>
       <c r="H76" s="3">
-        <v>8745900</v>
+        <v>9902000</v>
       </c>
       <c r="I76" s="3">
-        <v>8467000</v>
+        <v>8864100</v>
       </c>
       <c r="J76" s="3">
+        <v>8581500</v>
+      </c>
+      <c r="K76" s="3">
         <v>8025400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8684100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10672200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10339700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10533800</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1002400</v>
+        <v>946900</v>
       </c>
       <c r="E81" s="3">
-        <v>486900</v>
+        <v>1015900</v>
       </c>
       <c r="F81" s="3">
-        <v>455700</v>
+        <v>493500</v>
       </c>
       <c r="G81" s="3">
-        <v>509500</v>
+        <v>461800</v>
       </c>
       <c r="H81" s="3">
-        <v>352800</v>
+        <v>516300</v>
       </c>
       <c r="I81" s="3">
-        <v>526200</v>
+        <v>357600</v>
       </c>
       <c r="J81" s="3">
+        <v>533300</v>
+      </c>
+      <c r="K81" s="3">
         <v>409200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-886200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-172800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>878700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1300400</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>2699000</v>
+      <c r="D83" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E83" s="3">
-        <v>2714000</v>
+        <v>2735500</v>
       </c>
       <c r="F83" s="3">
-        <v>2723600</v>
+        <v>2750700</v>
       </c>
       <c r="G83" s="3">
-        <v>2490100</v>
+        <v>2760400</v>
       </c>
       <c r="H83" s="3">
-        <v>2543900</v>
+        <v>2523700</v>
       </c>
       <c r="I83" s="3">
-        <v>2531900</v>
+        <v>2578300</v>
       </c>
       <c r="J83" s="3">
+        <v>2566100</v>
+      </c>
+      <c r="K83" s="3">
         <v>2693600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3238000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3294900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2783600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2696800</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>4115800</v>
+      <c r="D89" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E89" s="3">
-        <v>3507500</v>
+        <v>4171400</v>
       </c>
       <c r="F89" s="3">
-        <v>2771400</v>
+        <v>3554900</v>
       </c>
       <c r="G89" s="3">
-        <v>2967700</v>
+        <v>2808900</v>
       </c>
       <c r="H89" s="3">
-        <v>2869500</v>
+        <v>3007800</v>
       </c>
       <c r="I89" s="3">
-        <v>3530400</v>
+        <v>2908300</v>
       </c>
       <c r="J89" s="3">
+        <v>3578100</v>
+      </c>
+      <c r="K89" s="3">
         <v>3130200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1609800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3741100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4809400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1947600</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-2589500</v>
+      <c r="D91" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E91" s="3">
-        <v>-2377900</v>
+        <v>-2624500</v>
       </c>
       <c r="F91" s="3">
-        <v>-2419500</v>
+        <v>-2410000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1673100</v>
+        <v>-2452200</v>
       </c>
       <c r="H91" s="3">
-        <v>-1807200</v>
+        <v>-1695700</v>
       </c>
       <c r="I91" s="3">
-        <v>-2045600</v>
+        <v>-1831700</v>
       </c>
       <c r="J91" s="3">
+        <v>-2073300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2305600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2396400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2810200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3158600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3155000</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-3801700</v>
+      <c r="D94" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E94" s="3">
-        <v>-2783500</v>
+        <v>-3853100</v>
       </c>
       <c r="F94" s="3">
-        <v>-2876700</v>
+        <v>-2821100</v>
       </c>
       <c r="G94" s="3">
-        <v>-2001100</v>
+        <v>-2915600</v>
       </c>
       <c r="H94" s="3">
-        <v>-2577600</v>
+        <v>-2028100</v>
       </c>
       <c r="I94" s="3">
-        <v>-2578900</v>
+        <v>-2612400</v>
       </c>
       <c r="J94" s="3">
+        <v>-2613700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1777400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2663600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3442200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3235000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2399100</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-259200</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-229800</v>
+        <v>-262800</v>
       </c>
       <c r="F96" s="3">
-        <v>-225800</v>
+        <v>-232900</v>
       </c>
       <c r="G96" s="3">
-        <v>-221000</v>
+        <v>-228900</v>
       </c>
       <c r="H96" s="3">
-        <v>-179900</v>
+        <v>-224000</v>
       </c>
       <c r="I96" s="3">
-        <v>-136200</v>
+        <v>-182400</v>
       </c>
       <c r="J96" s="3">
+        <v>-138100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-30800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-187100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-465300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-827100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1063400</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-30500</v>
+      <c r="D100" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E100" s="3">
-        <v>-479200</v>
+        <v>-31000</v>
       </c>
       <c r="F100" s="3">
-        <v>-184800</v>
+        <v>-485700</v>
       </c>
       <c r="G100" s="3">
-        <v>-393400</v>
+        <v>-187300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1009000</v>
+        <v>-398800</v>
       </c>
       <c r="I100" s="3">
-        <v>-698000</v>
+        <v>-1022600</v>
       </c>
       <c r="J100" s="3">
+        <v>-707500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-861400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>900200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-283700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1073400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>695200</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" s="3">
         <v>1400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
-        <v>-2300</v>
-      </c>
       <c r="I101" s="3">
-        <v>-1200</v>
+        <v>-2400</v>
       </c>
       <c r="J101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K101" s="3">
         <v>5000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>11500</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>284900</v>
+      <c r="D102" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E102" s="3">
-        <v>243300</v>
+        <v>288700</v>
       </c>
       <c r="F102" s="3">
-        <v>-294200</v>
+        <v>246500</v>
       </c>
       <c r="G102" s="3">
-        <v>573700</v>
+        <v>-298100</v>
       </c>
       <c r="H102" s="3">
-        <v>-719400</v>
+        <v>581400</v>
       </c>
       <c r="I102" s="3">
-        <v>252200</v>
+        <v>-729100</v>
       </c>
       <c r="J102" s="3">
+        <v>255600</v>
+      </c>
+      <c r="K102" s="3">
         <v>496400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-153100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>500200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>255200</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/KT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KT_YR_FIN.xlsx
@@ -1200,22 +1200,22 @@
         <v>24</v>
       </c>
       <c r="E21" s="3">
-        <v>4453300</v>
+        <v>4416900</v>
       </c>
       <c r="F21" s="3">
-        <v>3716400</v>
+        <v>3679700</v>
       </c>
       <c r="G21" s="3">
-        <v>3738200</v>
+        <v>3701400</v>
       </c>
       <c r="H21" s="3">
-        <v>3598100</v>
+        <v>3564400</v>
       </c>
       <c r="I21" s="3">
-        <v>3467300</v>
+        <v>3432900</v>
       </c>
       <c r="J21" s="3">
-        <v>3698500</v>
+        <v>3664300</v>
       </c>
       <c r="K21" s="3">
         <v>3475200</v>

--- a/AAII_Financials/Yearly/KT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KT_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19237500</v>
+        <v>19750500</v>
       </c>
       <c r="E8" s="3">
-        <v>18673500</v>
+        <v>19171500</v>
       </c>
       <c r="F8" s="3">
-        <v>17937500</v>
+        <v>18415800</v>
       </c>
       <c r="G8" s="3">
-        <v>18256500</v>
+        <v>18743400</v>
       </c>
       <c r="H8" s="3">
-        <v>17595100</v>
+        <v>18064300</v>
       </c>
       <c r="I8" s="3">
-        <v>17540500</v>
+        <v>18008200</v>
       </c>
       <c r="J8" s="3">
-        <v>17057700</v>
+        <v>17512600</v>
       </c>
       <c r="K8" s="3">
         <v>16488100</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7191600</v>
+        <v>7383400</v>
       </c>
       <c r="E9" s="3">
-        <v>7413200</v>
+        <v>7610900</v>
       </c>
       <c r="F9" s="3">
-        <v>7242000</v>
+        <v>7435100</v>
       </c>
       <c r="G9" s="3">
-        <v>7641100</v>
+        <v>7844800</v>
       </c>
       <c r="H9" s="3">
-        <v>7080900</v>
+        <v>7269700</v>
       </c>
       <c r="I9" s="3">
-        <v>6933200</v>
+        <v>7118100</v>
       </c>
       <c r="J9" s="3">
-        <v>6636300</v>
+        <v>6813300</v>
       </c>
       <c r="K9" s="3">
         <v>6518700</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12045900</v>
+        <v>12367100</v>
       </c>
       <c r="E10" s="3">
-        <v>11260300</v>
+        <v>11560600</v>
       </c>
       <c r="F10" s="3">
-        <v>10695500</v>
+        <v>10980700</v>
       </c>
       <c r="G10" s="3">
-        <v>10615500</v>
+        <v>10898600</v>
       </c>
       <c r="H10" s="3">
-        <v>10514200</v>
+        <v>10794600</v>
       </c>
       <c r="I10" s="3">
-        <v>10607300</v>
+        <v>10890100</v>
       </c>
       <c r="J10" s="3">
-        <v>10421400</v>
+        <v>10699400</v>
       </c>
       <c r="K10" s="3">
         <v>9969400</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>131200</v>
+        <v>134700</v>
       </c>
       <c r="E12" s="3">
-        <v>126700</v>
+        <v>130100</v>
       </c>
       <c r="F12" s="3">
-        <v>117700</v>
+        <v>120800</v>
       </c>
       <c r="G12" s="3">
-        <v>123800</v>
+        <v>127100</v>
       </c>
       <c r="H12" s="3">
-        <v>132600</v>
+        <v>136100</v>
       </c>
       <c r="I12" s="3">
-        <v>126500</v>
+        <v>129800</v>
       </c>
       <c r="J12" s="3">
-        <v>125900</v>
+        <v>129300</v>
       </c>
       <c r="K12" s="3">
         <v>136000</v>
@@ -954,25 +954,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-275600</v>
+        <v>-282900</v>
       </c>
       <c r="E14" s="3">
-        <v>-97200</v>
+        <v>-99800</v>
       </c>
       <c r="F14" s="3">
-        <v>92400</v>
+        <v>94900</v>
       </c>
       <c r="G14" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="H14" s="3">
-        <v>-57000</v>
+        <v>-58500</v>
       </c>
       <c r="I14" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="J14" s="3">
-        <v>39800</v>
+        <v>40800</v>
       </c>
       <c r="K14" s="3">
         <v>115900</v>
@@ -996,25 +996,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>2741900</v>
+        <v>2815000</v>
       </c>
       <c r="E15" s="3">
-        <v>2705700</v>
+        <v>2777900</v>
       </c>
       <c r="F15" s="3">
-        <v>2725700</v>
+        <v>2798400</v>
       </c>
       <c r="G15" s="3">
-        <v>2722100</v>
+        <v>2794700</v>
       </c>
       <c r="H15" s="3">
-        <v>2461300</v>
+        <v>2526900</v>
       </c>
       <c r="I15" s="3">
-        <v>2523400</v>
+        <v>2590700</v>
       </c>
       <c r="J15" s="3">
-        <v>2508900</v>
+        <v>2575900</v>
       </c>
       <c r="K15" s="3">
         <v>2470600</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>17694400</v>
+        <v>18166200</v>
       </c>
       <c r="E17" s="3">
-        <v>17322400</v>
+        <v>17784400</v>
       </c>
       <c r="F17" s="3">
-        <v>17141900</v>
+        <v>17599000</v>
       </c>
       <c r="G17" s="3">
-        <v>17383100</v>
+        <v>17846600</v>
       </c>
       <c r="H17" s="3">
-        <v>16592000</v>
+        <v>17034400</v>
       </c>
       <c r="I17" s="3">
-        <v>16503300</v>
+        <v>16943400</v>
       </c>
       <c r="J17" s="3">
-        <v>16017500</v>
+        <v>16444700</v>
       </c>
       <c r="K17" s="3">
         <v>15647200</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1543100</v>
+        <v>1584300</v>
       </c>
       <c r="E18" s="3">
-        <v>1351100</v>
+        <v>1387100</v>
       </c>
       <c r="F18" s="3">
-        <v>795600</v>
+        <v>816900</v>
       </c>
       <c r="G18" s="3">
-        <v>873500</v>
+        <v>896800</v>
       </c>
       <c r="H18" s="3">
-        <v>1003100</v>
+        <v>1029900</v>
       </c>
       <c r="I18" s="3">
-        <v>1037100</v>
+        <v>1064800</v>
       </c>
       <c r="J18" s="3">
-        <v>1040200</v>
+        <v>1067900</v>
       </c>
       <c r="K18" s="3">
         <v>840900</v>
@@ -1155,25 +1155,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>97800</v>
+        <v>100400</v>
       </c>
       <c r="E20" s="3">
-        <v>330300</v>
+        <v>339100</v>
       </c>
       <c r="F20" s="3">
-        <v>133300</v>
+        <v>136900</v>
       </c>
       <c r="G20" s="3">
-        <v>67500</v>
+        <v>69300</v>
       </c>
       <c r="H20" s="3">
-        <v>37600</v>
+        <v>38600</v>
       </c>
       <c r="I20" s="3">
-        <v>-182500</v>
+        <v>-187400</v>
       </c>
       <c r="J20" s="3">
-        <v>58000</v>
+        <v>59500</v>
       </c>
       <c r="K20" s="3">
         <v>-22900</v>
@@ -1200,22 +1200,22 @@
         <v>24</v>
       </c>
       <c r="E21" s="3">
-        <v>4416900</v>
+        <v>4534600</v>
       </c>
       <c r="F21" s="3">
-        <v>3679700</v>
+        <v>3777800</v>
       </c>
       <c r="G21" s="3">
-        <v>3701400</v>
+        <v>3800100</v>
       </c>
       <c r="H21" s="3">
-        <v>3564400</v>
+        <v>3659500</v>
       </c>
       <c r="I21" s="3">
-        <v>3432900</v>
+        <v>3524400</v>
       </c>
       <c r="J21" s="3">
-        <v>3664300</v>
+        <v>3762000</v>
       </c>
       <c r="K21" s="3">
         <v>3475200</v>
@@ -1239,25 +1239,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>220400</v>
+        <v>226300</v>
       </c>
       <c r="E22" s="3">
-        <v>197500</v>
+        <v>202800</v>
       </c>
       <c r="F22" s="3">
-        <v>197700</v>
+        <v>203000</v>
       </c>
       <c r="G22" s="3">
-        <v>208800</v>
+        <v>214400</v>
       </c>
       <c r="H22" s="3">
-        <v>222700</v>
+        <v>228600</v>
       </c>
       <c r="I22" s="3">
-        <v>226800</v>
+        <v>232900</v>
       </c>
       <c r="J22" s="3">
-        <v>252900</v>
+        <v>259700</v>
       </c>
       <c r="K22" s="3">
         <v>285600</v>
@@ -1281,25 +1281,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1420600</v>
+        <v>1458400</v>
       </c>
       <c r="E23" s="3">
-        <v>1483800</v>
+        <v>1523400</v>
       </c>
       <c r="F23" s="3">
-        <v>731300</v>
+        <v>750800</v>
       </c>
       <c r="G23" s="3">
-        <v>732200</v>
+        <v>751700</v>
       </c>
       <c r="H23" s="3">
-        <v>818100</v>
+        <v>839900</v>
       </c>
       <c r="I23" s="3">
-        <v>627800</v>
+        <v>644500</v>
       </c>
       <c r="J23" s="3">
-        <v>845300</v>
+        <v>867800</v>
       </c>
       <c r="K23" s="3">
         <v>532400</v>
@@ -1323,25 +1323,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>379800</v>
+        <v>389900</v>
       </c>
       <c r="E24" s="3">
-        <v>389300</v>
+        <v>399600</v>
       </c>
       <c r="F24" s="3">
-        <v>203700</v>
+        <v>209200</v>
       </c>
       <c r="G24" s="3">
-        <v>232700</v>
+        <v>239000</v>
       </c>
       <c r="H24" s="3">
-        <v>246300</v>
+        <v>252900</v>
       </c>
       <c r="I24" s="3">
-        <v>206600</v>
+        <v>212100</v>
       </c>
       <c r="J24" s="3">
-        <v>246900</v>
+        <v>253500</v>
       </c>
       <c r="K24" s="3">
         <v>169600</v>
@@ -1407,25 +1407,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1040700</v>
+        <v>1068500</v>
       </c>
       <c r="E26" s="3">
-        <v>1094500</v>
+        <v>1123700</v>
       </c>
       <c r="F26" s="3">
-        <v>527500</v>
+        <v>541600</v>
       </c>
       <c r="G26" s="3">
-        <v>499500</v>
+        <v>512800</v>
       </c>
       <c r="H26" s="3">
-        <v>571700</v>
+        <v>587000</v>
       </c>
       <c r="I26" s="3">
-        <v>421100</v>
+        <v>432400</v>
       </c>
       <c r="J26" s="3">
-        <v>598400</v>
+        <v>614300</v>
       </c>
       <c r="K26" s="3">
         <v>362800</v>
@@ -1449,25 +1449,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>946900</v>
+        <v>972100</v>
       </c>
       <c r="E27" s="3">
-        <v>1015900</v>
+        <v>1043000</v>
       </c>
       <c r="F27" s="3">
-        <v>493500</v>
+        <v>506700</v>
       </c>
       <c r="G27" s="3">
-        <v>461800</v>
+        <v>474100</v>
       </c>
       <c r="H27" s="3">
-        <v>516300</v>
+        <v>530100</v>
       </c>
       <c r="I27" s="3">
-        <v>357600</v>
+        <v>367100</v>
       </c>
       <c r="J27" s="3">
-        <v>598400</v>
+        <v>614300</v>
       </c>
       <c r="K27" s="3">
         <v>303900</v>
@@ -1551,7 +1551,7 @@
         <v>24</v>
       </c>
       <c r="J29" s="3">
-        <v>-65100</v>
+        <v>-66800</v>
       </c>
       <c r="K29" s="3">
         <v>105300</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-97800</v>
+        <v>-100400</v>
       </c>
       <c r="E32" s="3">
-        <v>-330300</v>
+        <v>-339100</v>
       </c>
       <c r="F32" s="3">
-        <v>-133300</v>
+        <v>-136900</v>
       </c>
       <c r="G32" s="3">
-        <v>-67500</v>
+        <v>-69300</v>
       </c>
       <c r="H32" s="3">
-        <v>-37600</v>
+        <v>-38600</v>
       </c>
       <c r="I32" s="3">
-        <v>182500</v>
+        <v>187400</v>
       </c>
       <c r="J32" s="3">
-        <v>-58000</v>
+        <v>-59500</v>
       </c>
       <c r="K32" s="3">
         <v>22900</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>946900</v>
+        <v>972100</v>
       </c>
       <c r="E33" s="3">
-        <v>1015900</v>
+        <v>1043000</v>
       </c>
       <c r="F33" s="3">
-        <v>493500</v>
+        <v>506700</v>
       </c>
       <c r="G33" s="3">
-        <v>461800</v>
+        <v>474100</v>
       </c>
       <c r="H33" s="3">
-        <v>516300</v>
+        <v>530100</v>
       </c>
       <c r="I33" s="3">
-        <v>357600</v>
+        <v>367100</v>
       </c>
       <c r="J33" s="3">
-        <v>533300</v>
+        <v>547500</v>
       </c>
       <c r="K33" s="3">
         <v>409200</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>946900</v>
+        <v>972100</v>
       </c>
       <c r="E35" s="3">
-        <v>1015900</v>
+        <v>1043000</v>
       </c>
       <c r="F35" s="3">
-        <v>493500</v>
+        <v>506700</v>
       </c>
       <c r="G35" s="3">
-        <v>461800</v>
+        <v>474100</v>
       </c>
       <c r="H35" s="3">
-        <v>516300</v>
+        <v>530100</v>
       </c>
       <c r="I35" s="3">
-        <v>357600</v>
+        <v>367100</v>
       </c>
       <c r="J35" s="3">
-        <v>533300</v>
+        <v>547500</v>
       </c>
       <c r="K35" s="3">
         <v>409200</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1836800</v>
+        <v>1885800</v>
       </c>
       <c r="E41" s="3">
-        <v>2264700</v>
+        <v>2325100</v>
       </c>
       <c r="F41" s="3">
-        <v>1976000</v>
+        <v>2028700</v>
       </c>
       <c r="G41" s="3">
-        <v>1729400</v>
+        <v>1775500</v>
       </c>
       <c r="H41" s="3">
-        <v>2027600</v>
+        <v>2081600</v>
       </c>
       <c r="I41" s="3">
-        <v>1446100</v>
+        <v>1484700</v>
       </c>
       <c r="J41" s="3">
-        <v>2175200</v>
+        <v>2233200</v>
       </c>
       <c r="K41" s="3">
         <v>1894000</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>991800</v>
+        <v>1018300</v>
       </c>
       <c r="E42" s="3">
-        <v>889200</v>
+        <v>913000</v>
       </c>
       <c r="F42" s="3">
-        <v>902100</v>
+        <v>926200</v>
       </c>
       <c r="G42" s="3">
-        <v>651300</v>
+        <v>668700</v>
       </c>
       <c r="H42" s="3">
-        <v>746100</v>
+        <v>766000</v>
       </c>
       <c r="I42" s="3">
-        <v>729500</v>
+        <v>748900</v>
       </c>
       <c r="J42" s="3">
-        <v>540400</v>
+        <v>554800</v>
       </c>
       <c r="K42" s="3">
         <v>216800</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4574700</v>
+        <v>4696700</v>
       </c>
       <c r="E43" s="3">
-        <v>3820100</v>
+        <v>3922000</v>
       </c>
       <c r="F43" s="3">
-        <v>3678400</v>
+        <v>3776500</v>
       </c>
       <c r="G43" s="3">
-        <v>4480900</v>
+        <v>4600400</v>
       </c>
       <c r="H43" s="3">
-        <v>4358600</v>
+        <v>4474800</v>
       </c>
       <c r="I43" s="3">
-        <v>4501300</v>
+        <v>4621400</v>
       </c>
       <c r="J43" s="3">
-        <v>4000000</v>
+        <v>4106700</v>
       </c>
       <c r="K43" s="3">
         <v>3617500</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>531900</v>
+        <v>546100</v>
       </c>
       <c r="E44" s="3">
-        <v>385600</v>
+        <v>395900</v>
       </c>
       <c r="F44" s="3">
-        <v>401000</v>
+        <v>411700</v>
       </c>
       <c r="G44" s="3">
-        <v>499100</v>
+        <v>512400</v>
       </c>
       <c r="H44" s="3">
-        <v>513000</v>
+        <v>526700</v>
       </c>
       <c r="I44" s="3">
-        <v>343300</v>
+        <v>352400</v>
       </c>
       <c r="J44" s="3">
-        <v>283500</v>
+        <v>291000</v>
       </c>
       <c r="K44" s="3">
         <v>388800</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1575900</v>
+        <v>1617900</v>
       </c>
       <c r="E45" s="3">
-        <v>1534100</v>
+        <v>1575000</v>
       </c>
       <c r="F45" s="3">
-        <v>1408200</v>
+        <v>1445700</v>
       </c>
       <c r="G45" s="3">
-        <v>1562200</v>
+        <v>1603800</v>
       </c>
       <c r="H45" s="3">
-        <v>1275400</v>
+        <v>1309400</v>
       </c>
       <c r="I45" s="3">
-        <v>234100</v>
+        <v>240300</v>
       </c>
       <c r="J45" s="3">
-        <v>233400</v>
+        <v>239600</v>
       </c>
       <c r="K45" s="3">
         <v>234500</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9511100</v>
+        <v>9764800</v>
       </c>
       <c r="E46" s="3">
-        <v>8893800</v>
+        <v>9130900</v>
       </c>
       <c r="F46" s="3">
-        <v>8365600</v>
+        <v>8588700</v>
       </c>
       <c r="G46" s="3">
-        <v>8922900</v>
+        <v>9160900</v>
       </c>
       <c r="H46" s="3">
-        <v>8920700</v>
+        <v>9158600</v>
       </c>
       <c r="I46" s="3">
-        <v>7254300</v>
+        <v>7447800</v>
       </c>
       <c r="J46" s="3">
-        <v>7232500</v>
+        <v>7425300</v>
       </c>
       <c r="K46" s="3">
         <v>6351600</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4104900</v>
+        <v>4214400</v>
       </c>
       <c r="E47" s="3">
-        <v>2401600</v>
+        <v>2465600</v>
       </c>
       <c r="F47" s="3">
-        <v>1764700</v>
+        <v>1811800</v>
       </c>
       <c r="G47" s="3">
-        <v>1703300</v>
+        <v>1748800</v>
       </c>
       <c r="H47" s="3">
-        <v>1303900</v>
+        <v>1338700</v>
       </c>
       <c r="I47" s="3">
-        <v>1397400</v>
+        <v>1434700</v>
       </c>
       <c r="J47" s="3">
-        <v>1243400</v>
+        <v>1276500</v>
       </c>
       <c r="K47" s="3">
         <v>1208000</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13489400</v>
+        <v>13849100</v>
       </c>
       <c r="E48" s="3">
-        <v>13075400</v>
+        <v>13424100</v>
       </c>
       <c r="F48" s="3">
-        <v>12593800</v>
+        <v>12929600</v>
       </c>
       <c r="G48" s="3">
-        <v>12330800</v>
+        <v>12659600</v>
       </c>
       <c r="H48" s="3">
-        <v>10619500</v>
+        <v>10902700</v>
       </c>
       <c r="I48" s="3">
-        <v>11063900</v>
+        <v>11358900</v>
       </c>
       <c r="J48" s="3">
-        <v>11595100</v>
+        <v>11904300</v>
       </c>
       <c r="K48" s="3">
         <v>11529900</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2347400</v>
+        <v>2410000</v>
       </c>
       <c r="E49" s="3">
-        <v>2585500</v>
+        <v>2654400</v>
       </c>
       <c r="F49" s="3">
-        <v>1620900</v>
+        <v>1664200</v>
       </c>
       <c r="G49" s="3">
-        <v>2125500</v>
+        <v>2182200</v>
       </c>
       <c r="H49" s="3">
-        <v>2555300</v>
+        <v>2623500</v>
       </c>
       <c r="I49" s="3">
-        <v>1974500</v>
+        <v>2027200</v>
       </c>
       <c r="J49" s="3">
-        <v>2267100</v>
+        <v>2327600</v>
       </c>
       <c r="K49" s="3">
         <v>1923800</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1282600</v>
+        <v>1316800</v>
       </c>
       <c r="E52" s="3">
-        <v>913300</v>
+        <v>937600</v>
       </c>
       <c r="F52" s="3">
-        <v>901800</v>
+        <v>925800</v>
       </c>
       <c r="G52" s="3">
-        <v>822500</v>
+        <v>844400</v>
       </c>
       <c r="H52" s="3">
-        <v>742200</v>
+        <v>761900</v>
       </c>
       <c r="I52" s="3">
-        <v>608000</v>
+        <v>624200</v>
       </c>
       <c r="J52" s="3">
-        <v>602700</v>
+        <v>618800</v>
       </c>
       <c r="K52" s="3">
         <v>699100</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30735500</v>
+        <v>31555100</v>
       </c>
       <c r="E54" s="3">
-        <v>27869500</v>
+        <v>28612700</v>
       </c>
       <c r="F54" s="3">
-        <v>25246900</v>
+        <v>25920200</v>
       </c>
       <c r="G54" s="3">
-        <v>25905100</v>
+        <v>26595900</v>
       </c>
       <c r="H54" s="3">
-        <v>24141600</v>
+        <v>24785400</v>
       </c>
       <c r="I54" s="3">
-        <v>22298200</v>
+        <v>22892800</v>
       </c>
       <c r="J54" s="3">
-        <v>22940800</v>
+        <v>23552600</v>
       </c>
       <c r="K54" s="3">
         <v>21712500</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>862900</v>
+        <v>885900</v>
       </c>
       <c r="E57" s="3">
-        <v>1152900</v>
+        <v>1183600</v>
       </c>
       <c r="F57" s="3">
-        <v>929800</v>
+        <v>954600</v>
       </c>
       <c r="G57" s="3">
-        <v>978600</v>
+        <v>1004700</v>
       </c>
       <c r="H57" s="3">
-        <v>927400</v>
+        <v>952100</v>
       </c>
       <c r="I57" s="3">
-        <v>1049500</v>
+        <v>1077500</v>
       </c>
       <c r="J57" s="3">
-        <v>927000</v>
+        <v>951700</v>
       </c>
       <c r="K57" s="3">
         <v>954900</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1607200</v>
+        <v>1650100</v>
       </c>
       <c r="E58" s="3">
-        <v>1548100</v>
+        <v>1589400</v>
       </c>
       <c r="F58" s="3">
-        <v>1322500</v>
+        <v>1357800</v>
       </c>
       <c r="G58" s="3">
-        <v>1183600</v>
+        <v>1215200</v>
       </c>
       <c r="H58" s="3">
-        <v>1026400</v>
+        <v>1053700</v>
       </c>
       <c r="I58" s="3">
-        <v>1180100</v>
+        <v>1211600</v>
       </c>
       <c r="J58" s="3">
-        <v>1365000</v>
+        <v>1401400</v>
       </c>
       <c r="K58" s="3">
         <v>1322600</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5554400</v>
+        <v>5702500</v>
       </c>
       <c r="E59" s="3">
-        <v>4853400</v>
+        <v>4982800</v>
       </c>
       <c r="F59" s="3">
-        <v>4642100</v>
+        <v>4765900</v>
       </c>
       <c r="G59" s="3">
-        <v>6222800</v>
+        <v>6388700</v>
       </c>
       <c r="H59" s="3">
-        <v>5087100</v>
+        <v>5222700</v>
       </c>
       <c r="I59" s="3">
-        <v>4876100</v>
+        <v>5006100</v>
       </c>
       <c r="J59" s="3">
-        <v>4807600</v>
+        <v>4935800</v>
       </c>
       <c r="K59" s="3">
         <v>4116100</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8024500</v>
+        <v>8238400</v>
       </c>
       <c r="E60" s="3">
-        <v>7554300</v>
+        <v>7755800</v>
       </c>
       <c r="F60" s="3">
-        <v>6894400</v>
+        <v>7078200</v>
       </c>
       <c r="G60" s="3">
-        <v>7611000</v>
+        <v>7814000</v>
       </c>
       <c r="H60" s="3">
-        <v>7040800</v>
+        <v>7228500</v>
       </c>
       <c r="I60" s="3">
-        <v>7105600</v>
+        <v>7295100</v>
       </c>
       <c r="J60" s="3">
-        <v>7099600</v>
+        <v>7288900</v>
       </c>
       <c r="K60" s="3">
         <v>6393500</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6776800</v>
+        <v>6957600</v>
       </c>
       <c r="E61" s="3">
-        <v>5649700</v>
+        <v>5800400</v>
       </c>
       <c r="F61" s="3">
-        <v>5022400</v>
+        <v>5156400</v>
       </c>
       <c r="G61" s="3">
-        <v>5199000</v>
+        <v>5337700</v>
       </c>
       <c r="H61" s="3">
-        <v>3959900</v>
+        <v>4065500</v>
       </c>
       <c r="I61" s="3">
-        <v>3832600</v>
+        <v>3934800</v>
       </c>
       <c r="J61" s="3">
-        <v>4725600</v>
+        <v>4851600</v>
       </c>
       <c r="K61" s="3">
         <v>5182800</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2123200</v>
+        <v>2179800</v>
       </c>
       <c r="E62" s="3">
-        <v>2240100</v>
+        <v>2299800</v>
       </c>
       <c r="F62" s="3">
-        <v>1666500</v>
+        <v>1711000</v>
       </c>
       <c r="G62" s="3">
-        <v>2044500</v>
+        <v>2099000</v>
       </c>
       <c r="H62" s="3">
-        <v>2092500</v>
+        <v>2148300</v>
       </c>
       <c r="I62" s="3">
-        <v>1452000</v>
+        <v>1490700</v>
       </c>
       <c r="J62" s="3">
-        <v>1519500</v>
+        <v>1560000</v>
       </c>
       <c r="K62" s="3">
         <v>1133700</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18276400</v>
+        <v>18763800</v>
       </c>
       <c r="E66" s="3">
-        <v>16637100</v>
+        <v>17080800</v>
       </c>
       <c r="F66" s="3">
-        <v>14738300</v>
+        <v>15131300</v>
       </c>
       <c r="G66" s="3">
-        <v>15657500</v>
+        <v>16075100</v>
       </c>
       <c r="H66" s="3">
-        <v>14239600</v>
+        <v>14619300</v>
       </c>
       <c r="I66" s="3">
-        <v>13434100</v>
+        <v>13792300</v>
       </c>
       <c r="J66" s="3">
-        <v>14359300</v>
+        <v>14742300</v>
       </c>
       <c r="K66" s="3">
         <v>13687100</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10693000</v>
+        <v>10978200</v>
       </c>
       <c r="E72" s="3">
-        <v>9965500</v>
+        <v>10231300</v>
       </c>
       <c r="F72" s="3">
-        <v>9116600</v>
+        <v>9359700</v>
       </c>
       <c r="G72" s="3">
-        <v>8725300</v>
+        <v>8958000</v>
       </c>
       <c r="H72" s="3">
-        <v>8496600</v>
+        <v>8723200</v>
       </c>
       <c r="I72" s="3">
-        <v>7491300</v>
+        <v>7691100</v>
       </c>
       <c r="J72" s="3">
-        <v>7242400</v>
+        <v>7435500</v>
       </c>
       <c r="K72" s="3">
         <v>6703900</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12459100</v>
+        <v>12791400</v>
       </c>
       <c r="E76" s="3">
-        <v>11232400</v>
+        <v>11531900</v>
       </c>
       <c r="F76" s="3">
-        <v>10508600</v>
+        <v>10788800</v>
       </c>
       <c r="G76" s="3">
-        <v>10247500</v>
+        <v>10520800</v>
       </c>
       <c r="H76" s="3">
-        <v>9902000</v>
+        <v>10166100</v>
       </c>
       <c r="I76" s="3">
-        <v>8864100</v>
+        <v>9100500</v>
       </c>
       <c r="J76" s="3">
-        <v>8581500</v>
+        <v>8810300</v>
       </c>
       <c r="K76" s="3">
         <v>8025400</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>946900</v>
+        <v>972100</v>
       </c>
       <c r="E81" s="3">
-        <v>1015900</v>
+        <v>1043000</v>
       </c>
       <c r="F81" s="3">
-        <v>493500</v>
+        <v>506700</v>
       </c>
       <c r="G81" s="3">
-        <v>461800</v>
+        <v>474100</v>
       </c>
       <c r="H81" s="3">
-        <v>516300</v>
+        <v>530100</v>
       </c>
       <c r="I81" s="3">
-        <v>357600</v>
+        <v>367100</v>
       </c>
       <c r="J81" s="3">
-        <v>533300</v>
+        <v>547500</v>
       </c>
       <c r="K81" s="3">
         <v>409200</v>
@@ -3502,22 +3502,22 @@
         <v>24</v>
       </c>
       <c r="E83" s="3">
-        <v>2735500</v>
+        <v>2808500</v>
       </c>
       <c r="F83" s="3">
-        <v>2750700</v>
+        <v>2824100</v>
       </c>
       <c r="G83" s="3">
-        <v>2760400</v>
+        <v>2834000</v>
       </c>
       <c r="H83" s="3">
-        <v>2523700</v>
+        <v>2591000</v>
       </c>
       <c r="I83" s="3">
-        <v>2578300</v>
+        <v>2647000</v>
       </c>
       <c r="J83" s="3">
-        <v>2566100</v>
+        <v>2634600</v>
       </c>
       <c r="K83" s="3">
         <v>2693600</v>
@@ -3754,22 +3754,22 @@
         <v>24</v>
       </c>
       <c r="E89" s="3">
-        <v>4171400</v>
+        <v>4282600</v>
       </c>
       <c r="F89" s="3">
-        <v>3554900</v>
+        <v>3649700</v>
       </c>
       <c r="G89" s="3">
-        <v>2808900</v>
+        <v>2883800</v>
       </c>
       <c r="H89" s="3">
-        <v>3007800</v>
+        <v>3088100</v>
       </c>
       <c r="I89" s="3">
-        <v>2908300</v>
+        <v>2985900</v>
       </c>
       <c r="J89" s="3">
-        <v>3578100</v>
+        <v>3673500</v>
       </c>
       <c r="K89" s="3">
         <v>3130200</v>
@@ -3814,22 +3814,22 @@
         <v>24</v>
       </c>
       <c r="E91" s="3">
-        <v>-2624500</v>
+        <v>-2694400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2410000</v>
+        <v>-2474300</v>
       </c>
       <c r="G91" s="3">
-        <v>-2452200</v>
+        <v>-2517600</v>
       </c>
       <c r="H91" s="3">
-        <v>-1695700</v>
+        <v>-1740900</v>
       </c>
       <c r="I91" s="3">
-        <v>-1831700</v>
+        <v>-1880500</v>
       </c>
       <c r="J91" s="3">
-        <v>-2073300</v>
+        <v>-2128500</v>
       </c>
       <c r="K91" s="3">
         <v>-2305600</v>
@@ -3940,22 +3940,22 @@
         <v>24</v>
       </c>
       <c r="E94" s="3">
-        <v>-3853100</v>
+        <v>-3955900</v>
       </c>
       <c r="F94" s="3">
-        <v>-2821100</v>
+        <v>-2896300</v>
       </c>
       <c r="G94" s="3">
-        <v>-2915600</v>
+        <v>-2993400</v>
       </c>
       <c r="H94" s="3">
-        <v>-2028100</v>
+        <v>-2082200</v>
       </c>
       <c r="I94" s="3">
-        <v>-2612400</v>
+        <v>-2682100</v>
       </c>
       <c r="J94" s="3">
-        <v>-2613700</v>
+        <v>-2683400</v>
       </c>
       <c r="K94" s="3">
         <v>-1777400</v>
@@ -4000,22 +4000,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-262800</v>
+        <v>-269800</v>
       </c>
       <c r="F96" s="3">
-        <v>-232900</v>
+        <v>-239100</v>
       </c>
       <c r="G96" s="3">
-        <v>-228900</v>
+        <v>-235000</v>
       </c>
       <c r="H96" s="3">
-        <v>-224000</v>
+        <v>-229900</v>
       </c>
       <c r="I96" s="3">
-        <v>-182400</v>
+        <v>-187200</v>
       </c>
       <c r="J96" s="3">
-        <v>-138100</v>
+        <v>-141800</v>
       </c>
       <c r="K96" s="3">
         <v>-30800</v>
@@ -4168,22 +4168,22 @@
         <v>24</v>
       </c>
       <c r="E100" s="3">
-        <v>-31000</v>
+        <v>-31800</v>
       </c>
       <c r="F100" s="3">
-        <v>-485700</v>
+        <v>-498600</v>
       </c>
       <c r="G100" s="3">
-        <v>-187300</v>
+        <v>-192300</v>
       </c>
       <c r="H100" s="3">
-        <v>-398800</v>
+        <v>-409400</v>
       </c>
       <c r="I100" s="3">
-        <v>-1022600</v>
+        <v>-1049900</v>
       </c>
       <c r="J100" s="3">
-        <v>-707500</v>
+        <v>-726300</v>
       </c>
       <c r="K100" s="3">
         <v>-861400</v>
@@ -4210,13 +4210,13 @@
         <v>24</v>
       </c>
       <c r="E101" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F101" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="G101" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="H101" s="3">
         <v>400</v>
@@ -4252,22 +4252,22 @@
         <v>24</v>
       </c>
       <c r="E102" s="3">
-        <v>288700</v>
+        <v>296400</v>
       </c>
       <c r="F102" s="3">
-        <v>246500</v>
+        <v>253100</v>
       </c>
       <c r="G102" s="3">
-        <v>-298100</v>
+        <v>-306100</v>
       </c>
       <c r="H102" s="3">
-        <v>581400</v>
+        <v>596900</v>
       </c>
       <c r="I102" s="3">
-        <v>-729100</v>
+        <v>-748500</v>
       </c>
       <c r="J102" s="3">
-        <v>255600</v>
+        <v>262500</v>
       </c>
       <c r="K102" s="3">
         <v>496400</v>
